--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="831">
   <si>
     <t>Term</t>
   </si>
@@ -1906,15 +1906,6 @@
     <t>Information about personal possessions.</t>
   </si>
   <si>
-    <t>PhysicalAddress</t>
-  </si>
-  <si>
-    <t>Physical Address</t>
-  </si>
-  <si>
-    <t>Information about physical address.</t>
-  </si>
-  <si>
     <t>PhysicalCharacteristic</t>
   </si>
   <si>
@@ -2111,15 +2102,6 @@
   </si>
   <si>
     <t>Information about retina and the retinal patterns.</t>
-  </si>
-  <si>
-    <t>RoomNumber</t>
-  </si>
-  <si>
-    <t>Room Number</t>
-  </si>
-  <si>
-    <t>Information about location expressed as Room number or similar numbering systems</t>
   </si>
   <si>
     <t>Salary</t>
@@ -2445,19 +2427,43 @@
     <t>Citizenship</t>
   </si>
   <si>
+    <t>Information about citizenship</t>
+  </si>
+  <si>
     <t>Residency</t>
   </si>
   <si>
+    <t>Information about residency e.g. which region or country a person is resident in</t>
+  </si>
+  <si>
+    <t>dpv:Location</t>
+  </si>
+  <si>
     <t>Domicile</t>
   </si>
   <si>
+    <t>Information about domicile status e.g. which region or country a person is domiciled in</t>
+  </si>
+  <si>
     <t>PlaceOfBirth</t>
   </si>
   <si>
+    <t>Place Of Birth</t>
+  </si>
+  <si>
+    <t>Information about place of birth</t>
+  </si>
+  <si>
     <t>CountryOfBirth</t>
   </si>
   <si>
-    <t>IdentityDocument</t>
+    <t>Country Of Birth</t>
+  </si>
+  <si>
+    <t>Information about country of birth</t>
+  </si>
+  <si>
+    <t>dpv:Country</t>
   </si>
   <si>
     <t>Special Categories</t>
@@ -2569,6 +2575,84 @@
   </si>
   <si>
     <t>pd:GroupMembership,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>PhysicalAddress</t>
+  </si>
+  <si>
+    <t>Physical Address</t>
+  </si>
+  <si>
+    <t>Information about physical address.</t>
+  </si>
+  <si>
+    <t>pd:Contact,pd:Location</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Elmar Kiesling; Harshvardhan J. Pandit, Fajar Ekaputra, Beatriz Esteves</t>
+  </si>
+  <si>
+    <t>Information about country as a location</t>
+  </si>
+  <si>
+    <t>pd:PhysicalAddress</t>
+  </si>
+  <si>
+    <t>Beatriz Esteves</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Information about region as a location</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Information about city as a location</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Information about street as a location</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Information about postal code as a location</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Information about locality e.g. city, village, town, portion of a city as a location</t>
+  </si>
+  <si>
+    <t>HouseNumber</t>
+  </si>
+  <si>
+    <t>House Number</t>
+  </si>
+  <si>
+    <t>Information about house or apartment number as a location</t>
+  </si>
+  <si>
+    <t>RoomNumber</t>
+  </si>
+  <si>
+    <t>Room Number</t>
+  </si>
+  <si>
+    <t>Information about location expressed as Room number or similar numbering systems</t>
   </si>
   <si>
     <t>dpv:SpecialCategoryPersonalData</t>
@@ -2581,7 +2665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2712,12 +2796,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2795,7 +2873,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2966,7 +3044,6 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -20274,10 +20351,6 @@
       <c r="E105" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
       <c r="J105" s="29" t="s">
         <v>162</v>
       </c>
@@ -20296,19 +20369,6 @@
       <c r="O105" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-      <c r="Z105" s="12"/>
-      <c r="AA105" s="12"/>
-      <c r="AB105" s="12"/>
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
@@ -21556,65 +21616,15 @@
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
     </row>
-    <row r="131">
-      <c r="A131" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K131" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L131" s="12"/>
-      <c r="M131" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N131" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O131" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="P131" s="12"/>
-      <c r="Q131" s="12"/>
-      <c r="R131" s="12"/>
-      <c r="S131" s="12"/>
-      <c r="T131" s="12"/>
-      <c r="U131" s="12"/>
-      <c r="V131" s="12"/>
-      <c r="W131" s="12"/>
-      <c r="X131" s="12"/>
-      <c r="Y131" s="12"/>
-      <c r="Z131" s="12"/>
-      <c r="AA131" s="12"/>
-      <c r="AB131" s="12"/>
-    </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>224</v>
@@ -21624,7 +21634,7 @@
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -21660,13 +21670,13 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>449</v>
@@ -21710,13 +21720,13 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>453</v>
@@ -21760,13 +21770,13 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>540</v>
@@ -21810,13 +21820,13 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>192</v>
@@ -21860,13 +21870,13 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>560</v>
@@ -21910,13 +21920,13 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>213</v>
@@ -21926,7 +21936,7 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -21962,13 +21972,13 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>236</v>
@@ -22012,13 +22022,13 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>413</v>
@@ -22062,13 +22072,13 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>426</v>
@@ -22112,13 +22122,13 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>265</v>
@@ -22162,13 +22172,13 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>355</v>
@@ -22212,13 +22222,13 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>355</v>
@@ -22262,13 +22272,13 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>355</v>
@@ -22312,16 +22322,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>628</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>631</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>52</v>
@@ -22331,12 +22341,16 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
-      <c r="K146" s="42"/>
+      <c r="K146" s="42">
+        <v>45402.0</v>
+      </c>
       <c r="L146" s="12"/>
       <c r="M146" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N146" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="N146" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="O146" s="30"/>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
@@ -22354,16 +22368,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>52</v>
@@ -22373,12 +22387,16 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="19"/>
-      <c r="K147" s="13"/>
+      <c r="K147" s="13">
+        <v>45402.0</v>
+      </c>
       <c r="L147" s="12"/>
       <c r="M147" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N147" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="N147" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="O147" s="10"/>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
@@ -22396,13 +22414,13 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>265</v>
@@ -22446,16 +22464,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>638</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>641</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>52</v>
@@ -22494,13 +22512,13 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>280</v>
@@ -22510,7 +22528,7 @@
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -22546,13 +22564,13 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>280</v>
@@ -22596,13 +22614,13 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>355</v>
@@ -22646,13 +22664,13 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>410</v>
@@ -22696,13 +22714,13 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>210</v>
@@ -22744,13 +22762,13 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>400</v>
@@ -22794,16 +22812,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>52</v>
@@ -22844,16 +22862,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>52</v>
@@ -22894,16 +22912,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>52</v>
@@ -22944,16 +22962,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>355</v>
+        <v>560</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>52</v>
@@ -22994,16 +23012,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>666</v>
+        <v>662</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>663</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>52</v>
@@ -23012,21 +23030,21 @@
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
-      <c r="J160" s="29" t="s">
-        <v>162</v>
+      <c r="J160" s="16" t="s">
+        <v>665</v>
       </c>
       <c r="K160" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L160" s="12"/>
       <c r="M160" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>96</v>
+        <v>666</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>163</v>
+        <v>667</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23046,14 +23064,14 @@
       <c r="A161" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="25" t="s">
         <v>669</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>670</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>210</v>
+        <v>426</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>52</v>
@@ -23062,21 +23080,21 @@
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="16" t="s">
-        <v>671</v>
+      <c r="J161" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="K161" s="13">
-        <v>43795.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L161" s="12"/>
       <c r="M161" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>672</v>
+        <v>96</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>673</v>
+        <v>163</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23094,13 +23112,13 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>426</v>
@@ -23144,16 +23162,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>675</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>52</v>
@@ -23194,16 +23212,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="C164" s="46" t="s">
-        <v>681</v>
+        <v>677</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>678</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>52</v>
@@ -23244,22 +23262,24 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>681</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>192</v>
+        <v>391</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
+      <c r="G165" s="12" t="s">
+        <v>682</v>
+      </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="29" t="s">
@@ -23294,13 +23314,13 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>685</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="C166" s="46" t="s">
-        <v>687</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>391</v>
@@ -23309,26 +23329,22 @@
         <v>52</v>
       </c>
       <c r="F166" s="12"/>
-      <c r="G166" s="12" t="s">
-        <v>688</v>
-      </c>
+      <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
-      <c r="J166" s="29" t="s">
-        <v>162</v>
-      </c>
+      <c r="J166" s="12"/>
       <c r="K166" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L166" s="12"/>
-      <c r="M166" s="10" t="s">
+      <c r="M166" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23346,16 +23362,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>690</v>
+        <v>686</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>687</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>52</v>
@@ -23364,19 +23380,21 @@
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
+      <c r="J167" s="29" t="s">
+        <v>162</v>
+      </c>
       <c r="K167" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L167" s="12"/>
-      <c r="M167" s="30" t="s">
+      <c r="M167" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23394,16 +23412,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>52</v>
@@ -23444,16 +23462,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>52</v>
@@ -23494,16 +23512,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>52</v>
@@ -23544,16 +23562,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>52</v>
@@ -23569,7 +23587,7 @@
         <v>43620.0</v>
       </c>
       <c r="L171" s="12"/>
-      <c r="M171" s="10" t="s">
+      <c r="M171" s="21" t="s">
         <v>19</v>
       </c>
       <c r="N171" s="10" t="s">
@@ -23593,17 +23611,17 @@
       <c r="AB171" s="12"/>
     </row>
     <row r="172">
-      <c r="A172" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>703</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>704</v>
+      <c r="A172" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="B172" s="57" t="s">
+        <v>699</v>
+      </c>
+      <c r="C172" s="45" t="s">
+        <v>700</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>380</v>
+        <v>701</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>52</v>
@@ -23619,7 +23637,7 @@
         <v>43620.0</v>
       </c>
       <c r="L172" s="12"/>
-      <c r="M172" s="21" t="s">
+      <c r="M172" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N172" s="10" t="s">
@@ -23643,17 +23661,17 @@
       <c r="AB172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="46" t="s">
-        <v>705</v>
-      </c>
-      <c r="B173" s="57" t="s">
-        <v>705</v>
-      </c>
-      <c r="C173" s="45" t="s">
-        <v>706</v>
+      <c r="A173" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>703</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>707</v>
+        <v>280</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>52</v>
@@ -23694,16 +23712,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>708</v>
+        <v>704</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>704</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>52</v>
@@ -23744,16 +23762,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>710</v>
+        <v>706</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>430</v>
+        <v>232</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>52</v>
@@ -23762,21 +23780,19 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="29" t="s">
-        <v>162</v>
-      </c>
+      <c r="J175" s="19"/>
       <c r="K175" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23794,16 +23810,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D176" s="10" t="s">
         <v>712</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>52</v>
@@ -23812,19 +23828,21 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="19"/>
+      <c r="J176" s="16" t="s">
+        <v>713</v>
+      </c>
       <c r="K176" s="13">
-        <v>44671.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>20</v>
+        <v>666</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>197</v>
+        <v>667</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -23842,39 +23860,41 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>717</v>
-      </c>
       <c r="D177" s="10" t="s">
-        <v>718</v>
+        <v>540</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10" t="s">
+        <v>716</v>
+      </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
-      <c r="J177" s="16" t="s">
-        <v>719</v>
+      <c r="J177" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="K177" s="13">
-        <v>43795.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L177" s="12"/>
       <c r="M177" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>672</v>
+        <v>96</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>673</v>
+        <v>163</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -23892,116 +23912,114 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="B178" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>540</v>
+        <v>717</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C178" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K178" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L178" s="12"/>
-      <c r="M178" s="10" t="s">
+      <c r="F178" s="59"/>
+      <c r="G178" s="59"/>
+      <c r="H178" s="59"/>
+      <c r="I178" s="59"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="42">
+        <v>44727.0</v>
+      </c>
+      <c r="L178" s="42"/>
+      <c r="M178" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N178" s="10" t="s">
-        <v>96</v>
+      <c r="N178" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="P178" s="12"/>
-      <c r="Q178" s="12"/>
-      <c r="R178" s="12"/>
-      <c r="S178" s="12"/>
-      <c r="T178" s="12"/>
-      <c r="U178" s="12"/>
-      <c r="V178" s="12"/>
-      <c r="W178" s="12"/>
-      <c r="X178" s="12"/>
-      <c r="Y178" s="12"/>
-      <c r="Z178" s="12"/>
-      <c r="AA178" s="12"/>
-      <c r="AB178" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="P178" s="59"/>
+      <c r="Q178" s="59"/>
+      <c r="R178" s="59"/>
+      <c r="S178" s="59"/>
+      <c r="T178" s="59"/>
+      <c r="U178" s="59"/>
+      <c r="V178" s="59"/>
+      <c r="W178" s="59"/>
+      <c r="X178" s="59"/>
+      <c r="Y178" s="59"/>
+      <c r="Z178" s="59"/>
+      <c r="AA178" s="59"/>
+      <c r="AB178" s="59"/>
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B179" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="C179" s="58" t="s">
-        <v>725</v>
-      </c>
-      <c r="D179" s="30" t="s">
-        <v>274</v>
+        <v>720</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>540</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F179" s="59"/>
-      <c r="G179" s="59"/>
-      <c r="H179" s="59"/>
-      <c r="I179" s="59"/>
-      <c r="J179" s="30"/>
-      <c r="K179" s="42">
-        <v>44727.0</v>
-      </c>
-      <c r="L179" s="42"/>
-      <c r="M179" s="30" t="s">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K179" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L179" s="12"/>
+      <c r="M179" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N179" s="30" t="s">
-        <v>106</v>
+      <c r="N179" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="P179" s="59"/>
-      <c r="Q179" s="59"/>
-      <c r="R179" s="59"/>
-      <c r="S179" s="59"/>
-      <c r="T179" s="59"/>
-      <c r="U179" s="59"/>
-      <c r="V179" s="59"/>
-      <c r="W179" s="59"/>
-      <c r="X179" s="59"/>
-      <c r="Y179" s="59"/>
-      <c r="Z179" s="59"/>
-      <c r="AA179" s="59"/>
-      <c r="AB179" s="59"/>
+        <v>163</v>
+      </c>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="12"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="12"/>
+      <c r="W179" s="12"/>
+      <c r="X179" s="12"/>
+      <c r="Y179" s="12"/>
+      <c r="Z179" s="12"/>
+      <c r="AA179" s="12"/>
+      <c r="AB179" s="12"/>
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="B180" s="25" t="s">
-        <v>726</v>
+        <v>722</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>723</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>540</v>
+        <v>725</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>52</v>
@@ -24010,21 +24028,19 @@
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
-      <c r="J180" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K180" s="13">
-        <v>43620.0</v>
+      <c r="J180" s="12"/>
+      <c r="K180" s="42">
+        <v>44727.0</v>
       </c>
       <c r="L180" s="12"/>
-      <c r="M180" s="10" t="s">
+      <c r="M180" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24042,16 +24058,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>730</v>
-      </c>
       <c r="D181" s="10" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>52</v>
@@ -24061,7 +24077,7 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
-      <c r="K181" s="42">
+      <c r="K181" s="13">
         <v>44727.0</v>
       </c>
       <c r="L181" s="12"/>
@@ -24090,16 +24106,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>731</v>
+        <v>224</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>52</v>
@@ -24138,16 +24154,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>224</v>
+        <v>734</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>52</v>
@@ -24186,16 +24202,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="D184" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>740</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>52</v>
@@ -24205,7 +24221,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
-      <c r="K184" s="13">
+      <c r="K184" s="42">
         <v>44727.0</v>
       </c>
       <c r="L184" s="12"/>
@@ -24234,16 +24250,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="C185" s="46" t="s">
         <v>741</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>743</v>
-      </c>
       <c r="D185" s="10" t="s">
-        <v>744</v>
+        <v>391</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>52</v>
@@ -24251,20 +24267,22 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="42">
-        <v>44727.0</v>
+      <c r="I185" s="28"/>
+      <c r="J185" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K185" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L185" s="12"/>
-      <c r="M185" s="30" t="s">
+      <c r="M185" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24282,13 +24300,13 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="C186" s="46" t="s">
-        <v>747</v>
+        <v>743</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>744</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>391</v>
@@ -24299,7 +24317,7 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
-      <c r="I186" s="28"/>
+      <c r="I186" s="12"/>
       <c r="J186" s="29" t="s">
         <v>162</v>
       </c>
@@ -24332,16 +24350,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>391</v>
+        <v>192</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>52</v>
@@ -24382,16 +24400,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="B188" s="25" t="s">
-        <v>751</v>
+        <v>747</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>748</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>192</v>
+        <v>355</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>52</v>
@@ -24400,21 +24418,19 @@
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
-      <c r="J188" s="29" t="s">
-        <v>162</v>
-      </c>
+      <c r="J188" s="12"/>
       <c r="K188" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L188" s="12"/>
-      <c r="M188" s="10" t="s">
+      <c r="M188" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24432,13 +24448,13 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>751</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>355</v>
@@ -24450,19 +24466,21 @@
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
+      <c r="J189" s="29" t="s">
+        <v>162</v>
+      </c>
       <c r="K189" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L189" s="12"/>
-      <c r="M189" s="30" t="s">
+      <c r="M189" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24479,78 +24497,86 @@
       <c r="AB189" s="12"/>
     </row>
     <row r="190">
-      <c r="A190" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B190" s="25" t="s">
-        <v>757</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E190" s="9" t="s">
+      <c r="B190" s="23"/>
+      <c r="E190" s="43"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E191" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K190" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L190" s="12"/>
-      <c r="M190" s="10" t="s">
+      <c r="F191" s="59"/>
+      <c r="G191" s="59"/>
+      <c r="H191" s="59"/>
+      <c r="I191" s="59"/>
+      <c r="J191" s="59"/>
+      <c r="K191" s="42">
+        <v>45402.0</v>
+      </c>
+      <c r="L191" s="42"/>
+      <c r="M191" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N190" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O190" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="P190" s="12"/>
-      <c r="Q190" s="12"/>
-      <c r="R190" s="12"/>
-      <c r="S190" s="12"/>
-      <c r="T190" s="12"/>
-      <c r="U190" s="12"/>
-      <c r="V190" s="12"/>
-      <c r="W190" s="12"/>
-      <c r="X190" s="12"/>
-      <c r="Y190" s="12"/>
-      <c r="Z190" s="12"/>
-      <c r="AA190" s="12"/>
-      <c r="AB190" s="12"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="23"/>
-      <c r="E191" s="43"/>
+      <c r="N191" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O191" s="59"/>
+      <c r="P191" s="59"/>
+      <c r="Q191" s="59"/>
+      <c r="R191" s="59"/>
+      <c r="S191" s="59"/>
+      <c r="T191" s="59"/>
+      <c r="U191" s="59"/>
+      <c r="V191" s="59"/>
+      <c r="W191" s="59"/>
+      <c r="X191" s="59"/>
+      <c r="Y191" s="59"/>
+      <c r="Z191" s="59"/>
+      <c r="AA191" s="59"/>
+      <c r="AB191" s="59"/>
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="B192" s="58"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="59"/>
-      <c r="E192" s="60"/>
+        <v>755</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C192" s="60" t="s">
+        <v>756</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F192" s="59"/>
       <c r="G192" s="59"/>
       <c r="H192" s="59"/>
       <c r="I192" s="59"/>
       <c r="J192" s="59"/>
-      <c r="K192" s="42"/>
+      <c r="K192" s="42">
+        <v>45402.0</v>
+      </c>
       <c r="L192" s="42"/>
       <c r="M192" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N192" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="N192" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="O192" s="59"/>
       <c r="P192" s="59"/>
       <c r="Q192" s="59"/>
@@ -24568,23 +24594,35 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="59"/>
-      <c r="E193" s="60"/>
+        <v>758</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C193" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="D193" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F193" s="59"/>
       <c r="G193" s="59"/>
       <c r="H193" s="59"/>
       <c r="I193" s="59"/>
       <c r="J193" s="59"/>
-      <c r="K193" s="42"/>
+      <c r="K193" s="42">
+        <v>45402.0</v>
+      </c>
       <c r="L193" s="42"/>
       <c r="M193" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N193" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="N193" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="O193" s="59"/>
       <c r="P193" s="59"/>
       <c r="Q193" s="59"/>
@@ -24602,57 +24640,81 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B194" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="B194" s="61"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="59"/>
-      <c r="E194" s="60"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="59"/>
-      <c r="H194" s="59"/>
-      <c r="I194" s="59"/>
-      <c r="J194" s="59"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="42"/>
+      <c r="C194" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="42">
+        <v>45402.0</v>
+      </c>
+      <c r="L194" s="12"/>
       <c r="M194" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N194" s="30"/>
-      <c r="O194" s="59"/>
-      <c r="P194" s="59"/>
-      <c r="Q194" s="59"/>
-      <c r="R194" s="59"/>
-      <c r="S194" s="59"/>
-      <c r="T194" s="59"/>
-      <c r="U194" s="59"/>
-      <c r="V194" s="59"/>
-      <c r="W194" s="59"/>
-      <c r="X194" s="59"/>
-      <c r="Y194" s="59"/>
-      <c r="Z194" s="59"/>
-      <c r="AA194" s="59"/>
-      <c r="AB194" s="59"/>
+        <v>19</v>
+      </c>
+      <c r="N194" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="12"/>
+      <c r="T194" s="12"/>
+      <c r="U194" s="12"/>
+      <c r="V194" s="12"/>
+      <c r="W194" s="12"/>
+      <c r="X194" s="12"/>
+      <c r="Y194" s="12"/>
+      <c r="Z194" s="12"/>
+      <c r="AA194" s="12"/>
+      <c r="AB194" s="12"/>
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="B195" s="23"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="43"/>
+        <v>763</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
-      <c r="K195" s="12"/>
+      <c r="K195" s="42">
+        <v>45402.0</v>
+      </c>
       <c r="L195" s="12"/>
-      <c r="M195" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N195" s="12"/>
+      <c r="M195" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N195" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="O195" s="12"/>
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
@@ -24669,73 +24731,178 @@
       <c r="AB195" s="12"/>
     </row>
     <row r="196">
-      <c r="A196" s="10" t="s">
-        <v>763</v>
-      </c>
       <c r="B196" s="23"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
       <c r="E196" s="43"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
-      <c r="M196" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N196" s="12"/>
-      <c r="O196" s="12"/>
-      <c r="P196" s="12"/>
-      <c r="Q196" s="12"/>
-      <c r="R196" s="12"/>
-      <c r="S196" s="12"/>
-      <c r="T196" s="12"/>
-      <c r="U196" s="12"/>
-      <c r="V196" s="12"/>
-      <c r="W196" s="12"/>
-      <c r="X196" s="12"/>
-      <c r="Y196" s="12"/>
-      <c r="Z196" s="12"/>
-      <c r="AA196" s="12"/>
-      <c r="AB196" s="12"/>
     </row>
     <row r="197">
+      <c r="A197" s="9" t="s">
+        <v>767</v>
+      </c>
       <c r="B197" s="23"/>
       <c r="E197" s="43"/>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="B198" s="23"/>
-      <c r="E198" s="43"/>
+        <v>768</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K198" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L198" s="12"/>
+      <c r="M198" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N198" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="12"/>
+      <c r="T198" s="12"/>
+      <c r="U198" s="12"/>
+      <c r="V198" s="12"/>
+      <c r="W198" s="12"/>
+      <c r="X198" s="12"/>
+      <c r="Y198" s="12"/>
+      <c r="Z198" s="12"/>
+      <c r="AA198" s="12"/>
+      <c r="AB198" s="12"/>
     </row>
     <row r="199">
-      <c r="B199" s="23"/>
-      <c r="E199" s="43"/>
+      <c r="A199" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K199" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L199" s="12"/>
+      <c r="M199" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N199" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O199" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="12"/>
+      <c r="T199" s="12"/>
+      <c r="U199" s="12"/>
+      <c r="V199" s="12"/>
+      <c r="W199" s="12"/>
+      <c r="X199" s="12"/>
+      <c r="Y199" s="12"/>
+      <c r="Z199" s="12"/>
+      <c r="AA199" s="12"/>
+      <c r="AB199" s="12"/>
     </row>
     <row r="200">
-      <c r="A200" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="B200" s="23"/>
-      <c r="E200" s="43"/>
+      <c r="A200" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K200" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L200" s="12"/>
+      <c r="M200" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N200" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O200" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="12"/>
+      <c r="T200" s="12"/>
+      <c r="U200" s="12"/>
+      <c r="V200" s="12"/>
+      <c r="W200" s="12"/>
+      <c r="X200" s="12"/>
+      <c r="Y200" s="12"/>
+      <c r="Z200" s="12"/>
+      <c r="AA200" s="12"/>
+      <c r="AB200" s="12"/>
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>52</v>
@@ -24776,22 +24943,24 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
+      <c r="G202" s="12" t="s">
+        <v>787</v>
+      </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="29" t="s">
@@ -24826,16 +24995,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>52</v>
@@ -24844,21 +25013,19 @@
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
-      <c r="J203" s="29" t="s">
-        <v>162</v>
-      </c>
+      <c r="J203" s="19"/>
       <c r="K203" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L203" s="12"/>
       <c r="M203" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -24876,16 +25043,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>52</v>
@@ -24926,24 +25093,22 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F205" s="12"/>
-      <c r="G205" s="12" t="s">
-        <v>785</v>
-      </c>
+      <c r="G205" s="12"/>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="29" t="s">
@@ -24978,16 +25143,16 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>787</v>
+        <v>795</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>796</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>52</v>
@@ -24996,19 +25161,21 @@
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
-      <c r="J206" s="19"/>
+      <c r="J206" s="29" t="s">
+        <v>162</v>
+      </c>
       <c r="K206" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L206" s="12"/>
       <c r="M206" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N206" s="10" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25026,16 +25193,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>52</v>
@@ -25076,16 +25243,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="B208" s="25" t="s">
-        <v>791</v>
+        <v>800</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>801</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>52</v>
@@ -25094,21 +25261,19 @@
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
-      <c r="J208" s="29" t="s">
-        <v>162</v>
-      </c>
+      <c r="J208" s="19"/>
       <c r="K208" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L208" s="12"/>
       <c r="M208" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N208" s="10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25125,67 +25290,29 @@
       <c r="AB208" s="12"/>
     </row>
     <row r="209">
-      <c r="A209" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="B209" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
-      <c r="J209" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="K209" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L209" s="12"/>
-      <c r="M209" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N209" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O209" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="P209" s="12"/>
-      <c r="Q209" s="12"/>
-      <c r="R209" s="12"/>
-      <c r="S209" s="12"/>
-      <c r="T209" s="12"/>
-      <c r="U209" s="12"/>
-      <c r="V209" s="12"/>
-      <c r="W209" s="12"/>
-      <c r="X209" s="12"/>
-      <c r="Y209" s="12"/>
-      <c r="Z209" s="12"/>
-      <c r="AA209" s="12"/>
-      <c r="AB209" s="12"/>
+      <c r="A209" s="10"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="9"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="13"/>
+      <c r="M209" s="10"/>
+      <c r="N209" s="10"/>
+      <c r="O209" s="10"/>
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>52</v>
@@ -25200,12 +25327,14 @@
       <c r="K210" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L210" s="12"/>
+      <c r="L210" s="13">
+        <v>45402.0</v>
+      </c>
       <c r="M210" s="10" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="N210" s="10" t="s">
-        <v>96</v>
+        <v>809</v>
       </c>
       <c r="O210" s="14" t="s">
         <v>163</v>
@@ -25226,38 +25355,34 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>799</v>
+        <v>276</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="E211" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="E211" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="13">
-        <v>44699.0</v>
-      </c>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
       <c r="L211" s="12"/>
       <c r="M211" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N211" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O211" s="14" t="s">
-        <v>450</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="O211" s="12"/>
       <c r="P211" s="12"/>
       <c r="Q211" s="12"/>
       <c r="R211" s="12"/>
@@ -25273,25 +25398,320 @@
       <c r="AB211" s="12"/>
     </row>
     <row r="212">
-      <c r="B212" s="23"/>
+      <c r="A212" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N212" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O212" s="12"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="12"/>
+      <c r="S212" s="12"/>
+      <c r="T212" s="12"/>
+      <c r="U212" s="12"/>
+      <c r="V212" s="12"/>
+      <c r="W212" s="12"/>
+      <c r="X212" s="12"/>
+      <c r="Y212" s="12"/>
+      <c r="Z212" s="12"/>
+      <c r="AA212" s="12"/>
+      <c r="AB212" s="12"/>
     </row>
     <row r="213">
-      <c r="B213" s="23"/>
+      <c r="A213" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N213" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O213" s="12"/>
+      <c r="P213" s="12"/>
+      <c r="Q213" s="12"/>
+      <c r="R213" s="12"/>
+      <c r="S213" s="12"/>
+      <c r="T213" s="12"/>
+      <c r="U213" s="12"/>
+      <c r="V213" s="12"/>
+      <c r="W213" s="12"/>
+      <c r="X213" s="12"/>
+      <c r="Y213" s="12"/>
+      <c r="Z213" s="12"/>
+      <c r="AA213" s="12"/>
+      <c r="AB213" s="12"/>
     </row>
     <row r="214">
-      <c r="B214" s="23"/>
+      <c r="A214" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N214" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O214" s="12"/>
+      <c r="P214" s="12"/>
+      <c r="Q214" s="12"/>
+      <c r="R214" s="12"/>
+      <c r="S214" s="12"/>
+      <c r="T214" s="12"/>
+      <c r="U214" s="12"/>
+      <c r="V214" s="12"/>
+      <c r="W214" s="12"/>
+      <c r="X214" s="12"/>
+      <c r="Y214" s="12"/>
+      <c r="Z214" s="12"/>
+      <c r="AA214" s="12"/>
+      <c r="AB214" s="12"/>
     </row>
     <row r="215">
-      <c r="B215" s="23"/>
+      <c r="A215" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+      <c r="M215" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N215" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O215" s="12"/>
+      <c r="P215" s="12"/>
+      <c r="Q215" s="12"/>
+      <c r="R215" s="12"/>
+      <c r="S215" s="12"/>
+      <c r="T215" s="12"/>
+      <c r="U215" s="12"/>
+      <c r="V215" s="12"/>
+      <c r="W215" s="12"/>
+      <c r="X215" s="12"/>
+      <c r="Y215" s="12"/>
+      <c r="Z215" s="12"/>
+      <c r="AA215" s="12"/>
+      <c r="AB215" s="12"/>
     </row>
     <row r="216">
-      <c r="B216" s="23"/>
+      <c r="A216" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N216" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O216" s="12"/>
+      <c r="P216" s="12"/>
+      <c r="Q216" s="12"/>
+      <c r="R216" s="12"/>
+      <c r="S216" s="12"/>
+      <c r="T216" s="12"/>
+      <c r="U216" s="12"/>
+      <c r="V216" s="12"/>
+      <c r="W216" s="12"/>
+      <c r="X216" s="12"/>
+      <c r="Y216" s="12"/>
+      <c r="Z216" s="12"/>
+      <c r="AA216" s="12"/>
+      <c r="AB216" s="12"/>
     </row>
     <row r="217">
-      <c r="B217" s="23"/>
+      <c r="A217" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N217" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="O217" s="12"/>
+      <c r="P217" s="12"/>
+      <c r="Q217" s="12"/>
+      <c r="R217" s="12"/>
+      <c r="S217" s="12"/>
+      <c r="T217" s="12"/>
+      <c r="U217" s="12"/>
+      <c r="V217" s="12"/>
+      <c r="W217" s="12"/>
+      <c r="X217" s="12"/>
+      <c r="Y217" s="12"/>
+      <c r="Z217" s="12"/>
+      <c r="AA217" s="12"/>
+      <c r="AB217" s="12"/>
     </row>
     <row r="218">
-      <c r="B218" s="23"/>
+      <c r="A218" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="K218" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L218" s="13">
+        <v>45402.0</v>
+      </c>
+      <c r="M218" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="N218" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="O218" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P218" s="12"/>
+      <c r="Q218" s="12"/>
+      <c r="R218" s="12"/>
+      <c r="S218" s="12"/>
+      <c r="T218" s="12"/>
+      <c r="U218" s="12"/>
+      <c r="V218" s="12"/>
+      <c r="W218" s="12"/>
+      <c r="X218" s="12"/>
+      <c r="Y218" s="12"/>
+      <c r="Z218" s="12"/>
+      <c r="AA218" s="12"/>
+      <c r="AB218" s="12"/>
     </row>
     <row r="219">
       <c r="B219" s="23"/>
@@ -27765,26 +28185,20 @@
     <row r="1042">
       <c r="B1042" s="23"/>
     </row>
-    <row r="1043">
-      <c r="B1043" s="23"/>
-    </row>
-    <row r="1044">
-      <c r="B1044" s="23"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB994">
+  <conditionalFormatting sqref="A2:AB992">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB994">
+  <conditionalFormatting sqref="A2:AB992">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB994">
+  <conditionalFormatting sqref="A2:AB992">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$M2="changed"</formula>
+      <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -28022,131 +28436,131 @@
     <hyperlink r:id="rId232" ref="O129"/>
     <hyperlink r:id="rId233" ref="J130"/>
     <hyperlink r:id="rId234" ref="O130"/>
-    <hyperlink r:id="rId235" ref="J131"/>
-    <hyperlink r:id="rId236" ref="O131"/>
-    <hyperlink r:id="rId237" ref="J132"/>
-    <hyperlink r:id="rId238" ref="O132"/>
-    <hyperlink r:id="rId239" ref="J133"/>
-    <hyperlink r:id="rId240" ref="O133"/>
-    <hyperlink r:id="rId241" ref="J134"/>
-    <hyperlink r:id="rId242" ref="O134"/>
-    <hyperlink r:id="rId243" ref="J135"/>
-    <hyperlink r:id="rId244" ref="O135"/>
-    <hyperlink r:id="rId245" ref="J136"/>
-    <hyperlink r:id="rId246" ref="O136"/>
-    <hyperlink r:id="rId247" ref="J137"/>
-    <hyperlink r:id="rId248" ref="O137"/>
-    <hyperlink r:id="rId249" ref="J138"/>
-    <hyperlink r:id="rId250" ref="O138"/>
-    <hyperlink r:id="rId251" ref="J139"/>
-    <hyperlink r:id="rId252" ref="O139"/>
-    <hyperlink r:id="rId253" ref="J140"/>
-    <hyperlink r:id="rId254" ref="O140"/>
-    <hyperlink r:id="rId255" ref="J141"/>
-    <hyperlink r:id="rId256" ref="O141"/>
-    <hyperlink r:id="rId257" ref="J142"/>
-    <hyperlink r:id="rId258" ref="O142"/>
-    <hyperlink r:id="rId259" ref="J143"/>
-    <hyperlink r:id="rId260" ref="O143"/>
-    <hyperlink r:id="rId261" ref="J144"/>
-    <hyperlink r:id="rId262" ref="O144"/>
-    <hyperlink r:id="rId263" ref="J145"/>
-    <hyperlink r:id="rId264" ref="O145"/>
-    <hyperlink r:id="rId265" ref="J148"/>
-    <hyperlink r:id="rId266" ref="O148"/>
-    <hyperlink r:id="rId267" ref="O149"/>
-    <hyperlink r:id="rId268" ref="J150"/>
-    <hyperlink r:id="rId269" ref="O150"/>
-    <hyperlink r:id="rId270" ref="J151"/>
-    <hyperlink r:id="rId271" ref="O151"/>
-    <hyperlink r:id="rId272" ref="J152"/>
-    <hyperlink r:id="rId273" ref="O152"/>
-    <hyperlink r:id="rId274" ref="J153"/>
-    <hyperlink r:id="rId275" ref="O153"/>
-    <hyperlink r:id="rId276" ref="O154"/>
-    <hyperlink r:id="rId277" ref="J155"/>
-    <hyperlink r:id="rId278" ref="O155"/>
-    <hyperlink r:id="rId279" ref="J156"/>
-    <hyperlink r:id="rId280" ref="O156"/>
-    <hyperlink r:id="rId281" ref="J157"/>
-    <hyperlink r:id="rId282" ref="O157"/>
-    <hyperlink r:id="rId283" ref="J158"/>
-    <hyperlink r:id="rId284" ref="O158"/>
-    <hyperlink r:id="rId285" ref="J159"/>
-    <hyperlink r:id="rId286" ref="O159"/>
-    <hyperlink r:id="rId287" ref="J160"/>
-    <hyperlink r:id="rId288" ref="O160"/>
-    <hyperlink r:id="rId289" ref="J161"/>
-    <hyperlink r:id="rId290" ref="O161"/>
-    <hyperlink r:id="rId291" ref="J162"/>
-    <hyperlink r:id="rId292" ref="O162"/>
-    <hyperlink r:id="rId293" ref="J163"/>
-    <hyperlink r:id="rId294" ref="O163"/>
-    <hyperlink r:id="rId295" ref="J164"/>
-    <hyperlink r:id="rId296" ref="O164"/>
-    <hyperlink r:id="rId297" ref="J165"/>
-    <hyperlink r:id="rId298" ref="O165"/>
-    <hyperlink r:id="rId299" ref="J166"/>
-    <hyperlink r:id="rId300" ref="O166"/>
-    <hyperlink r:id="rId301" ref="O167"/>
-    <hyperlink r:id="rId302" ref="J168"/>
-    <hyperlink r:id="rId303" ref="O168"/>
-    <hyperlink r:id="rId304" ref="J169"/>
-    <hyperlink r:id="rId305" ref="O169"/>
-    <hyperlink r:id="rId306" ref="J170"/>
-    <hyperlink r:id="rId307" ref="O170"/>
-    <hyperlink r:id="rId308" ref="J171"/>
-    <hyperlink r:id="rId309" ref="O171"/>
-    <hyperlink r:id="rId310" ref="J172"/>
-    <hyperlink r:id="rId311" ref="O172"/>
-    <hyperlink r:id="rId312" ref="J173"/>
-    <hyperlink r:id="rId313" ref="O173"/>
-    <hyperlink r:id="rId314" ref="J174"/>
-    <hyperlink r:id="rId315" ref="O174"/>
-    <hyperlink r:id="rId316" ref="J175"/>
-    <hyperlink r:id="rId317" ref="O175"/>
-    <hyperlink r:id="rId318" ref="O176"/>
-    <hyperlink r:id="rId319" ref="J177"/>
-    <hyperlink r:id="rId320" ref="O177"/>
-    <hyperlink r:id="rId321" ref="J178"/>
-    <hyperlink r:id="rId322" ref="O178"/>
-    <hyperlink r:id="rId323" ref="O179"/>
-    <hyperlink r:id="rId324" ref="J180"/>
-    <hyperlink r:id="rId325" ref="O180"/>
-    <hyperlink r:id="rId326" ref="O181"/>
-    <hyperlink r:id="rId327" ref="O182"/>
-    <hyperlink r:id="rId328" ref="O183"/>
-    <hyperlink r:id="rId329" ref="O184"/>
-    <hyperlink r:id="rId330" ref="O185"/>
-    <hyperlink r:id="rId331" ref="J186"/>
-    <hyperlink r:id="rId332" ref="O186"/>
-    <hyperlink r:id="rId333" ref="J187"/>
-    <hyperlink r:id="rId334" ref="O187"/>
-    <hyperlink r:id="rId335" ref="J188"/>
-    <hyperlink r:id="rId336" ref="O188"/>
-    <hyperlink r:id="rId337" ref="O189"/>
-    <hyperlink r:id="rId338" ref="J190"/>
-    <hyperlink r:id="rId339" ref="O190"/>
-    <hyperlink r:id="rId340" ref="J201"/>
-    <hyperlink r:id="rId341" ref="O201"/>
-    <hyperlink r:id="rId342" ref="J202"/>
-    <hyperlink r:id="rId343" ref="O202"/>
-    <hyperlink r:id="rId344" ref="J203"/>
-    <hyperlink r:id="rId345" ref="O203"/>
-    <hyperlink r:id="rId346" ref="J204"/>
-    <hyperlink r:id="rId347" ref="O204"/>
-    <hyperlink r:id="rId348" ref="J205"/>
-    <hyperlink r:id="rId349" ref="O205"/>
-    <hyperlink r:id="rId350" ref="O206"/>
-    <hyperlink r:id="rId351" ref="J207"/>
-    <hyperlink r:id="rId352" ref="O207"/>
-    <hyperlink r:id="rId353" ref="J208"/>
-    <hyperlink r:id="rId354" ref="O208"/>
-    <hyperlink r:id="rId355" ref="J209"/>
-    <hyperlink r:id="rId356" ref="O209"/>
-    <hyperlink r:id="rId357" ref="J210"/>
-    <hyperlink r:id="rId358" ref="O210"/>
-    <hyperlink r:id="rId359" ref="O211"/>
+    <hyperlink r:id="rId235" ref="J132"/>
+    <hyperlink r:id="rId236" ref="O132"/>
+    <hyperlink r:id="rId237" ref="J133"/>
+    <hyperlink r:id="rId238" ref="O133"/>
+    <hyperlink r:id="rId239" ref="J134"/>
+    <hyperlink r:id="rId240" ref="O134"/>
+    <hyperlink r:id="rId241" ref="J135"/>
+    <hyperlink r:id="rId242" ref="O135"/>
+    <hyperlink r:id="rId243" ref="J136"/>
+    <hyperlink r:id="rId244" ref="O136"/>
+    <hyperlink r:id="rId245" ref="J137"/>
+    <hyperlink r:id="rId246" ref="O137"/>
+    <hyperlink r:id="rId247" ref="J138"/>
+    <hyperlink r:id="rId248" ref="O138"/>
+    <hyperlink r:id="rId249" ref="J139"/>
+    <hyperlink r:id="rId250" ref="O139"/>
+    <hyperlink r:id="rId251" ref="J140"/>
+    <hyperlink r:id="rId252" ref="O140"/>
+    <hyperlink r:id="rId253" ref="J141"/>
+    <hyperlink r:id="rId254" ref="O141"/>
+    <hyperlink r:id="rId255" ref="J142"/>
+    <hyperlink r:id="rId256" ref="O142"/>
+    <hyperlink r:id="rId257" ref="J143"/>
+    <hyperlink r:id="rId258" ref="O143"/>
+    <hyperlink r:id="rId259" ref="J144"/>
+    <hyperlink r:id="rId260" ref="O144"/>
+    <hyperlink r:id="rId261" ref="J145"/>
+    <hyperlink r:id="rId262" ref="O145"/>
+    <hyperlink r:id="rId263" ref="J148"/>
+    <hyperlink r:id="rId264" ref="O148"/>
+    <hyperlink r:id="rId265" ref="O149"/>
+    <hyperlink r:id="rId266" ref="J150"/>
+    <hyperlink r:id="rId267" ref="O150"/>
+    <hyperlink r:id="rId268" ref="J151"/>
+    <hyperlink r:id="rId269" ref="O151"/>
+    <hyperlink r:id="rId270" ref="J152"/>
+    <hyperlink r:id="rId271" ref="O152"/>
+    <hyperlink r:id="rId272" ref="J153"/>
+    <hyperlink r:id="rId273" ref="O153"/>
+    <hyperlink r:id="rId274" ref="O154"/>
+    <hyperlink r:id="rId275" ref="J155"/>
+    <hyperlink r:id="rId276" ref="O155"/>
+    <hyperlink r:id="rId277" ref="J156"/>
+    <hyperlink r:id="rId278" ref="O156"/>
+    <hyperlink r:id="rId279" ref="J157"/>
+    <hyperlink r:id="rId280" ref="O157"/>
+    <hyperlink r:id="rId281" ref="J158"/>
+    <hyperlink r:id="rId282" ref="O158"/>
+    <hyperlink r:id="rId283" ref="J159"/>
+    <hyperlink r:id="rId284" ref="O159"/>
+    <hyperlink r:id="rId285" ref="J160"/>
+    <hyperlink r:id="rId286" ref="O160"/>
+    <hyperlink r:id="rId287" ref="J161"/>
+    <hyperlink r:id="rId288" ref="O161"/>
+    <hyperlink r:id="rId289" ref="J162"/>
+    <hyperlink r:id="rId290" ref="O162"/>
+    <hyperlink r:id="rId291" ref="J163"/>
+    <hyperlink r:id="rId292" ref="O163"/>
+    <hyperlink r:id="rId293" ref="J164"/>
+    <hyperlink r:id="rId294" ref="O164"/>
+    <hyperlink r:id="rId295" ref="J165"/>
+    <hyperlink r:id="rId296" ref="O165"/>
+    <hyperlink r:id="rId297" ref="O166"/>
+    <hyperlink r:id="rId298" ref="J167"/>
+    <hyperlink r:id="rId299" ref="O167"/>
+    <hyperlink r:id="rId300" ref="J168"/>
+    <hyperlink r:id="rId301" ref="O168"/>
+    <hyperlink r:id="rId302" ref="J169"/>
+    <hyperlink r:id="rId303" ref="O169"/>
+    <hyperlink r:id="rId304" ref="J170"/>
+    <hyperlink r:id="rId305" ref="O170"/>
+    <hyperlink r:id="rId306" ref="J171"/>
+    <hyperlink r:id="rId307" ref="O171"/>
+    <hyperlink r:id="rId308" ref="J172"/>
+    <hyperlink r:id="rId309" ref="O172"/>
+    <hyperlink r:id="rId310" ref="J173"/>
+    <hyperlink r:id="rId311" ref="O173"/>
+    <hyperlink r:id="rId312" ref="J174"/>
+    <hyperlink r:id="rId313" ref="O174"/>
+    <hyperlink r:id="rId314" ref="O175"/>
+    <hyperlink r:id="rId315" ref="J176"/>
+    <hyperlink r:id="rId316" ref="O176"/>
+    <hyperlink r:id="rId317" ref="J177"/>
+    <hyperlink r:id="rId318" ref="O177"/>
+    <hyperlink r:id="rId319" ref="O178"/>
+    <hyperlink r:id="rId320" ref="J179"/>
+    <hyperlink r:id="rId321" ref="O179"/>
+    <hyperlink r:id="rId322" ref="O180"/>
+    <hyperlink r:id="rId323" ref="O181"/>
+    <hyperlink r:id="rId324" ref="O182"/>
+    <hyperlink r:id="rId325" ref="O183"/>
+    <hyperlink r:id="rId326" ref="O184"/>
+    <hyperlink r:id="rId327" ref="J185"/>
+    <hyperlink r:id="rId328" ref="O185"/>
+    <hyperlink r:id="rId329" ref="J186"/>
+    <hyperlink r:id="rId330" ref="O186"/>
+    <hyperlink r:id="rId331" ref="J187"/>
+    <hyperlink r:id="rId332" ref="O187"/>
+    <hyperlink r:id="rId333" ref="O188"/>
+    <hyperlink r:id="rId334" ref="J189"/>
+    <hyperlink r:id="rId335" ref="O189"/>
+    <hyperlink r:id="rId336" ref="J198"/>
+    <hyperlink r:id="rId337" ref="O198"/>
+    <hyperlink r:id="rId338" ref="J199"/>
+    <hyperlink r:id="rId339" ref="O199"/>
+    <hyperlink r:id="rId340" ref="J200"/>
+    <hyperlink r:id="rId341" ref="O200"/>
+    <hyperlink r:id="rId342" ref="J201"/>
+    <hyperlink r:id="rId343" ref="O201"/>
+    <hyperlink r:id="rId344" ref="J202"/>
+    <hyperlink r:id="rId345" ref="O202"/>
+    <hyperlink r:id="rId346" ref="O203"/>
+    <hyperlink r:id="rId347" ref="J204"/>
+    <hyperlink r:id="rId348" ref="O204"/>
+    <hyperlink r:id="rId349" ref="J205"/>
+    <hyperlink r:id="rId350" ref="O205"/>
+    <hyperlink r:id="rId351" ref="J206"/>
+    <hyperlink r:id="rId352" ref="O206"/>
+    <hyperlink r:id="rId353" ref="J207"/>
+    <hyperlink r:id="rId354" ref="O207"/>
+    <hyperlink r:id="rId355" ref="O208"/>
+    <hyperlink r:id="rId356" ref="J210"/>
+    <hyperlink r:id="rId357" ref="O210"/>
+    <hyperlink r:id="rId358" ref="J218"/>
+    <hyperlink r:id="rId359" ref="O218"/>
   </hyperlinks>
   <drawing r:id="rId360"/>
 </worksheet>
@@ -28197,110 +28611,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="840">
   <si>
     <t>Term</t>
   </si>
@@ -25477,48 +25477,46 @@
       <c r="AB210" s="12"/>
     </row>
     <row r="211">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="35" t="s">
         <v>819</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
-      <c r="J211" s="12"/>
-      <c r="K211" s="12"/>
-      <c r="L211" s="12"/>
-      <c r="M211" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N211" s="10" t="s">
+      <c r="F211" s="37"/>
+      <c r="G211" s="37"/>
+      <c r="H211" s="37"/>
+      <c r="I211" s="37"/>
+      <c r="J211" s="37"/>
+      <c r="K211" s="37"/>
+      <c r="L211" s="37"/>
+      <c r="M211" s="35"/>
+      <c r="N211" s="35" t="s">
         <v>821</v>
       </c>
-      <c r="O211" s="12"/>
-      <c r="P211" s="12"/>
-      <c r="Q211" s="12"/>
-      <c r="R211" s="12"/>
-      <c r="S211" s="12"/>
-      <c r="T211" s="12"/>
-      <c r="U211" s="12"/>
-      <c r="V211" s="12"/>
-      <c r="W211" s="12"/>
-      <c r="X211" s="12"/>
-      <c r="Y211" s="12"/>
-      <c r="Z211" s="12"/>
-      <c r="AA211" s="12"/>
-      <c r="AB211" s="12"/>
+      <c r="O211" s="37"/>
+      <c r="P211" s="37"/>
+      <c r="Q211" s="37"/>
+      <c r="R211" s="37"/>
+      <c r="S211" s="37"/>
+      <c r="T211" s="37"/>
+      <c r="U211" s="37"/>
+      <c r="V211" s="37"/>
+      <c r="W211" s="37"/>
+      <c r="X211" s="37"/>
+      <c r="Y211" s="37"/>
+      <c r="Z211" s="37"/>
+      <c r="AA211" s="37"/>
+      <c r="AB211" s="37"/>
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="847">
   <si>
     <t>Term</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Contextually Anonymised Data</t>
   </si>
   <si>
-    <t>Data that can be considered as being fully anonymised within the context but in actuality is not fully anonymised and is still personal data as it can be deanonymised outside that context</t>
+    <t>Data that can be considered as being fully anonymised within the context but in actuality is not fully anonymised and is still personal data as it can be de-anonymised outside that context</t>
   </si>
   <si>
     <t>dpv:PseudonymisedData</t>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>ProvidedData</t>
+  </si>
+  <si>
+    <t>Provided Data</t>
   </si>
   <si>
     <t>Data that has been provided by an entity</t>
@@ -405,7 +408,7 @@
     <t>Synthetic Data</t>
   </si>
   <si>
-    <t>Synthetic data reffers to artificially created data such that it is intended to resemble real data (personal or non-personal), but does not refer to any specific identified or identifiable individual, or to the real measure of an observable parameter in the case of non-personal data</t>
+    <t>Synthetic data refers to artificially created data such that it is intended to resemble real data (personal or non-personal), but does not refer to any specific identified or identifiable individual, or to the real measure of an observable parameter in the case of non-personal data</t>
   </si>
   <si>
     <t>dpv:GeneratedData</t>
@@ -451,7 +454,7 @@
     <t>dpv:SensitivePersonalData</t>
   </si>
   <si>
-    <t>The term 'special category' is based on GDPR Art.9, but should not be considered as exlusive to it. DPV considers all Special Categories to also be Sensitive, but whose use is either prohibited or regulated and therefore requires additional legal basis for justification that is separate from that for general personal data.</t>
+    <t>The term 'special category' is based on GDPR Art.9, but should not be considered as exclusive to it. DPV considers all Special Categories to also be Sensitive, but whose use is either prohibited or regulated and therefore requires additional legal basis for justification that is separate from that for general personal data.</t>
   </si>
   <si>
     <t>(GDPR Art.9-1, https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_1/oj)</t>
@@ -460,6 +463,9 @@
     <t>CommerciallyConfidentialData</t>
   </si>
   <si>
+    <t>Commercially Confidential Data</t>
+  </si>
+  <si>
     <t>Data protected through Commercial Confidentiality Agreements</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t>ConfidentialData</t>
   </si>
   <si>
+    <t>Confidential Data</t>
+  </si>
+  <si>
     <t>Data deemed confidential</t>
   </si>
   <si>
@@ -478,18 +487,27 @@
     <t>IntellectualPropertyData</t>
   </si>
   <si>
+    <t>Intellectual Property Data</t>
+  </si>
+  <si>
     <t>Data protected by Intellectual Property rights and regulations</t>
   </si>
   <si>
     <t>SensitiveData</t>
   </si>
   <si>
+    <t>Sensitive Data</t>
+  </si>
+  <si>
     <t>Data deemed sensitive</t>
   </si>
   <si>
     <t>SensitiveNonPersonalData</t>
   </si>
   <si>
+    <t>Sensitive Non Personal Data</t>
+  </si>
+  <si>
     <t>Non-personal data deemed sensitive</t>
   </si>
   <si>
@@ -502,6 +520,9 @@
     <t>StatisticallyConfidentialData</t>
   </si>
   <si>
+    <t>Statistically Confidential Data</t>
+  </si>
+  <si>
     <t>Data protected through Statistical Confidentiality regulations and agreements</t>
   </si>
   <si>
@@ -517,7 +538,7 @@
     <t>IndirectlyIdentifyingPersonalData</t>
   </si>
   <si>
-    <t>Personal Data that cannot by itself be used ot identify a person and must be combined with other data in order to identify a person</t>
+    <t>Personal Data that cannot by itself be used to identify a person and must be combined with other data in order to identify a person</t>
   </si>
   <si>
     <t>domain</t>
@@ -592,7 +613,7 @@
     <t>Internal</t>
   </si>
   <si>
-    <t>Informatoin about internal characteristics that cannot be seen or observed</t>
+    <t>Information about internal characteristics that cannot be seen or observed</t>
   </si>
   <si>
     <t>Profile</t>
@@ -637,7 +658,10 @@
     <t>Acquantaince</t>
   </si>
   <si>
-    <t>Information about acquaintainces in a social network.</t>
+    <t>Acquaintance</t>
+  </si>
+  <si>
+    <t>Information about acquaintances in a social network.</t>
   </si>
   <si>
     <t>pd:SocialNetwork</t>
@@ -2005,7 +2029,7 @@
     <t>Information about privacy preferences</t>
   </si>
   <si>
-    <t>Proclivitie</t>
+    <t>Proclivity</t>
   </si>
   <si>
     <t>Information about proclivities in a sexual context</t>
@@ -3981,13 +4005,13 @@
         <v>69</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>26</v>
@@ -3996,7 +4020,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="13">
@@ -4007,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -4026,13 +4050,13 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -4070,13 +4094,13 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>25</v>
@@ -4114,13 +4138,13 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -4158,13 +4182,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>25</v>
@@ -4202,16 +4226,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>26</v>
@@ -4220,7 +4244,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="13">
@@ -4236,7 +4260,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -4254,16 +4278,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>26</v>
@@ -4272,7 +4296,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="13">
@@ -4283,7 +4307,7 @@
         <v>19</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="12"/>
@@ -4302,30 +4326,30 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26" s="13">
         <v>43592.0</v>
@@ -4337,7 +4361,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>21</v>
@@ -4358,16 +4382,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>26</v>
@@ -4376,7 +4400,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="13">
@@ -4410,16 +4434,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>26</v>
@@ -4439,7 +4463,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -4458,16 +4482,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>26</v>
@@ -4476,7 +4500,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="13">
@@ -4492,7 +4516,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -4510,16 +4534,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>26</v>
@@ -4529,7 +4553,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="13">
         <v>44791.0</v>
@@ -4563,19 +4587,19 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>50</v>
@@ -4587,7 +4611,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="13">
@@ -4619,16 +4643,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>26</v>
@@ -4637,10 +4661,10 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K34" s="13">
         <v>43592.0</v>
@@ -4652,7 +4676,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>21</v>
@@ -4673,13 +4697,13 @@
     </row>
     <row r="35">
       <c r="A35" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>25</v>
@@ -4692,7 +4716,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
@@ -4717,13 +4741,13 @@
     </row>
     <row r="36">
       <c r="A36" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
@@ -4736,7 +4760,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -4761,13 +4785,13 @@
     </row>
     <row r="37">
       <c r="A37" s="31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>25</v>
@@ -4780,7 +4804,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
@@ -4805,13 +4829,13 @@
     </row>
     <row r="38">
       <c r="A38" s="31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>25</v>
@@ -4847,16 +4871,16 @@
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>26</v>
@@ -4866,7 +4890,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="34" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
@@ -4891,13 +4915,13 @@
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>25</v>
@@ -4910,7 +4934,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="33" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -4938,7 +4962,7 @@
     </row>
     <row r="42">
       <c r="A42" s="35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="35" t="s">
@@ -4958,7 +4982,7 @@
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
@@ -4978,11 +5002,11 @@
     </row>
     <row r="43">
       <c r="A43" s="35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>50</v>
@@ -4998,7 +5022,7 @@
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
@@ -7574,13 +7598,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7612,13 +7636,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -7627,7 +7651,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7662,13 +7686,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -7677,7 +7701,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -10739,13 +10763,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
@@ -10756,7 +10780,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -10766,10 +10790,10 @@
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -10787,13 +10811,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
@@ -10801,12 +10825,12 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -10816,10 +10840,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10837,13 +10861,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9" t="s">
@@ -10854,7 +10878,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -10864,10 +10888,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -10885,13 +10909,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
@@ -10913,7 +10937,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -10931,13 +10955,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9" t="s">
@@ -10948,7 +10972,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -10958,10 +10982,10 @@
         <v>19</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -10979,13 +11003,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
@@ -11007,7 +11031,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -11025,13 +11049,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9" t="s">
@@ -11042,7 +11066,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -11052,10 +11076,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -11073,13 +11097,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9" t="s">
@@ -11090,7 +11114,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -11100,10 +11124,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15335,16 +15359,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>50</v>
@@ -15354,7 +15378,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -15364,10 +15388,10 @@
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -15385,16 +15409,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>50</v>
@@ -15404,7 +15428,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -15414,10 +15438,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -15435,16 +15459,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15454,7 +15478,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -15464,10 +15488,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15485,16 +15509,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>50</v>
@@ -15504,7 +15528,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15514,10 +15538,10 @@
         <v>19</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15535,16 +15559,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>50</v>
@@ -15565,7 +15589,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15583,16 +15607,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>50</v>
@@ -15613,7 +15637,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -15631,16 +15655,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>50</v>
@@ -15650,7 +15674,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -15660,10 +15684,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -15681,16 +15705,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -15700,7 +15724,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -15710,10 +15734,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15731,16 +15755,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>50</v>
@@ -15750,7 +15774,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -15760,10 +15784,10 @@
         <v>19</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -15781,16 +15805,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>50</v>
@@ -15800,7 +15824,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -15810,10 +15834,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -15831,16 +15855,16 @@
     </row>
     <row r="12">
       <c r="A12" s="47" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -15850,7 +15874,7 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="26" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K12" s="49">
         <v>44139.0</v>
@@ -15860,10 +15884,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
@@ -15881,16 +15905,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>50</v>
@@ -15900,7 +15924,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -15910,10 +15934,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -15931,28 +15955,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -15962,10 +15986,10 @@
         <v>19</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -15983,16 +16007,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>50</v>
@@ -16013,7 +16037,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -16031,16 +16055,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16061,7 +16085,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -16079,16 +16103,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16098,7 +16122,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K17" s="13">
         <v>43620.0</v>
@@ -16108,10 +16132,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -16129,16 +16153,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16148,7 +16172,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -16158,10 +16182,10 @@
         <v>19</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -16179,16 +16203,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16209,7 +16233,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16227,28 +16251,28 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K20" s="13">
         <v>43620.0</v>
@@ -16258,10 +16282,10 @@
         <v>19</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16279,16 +16303,16 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
@@ -16298,7 +16322,7 @@
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="26" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K21" s="49">
         <v>44139.0</v>
@@ -16308,10 +16332,10 @@
         <v>19</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
@@ -16329,16 +16353,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16348,7 +16372,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K22" s="13">
         <v>43620.0</v>
@@ -16358,10 +16382,10 @@
         <v>19</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -16379,16 +16403,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16398,7 +16422,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -16408,10 +16432,10 @@
         <v>19</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -16429,16 +16453,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16448,7 +16472,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -16458,10 +16482,10 @@
         <v>19</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -16479,16 +16503,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16498,7 +16522,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16508,10 +16532,10 @@
         <v>19</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16529,28 +16553,28 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16560,10 +16584,10 @@
         <v>19</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16581,16 +16605,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
@@ -16600,7 +16624,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16610,10 +16634,10 @@
         <v>19</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -16631,28 +16655,28 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -16662,10 +16686,10 @@
         <v>19</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -16683,16 +16707,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
@@ -16702,7 +16726,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
       <c r="J29" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -16712,10 +16736,10 @@
         <v>19</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -16733,16 +16757,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -16752,7 +16776,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -16762,10 +16786,10 @@
         <v>19</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -16783,16 +16807,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -16802,7 +16826,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -16812,10 +16836,10 @@
         <v>19</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -16833,16 +16857,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -16852,7 +16876,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -16862,10 +16886,10 @@
         <v>19</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -16883,16 +16907,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -16902,7 +16926,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -16912,10 +16936,10 @@
         <v>19</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -16933,16 +16957,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -16952,7 +16976,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -16962,10 +16986,10 @@
         <v>19</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -16983,16 +17007,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17002,7 +17026,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -17012,10 +17036,10 @@
         <v>19</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -17033,16 +17057,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17052,7 +17076,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -17062,10 +17086,10 @@
         <v>19</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -17083,28 +17107,28 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -17114,10 +17138,10 @@
         <v>19</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -17135,16 +17159,16 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
@@ -17154,7 +17178,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -17164,10 +17188,10 @@
         <v>19</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -17185,16 +17209,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17204,7 +17228,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -17214,10 +17238,10 @@
         <v>19</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -17235,16 +17259,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17262,7 +17286,7 @@
         <v>19</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="12"/>
@@ -17281,16 +17305,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17300,7 +17324,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K41" s="13">
         <v>43620.0</v>
@@ -17310,10 +17334,10 @@
         <v>19</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -17331,16 +17355,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17361,7 +17385,7 @@
         <v>20</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17379,16 +17403,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17398,7 +17422,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K43" s="13">
         <v>43620.0</v>
@@ -17408,10 +17432,10 @@
         <v>19</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17429,16 +17453,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17448,7 +17472,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -17458,10 +17482,10 @@
         <v>19</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -17479,16 +17503,16 @@
     </row>
     <row r="45">
       <c r="A45" s="52" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17498,7 +17522,7 @@
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
       <c r="J45" s="26" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K45" s="49">
         <v>44139.0</v>
@@ -17508,10 +17532,10 @@
         <v>19</v>
       </c>
       <c r="N45" s="50" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O45" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P45" s="48"/>
       <c r="Q45" s="48"/>
@@ -17529,28 +17553,28 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K46" s="13">
         <v>43620.0</v>
@@ -17560,10 +17584,10 @@
         <v>19</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -17581,16 +17605,16 @@
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B47" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>345</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>337</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
@@ -17600,7 +17624,7 @@
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
       <c r="J47" s="26" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K47" s="49">
         <v>44139.0</v>
@@ -17610,10 +17634,10 @@
         <v>19</v>
       </c>
       <c r="N47" s="50" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="O47" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P47" s="48"/>
       <c r="Q47" s="48"/>
@@ -17631,16 +17655,16 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -17650,7 +17674,7 @@
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
       <c r="J48" s="26" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K48" s="49">
         <v>44139.0</v>
@@ -17660,10 +17684,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="50" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P48" s="48"/>
       <c r="Q48" s="48"/>
@@ -17681,16 +17705,16 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -17700,7 +17724,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K49" s="13">
         <v>43620.0</v>
@@ -17710,10 +17734,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -17731,16 +17755,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -17761,7 +17785,7 @@
         <v>20</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17779,16 +17803,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -17798,7 +17822,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K51" s="13">
         <v>43620.0</v>
@@ -17808,10 +17832,10 @@
         <v>19</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17829,16 +17853,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -17848,7 +17872,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -17858,10 +17882,10 @@
         <v>19</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -17879,16 +17903,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -17898,7 +17922,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -17908,10 +17932,10 @@
         <v>19</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -17929,16 +17953,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -17948,7 +17972,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -17958,10 +17982,10 @@
         <v>19</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -17979,16 +18003,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -17998,7 +18022,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -18008,10 +18032,10 @@
         <v>19</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -18029,16 +18053,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18048,7 +18072,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -18058,10 +18082,10 @@
         <v>19</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -18079,16 +18103,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18109,7 +18133,7 @@
         <v>20</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18127,16 +18151,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18157,7 +18181,7 @@
         <v>20</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -18175,16 +18199,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18205,7 +18229,7 @@
         <v>20</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -18223,16 +18247,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18242,7 +18266,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K60" s="13">
         <v>43620.0</v>
@@ -18252,10 +18276,10 @@
         <v>19</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18273,16 +18297,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18303,7 +18327,7 @@
         <v>20</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18321,16 +18345,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18351,7 +18375,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -18369,16 +18393,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18388,7 +18412,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K63" s="13">
         <v>43620.0</v>
@@ -18398,10 +18422,10 @@
         <v>19</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18419,16 +18443,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18438,7 +18462,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -18448,10 +18472,10 @@
         <v>19</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -18469,16 +18493,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18488,7 +18512,7 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K65" s="13">
         <v>43620.0</v>
@@ -18498,10 +18522,10 @@
         <v>19</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
@@ -18519,16 +18543,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18549,7 +18573,7 @@
         <v>20</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18567,16 +18591,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18586,7 +18610,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18596,10 +18620,10 @@
         <v>19</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18617,16 +18641,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18636,7 +18660,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K68" s="13">
         <v>43620.0</v>
@@ -18646,10 +18670,10 @@
         <v>19</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18667,16 +18691,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18686,7 +18710,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K69" s="13">
         <v>43620.0</v>
@@ -18696,10 +18720,10 @@
         <v>19</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -18717,16 +18741,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18736,7 +18760,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -18746,10 +18770,10 @@
         <v>19</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -18767,16 +18791,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18786,7 +18810,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -18796,10 +18820,10 @@
         <v>19</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -18817,16 +18841,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18836,7 +18860,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -18846,10 +18870,10 @@
         <v>19</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -18867,16 +18891,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -18886,7 +18910,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -18896,10 +18920,10 @@
         <v>19</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -18917,16 +18941,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -18936,7 +18960,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -18946,10 +18970,10 @@
         <v>19</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -18967,16 +18991,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -18986,7 +19010,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -18996,10 +19020,10 @@
         <v>19</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -19017,16 +19041,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19036,7 +19060,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -19046,10 +19070,10 @@
         <v>19</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -19067,16 +19091,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19097,7 +19121,7 @@
         <v>20</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19115,16 +19139,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19134,7 +19158,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -19144,10 +19168,10 @@
         <v>19</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19165,16 +19189,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19184,7 +19208,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -19194,10 +19218,10 @@
         <v>19</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -19215,16 +19239,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19234,7 +19258,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K80" s="13">
         <v>43620.0</v>
@@ -19244,10 +19268,10 @@
         <v>19</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19265,16 +19289,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19284,7 +19308,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -19294,10 +19318,10 @@
         <v>19</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -19315,16 +19339,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19345,7 +19369,7 @@
         <v>20</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19363,16 +19387,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19382,7 +19406,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -19392,10 +19416,10 @@
         <v>19</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19413,16 +19437,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19432,7 +19456,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -19442,10 +19466,10 @@
         <v>19</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -19463,16 +19487,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19482,7 +19506,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K85" s="13">
         <v>43620.0</v>
@@ -19492,10 +19516,10 @@
         <v>19</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19513,16 +19537,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19532,7 +19556,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19542,10 +19566,10 @@
         <v>19</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19563,28 +19587,28 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C87" s="46" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19594,10 +19618,10 @@
         <v>19</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19615,16 +19639,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -19634,7 +19658,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -19644,10 +19668,10 @@
         <v>19</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -19665,16 +19689,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19684,7 +19708,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -19694,10 +19718,10 @@
         <v>19</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -19715,16 +19739,16 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
@@ -19734,7 +19758,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -19744,10 +19768,10 @@
         <v>19</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -19765,16 +19789,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19784,7 +19808,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -19794,10 +19818,10 @@
         <v>19</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -19815,16 +19839,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19845,7 +19869,7 @@
         <v>20</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -19863,16 +19887,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -19893,7 +19917,7 @@
         <v>20</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -19911,16 +19935,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -19930,7 +19954,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -19940,10 +19964,10 @@
         <v>19</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -19961,16 +19985,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -19980,7 +20004,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K95" s="13">
         <v>43620.0</v>
@@ -19990,10 +20014,10 @@
         <v>19</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20011,16 +20035,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20030,7 +20054,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K96" s="13">
         <v>43620.0</v>
@@ -20040,10 +20064,10 @@
         <v>19</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20061,16 +20085,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20080,7 +20104,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -20090,10 +20114,10 @@
         <v>19</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -20111,16 +20135,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20141,7 +20165,7 @@
         <v>20</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20159,16 +20183,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20178,7 +20202,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -20188,10 +20212,10 @@
         <v>19</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20209,16 +20233,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20228,7 +20252,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -20238,10 +20262,10 @@
         <v>19</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -20259,16 +20283,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20278,7 +20302,7 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K101" s="13">
         <v>43620.0</v>
@@ -20288,10 +20312,10 @@
         <v>19</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20309,16 +20333,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20328,7 +20352,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -20338,10 +20362,10 @@
         <v>19</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -20359,16 +20383,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20378,7 +20402,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -20388,10 +20412,10 @@
         <v>19</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -20409,16 +20433,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20428,7 +20452,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -20438,10 +20462,10 @@
         <v>19</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -20459,22 +20483,22 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J105" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20483,27 +20507,27 @@
         <v>44671.0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20513,7 +20537,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20523,10 +20547,10 @@
         <v>19</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20544,16 +20568,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C107" s="46" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20563,7 +20587,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20573,10 +20597,10 @@
         <v>19</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20594,28 +20618,28 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -20625,10 +20649,10 @@
         <v>19</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -20646,16 +20670,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -20665,7 +20689,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -20675,10 +20699,10 @@
         <v>19</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -20696,28 +20720,28 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -20727,10 +20751,10 @@
         <v>19</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -20748,16 +20772,16 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
@@ -20767,7 +20791,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -20777,10 +20801,10 @@
         <v>19</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -20798,16 +20822,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20817,7 +20841,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -20827,10 +20851,10 @@
         <v>19</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -20848,16 +20872,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
@@ -20867,7 +20891,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -20877,10 +20901,10 @@
         <v>19</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -20898,16 +20922,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -20917,7 +20941,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -20927,10 +20951,10 @@
         <v>19</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -20948,16 +20972,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -20967,7 +20991,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -20977,10 +21001,10 @@
         <v>19</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -20998,16 +21022,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21026,7 +21050,7 @@
       </c>
       <c r="N116" s="12"/>
       <c r="O116" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21044,28 +21068,28 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -21075,10 +21099,10 @@
         <v>19</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21096,16 +21120,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C118" s="46" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
@@ -21115,7 +21139,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K118" s="13">
         <v>43620.0</v>
@@ -21125,10 +21149,10 @@
         <v>19</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
@@ -21146,16 +21170,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21165,7 +21189,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -21175,10 +21199,10 @@
         <v>19</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -21196,16 +21220,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21215,7 +21239,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K120" s="13">
         <v>43620.0</v>
@@ -21225,10 +21249,10 @@
         <v>19</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21246,16 +21270,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
@@ -21265,7 +21289,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -21275,10 +21299,10 @@
         <v>19</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -21296,16 +21320,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21326,7 +21350,7 @@
         <v>20</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21344,16 +21368,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21363,7 +21387,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -21373,10 +21397,10 @@
         <v>19</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21394,16 +21418,16 @@
     </row>
     <row r="124">
       <c r="A124" s="52" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D124" s="50" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21413,7 +21437,7 @@
       <c r="H124" s="48"/>
       <c r="I124" s="48"/>
       <c r="J124" s="26" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K124" s="49">
         <v>44139.0</v>
@@ -21426,7 +21450,7 @@
         <v>20</v>
       </c>
       <c r="O124" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P124" s="48"/>
       <c r="Q124" s="48"/>
@@ -21444,16 +21468,16 @@
     </row>
     <row r="125">
       <c r="A125" s="52" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B125" s="53" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D125" s="50" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21463,7 +21487,7 @@
       <c r="H125" s="48"/>
       <c r="I125" s="48"/>
       <c r="J125" s="26" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="K125" s="49">
         <v>44139.0</v>
@@ -21473,10 +21497,10 @@
         <v>19</v>
       </c>
       <c r="N125" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O125" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P125" s="48"/>
       <c r="Q125" s="48"/>
@@ -21494,16 +21518,16 @@
     </row>
     <row r="126">
       <c r="A126" s="52" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C126" s="52" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D126" s="50" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21513,7 +21537,7 @@
       <c r="H126" s="48"/>
       <c r="I126" s="48"/>
       <c r="J126" s="26" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="K126" s="49">
         <v>44139.0</v>
@@ -21523,10 +21547,10 @@
         <v>19</v>
       </c>
       <c r="N126" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O126" s="51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P126" s="48"/>
       <c r="Q126" s="48"/>
@@ -21544,16 +21568,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -21574,7 +21598,7 @@
         <v>20</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21592,16 +21616,16 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -21622,7 +21646,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -21640,16 +21664,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -21659,7 +21683,7 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K129" s="13">
         <v>43620.0</v>
@@ -21669,10 +21693,10 @@
         <v>19</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -21690,16 +21714,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -21709,7 +21733,7 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K130" s="13">
         <v>43620.0</v>
@@ -21719,10 +21743,10 @@
         <v>19</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -21740,28 +21764,28 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
       <c r="J132" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K132" s="13">
         <v>43620.0</v>
@@ -21771,10 +21795,10 @@
         <v>19</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -21792,16 +21816,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
@@ -21811,7 +21835,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -21821,10 +21845,10 @@
         <v>19</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -21842,16 +21866,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -21861,7 +21885,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -21871,10 +21895,10 @@
         <v>19</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -21892,16 +21916,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>50</v>
@@ -21911,7 +21935,7 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K135" s="13">
         <v>43620.0</v>
@@ -21921,10 +21945,10 @@
         <v>19</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O135" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
@@ -21942,16 +21966,16 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
@@ -21961,7 +21985,7 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -21971,10 +21995,10 @@
         <v>19</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -21992,16 +22016,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22011,7 +22035,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -22021,10 +22045,10 @@
         <v>19</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -22042,28 +22066,28 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -22073,10 +22097,10 @@
         <v>19</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -22094,16 +22118,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22113,7 +22137,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -22123,10 +22147,10 @@
         <v>19</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -22144,16 +22168,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22163,7 +22187,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -22173,10 +22197,10 @@
         <v>19</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -22194,16 +22218,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="B141" s="25" t="s">
-        <v>620</v>
+        <v>628</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>628</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22213,20 +22237,22 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L141" s="12"/>
+      <c r="L141" s="13">
+        <v>45459.0</v>
+      </c>
       <c r="M141" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -22244,16 +22270,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
@@ -22263,7 +22289,7 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -22273,10 +22299,10 @@
         <v>19</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -22294,16 +22320,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22313,7 +22339,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -22323,10 +22349,10 @@
         <v>19</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -22344,16 +22370,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22363,7 +22389,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -22373,10 +22399,10 @@
         <v>19</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -22394,16 +22420,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22413,7 +22439,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22423,10 +22449,10 @@
         <v>19</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22444,16 +22470,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22490,16 +22516,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22536,16 +22562,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22555,7 +22581,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22565,10 +22591,10 @@
         <v>19</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22586,16 +22612,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22616,7 +22642,7 @@
         <v>20</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22634,28 +22660,28 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K150" s="13">
         <v>43620.0</v>
@@ -22665,10 +22691,10 @@
         <v>19</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -22686,16 +22712,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -22705,7 +22731,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K151" s="13">
         <v>43620.0</v>
@@ -22715,10 +22741,10 @@
         <v>19</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O151" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -22736,16 +22762,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22755,7 +22781,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -22765,10 +22791,10 @@
         <v>19</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -22786,16 +22812,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22805,7 +22831,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K153" s="13">
         <v>43620.0</v>
@@ -22815,10 +22841,10 @@
         <v>19</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22836,16 +22862,16 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
@@ -22866,7 +22892,7 @@
         <v>20</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -22884,16 +22910,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -22903,7 +22929,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -22913,10 +22939,10 @@
         <v>19</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -22934,16 +22960,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -22953,7 +22979,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -22963,10 +22989,10 @@
         <v>19</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -22984,16 +23010,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23003,7 +23029,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -23013,10 +23039,10 @@
         <v>19</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -23034,16 +23060,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23053,7 +23079,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K158" s="13">
         <v>43620.0</v>
@@ -23063,10 +23089,10 @@
         <v>19</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23084,16 +23110,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23103,7 +23129,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -23113,10 +23139,10 @@
         <v>19</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -23134,16 +23160,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23153,7 +23179,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="16" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="K160" s="13">
         <v>43795.0</v>
@@ -23163,10 +23189,10 @@
         <v>19</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23184,16 +23210,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23203,7 +23229,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K161" s="13">
         <v>43620.0</v>
@@ -23213,10 +23239,10 @@
         <v>19</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23234,16 +23260,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23253,7 +23279,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -23263,10 +23289,10 @@
         <v>19</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -23284,16 +23310,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="C163" s="46" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23303,7 +23329,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -23313,10 +23339,10 @@
         <v>19</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -23334,16 +23360,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23353,7 +23379,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K164" s="13">
         <v>43620.0</v>
@@ -23363,10 +23389,10 @@
         <v>19</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23384,28 +23410,28 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C165" s="46" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -23415,10 +23441,10 @@
         <v>19</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23436,16 +23462,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23466,7 +23492,7 @@
         <v>20</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23484,16 +23510,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23503,7 +23529,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K167" s="13">
         <v>43620.0</v>
@@ -23513,10 +23539,10 @@
         <v>19</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23534,16 +23560,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23553,7 +23579,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23563,10 +23589,10 @@
         <v>19</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23584,16 +23610,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
@@ -23603,7 +23629,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -23613,10 +23639,10 @@
         <v>19</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -23634,16 +23660,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23653,7 +23679,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K170" s="13">
         <v>43620.0</v>
@@ -23663,10 +23689,10 @@
         <v>19</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23684,16 +23710,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23703,7 +23729,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -23713,10 +23739,10 @@
         <v>19</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -23734,16 +23760,16 @@
     </row>
     <row r="172">
       <c r="A172" s="46" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C172" s="45" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23753,7 +23779,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -23763,10 +23789,10 @@
         <v>19</v>
       </c>
       <c r="N172" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -23784,16 +23810,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23803,7 +23829,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -23813,10 +23839,10 @@
         <v>19</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -23834,16 +23860,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -23853,7 +23879,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -23863,10 +23889,10 @@
         <v>19</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -23884,16 +23910,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -23914,7 +23940,7 @@
         <v>20</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23932,16 +23958,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -23951,7 +23977,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="16" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="K176" s="13">
         <v>43795.0</v>
@@ -23961,10 +23987,10 @@
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -23982,28 +24008,28 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K177" s="13">
         <v>43620.0</v>
@@ -24013,10 +24039,10 @@
         <v>19</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24034,16 +24060,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C178" s="58" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24061,10 +24087,10 @@
         <v>19</v>
       </c>
       <c r="N178" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P178" s="59"/>
       <c r="Q178" s="59"/>
@@ -24082,16 +24108,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24101,7 +24127,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K179" s="13">
         <v>43620.0</v>
@@ -24111,10 +24137,10 @@
         <v>19</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -24132,16 +24158,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24162,7 +24188,7 @@
         <v>20</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24180,16 +24206,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
@@ -24210,7 +24236,7 @@
         <v>20</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24228,16 +24254,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24258,7 +24284,7 @@
         <v>20</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -24276,16 +24302,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24306,7 +24332,7 @@
         <v>20</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24324,16 +24350,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24354,7 +24380,7 @@
         <v>20</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -24372,16 +24398,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C185" s="46" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24391,7 +24417,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="28"/>
       <c r="J185" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K185" s="13">
         <v>43620.0</v>
@@ -24401,10 +24427,10 @@
         <v>19</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24422,16 +24448,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24441,7 +24467,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K186" s="13">
         <v>43620.0</v>
@@ -24451,10 +24477,10 @@
         <v>19</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24472,16 +24498,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24491,7 +24517,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K187" s="13">
         <v>43620.0</v>
@@ -24501,10 +24527,10 @@
         <v>19</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24522,16 +24548,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24552,7 +24578,7 @@
         <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24570,16 +24596,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24589,7 +24615,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K189" s="13">
         <v>43620.0</v>
@@ -24599,10 +24625,10 @@
         <v>19</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24624,16 +24650,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>50</v>
@@ -24670,16 +24696,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C192" s="60" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -24716,16 +24742,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="C193" s="60" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -24762,16 +24788,16 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>50</v>
@@ -24808,16 +24834,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -24858,23 +24884,23 @@
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="B197" s="23"/>
       <c r="E197" s="43"/>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
@@ -24884,7 +24910,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
       <c r="J198" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K198" s="13">
         <v>43620.0</v>
@@ -24894,10 +24920,10 @@
         <v>19</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O198" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
@@ -24915,16 +24941,16 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
@@ -24934,7 +24960,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K199" s="13">
         <v>43620.0</v>
@@ -24944,10 +24970,10 @@
         <v>19</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O199" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -24965,16 +24991,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>50</v>
@@ -24984,7 +25010,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K200" s="13">
         <v>43620.0</v>
@@ -24994,10 +25020,10 @@
         <v>19</v>
       </c>
       <c r="N200" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O200" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
@@ -25015,16 +25041,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>50</v>
@@ -25034,7 +25060,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K201" s="13">
         <v>43620.0</v>
@@ -25044,10 +25070,10 @@
         <v>19</v>
       </c>
       <c r="N201" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O201" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
@@ -25065,28 +25091,28 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="12" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -25096,10 +25122,10 @@
         <v>19</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -25117,16 +25143,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25147,7 +25173,7 @@
         <v>20</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25165,16 +25191,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25184,7 +25210,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -25194,10 +25220,10 @@
         <v>19</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25215,16 +25241,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="C205" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="D205" s="10" t="s">
         <v>802</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>794</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25234,7 +25260,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -25244,10 +25270,10 @@
         <v>19</v>
       </c>
       <c r="N205" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -25265,16 +25291,16 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
@@ -25284,7 +25310,7 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K206" s="13">
         <v>43620.0</v>
@@ -25294,10 +25320,10 @@
         <v>19</v>
       </c>
       <c r="N206" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25315,16 +25341,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25334,7 +25360,7 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K207" s="13">
         <v>43620.0</v>
@@ -25344,10 +25370,10 @@
         <v>19</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25365,16 +25391,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25395,7 +25421,7 @@
         <v>20</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25425,16 +25451,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25444,7 +25470,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -25453,13 +25479,13 @@
         <v>45402.0</v>
       </c>
       <c r="M210" s="10" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="N210" s="10" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -25477,16 +25503,16 @@
     </row>
     <row r="211">
       <c r="A211" s="35" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B211" s="35" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="D211" s="35" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E211" s="35" t="s">
         <v>50</v>
@@ -25500,7 +25526,7 @@
       <c r="L211" s="37"/>
       <c r="M211" s="35"/>
       <c r="N211" s="35" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O211" s="37"/>
       <c r="P211" s="37"/>
@@ -25519,16 +25545,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>50</v>
@@ -25544,7 +25570,7 @@
         <v>19</v>
       </c>
       <c r="N212" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
@@ -25563,16 +25589,16 @@
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>50</v>
@@ -25588,7 +25614,7 @@
         <v>19</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O213" s="12"/>
       <c r="P213" s="12"/>
@@ -25607,16 +25633,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>50</v>
@@ -25632,7 +25658,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O214" s="12"/>
       <c r="P214" s="12"/>
@@ -25651,16 +25677,16 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D215" s="10" t="s">
         <v>827</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>819</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>50</v>
@@ -25676,7 +25702,7 @@
         <v>19</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
@@ -25695,16 +25721,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25720,7 +25746,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25739,16 +25765,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25764,7 +25790,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25783,16 +25809,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25802,7 +25828,7 @@
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K218" s="13">
         <v>43620.0</v>
@@ -25811,13 +25837,13 @@
         <v>45402.0</v>
       </c>
       <c r="M218" s="10" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="O218" s="14" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
@@ -28713,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -28731,110 +28757,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="846">
   <si>
     <t>Term</t>
   </si>
@@ -270,6 +270,9 @@
     <t>Data that has been obtained through inferences of other data</t>
   </si>
   <si>
+    <t>dpv:DerivedData</t>
+  </si>
+  <si>
     <t>ObservedData</t>
   </si>
   <si>
@@ -285,7 +288,7 @@
     <t>Generated Data</t>
   </si>
   <si>
-    <t>Data that has been obtained through generation or creation as a source</t>
+    <t>Data that is generated or brought into existence without relation to existing data i.e. it is not derived or inferred from other data</t>
   </si>
   <si>
     <t>CollectedPersonalData</t>
@@ -366,7 +369,7 @@
     <t>Personal Data that is obtained through inference from other data</t>
   </si>
   <si>
-    <t>dpv:DerivedPersonalData,dpv:GeneratedPersonalData</t>
+    <t>dpv:DerivedPersonalData,dpv:InferredData</t>
   </si>
   <si>
     <t>Inferred Data is derived data generated from existing data, but which did not originally exist within it, e.g. inferring demographics from browsing history.</t>
@@ -381,7 +384,7 @@
     <t>Personal Data that has been collected through observation of the Data Subject(s)</t>
   </si>
   <si>
-    <t>dpv:PersonalData,dpv:ObservedData</t>
+    <t>dpv:CollectedPersonalData,dpv:ObservedData</t>
   </si>
   <si>
     <t>Georg P. Krog</t>
@@ -394,9 +397,6 @@
   </si>
   <si>
     <t>Personal Data that is generated or brought into existence without relation to existing data i.e. it is not derived or inferred from other data</t>
-  </si>
-  <si>
-    <t>dpv:PersonalData,dpv:InferredData</t>
   </si>
   <si>
     <t>Generated Data is used to indicate data that is produced and is not derived or inferred from other data</t>
@@ -439,6 +439,9 @@
     <t>Personal data that is considered 'sensitive' in terms of privacy and/or impact, and therefore requires additional considerations and/or protection</t>
   </si>
   <si>
+    <t>dpv:SensitiveData</t>
+  </si>
+  <si>
     <t>Sensitivity' is a matter of context, and may be defined within legal frameworks. For GDPR, Special categories of personal data are considered a subset of sensitive data. To illustrate the difference between the two, consider the situation where Location data is collected, and which is considered 'sensitive' but not 'special'. As a probable rule, sensitive data require additional considerations whereas special category data requires additional legal basis / justifications.</t>
   </si>
   <si>
@@ -493,6 +496,9 @@
     <t>Data protected by Intellectual Property rights and regulations</t>
   </si>
   <si>
+    <t>dpv:ConfidentialData</t>
+  </si>
+  <si>
     <t>SensitiveData</t>
   </si>
   <si>
@@ -509,9 +515,6 @@
   </si>
   <si>
     <t>Non-personal data deemed sensitive</t>
-  </si>
-  <si>
-    <t>dpv:SensitiveData</t>
   </si>
   <si>
     <t>DGA 30(a)</t>
@@ -4108,7 +4111,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>26</v>
@@ -4143,16 +4146,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>26</v>
@@ -4187,13 +4190,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>25</v>
@@ -4231,16 +4234,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>26</v>
@@ -4249,7 +4252,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="13">
@@ -4265,7 +4268,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -4283,16 +4286,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>26</v>
@@ -4301,7 +4304,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="13">
@@ -4331,30 +4334,30 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" s="13">
         <v>43592.0</v>
@@ -4366,7 +4369,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>21</v>
@@ -4387,16 +4390,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>26</v>
@@ -4405,7 +4408,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="13">
@@ -4439,16 +4442,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>26</v>
@@ -4468,7 +4471,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -4487,16 +4490,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>26</v>
@@ -4521,7 +4524,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -4607,7 +4610,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>26</v>
@@ -4616,7 +4619,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="13">
@@ -4648,16 +4651,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>26</v>
@@ -4666,10 +4669,10 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K34" s="13">
         <v>43592.0</v>
@@ -4681,7 +4684,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>21</v>
@@ -4702,13 +4705,13 @@
     </row>
     <row r="35">
       <c r="A35" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>25</v>
@@ -4721,7 +4724,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K35" s="21">
         <v>45336.0</v>
@@ -4748,13 +4751,13 @@
     </row>
     <row r="36">
       <c r="A36" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
@@ -4767,7 +4770,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36" s="21">
         <v>45336.0</v>
@@ -4794,16 +4797,16 @@
     </row>
     <row r="37">
       <c r="A37" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>26</v>
@@ -4813,7 +4816,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K37" s="21">
         <v>45336.0</v>
@@ -4840,13 +4843,13 @@
     </row>
     <row r="38">
       <c r="A38" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>25</v>
@@ -4884,16 +4887,16 @@
     </row>
     <row r="39">
       <c r="A39" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>26</v>
@@ -4903,7 +4906,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K39" s="21">
         <v>45336.0</v>
@@ -4930,16 +4933,16 @@
     </row>
     <row r="40">
       <c r="A40" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>26</v>
@@ -4949,7 +4952,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K40" s="21">
         <v>45336.0</v>
@@ -4979,7 +4982,7 @@
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="36" t="s">
@@ -4999,7 +5002,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
@@ -5019,11 +5022,11 @@
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>50</v>
@@ -5039,7 +5042,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
@@ -7615,13 +7618,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7653,13 +7656,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -7668,7 +7671,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7703,13 +7706,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -7718,7 +7721,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -10780,13 +10783,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
@@ -10797,7 +10800,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -10807,10 +10810,10 @@
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -10828,13 +10831,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
@@ -10842,12 +10845,12 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -10857,10 +10860,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10878,13 +10881,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9" t="s">
@@ -10895,7 +10898,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -10905,10 +10908,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -10926,13 +10929,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
@@ -10954,7 +10957,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -10972,13 +10975,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9" t="s">
@@ -10989,7 +10992,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -10999,10 +11002,10 @@
         <v>19</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -11020,13 +11023,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
@@ -11048,7 +11051,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -11066,13 +11069,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9" t="s">
@@ -11083,7 +11086,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -11093,10 +11096,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -11114,13 +11117,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9" t="s">
@@ -11131,7 +11134,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -11141,10 +11144,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15376,16 +15379,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>50</v>
@@ -15395,7 +15398,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -15405,10 +15408,10 @@
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -15426,16 +15429,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>50</v>
@@ -15445,7 +15448,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -15455,10 +15458,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -15476,16 +15479,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15495,7 +15498,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -15505,10 +15508,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15526,16 +15529,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>50</v>
@@ -15545,7 +15548,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15555,10 +15558,10 @@
         <v>19</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15576,16 +15579,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>50</v>
@@ -15606,7 +15609,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15624,16 +15627,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>50</v>
@@ -15654,7 +15657,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -15672,16 +15675,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>50</v>
@@ -15691,7 +15694,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -15701,10 +15704,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -15722,16 +15725,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -15741,7 +15744,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -15751,10 +15754,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15772,16 +15775,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>50</v>
@@ -15791,7 +15794,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -15801,10 +15804,10 @@
         <v>19</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -15822,16 +15825,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>50</v>
@@ -15841,7 +15844,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -15851,10 +15854,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -15872,16 +15875,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -15891,7 +15894,7 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K12" s="50">
         <v>44139.0</v>
@@ -15901,10 +15904,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -15922,16 +15925,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>50</v>
@@ -15941,7 +15944,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -15951,10 +15954,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -15972,28 +15975,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -16003,10 +16006,10 @@
         <v>19</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -16024,16 +16027,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>50</v>
@@ -16054,7 +16057,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -16072,16 +16075,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16102,7 +16105,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -16120,16 +16123,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16139,7 +16142,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" s="13">
         <v>43620.0</v>
@@ -16149,10 +16152,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -16170,16 +16173,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16189,7 +16192,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -16199,10 +16202,10 @@
         <v>19</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -16220,16 +16223,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16250,7 +16253,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16268,28 +16271,28 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K20" s="13">
         <v>43620.0</v>
@@ -16299,10 +16302,10 @@
         <v>19</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16320,16 +16323,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
@@ -16339,7 +16342,7 @@
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K21" s="50">
         <v>44139.0</v>
@@ -16349,10 +16352,10 @@
         <v>19</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -16370,16 +16373,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16389,7 +16392,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K22" s="13">
         <v>43620.0</v>
@@ -16399,10 +16402,10 @@
         <v>19</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -16420,16 +16423,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16439,7 +16442,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -16449,10 +16452,10 @@
         <v>19</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -16470,16 +16473,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16489,7 +16492,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -16499,10 +16502,10 @@
         <v>19</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -16520,16 +16523,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16539,7 +16542,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16549,10 +16552,10 @@
         <v>19</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16570,28 +16573,28 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16601,10 +16604,10 @@
         <v>19</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16622,16 +16625,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
@@ -16641,7 +16644,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16651,10 +16654,10 @@
         <v>19</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -16672,28 +16675,28 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -16703,10 +16706,10 @@
         <v>19</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -16724,16 +16727,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
@@ -16743,7 +16746,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
       <c r="J29" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -16753,10 +16756,10 @@
         <v>19</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -16774,16 +16777,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -16793,7 +16796,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -16803,10 +16806,10 @@
         <v>19</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -16824,16 +16827,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -16843,7 +16846,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -16853,10 +16856,10 @@
         <v>19</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -16874,16 +16877,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -16893,7 +16896,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -16903,10 +16906,10 @@
         <v>19</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -16924,16 +16927,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -16943,7 +16946,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -16953,10 +16956,10 @@
         <v>19</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -16974,16 +16977,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -16993,7 +16996,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -17003,10 +17006,10 @@
         <v>19</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -17024,16 +17027,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17043,7 +17046,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -17053,10 +17056,10 @@
         <v>19</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -17074,16 +17077,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17093,7 +17096,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -17103,10 +17106,10 @@
         <v>19</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -17124,28 +17127,28 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -17155,10 +17158,10 @@
         <v>19</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -17176,16 +17179,16 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
@@ -17195,7 +17198,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -17205,10 +17208,10 @@
         <v>19</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -17226,16 +17229,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17245,7 +17248,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -17255,10 +17258,10 @@
         <v>19</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -17276,16 +17279,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17303,7 +17306,7 @@
         <v>19</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="12"/>
@@ -17322,16 +17325,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17341,7 +17344,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K41" s="13">
         <v>43620.0</v>
@@ -17351,10 +17354,10 @@
         <v>19</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -17372,16 +17375,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17402,7 +17405,7 @@
         <v>20</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17420,16 +17423,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17439,7 +17442,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K43" s="13">
         <v>43620.0</v>
@@ -17449,10 +17452,10 @@
         <v>19</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17470,16 +17473,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17489,7 +17492,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -17499,10 +17502,10 @@
         <v>19</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -17520,16 +17523,16 @@
     </row>
     <row r="45">
       <c r="A45" s="53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17539,7 +17542,7 @@
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K45" s="50">
         <v>44139.0</v>
@@ -17549,10 +17552,10 @@
         <v>19</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O45" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P45" s="49"/>
       <c r="Q45" s="49"/>
@@ -17570,28 +17573,28 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K46" s="13">
         <v>43620.0</v>
@@ -17601,10 +17604,10 @@
         <v>19</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -17622,16 +17625,16 @@
     </row>
     <row r="47">
       <c r="A47" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
@@ -17641,7 +17644,7 @@
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
       <c r="J47" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K47" s="50">
         <v>44139.0</v>
@@ -17651,10 +17654,10 @@
         <v>19</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P47" s="49"/>
       <c r="Q47" s="49"/>
@@ -17672,16 +17675,16 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -17691,7 +17694,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -17701,10 +17704,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
@@ -17722,16 +17725,16 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -17741,7 +17744,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K49" s="13">
         <v>43620.0</v>
@@ -17751,10 +17754,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -17772,16 +17775,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -17802,7 +17805,7 @@
         <v>20</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17820,16 +17823,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -17839,7 +17842,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K51" s="13">
         <v>43620.0</v>
@@ -17849,10 +17852,10 @@
         <v>19</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17870,16 +17873,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -17889,7 +17892,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -17899,10 +17902,10 @@
         <v>19</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -17920,16 +17923,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -17939,7 +17942,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -17949,10 +17952,10 @@
         <v>19</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -17970,16 +17973,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -17989,7 +17992,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -17999,10 +18002,10 @@
         <v>19</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -18020,16 +18023,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18039,7 +18042,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -18049,10 +18052,10 @@
         <v>19</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -18070,16 +18073,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18089,7 +18092,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -18099,10 +18102,10 @@
         <v>19</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -18120,16 +18123,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18150,7 +18153,7 @@
         <v>20</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18168,16 +18171,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18198,7 +18201,7 @@
         <v>20</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -18216,16 +18219,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>389</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18246,7 +18249,7 @@
         <v>20</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -18264,16 +18267,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18283,7 +18286,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K60" s="13">
         <v>43620.0</v>
@@ -18293,10 +18296,10 @@
         <v>19</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18314,16 +18317,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18344,7 +18347,7 @@
         <v>20</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18362,16 +18365,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>400</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18392,7 +18395,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -18410,16 +18413,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18429,7 +18432,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K63" s="13">
         <v>43620.0</v>
@@ -18439,10 +18442,10 @@
         <v>19</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18460,16 +18463,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18479,7 +18482,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -18489,10 +18492,10 @@
         <v>19</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -18510,16 +18513,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18529,7 +18532,7 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K65" s="13">
         <v>43620.0</v>
@@ -18539,10 +18542,10 @@
         <v>19</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
@@ -18560,16 +18563,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18590,7 +18593,7 @@
         <v>20</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18608,16 +18611,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18627,7 +18630,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18637,10 +18640,10 @@
         <v>19</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18658,16 +18661,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18677,7 +18680,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K68" s="13">
         <v>43620.0</v>
@@ -18687,10 +18690,10 @@
         <v>19</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18708,16 +18711,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18727,7 +18730,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K69" s="13">
         <v>43620.0</v>
@@ -18737,10 +18740,10 @@
         <v>19</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -18758,16 +18761,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18777,7 +18780,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -18787,10 +18790,10 @@
         <v>19</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -18808,16 +18811,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18827,7 +18830,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -18837,10 +18840,10 @@
         <v>19</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -18858,16 +18861,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>434</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18877,7 +18880,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -18887,10 +18890,10 @@
         <v>19</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -18908,16 +18911,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -18927,7 +18930,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -18937,10 +18940,10 @@
         <v>19</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -18958,16 +18961,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -18977,7 +18980,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -18987,10 +18990,10 @@
         <v>19</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -19008,16 +19011,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19027,7 +19030,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -19037,10 +19040,10 @@
         <v>19</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -19058,16 +19061,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19077,7 +19080,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -19087,10 +19090,10 @@
         <v>19</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -19108,16 +19111,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19138,7 +19141,7 @@
         <v>20</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19156,16 +19159,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19175,7 +19178,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -19185,10 +19188,10 @@
         <v>19</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19206,16 +19209,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19225,7 +19228,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -19235,10 +19238,10 @@
         <v>19</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -19256,16 +19259,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19275,7 +19278,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K80" s="13">
         <v>43620.0</v>
@@ -19285,10 +19288,10 @@
         <v>19</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19306,16 +19309,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19325,7 +19328,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -19335,10 +19338,10 @@
         <v>19</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -19356,16 +19359,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19386,7 +19389,7 @@
         <v>20</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19404,16 +19407,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19423,7 +19426,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -19433,10 +19436,10 @@
         <v>19</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19454,16 +19457,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19473,7 +19476,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -19483,10 +19486,10 @@
         <v>19</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -19504,16 +19507,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19523,7 +19526,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K85" s="13">
         <v>43620.0</v>
@@ -19533,10 +19536,10 @@
         <v>19</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19554,16 +19557,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19573,7 +19576,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19583,10 +19586,10 @@
         <v>19</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19604,28 +19607,28 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19635,10 +19638,10 @@
         <v>19</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19656,16 +19659,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -19675,7 +19678,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -19685,10 +19688,10 @@
         <v>19</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -19706,16 +19709,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19725,7 +19728,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -19735,10 +19738,10 @@
         <v>19</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -19756,16 +19759,16 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
@@ -19775,7 +19778,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -19785,10 +19788,10 @@
         <v>19</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -19806,16 +19809,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19825,7 +19828,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -19835,10 +19838,10 @@
         <v>19</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -19856,16 +19859,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19886,7 +19889,7 @@
         <v>20</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -19904,16 +19907,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -19934,7 +19937,7 @@
         <v>20</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -19952,16 +19955,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -19971,7 +19974,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -19981,10 +19984,10 @@
         <v>19</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20002,16 +20005,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20021,7 +20024,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K95" s="13">
         <v>43620.0</v>
@@ -20031,10 +20034,10 @@
         <v>19</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20052,16 +20055,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20071,7 +20074,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K96" s="13">
         <v>43620.0</v>
@@ -20081,10 +20084,10 @@
         <v>19</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20102,16 +20105,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20121,7 +20124,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -20131,10 +20134,10 @@
         <v>19</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -20152,16 +20155,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20182,7 +20185,7 @@
         <v>20</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20200,16 +20203,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20219,7 +20222,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -20229,10 +20232,10 @@
         <v>19</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20250,16 +20253,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20269,7 +20272,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -20279,10 +20282,10 @@
         <v>19</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -20300,16 +20303,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20319,7 +20322,7 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K101" s="13">
         <v>43620.0</v>
@@ -20329,10 +20332,10 @@
         <v>19</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20350,16 +20353,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20369,7 +20372,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -20379,10 +20382,10 @@
         <v>19</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -20400,16 +20403,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20419,7 +20422,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -20429,10 +20432,10 @@
         <v>19</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -20450,16 +20453,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20469,7 +20472,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -20479,10 +20482,10 @@
         <v>19</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -20500,16 +20503,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20519,7 +20522,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20531,10 +20534,10 @@
         <v>19</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -20552,16 +20555,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20571,7 +20574,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20581,10 +20584,10 @@
         <v>19</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20602,16 +20605,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20621,7 +20624,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20631,10 +20634,10 @@
         <v>19</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20652,28 +20655,28 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -20683,10 +20686,10 @@
         <v>19</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -20704,16 +20707,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -20723,7 +20726,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -20733,10 +20736,10 @@
         <v>19</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -20754,28 +20757,28 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -20785,10 +20788,10 @@
         <v>19</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -20806,16 +20809,16 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
@@ -20825,7 +20828,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -20835,10 +20838,10 @@
         <v>19</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -20856,16 +20859,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20875,7 +20878,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -20885,10 +20888,10 @@
         <v>19</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -20906,16 +20909,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
@@ -20925,7 +20928,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -20935,10 +20938,10 @@
         <v>19</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -20956,16 +20959,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -20975,7 +20978,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -20985,10 +20988,10 @@
         <v>19</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -21006,16 +21009,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21025,7 +21028,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -21035,10 +21038,10 @@
         <v>19</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -21056,16 +21059,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21084,7 +21087,7 @@
       </c>
       <c r="N116" s="12"/>
       <c r="O116" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21102,28 +21105,28 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -21133,10 +21136,10 @@
         <v>19</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21154,16 +21157,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
@@ -21173,7 +21176,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K118" s="13">
         <v>43620.0</v>
@@ -21183,10 +21186,10 @@
         <v>19</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
@@ -21204,16 +21207,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21223,7 +21226,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -21233,10 +21236,10 @@
         <v>19</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -21254,16 +21257,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21273,7 +21276,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K120" s="13">
         <v>43620.0</v>
@@ -21283,10 +21286,10 @@
         <v>19</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21304,16 +21307,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
@@ -21323,7 +21326,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -21333,10 +21336,10 @@
         <v>19</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -21354,16 +21357,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21384,7 +21387,7 @@
         <v>20</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21402,16 +21405,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21421,7 +21424,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -21431,10 +21434,10 @@
         <v>19</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21452,16 +21455,16 @@
     </row>
     <row r="124">
       <c r="A124" s="53" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21471,7 +21474,7 @@
       <c r="H124" s="49"/>
       <c r="I124" s="49"/>
       <c r="J124" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K124" s="50">
         <v>44139.0</v>
@@ -21484,7 +21487,7 @@
         <v>20</v>
       </c>
       <c r="O124" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P124" s="49"/>
       <c r="Q124" s="49"/>
@@ -21502,16 +21505,16 @@
     </row>
     <row r="125">
       <c r="A125" s="53" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C125" s="51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21521,7 +21524,7 @@
       <c r="H125" s="49"/>
       <c r="I125" s="49"/>
       <c r="J125" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K125" s="50">
         <v>44139.0</v>
@@ -21531,10 +21534,10 @@
         <v>19</v>
       </c>
       <c r="N125" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O125" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P125" s="49"/>
       <c r="Q125" s="49"/>
@@ -21552,16 +21555,16 @@
     </row>
     <row r="126">
       <c r="A126" s="53" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D126" s="51" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21571,7 +21574,7 @@
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="27" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K126" s="50">
         <v>44139.0</v>
@@ -21581,10 +21584,10 @@
         <v>19</v>
       </c>
       <c r="N126" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O126" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P126" s="49"/>
       <c r="Q126" s="49"/>
@@ -21602,16 +21605,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -21632,7 +21635,7 @@
         <v>20</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21650,16 +21653,16 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -21680,7 +21683,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -21698,16 +21701,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -21717,7 +21720,7 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K129" s="13">
         <v>43620.0</v>
@@ -21727,10 +21730,10 @@
         <v>19</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -21748,16 +21751,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -21767,7 +21770,7 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K130" s="13">
         <v>43620.0</v>
@@ -21777,10 +21780,10 @@
         <v>19</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -21798,28 +21801,28 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
       <c r="J132" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K132" s="13">
         <v>43620.0</v>
@@ -21829,10 +21832,10 @@
         <v>19</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -21850,16 +21853,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
@@ -21869,7 +21872,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -21879,10 +21882,10 @@
         <v>19</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -21900,16 +21903,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -21919,7 +21922,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -21929,10 +21932,10 @@
         <v>19</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -21950,16 +21953,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>50</v>
@@ -21969,7 +21972,7 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K135" s="13">
         <v>43620.0</v>
@@ -21979,10 +21982,10 @@
         <v>19</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O135" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
@@ -22000,16 +22003,16 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
@@ -22019,7 +22022,7 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -22029,10 +22032,10 @@
         <v>19</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -22050,16 +22053,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22069,7 +22072,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -22079,10 +22082,10 @@
         <v>19</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -22100,28 +22103,28 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -22131,10 +22134,10 @@
         <v>19</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -22152,16 +22155,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22171,7 +22174,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -22181,10 +22184,10 @@
         <v>19</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -22202,16 +22205,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22221,7 +22224,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -22231,10 +22234,10 @@
         <v>19</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -22252,16 +22255,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22271,7 +22274,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
@@ -22283,10 +22286,10 @@
         <v>19</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -22304,16 +22307,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
@@ -22323,7 +22326,7 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -22333,10 +22336,10 @@
         <v>19</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -22354,16 +22357,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22373,7 +22376,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -22383,10 +22386,10 @@
         <v>19</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -22404,16 +22407,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22423,7 +22426,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -22433,10 +22436,10 @@
         <v>19</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -22454,16 +22457,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22473,7 +22476,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22483,10 +22486,10 @@
         <v>19</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22504,16 +22507,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22550,16 +22553,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>643</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22596,16 +22599,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22615,7 +22618,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22625,10 +22628,10 @@
         <v>19</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22646,16 +22649,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22676,7 +22679,7 @@
         <v>20</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22694,28 +22697,28 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K150" s="13">
         <v>43620.0</v>
@@ -22725,10 +22728,10 @@
         <v>19</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -22746,16 +22749,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -22765,7 +22768,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K151" s="13">
         <v>43620.0</v>
@@ -22775,10 +22778,10 @@
         <v>19</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O151" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -22796,16 +22799,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22815,7 +22818,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -22825,10 +22828,10 @@
         <v>19</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -22846,16 +22849,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22865,7 +22868,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K153" s="13">
         <v>43620.0</v>
@@ -22875,10 +22878,10 @@
         <v>19</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22896,16 +22899,16 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
@@ -22926,7 +22929,7 @@
         <v>20</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -22944,16 +22947,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -22963,7 +22966,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -22973,10 +22976,10 @@
         <v>19</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -22994,16 +22997,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23013,7 +23016,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -23023,10 +23026,10 @@
         <v>19</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -23044,16 +23047,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23063,7 +23066,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -23073,10 +23076,10 @@
         <v>19</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -23094,16 +23097,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23113,7 +23116,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K158" s="13">
         <v>43620.0</v>
@@ -23123,10 +23126,10 @@
         <v>19</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23144,16 +23147,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23163,7 +23166,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -23173,10 +23176,10 @@
         <v>19</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -23194,16 +23197,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23213,7 +23216,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="16" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K160" s="13">
         <v>43795.0</v>
@@ -23223,10 +23226,10 @@
         <v>19</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23244,16 +23247,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23263,7 +23266,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K161" s="13">
         <v>43620.0</v>
@@ -23273,10 +23276,10 @@
         <v>19</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23294,16 +23297,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23313,7 +23316,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -23323,10 +23326,10 @@
         <v>19</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -23344,16 +23347,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23363,7 +23366,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -23373,10 +23376,10 @@
         <v>19</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -23394,16 +23397,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23413,7 +23416,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K164" s="13">
         <v>43620.0</v>
@@ -23423,10 +23426,10 @@
         <v>19</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23444,28 +23447,28 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -23475,10 +23478,10 @@
         <v>19</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23496,16 +23499,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23526,7 +23529,7 @@
         <v>20</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23544,16 +23547,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23563,7 +23566,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K167" s="13">
         <v>43620.0</v>
@@ -23573,10 +23576,10 @@
         <v>19</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23594,16 +23597,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23613,7 +23616,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23623,10 +23626,10 @@
         <v>19</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23644,16 +23647,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
@@ -23663,7 +23666,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -23673,10 +23676,10 @@
         <v>19</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -23694,16 +23697,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23713,7 +23716,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K170" s="13">
         <v>43620.0</v>
@@ -23723,10 +23726,10 @@
         <v>19</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23744,16 +23747,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23763,7 +23766,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -23773,10 +23776,10 @@
         <v>19</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -23794,16 +23797,16 @@
     </row>
     <row r="172">
       <c r="A172" s="47" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C172" s="46" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23813,7 +23816,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -23823,10 +23826,10 @@
         <v>19</v>
       </c>
       <c r="N172" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -23844,16 +23847,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23863,7 +23866,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -23873,10 +23876,10 @@
         <v>19</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -23894,16 +23897,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -23913,7 +23916,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -23923,10 +23926,10 @@
         <v>19</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -23944,16 +23947,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -23974,7 +23977,7 @@
         <v>20</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23992,16 +23995,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24011,7 +24014,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K176" s="13">
         <v>43795.0</v>
@@ -24021,10 +24024,10 @@
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24042,28 +24045,28 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K177" s="13">
         <v>43620.0</v>
@@ -24073,10 +24076,10 @@
         <v>19</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24094,16 +24097,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24121,10 +24124,10 @@
         <v>19</v>
       </c>
       <c r="N178" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P178" s="60"/>
       <c r="Q178" s="60"/>
@@ -24142,16 +24145,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24161,7 +24164,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K179" s="13">
         <v>43620.0</v>
@@ -24171,10 +24174,10 @@
         <v>19</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -24192,16 +24195,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24222,7 +24225,7 @@
         <v>20</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24240,16 +24243,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>741</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>740</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
@@ -24270,7 +24273,7 @@
         <v>20</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24288,16 +24291,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24318,7 +24321,7 @@
         <v>20</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -24336,16 +24339,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24366,7 +24369,7 @@
         <v>20</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24384,16 +24387,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24414,7 +24417,7 @@
         <v>20</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -24432,16 +24435,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24451,7 +24454,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="29"/>
       <c r="J185" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K185" s="13">
         <v>43620.0</v>
@@ -24461,10 +24464,10 @@
         <v>19</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24482,16 +24485,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24501,7 +24504,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K186" s="13">
         <v>43620.0</v>
@@ -24511,10 +24514,10 @@
         <v>19</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24532,16 +24535,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24551,7 +24554,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K187" s="13">
         <v>43620.0</v>
@@ -24561,10 +24564,10 @@
         <v>19</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24582,16 +24585,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24612,7 +24615,7 @@
         <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24630,16 +24633,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24649,7 +24652,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K189" s="13">
         <v>43620.0</v>
@@ -24659,10 +24662,10 @@
         <v>19</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24684,16 +24687,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>50</v>
@@ -24730,16 +24733,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C192" s="61" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -24776,16 +24779,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C193" s="61" t="s">
+        <v>775</v>
+      </c>
+      <c r="D193" s="31" t="s">
         <v>773</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="C193" s="61" t="s">
-        <v>774</v>
-      </c>
-      <c r="D193" s="31" t="s">
-        <v>772</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -24822,16 +24825,16 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>50</v>
@@ -24868,16 +24871,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -24918,23 +24921,23 @@
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B197" s="24"/>
       <c r="E197" s="44"/>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
@@ -24944,7 +24947,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
       <c r="J198" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K198" s="13">
         <v>43620.0</v>
@@ -24954,10 +24957,10 @@
         <v>19</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O198" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
@@ -24975,16 +24978,16 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
@@ -24994,7 +24997,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K199" s="13">
         <v>43620.0</v>
@@ -25004,10 +25007,10 @@
         <v>19</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O199" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -25025,16 +25028,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>50</v>
@@ -25044,7 +25047,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K200" s="13">
         <v>43620.0</v>
@@ -25054,10 +25057,10 @@
         <v>19</v>
       </c>
       <c r="N200" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O200" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
@@ -25075,16 +25078,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>50</v>
@@ -25094,7 +25097,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K201" s="13">
         <v>43620.0</v>
@@ -25104,10 +25107,10 @@
         <v>19</v>
       </c>
       <c r="N201" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O201" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
@@ -25125,28 +25128,28 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -25156,10 +25159,10 @@
         <v>19</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -25177,16 +25180,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25207,7 +25210,7 @@
         <v>20</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25225,16 +25228,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25244,7 +25247,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -25254,10 +25257,10 @@
         <v>19</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25275,16 +25278,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25294,7 +25297,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -25304,10 +25307,10 @@
         <v>19</v>
       </c>
       <c r="N205" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -25325,16 +25328,16 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
@@ -25344,7 +25347,7 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K206" s="13">
         <v>43620.0</v>
@@ -25354,10 +25357,10 @@
         <v>19</v>
       </c>
       <c r="N206" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25375,16 +25378,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25394,7 +25397,7 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K207" s="13">
         <v>43620.0</v>
@@ -25404,10 +25407,10 @@
         <v>19</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25425,16 +25428,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25455,7 +25458,7 @@
         <v>20</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25485,16 +25488,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25504,7 +25507,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -25516,10 +25519,10 @@
         <v>19</v>
       </c>
       <c r="N210" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -25537,16 +25540,16 @@
     </row>
     <row r="211">
       <c r="A211" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E211" s="36" t="s">
         <v>50</v>
@@ -25560,7 +25563,7 @@
       <c r="L211" s="38"/>
       <c r="M211" s="36"/>
       <c r="N211" s="36" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O211" s="38"/>
       <c r="P211" s="38"/>
@@ -25579,16 +25582,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>50</v>
@@ -25606,7 +25609,7 @@
         <v>19</v>
       </c>
       <c r="N212" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
@@ -25625,16 +25628,16 @@
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>50</v>
@@ -25652,7 +25655,7 @@
         <v>19</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O213" s="12"/>
       <c r="P213" s="12"/>
@@ -25671,16 +25674,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>50</v>
@@ -25698,7 +25701,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O214" s="12"/>
       <c r="P214" s="12"/>
@@ -25717,16 +25720,16 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>50</v>
@@ -25744,7 +25747,7 @@
         <v>19</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
@@ -25763,16 +25766,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25790,7 +25793,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25809,16 +25812,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25836,7 +25839,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25855,16 +25858,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25874,7 +25877,7 @@
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K218" s="13">
         <v>43620.0</v>
@@ -25886,10 +25889,10 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O218" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
@@ -28785,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -28803,110 +28806,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="847">
   <si>
     <t>Term</t>
   </si>
@@ -439,82 +439,85 @@
     <t>Personal data that is considered 'sensitive' in terms of privacy and/or impact, and therefore requires additional considerations and/or protection</t>
   </si>
   <si>
+    <t>dpv:PersonalData,dpv:SensitiveData</t>
+  </si>
+  <si>
+    <t>Sensitivity' is a matter of context, and may be defined within legal frameworks. For GDPR, Special categories of personal data are considered a subset of sensitive data. To illustrate the difference between the two, consider the situation where Location data is collected, and which is considered 'sensitive' but not 'special'. As a probable rule, sensitive data require additional considerations whereas special category data requires additional legal basis / justifications.</t>
+  </si>
+  <si>
+    <t>SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>Special Category Personal Data</t>
+  </si>
+  <si>
+    <t>Sensitive Personal Data whose use requires specific additional legal permission or justification</t>
+  </si>
+  <si>
+    <t>dpv:SensitivePersonalData</t>
+  </si>
+  <si>
+    <t>The term 'special category' is based on GDPR Art.9, but should not be considered as exclusive to it. DPV considers all Special Categories to also be Sensitive, but whose use is either prohibited or regulated and therefore requires additional legal basis for justification that is separate from that for general personal data.</t>
+  </si>
+  <si>
+    <t>(GDPR Art.9-1, https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_1/oj)</t>
+  </si>
+  <si>
+    <t>CommerciallyConfidentialData</t>
+  </si>
+  <si>
+    <t>Commercially Confidential Data</t>
+  </si>
+  <si>
+    <t>Data protected through Commercial Confidentiality Agreements</t>
+  </si>
+  <si>
+    <t>DGA 6.5(c)</t>
+  </si>
+  <si>
+    <t>ConfidentialData</t>
+  </si>
+  <si>
+    <t>Confidential Data</t>
+  </si>
+  <si>
+    <t>Data deemed confidential</t>
+  </si>
+  <si>
+    <t>DGA 5.10</t>
+  </si>
+  <si>
+    <t>IntellectualPropertyData</t>
+  </si>
+  <si>
+    <t>Intellectual Property Data</t>
+  </si>
+  <si>
+    <t>Data protected by Intellectual Property rights and regulations</t>
+  </si>
+  <si>
+    <t>dpv:ConfidentialData</t>
+  </si>
+  <si>
+    <t>SensitiveData</t>
+  </si>
+  <si>
+    <t>Sensitive Data</t>
+  </si>
+  <si>
+    <t>Data deemed sensitive</t>
+  </si>
+  <si>
+    <t>SensitiveNonPersonalData</t>
+  </si>
+  <si>
+    <t>Sensitive Non Personal Data</t>
+  </si>
+  <si>
+    <t>Non-personal data deemed sensitive</t>
+  </si>
+  <si>
     <t>dpv:SensitiveData</t>
-  </si>
-  <si>
-    <t>Sensitivity' is a matter of context, and may be defined within legal frameworks. For GDPR, Special categories of personal data are considered a subset of sensitive data. To illustrate the difference between the two, consider the situation where Location data is collected, and which is considered 'sensitive' but not 'special'. As a probable rule, sensitive data require additional considerations whereas special category data requires additional legal basis / justifications.</t>
-  </si>
-  <si>
-    <t>SpecialCategoryPersonalData</t>
-  </si>
-  <si>
-    <t>Special Category Personal Data</t>
-  </si>
-  <si>
-    <t>Sensitive Personal Data whose use requires specific additional legal permission or justification</t>
-  </si>
-  <si>
-    <t>dpv:SensitivePersonalData</t>
-  </si>
-  <si>
-    <t>The term 'special category' is based on GDPR Art.9, but should not be considered as exclusive to it. DPV considers all Special Categories to also be Sensitive, but whose use is either prohibited or regulated and therefore requires additional legal basis for justification that is separate from that for general personal data.</t>
-  </si>
-  <si>
-    <t>(GDPR Art.9-1, https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_1/oj)</t>
-  </si>
-  <si>
-    <t>CommerciallyConfidentialData</t>
-  </si>
-  <si>
-    <t>Commercially Confidential Data</t>
-  </si>
-  <si>
-    <t>Data protected through Commercial Confidentiality Agreements</t>
-  </si>
-  <si>
-    <t>DGA 6.5(c)</t>
-  </si>
-  <si>
-    <t>ConfidentialData</t>
-  </si>
-  <si>
-    <t>Confidential Data</t>
-  </si>
-  <si>
-    <t>Data deemed confidential</t>
-  </si>
-  <si>
-    <t>DGA 5.10</t>
-  </si>
-  <si>
-    <t>IntellectualPropertyData</t>
-  </si>
-  <si>
-    <t>Intellectual Property Data</t>
-  </si>
-  <si>
-    <t>Data protected by Intellectual Property rights and regulations</t>
-  </si>
-  <si>
-    <t>dpv:ConfidentialData</t>
-  </si>
-  <si>
-    <t>SensitiveData</t>
-  </si>
-  <si>
-    <t>Sensitive Data</t>
-  </si>
-  <si>
-    <t>Data deemed sensitive</t>
-  </si>
-  <si>
-    <t>SensitiveNonPersonalData</t>
-  </si>
-  <si>
-    <t>Sensitive Non Personal Data</t>
-  </si>
-  <si>
-    <t>Non-personal data deemed sensitive</t>
   </si>
   <si>
     <t>DGA 30(a)</t>
@@ -4896,7 +4899,7 @@
         <v>155</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>26</v>
@@ -4906,7 +4909,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K39" s="21">
         <v>45336.0</v>
@@ -4933,13 +4936,13 @@
     </row>
     <row r="40">
       <c r="A40" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>149</v>
@@ -4952,7 +4955,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K40" s="21">
         <v>45336.0</v>
@@ -4982,7 +4985,7 @@
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="36" t="s">
@@ -5002,7 +5005,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
@@ -5022,11 +5025,11 @@
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>50</v>
@@ -5042,7 +5045,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
@@ -7618,13 +7621,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7656,13 +7659,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -7671,7 +7674,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7706,13 +7709,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -7721,7 +7724,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -10783,13 +10786,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
@@ -10800,7 +10803,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -10813,7 +10816,7 @@
         <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -10831,13 +10834,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
@@ -10845,12 +10848,12 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -10863,7 +10866,7 @@
         <v>106</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10881,13 +10884,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9" t="s">
@@ -10898,7 +10901,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -10911,7 +10914,7 @@
         <v>106</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -10929,13 +10932,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
@@ -10957,7 +10960,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -10975,13 +10978,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9" t="s">
@@ -10992,7 +10995,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -11005,7 +11008,7 @@
         <v>106</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -11023,13 +11026,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
@@ -11051,7 +11054,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -11069,13 +11072,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9" t="s">
@@ -11086,7 +11089,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -11099,7 +11102,7 @@
         <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -11117,13 +11120,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9" t="s">
@@ -11134,7 +11137,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -11147,7 +11150,7 @@
         <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15379,16 +15382,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>50</v>
@@ -15398,7 +15401,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -15411,7 +15414,7 @@
         <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -15429,16 +15432,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>50</v>
@@ -15448,7 +15451,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -15461,7 +15464,7 @@
         <v>106</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -15479,16 +15482,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15498,7 +15501,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -15511,7 +15514,7 @@
         <v>106</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15529,16 +15532,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>50</v>
@@ -15548,7 +15551,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15561,7 +15564,7 @@
         <v>106</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15579,16 +15582,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>50</v>
@@ -15609,7 +15612,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15627,16 +15630,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>50</v>
@@ -15657,7 +15660,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -15675,16 +15678,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>50</v>
@@ -15694,7 +15697,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -15707,7 +15710,7 @@
         <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -15725,16 +15728,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -15744,7 +15747,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -15757,7 +15760,7 @@
         <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15775,16 +15778,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>50</v>
@@ -15794,7 +15797,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -15807,7 +15810,7 @@
         <v>106</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -15825,16 +15828,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>50</v>
@@ -15844,7 +15847,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -15857,7 +15860,7 @@
         <v>106</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -15875,16 +15878,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -15894,7 +15897,7 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K12" s="50">
         <v>44139.0</v>
@@ -15907,7 +15910,7 @@
         <v>116</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -15925,16 +15928,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>50</v>
@@ -15944,7 +15947,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -15957,7 +15960,7 @@
         <v>106</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -15975,28 +15978,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -16009,7 +16012,7 @@
         <v>106</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -16027,16 +16030,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>50</v>
@@ -16057,7 +16060,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -16075,16 +16078,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16105,7 +16108,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -16123,16 +16126,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16142,7 +16145,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" s="13">
         <v>43620.0</v>
@@ -16155,7 +16158,7 @@
         <v>106</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -16173,16 +16176,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16192,7 +16195,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -16205,7 +16208,7 @@
         <v>106</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -16223,16 +16226,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16253,7 +16256,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16271,28 +16274,28 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K20" s="13">
         <v>43620.0</v>
@@ -16305,7 +16308,7 @@
         <v>106</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16323,16 +16326,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
@@ -16342,7 +16345,7 @@
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K21" s="50">
         <v>44139.0</v>
@@ -16355,7 +16358,7 @@
         <v>116</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -16373,16 +16376,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16392,7 +16395,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" s="13">
         <v>43620.0</v>
@@ -16405,7 +16408,7 @@
         <v>106</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -16423,16 +16426,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16442,7 +16445,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -16455,7 +16458,7 @@
         <v>106</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -16473,16 +16476,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16492,7 +16495,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -16505,7 +16508,7 @@
         <v>106</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -16523,16 +16526,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16542,7 +16545,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16555,7 +16558,7 @@
         <v>106</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16573,28 +16576,28 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16607,7 +16610,7 @@
         <v>106</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16625,16 +16628,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
@@ -16644,7 +16647,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16657,7 +16660,7 @@
         <v>106</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -16675,28 +16678,28 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -16709,7 +16712,7 @@
         <v>106</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -16727,16 +16730,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
@@ -16746,7 +16749,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
       <c r="J29" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -16759,7 +16762,7 @@
         <v>106</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -16777,16 +16780,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -16796,7 +16799,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -16809,7 +16812,7 @@
         <v>106</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -16827,16 +16830,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -16846,7 +16849,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -16859,7 +16862,7 @@
         <v>106</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -16877,16 +16880,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -16896,7 +16899,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -16909,7 +16912,7 @@
         <v>106</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -16927,16 +16930,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -16946,7 +16949,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -16959,7 +16962,7 @@
         <v>106</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -16977,16 +16980,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -16996,7 +16999,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -17009,7 +17012,7 @@
         <v>106</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -17027,16 +17030,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17046,7 +17049,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -17059,7 +17062,7 @@
         <v>106</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -17077,16 +17080,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17096,7 +17099,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -17109,7 +17112,7 @@
         <v>106</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -17127,28 +17130,28 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -17161,7 +17164,7 @@
         <v>106</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -17179,16 +17182,16 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
@@ -17198,7 +17201,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -17211,7 +17214,7 @@
         <v>106</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -17229,16 +17232,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17248,7 +17251,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -17261,7 +17264,7 @@
         <v>106</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -17279,16 +17282,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17325,16 +17328,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17344,7 +17347,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K41" s="13">
         <v>43620.0</v>
@@ -17357,7 +17360,7 @@
         <v>106</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -17375,16 +17378,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17405,7 +17408,7 @@
         <v>20</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17423,16 +17426,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17442,7 +17445,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K43" s="13">
         <v>43620.0</v>
@@ -17455,7 +17458,7 @@
         <v>106</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17473,16 +17476,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17492,7 +17495,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -17505,7 +17508,7 @@
         <v>106</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -17523,16 +17526,16 @@
     </row>
     <row r="45">
       <c r="A45" s="53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17542,7 +17545,7 @@
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K45" s="50">
         <v>44139.0</v>
@@ -17552,10 +17555,10 @@
         <v>19</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O45" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P45" s="49"/>
       <c r="Q45" s="49"/>
@@ -17573,28 +17576,28 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K46" s="13">
         <v>43620.0</v>
@@ -17607,7 +17610,7 @@
         <v>106</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -17625,16 +17628,16 @@
     </row>
     <row r="47">
       <c r="A47" s="53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
@@ -17644,7 +17647,7 @@
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
       <c r="J47" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K47" s="50">
         <v>44139.0</v>
@@ -17654,10 +17657,10 @@
         <v>19</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P47" s="49"/>
       <c r="Q47" s="49"/>
@@ -17675,16 +17678,16 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -17694,7 +17697,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -17704,10 +17707,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
@@ -17725,16 +17728,16 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -17744,7 +17747,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K49" s="13">
         <v>43620.0</v>
@@ -17757,7 +17760,7 @@
         <v>106</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -17775,16 +17778,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -17805,7 +17808,7 @@
         <v>20</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17823,16 +17826,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -17842,7 +17845,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K51" s="13">
         <v>43620.0</v>
@@ -17855,7 +17858,7 @@
         <v>106</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17873,16 +17876,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -17892,7 +17895,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -17905,7 +17908,7 @@
         <v>106</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -17923,16 +17926,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -17942,7 +17945,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -17955,7 +17958,7 @@
         <v>106</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -17973,16 +17976,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -17992,7 +17995,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -18005,7 +18008,7 @@
         <v>106</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -18023,16 +18026,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18042,7 +18045,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -18055,7 +18058,7 @@
         <v>106</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -18073,16 +18076,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18092,7 +18095,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -18105,7 +18108,7 @@
         <v>106</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -18123,16 +18126,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18153,7 +18156,7 @@
         <v>20</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18171,16 +18174,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18201,7 +18204,7 @@
         <v>20</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -18219,16 +18222,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18249,7 +18252,7 @@
         <v>20</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -18267,16 +18270,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18286,7 +18289,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K60" s="13">
         <v>43620.0</v>
@@ -18299,7 +18302,7 @@
         <v>106</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18317,16 +18320,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18347,7 +18350,7 @@
         <v>20</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18365,16 +18368,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18395,7 +18398,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -18413,16 +18416,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18432,7 +18435,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K63" s="13">
         <v>43620.0</v>
@@ -18445,7 +18448,7 @@
         <v>106</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18463,16 +18466,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18482,7 +18485,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -18495,7 +18498,7 @@
         <v>106</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -18513,16 +18516,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18532,7 +18535,7 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K65" s="13">
         <v>43620.0</v>
@@ -18545,7 +18548,7 @@
         <v>106</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
@@ -18563,16 +18566,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18593,7 +18596,7 @@
         <v>20</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18611,16 +18614,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18630,7 +18633,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18643,7 +18646,7 @@
         <v>106</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18661,16 +18664,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18680,7 +18683,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K68" s="13">
         <v>43620.0</v>
@@ -18693,7 +18696,7 @@
         <v>106</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18711,16 +18714,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18730,7 +18733,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K69" s="13">
         <v>43620.0</v>
@@ -18743,7 +18746,7 @@
         <v>106</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -18761,16 +18764,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18780,7 +18783,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -18793,7 +18796,7 @@
         <v>106</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -18811,16 +18814,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18830,7 +18833,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -18843,7 +18846,7 @@
         <v>106</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -18861,16 +18864,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18880,7 +18883,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -18893,7 +18896,7 @@
         <v>106</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -18911,16 +18914,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -18930,7 +18933,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -18943,7 +18946,7 @@
         <v>106</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -18961,16 +18964,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -18980,7 +18983,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -18993,7 +18996,7 @@
         <v>106</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -19011,16 +19014,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19030,7 +19033,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -19043,7 +19046,7 @@
         <v>106</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -19061,16 +19064,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19080,7 +19083,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -19093,7 +19096,7 @@
         <v>106</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -19111,16 +19114,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19141,7 +19144,7 @@
         <v>20</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19159,16 +19162,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19178,7 +19181,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -19191,7 +19194,7 @@
         <v>106</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19209,16 +19212,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19228,7 +19231,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -19241,7 +19244,7 @@
         <v>106</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -19259,16 +19262,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19278,7 +19281,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K80" s="13">
         <v>43620.0</v>
@@ -19291,7 +19294,7 @@
         <v>106</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19309,16 +19312,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19328,7 +19331,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -19341,7 +19344,7 @@
         <v>106</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -19359,16 +19362,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19389,7 +19392,7 @@
         <v>20</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19407,16 +19410,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19426,7 +19429,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -19439,7 +19442,7 @@
         <v>106</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19457,16 +19460,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19476,7 +19479,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -19489,7 +19492,7 @@
         <v>106</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -19507,16 +19510,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19526,7 +19529,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K85" s="13">
         <v>43620.0</v>
@@ -19539,7 +19542,7 @@
         <v>106</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19557,16 +19560,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19576,7 +19579,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19589,7 +19592,7 @@
         <v>106</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19607,28 +19610,28 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19641,7 +19644,7 @@
         <v>106</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19659,16 +19662,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -19678,7 +19681,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -19691,7 +19694,7 @@
         <v>106</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -19709,16 +19712,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19728,7 +19731,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -19741,7 +19744,7 @@
         <v>106</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -19759,16 +19762,16 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
@@ -19778,7 +19781,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -19791,7 +19794,7 @@
         <v>106</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -19809,16 +19812,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19828,7 +19831,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -19841,7 +19844,7 @@
         <v>106</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -19859,16 +19862,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19889,7 +19892,7 @@
         <v>20</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -19907,16 +19910,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -19937,7 +19940,7 @@
         <v>20</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -19955,16 +19958,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -19974,7 +19977,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -19987,7 +19990,7 @@
         <v>106</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20005,16 +20008,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20024,7 +20027,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K95" s="13">
         <v>43620.0</v>
@@ -20037,7 +20040,7 @@
         <v>106</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20055,16 +20058,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20074,7 +20077,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K96" s="13">
         <v>43620.0</v>
@@ -20087,7 +20090,7 @@
         <v>106</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20105,16 +20108,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20124,7 +20127,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -20137,7 +20140,7 @@
         <v>106</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -20155,16 +20158,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20185,7 +20188,7 @@
         <v>20</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20203,16 +20206,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20222,7 +20225,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -20235,7 +20238,7 @@
         <v>106</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20253,16 +20256,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20272,7 +20275,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -20285,7 +20288,7 @@
         <v>106</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -20303,16 +20306,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20322,7 +20325,7 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K101" s="13">
         <v>43620.0</v>
@@ -20335,7 +20338,7 @@
         <v>106</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20353,16 +20356,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20372,7 +20375,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -20385,7 +20388,7 @@
         <v>106</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -20403,16 +20406,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20422,7 +20425,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -20435,7 +20438,7 @@
         <v>106</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -20453,16 +20456,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20472,7 +20475,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -20485,7 +20488,7 @@
         <v>106</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -20503,16 +20506,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20522,7 +20525,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20537,7 +20540,7 @@
         <v>106</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -20555,16 +20558,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20574,7 +20577,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20587,7 +20590,7 @@
         <v>106</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20605,16 +20608,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20624,7 +20627,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20637,7 +20640,7 @@
         <v>106</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20655,28 +20658,28 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -20689,7 +20692,7 @@
         <v>106</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -20707,16 +20710,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -20726,7 +20729,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -20739,7 +20742,7 @@
         <v>106</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -20757,28 +20760,28 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -20791,7 +20794,7 @@
         <v>106</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -20809,16 +20812,16 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
@@ -20828,7 +20831,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -20841,7 +20844,7 @@
         <v>106</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -20859,16 +20862,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20878,7 +20881,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -20891,7 +20894,7 @@
         <v>106</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -20909,16 +20912,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
@@ -20928,7 +20931,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -20941,7 +20944,7 @@
         <v>106</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -20959,16 +20962,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -20978,7 +20981,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -20991,7 +20994,7 @@
         <v>106</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -21009,16 +21012,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21028,7 +21031,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -21041,7 +21044,7 @@
         <v>106</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -21059,16 +21062,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21087,7 +21090,7 @@
       </c>
       <c r="N116" s="12"/>
       <c r="O116" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21105,28 +21108,28 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -21139,7 +21142,7 @@
         <v>106</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21157,16 +21160,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
@@ -21176,7 +21179,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K118" s="13">
         <v>43620.0</v>
@@ -21189,7 +21192,7 @@
         <v>106</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
@@ -21207,16 +21210,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21226,7 +21229,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -21239,7 +21242,7 @@
         <v>106</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -21257,16 +21260,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21276,7 +21279,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K120" s="13">
         <v>43620.0</v>
@@ -21289,7 +21292,7 @@
         <v>106</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21307,16 +21310,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
@@ -21326,7 +21329,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -21339,7 +21342,7 @@
         <v>106</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -21357,16 +21360,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21387,7 +21390,7 @@
         <v>20</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21405,16 +21408,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21424,7 +21427,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -21437,7 +21440,7 @@
         <v>106</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21455,16 +21458,16 @@
     </row>
     <row r="124">
       <c r="A124" s="53" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21474,7 +21477,7 @@
       <c r="H124" s="49"/>
       <c r="I124" s="49"/>
       <c r="J124" s="27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K124" s="50">
         <v>44139.0</v>
@@ -21487,7 +21490,7 @@
         <v>20</v>
       </c>
       <c r="O124" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P124" s="49"/>
       <c r="Q124" s="49"/>
@@ -21505,16 +21508,16 @@
     </row>
     <row r="125">
       <c r="A125" s="53" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C125" s="51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21524,7 +21527,7 @@
       <c r="H125" s="49"/>
       <c r="I125" s="49"/>
       <c r="J125" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K125" s="50">
         <v>44139.0</v>
@@ -21537,7 +21540,7 @@
         <v>116</v>
       </c>
       <c r="O125" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P125" s="49"/>
       <c r="Q125" s="49"/>
@@ -21555,16 +21558,16 @@
     </row>
     <row r="126">
       <c r="A126" s="53" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D126" s="51" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21574,7 +21577,7 @@
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K126" s="50">
         <v>44139.0</v>
@@ -21587,7 +21590,7 @@
         <v>116</v>
       </c>
       <c r="O126" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P126" s="49"/>
       <c r="Q126" s="49"/>
@@ -21605,16 +21608,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -21635,7 +21638,7 @@
         <v>20</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21653,16 +21656,16 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -21683,7 +21686,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -21701,16 +21704,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -21720,7 +21723,7 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K129" s="13">
         <v>43620.0</v>
@@ -21733,7 +21736,7 @@
         <v>106</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -21751,16 +21754,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -21770,7 +21773,7 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K130" s="13">
         <v>43620.0</v>
@@ -21783,7 +21786,7 @@
         <v>106</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -21801,28 +21804,28 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
       <c r="J132" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K132" s="13">
         <v>43620.0</v>
@@ -21835,7 +21838,7 @@
         <v>106</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -21853,16 +21856,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
@@ -21872,7 +21875,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -21885,7 +21888,7 @@
         <v>106</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -21903,16 +21906,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -21922,7 +21925,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -21935,7 +21938,7 @@
         <v>106</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -21953,16 +21956,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>50</v>
@@ -21972,7 +21975,7 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K135" s="13">
         <v>43620.0</v>
@@ -21985,7 +21988,7 @@
         <v>106</v>
       </c>
       <c r="O135" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
@@ -22003,16 +22006,16 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
@@ -22022,7 +22025,7 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -22035,7 +22038,7 @@
         <v>106</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -22053,16 +22056,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22072,7 +22075,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -22085,7 +22088,7 @@
         <v>106</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -22103,28 +22106,28 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -22137,7 +22140,7 @@
         <v>106</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -22155,16 +22158,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22174,7 +22177,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -22187,7 +22190,7 @@
         <v>106</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -22205,16 +22208,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22224,7 +22227,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -22237,7 +22240,7 @@
         <v>106</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -22255,16 +22258,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22274,7 +22277,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
@@ -22289,7 +22292,7 @@
         <v>106</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -22307,16 +22310,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
@@ -22326,7 +22329,7 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -22339,7 +22342,7 @@
         <v>106</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -22357,16 +22360,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22376,7 +22379,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -22389,7 +22392,7 @@
         <v>106</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -22407,16 +22410,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22426,7 +22429,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -22439,7 +22442,7 @@
         <v>106</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -22457,16 +22460,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22476,7 +22479,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22489,7 +22492,7 @@
         <v>106</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22507,16 +22510,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22553,16 +22556,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>644</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22599,16 +22602,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22618,7 +22621,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22631,7 +22634,7 @@
         <v>106</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22649,16 +22652,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22679,7 +22682,7 @@
         <v>20</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22697,28 +22700,28 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K150" s="13">
         <v>43620.0</v>
@@ -22731,7 +22734,7 @@
         <v>106</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -22749,16 +22752,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -22768,7 +22771,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K151" s="13">
         <v>43620.0</v>
@@ -22781,7 +22784,7 @@
         <v>106</v>
       </c>
       <c r="O151" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -22799,16 +22802,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22818,7 +22821,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -22831,7 +22834,7 @@
         <v>106</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -22849,16 +22852,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22868,7 +22871,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K153" s="13">
         <v>43620.0</v>
@@ -22881,7 +22884,7 @@
         <v>106</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22899,16 +22902,16 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
@@ -22929,7 +22932,7 @@
         <v>20</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -22947,16 +22950,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -22966,7 +22969,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -22979,7 +22982,7 @@
         <v>106</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -22997,16 +23000,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23016,7 +23019,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -23029,7 +23032,7 @@
         <v>106</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -23047,16 +23050,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23066,7 +23069,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -23079,7 +23082,7 @@
         <v>106</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -23097,16 +23100,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23116,7 +23119,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K158" s="13">
         <v>43620.0</v>
@@ -23129,7 +23132,7 @@
         <v>106</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23147,16 +23150,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23166,7 +23169,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -23179,7 +23182,7 @@
         <v>106</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -23197,16 +23200,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23216,7 +23219,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K160" s="13">
         <v>43795.0</v>
@@ -23226,10 +23229,10 @@
         <v>19</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23247,16 +23250,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23266,7 +23269,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K161" s="13">
         <v>43620.0</v>
@@ -23279,7 +23282,7 @@
         <v>106</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23297,16 +23300,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23316,7 +23319,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -23329,7 +23332,7 @@
         <v>106</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -23347,16 +23350,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23366,7 +23369,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -23379,7 +23382,7 @@
         <v>106</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -23397,16 +23400,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23416,7 +23419,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K164" s="13">
         <v>43620.0</v>
@@ -23429,7 +23432,7 @@
         <v>106</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23447,28 +23450,28 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -23481,7 +23484,7 @@
         <v>106</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23499,16 +23502,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23529,7 +23532,7 @@
         <v>20</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23547,16 +23550,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23566,7 +23569,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K167" s="13">
         <v>43620.0</v>
@@ -23579,7 +23582,7 @@
         <v>106</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23597,16 +23600,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23616,7 +23619,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23629,7 +23632,7 @@
         <v>106</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23647,16 +23650,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
@@ -23666,7 +23669,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -23679,7 +23682,7 @@
         <v>106</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -23697,16 +23700,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23716,7 +23719,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K170" s="13">
         <v>43620.0</v>
@@ -23729,7 +23732,7 @@
         <v>106</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23747,16 +23750,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23766,7 +23769,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -23779,7 +23782,7 @@
         <v>106</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -23797,16 +23800,16 @@
     </row>
     <row r="172">
       <c r="A172" s="47" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C172" s="46" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23816,7 +23819,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -23829,7 +23832,7 @@
         <v>106</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -23847,16 +23850,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23866,7 +23869,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -23879,7 +23882,7 @@
         <v>106</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -23897,16 +23900,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -23916,7 +23919,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -23929,7 +23932,7 @@
         <v>106</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -23947,16 +23950,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -23977,7 +23980,7 @@
         <v>20</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23995,16 +23998,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24014,7 +24017,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K176" s="13">
         <v>43795.0</v>
@@ -24024,10 +24027,10 @@
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24045,28 +24048,28 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K177" s="13">
         <v>43620.0</v>
@@ -24079,7 +24082,7 @@
         <v>106</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24097,16 +24100,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24127,7 +24130,7 @@
         <v>116</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P178" s="60"/>
       <c r="Q178" s="60"/>
@@ -24145,16 +24148,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24164,7 +24167,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K179" s="13">
         <v>43620.0</v>
@@ -24177,7 +24180,7 @@
         <v>106</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -24195,16 +24198,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24225,7 +24228,7 @@
         <v>20</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24243,16 +24246,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>741</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
@@ -24273,7 +24276,7 @@
         <v>20</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24291,16 +24294,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24321,7 +24324,7 @@
         <v>20</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -24339,16 +24342,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24369,7 +24372,7 @@
         <v>20</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24387,16 +24390,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24417,7 +24420,7 @@
         <v>20</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -24435,16 +24438,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24454,7 +24457,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="29"/>
       <c r="J185" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K185" s="13">
         <v>43620.0</v>
@@ -24467,7 +24470,7 @@
         <v>106</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24485,16 +24488,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24504,7 +24507,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K186" s="13">
         <v>43620.0</v>
@@ -24517,7 +24520,7 @@
         <v>106</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24535,16 +24538,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24554,7 +24557,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K187" s="13">
         <v>43620.0</v>
@@ -24567,7 +24570,7 @@
         <v>106</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24585,16 +24588,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24615,7 +24618,7 @@
         <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24633,16 +24636,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24652,7 +24655,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K189" s="13">
         <v>43620.0</v>
@@ -24665,7 +24668,7 @@
         <v>106</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24687,16 +24690,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>50</v>
@@ -24733,16 +24736,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C192" s="61" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -24779,16 +24782,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C193" s="61" t="s">
+        <v>776</v>
+      </c>
+      <c r="D193" s="31" t="s">
         <v>774</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="C193" s="61" t="s">
-        <v>775</v>
-      </c>
-      <c r="D193" s="31" t="s">
-        <v>773</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -24825,16 +24828,16 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>50</v>
@@ -24871,16 +24874,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -24921,23 +24924,23 @@
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B197" s="24"/>
       <c r="E197" s="44"/>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
@@ -24947,7 +24950,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
       <c r="J198" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K198" s="13">
         <v>43620.0</v>
@@ -24960,7 +24963,7 @@
         <v>106</v>
       </c>
       <c r="O198" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
@@ -24978,16 +24981,16 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
@@ -24997,7 +25000,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K199" s="13">
         <v>43620.0</v>
@@ -25010,7 +25013,7 @@
         <v>106</v>
       </c>
       <c r="O199" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -25028,16 +25031,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>50</v>
@@ -25047,7 +25050,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K200" s="13">
         <v>43620.0</v>
@@ -25060,7 +25063,7 @@
         <v>106</v>
       </c>
       <c r="O200" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
@@ -25078,16 +25081,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>50</v>
@@ -25097,7 +25100,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K201" s="13">
         <v>43620.0</v>
@@ -25110,7 +25113,7 @@
         <v>106</v>
       </c>
       <c r="O201" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
@@ -25128,28 +25131,28 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -25162,7 +25165,7 @@
         <v>106</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -25180,16 +25183,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25210,7 +25213,7 @@
         <v>20</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25228,16 +25231,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25247,7 +25250,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -25260,7 +25263,7 @@
         <v>106</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25278,16 +25281,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25297,7 +25300,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -25310,7 +25313,7 @@
         <v>106</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -25328,16 +25331,16 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
@@ -25347,7 +25350,7 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K206" s="13">
         <v>43620.0</v>
@@ -25360,7 +25363,7 @@
         <v>106</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25378,16 +25381,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25397,7 +25400,7 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K207" s="13">
         <v>43620.0</v>
@@ -25410,7 +25413,7 @@
         <v>106</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25428,16 +25431,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25458,7 +25461,7 @@
         <v>20</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25488,16 +25491,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25507,7 +25510,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -25519,10 +25522,10 @@
         <v>19</v>
       </c>
       <c r="N210" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -25540,16 +25543,16 @@
     </row>
     <row r="211">
       <c r="A211" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E211" s="36" t="s">
         <v>50</v>
@@ -25563,7 +25566,7 @@
       <c r="L211" s="38"/>
       <c r="M211" s="36"/>
       <c r="N211" s="36" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O211" s="38"/>
       <c r="P211" s="38"/>
@@ -25582,16 +25585,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>50</v>
@@ -25609,7 +25612,7 @@
         <v>19</v>
       </c>
       <c r="N212" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
@@ -25628,16 +25631,16 @@
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>50</v>
@@ -25655,7 +25658,7 @@
         <v>19</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O213" s="12"/>
       <c r="P213" s="12"/>
@@ -25674,16 +25677,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>50</v>
@@ -25701,7 +25704,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O214" s="12"/>
       <c r="P214" s="12"/>
@@ -25720,16 +25723,16 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>50</v>
@@ -25747,7 +25750,7 @@
         <v>19</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
@@ -25766,16 +25769,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25793,7 +25796,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25812,16 +25815,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25839,7 +25842,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25858,16 +25861,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25877,7 +25880,7 @@
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K218" s="13">
         <v>43620.0</v>
@@ -25889,10 +25892,10 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O218" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
@@ -28788,7 +28791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -28806,110 +28809,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="856">
   <si>
     <t>Term</t>
   </si>
@@ -814,6 +814,24 @@
     <t>pd:Location</t>
   </si>
   <si>
+    <t>BirthCountry</t>
+  </si>
+  <si>
+    <t>Birth Country</t>
+  </si>
+  <si>
+    <t>Information about country of birth</t>
+  </si>
+  <si>
+    <t>dpv:BirthPlace</t>
+  </si>
+  <si>
+    <t>use pd:BirthCountry</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Beatriz Esteves</t>
+  </si>
+  <si>
     <t>BloodType</t>
   </si>
   <si>
@@ -2487,31 +2505,40 @@
     <t>Information about residency e.g. which region or country a person is resident in</t>
   </si>
   <si>
+    <t>Parent changed to pd:Location</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Domicile</t>
+  </si>
+  <si>
+    <t>Information about domicile status e.g. which region or country a person is domiciled in</t>
+  </si>
+  <si>
+    <t>PlaceOfBirth</t>
+  </si>
+  <si>
+    <t>Place Of Birth</t>
+  </si>
+  <si>
+    <t>Information about place of birth</t>
+  </si>
+  <si>
     <t>dpv:Location</t>
   </si>
   <si>
-    <t>Domicile</t>
-  </si>
-  <si>
-    <t>Information about domicile status e.g. which region or country a person is domiciled in</t>
-  </si>
-  <si>
-    <t>PlaceOfBirth</t>
-  </si>
-  <si>
-    <t>Place Of Birth</t>
-  </si>
-  <si>
-    <t>Information about place of birth</t>
+    <t>use pd:BirthPlace</t>
+  </si>
+  <si>
+    <t>deprecated</t>
   </si>
   <si>
     <t>CountryOfBirth</t>
   </si>
   <si>
     <t>Country Of Birth</t>
-  </si>
-  <si>
-    <t>Information about country of birth</t>
   </si>
   <si>
     <t>dpv:Country</t>
@@ -16128,7 +16155,7 @@
       <c r="A17" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="10" t="s">
         <v>252</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -16143,23 +16170,21 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="13">
-        <v>43620.0</v>
+      <c r="I17" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="43">
+        <v>45504.0</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -16176,16 +16201,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16226,16 +16251,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16244,19 +16269,21 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="43">
-        <v>44727.0</v>
+      <c r="J19" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16274,41 +16301,37 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
-        <v>266</v>
-      </c>
+      <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" s="13">
-        <v>43620.0</v>
+      <c r="J20" s="12"/>
+      <c r="K20" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L20" s="12"/>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16325,117 +16348,119 @@
       <c r="AB20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="C21" s="48" t="s">
+      <c r="A21" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>262</v>
+      <c r="B21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="50">
-        <v>44139.0</v>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L21" s="12"/>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="O21" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
+      <c r="N21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>228</v>
+      <c r="B22" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>268</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K22" s="13">
-        <v>43620.0</v>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
+      <c r="N22" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16476,16 +16501,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16526,16 +16551,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16576,24 +16601,22 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>287</v>
-      </c>
+      <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="30" t="s">
@@ -16628,22 +16651,24 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>293</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="30" t="s">
@@ -16678,24 +16703,22 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="30" t="s">
@@ -16730,24 +16753,26 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="H29" s="12"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="30" t="s">
         <v>179</v>
       </c>
@@ -16780,16 +16805,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>301</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -16797,7 +16822,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="30" t="s">
         <v>179</v>
       </c>
@@ -16830,16 +16855,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -16880,16 +16905,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>307</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -16930,16 +16955,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -16980,16 +17005,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -17030,16 +17055,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17080,16 +17105,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17130,24 +17155,22 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>325</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
-        <v>322</v>
-      </c>
+      <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="30" t="s">
@@ -17182,22 +17205,24 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>328</v>
+      </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="30" t="s">
@@ -17232,16 +17257,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17282,16 +17307,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17300,18 +17325,22 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="19"/>
+      <c r="J40" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K40" s="13">
-        <v>44856.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O40" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
@@ -17328,16 +17357,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17346,22 +17375,18 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J41" s="19"/>
       <c r="K41" s="13">
-        <v>43620.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O41" s="10"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
@@ -17378,16 +17403,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>340</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17396,19 +17421,21 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="55">
-        <v>44671.0</v>
+      <c r="J42" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17426,16 +17453,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17444,21 +17471,19 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" s="13">
-        <v>43620.0</v>
+      <c r="J43" s="19"/>
+      <c r="K43" s="55">
+        <v>44671.0</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17476,16 +17501,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>347</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17525,169 +17550,169 @@
       <c r="AB44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>347</v>
+      <c r="A45" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="K45" s="50">
-        <v>44139.0</v>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K45" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L45" s="12"/>
-      <c r="M45" s="51" t="s">
+      <c r="M45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="O45" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="49"/>
+      <c r="N45" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>292</v>
+      <c r="D46" s="51" t="s">
+        <v>353</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K46" s="13">
-        <v>43620.0</v>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="K46" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L46" s="12"/>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
+      <c r="N46" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="C47" s="56" t="s">
+      <c r="A47" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D47" s="51" t="s">
-        <v>347</v>
+      <c r="B47" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="K47" s="50">
-        <v>44139.0</v>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L47" s="12"/>
-      <c r="M47" s="51" t="s">
+      <c r="M47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="O47" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
+      <c r="N47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -17697,7 +17722,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -17707,7 +17732,7 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="O48" s="52" t="s">
         <v>236</v>
@@ -17727,67 +17752,67 @@
       <c r="AB48" s="49"/>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>199</v>
+      <c r="A49" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>264</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K49" s="13">
-        <v>43620.0</v>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L49" s="12"/>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
+      <c r="N49" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O49" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49"/>
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -17796,19 +17821,21 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="43">
-        <v>44727.0</v>
+      <c r="J50" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L50" s="12"/>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17826,16 +17853,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -17844,21 +17871,19 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" s="13">
-        <v>43620.0</v>
+      <c r="J51" s="12"/>
+      <c r="K51" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L51" s="12"/>
-      <c r="M51" s="10" t="s">
+      <c r="M51" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17876,16 +17901,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>375</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -17926,16 +17951,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -17976,16 +18001,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>381</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -18026,16 +18051,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18076,16 +18101,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18126,16 +18151,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>386</v>
+        <v>389</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18144,19 +18169,21 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="19"/>
+      <c r="J57" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K57" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18174,16 +18201,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18222,16 +18249,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18270,16 +18297,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18288,21 +18315,19 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J60" s="19"/>
       <c r="K60" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18320,16 +18345,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18338,19 +18363,21 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="55">
-        <v>44671.0</v>
+      <c r="J61" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K61" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18368,16 +18395,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>402</v>
+        <v>406</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18416,16 +18443,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C63" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18434,21 +18461,19 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K63" s="13">
-        <v>43620.0</v>
+      <c r="J63" s="19"/>
+      <c r="K63" s="55">
+        <v>44671.0</v>
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18466,16 +18491,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18516,16 +18541,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18566,16 +18591,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>416</v>
+        <v>419</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>419</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>418</v>
+        <v>242</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18584,19 +18609,21 @@
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="43">
-        <v>44727.0</v>
+      <c r="J66" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K66" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L66" s="12"/>
-      <c r="M66" s="31" t="s">
+      <c r="M66" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18614,16 +18641,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18632,21 +18659,19 @@
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K67" s="13">
-        <v>43620.0</v>
+      <c r="J67" s="12"/>
+      <c r="K67" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L67" s="12"/>
-      <c r="M67" s="10" t="s">
+      <c r="M67" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18664,16 +18689,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>424</v>
+        <v>289</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18714,16 +18739,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18764,16 +18789,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18814,16 +18839,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18864,16 +18889,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18914,16 +18939,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>435</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -18964,16 +18989,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -19014,16 +19039,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19064,16 +19089,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19114,16 +19139,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>456</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19132,19 +19157,21 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="43">
-        <v>44727.0</v>
+      <c r="J77" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K77" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L77" s="12"/>
-      <c r="M77" s="31" t="s">
+      <c r="M77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19162,16 +19189,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19180,21 +19207,19 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K78" s="13">
-        <v>43620.0</v>
+      <c r="J78" s="12"/>
+      <c r="K78" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L78" s="12"/>
-      <c r="M78" s="10" t="s">
+      <c r="M78" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19212,16 +19237,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>207</v>
+        <v>424</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19262,16 +19287,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19312,16 +19337,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19362,16 +19387,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>465</v>
+        <v>468</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>469</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>467</v>
+        <v>286</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19380,19 +19405,21 @@
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="19"/>
+      <c r="J82" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K82" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L82" s="12"/>
       <c r="M82" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>468</v>
+        <v>180</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19410,16 +19437,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>472</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19428,21 +19455,19 @@
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
-      <c r="J83" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J83" s="19"/>
       <c r="K83" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L83" s="12"/>
       <c r="M83" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19460,16 +19485,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>476</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>250</v>
+        <v>477</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19510,16 +19535,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19560,16 +19585,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19610,24 +19635,22 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>482</v>
+        <v>485</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>486</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12" t="s">
-        <v>483</v>
-      </c>
+      <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="30" t="s">
@@ -19662,22 +19685,24 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>488</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>489</v>
+      </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="30" t="s">
@@ -19712,16 +19737,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19762,16 +19787,16 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>491</v>
+        <v>494</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
@@ -19812,16 +19837,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>497</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19862,16 +19887,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>499</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19880,19 +19905,21 @@
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="55">
-        <v>44671.0</v>
+      <c r="J92" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K92" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L92" s="12"/>
       <c r="M92" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -19910,16 +19937,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -19928,19 +19955,19 @@
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="13">
-        <v>44727.0</v>
+      <c r="J93" s="19"/>
+      <c r="K93" s="55">
+        <v>44671.0</v>
       </c>
       <c r="L93" s="12"/>
-      <c r="M93" s="31" t="s">
+      <c r="M93" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N93" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -19958,16 +19985,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -19976,21 +20003,19 @@
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
-      <c r="J94" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J94" s="12"/>
       <c r="K94" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L94" s="12"/>
-      <c r="M94" s="10" t="s">
+      <c r="M94" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20008,16 +20033,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20058,16 +20083,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>471</v>
+        <v>304</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20108,16 +20133,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20158,16 +20183,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>510</v>
+        <v>513</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>514</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20176,19 +20201,21 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
-      <c r="J98" s="19"/>
+      <c r="J98" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K98" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L98" s="12"/>
       <c r="M98" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20206,16 +20233,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>512</v>
+        <v>516</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>516</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20224,21 +20251,19 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J99" s="19"/>
       <c r="K99" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L99" s="12"/>
       <c r="M99" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20256,16 +20281,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>280</v>
+        <v>437</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20306,16 +20331,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>431</v>
+        <v>286</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20356,16 +20381,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>258</v>
+        <v>437</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20406,16 +20431,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>373</v>
+        <v>264</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20456,16 +20481,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>231</v>
+        <v>379</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20506,16 +20531,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20530,9 +20555,7 @@
       <c r="K105" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L105" s="13">
-        <v>44671.0</v>
-      </c>
+      <c r="L105" s="12"/>
       <c r="M105" s="10" t="s">
         <v>19</v>
       </c>
@@ -20558,16 +20581,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>531</v>
+        <v>242</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20582,7 +20605,9 @@
       <c r="K106" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L106" s="12"/>
+      <c r="L106" s="13">
+        <v>44671.0</v>
+      </c>
       <c r="M106" s="10" t="s">
         <v>19</v>
       </c>
@@ -20608,16 +20633,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>533</v>
+        <v>535</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>376</v>
+        <v>537</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20658,24 +20683,22 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>539</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>228</v>
+        <v>382</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="12"/>
-      <c r="G108" s="12" t="s">
-        <v>537</v>
-      </c>
+      <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="30" t="s">
@@ -20710,22 +20733,24 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="G109" s="12" t="s">
+        <v>543</v>
+      </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="30" t="s">
@@ -20760,24 +20785,22 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="12"/>
-      <c r="G110" s="12" t="s">
-        <v>543</v>
-      </c>
+      <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="30" t="s">
@@ -20812,22 +20835,24 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
+      <c r="G111" s="12" t="s">
+        <v>549</v>
+      </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="30" t="s">
@@ -20862,16 +20887,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20912,16 +20937,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
@@ -20962,16 +20987,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -21012,16 +21037,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>557</v>
+        <v>473</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21062,16 +21087,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>558</v>
+        <v>561</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>561</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21080,17 +21105,21 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
-      <c r="J116" s="19"/>
+      <c r="J116" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K116" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L116" s="12"/>
       <c r="M116" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N116" s="12"/>
+      <c r="N116" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="O116" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21108,41 +21137,35 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>561</v>
+        <v>564</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>557</v>
+        <v>242</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="12" t="s">
-        <v>563</v>
-      </c>
+      <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J117" s="19"/>
       <c r="K117" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L117" s="12"/>
       <c r="M117" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N117" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="N117" s="12"/>
       <c r="O117" s="14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21160,22 +21183,24 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>565</v>
+        <v>567</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>568</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="G118" s="12" t="s">
+        <v>569</v>
+      </c>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="30" t="s">
@@ -21210,16 +21235,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>571</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21260,16 +21285,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21310,16 +21335,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="C121" s="47" t="s">
-        <v>571</v>
+        <v>574</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>379</v>
+        <v>454</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
@@ -21360,16 +21385,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>573</v>
+        <v>576</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>577</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>574</v>
+        <v>385</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21378,19 +21403,21 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
-      <c r="J122" s="19"/>
+      <c r="J122" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K122" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L122" s="12"/>
       <c r="M122" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21408,16 +21435,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B123" s="26" t="s">
-        <v>575</v>
+        <v>578</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21426,21 +21453,19 @@
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
-      <c r="J123" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J123" s="19"/>
       <c r="K123" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L123" s="12"/>
       <c r="M123" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21457,67 +21482,67 @@
       <c r="AB123" s="12"/>
     </row>
     <row r="124">
-      <c r="A124" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="B124" s="54" t="s">
-        <v>579</v>
-      </c>
-      <c r="C124" s="53" t="s">
-        <v>580</v>
-      </c>
-      <c r="D124" s="51" t="s">
-        <v>203</v>
+      <c r="A124" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>583</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
-      <c r="J124" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="K124" s="50">
-        <v>44139.0</v>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K124" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L124" s="12"/>
-      <c r="M124" s="51" t="s">
+      <c r="M124" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N124" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="O124" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="P124" s="49"/>
-      <c r="Q124" s="49"/>
-      <c r="R124" s="49"/>
-      <c r="S124" s="49"/>
-      <c r="T124" s="49"/>
-      <c r="U124" s="49"/>
-      <c r="V124" s="49"/>
-      <c r="W124" s="49"/>
-      <c r="X124" s="49"/>
-      <c r="Y124" s="49"/>
-      <c r="Z124" s="49"/>
-      <c r="AA124" s="49"/>
-      <c r="AB124" s="49"/>
+      <c r="N124" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O124" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
     </row>
     <row r="125">
       <c r="A125" s="53" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="C125" s="51" t="s">
-        <v>584</v>
+        <v>585</v>
+      </c>
+      <c r="C125" s="53" t="s">
+        <v>586</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>585</v>
+        <v>203</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21527,7 +21552,7 @@
       <c r="H125" s="49"/>
       <c r="I125" s="49"/>
       <c r="J125" s="27" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K125" s="50">
         <v>44139.0</v>
@@ -21537,7 +21562,7 @@
         <v>19</v>
       </c>
       <c r="N125" s="51" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="O125" s="52" t="s">
         <v>236</v>
@@ -21558,16 +21583,16 @@
     </row>
     <row r="126">
       <c r="A126" s="53" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>588</v>
-      </c>
-      <c r="C126" s="53" t="s">
         <v>589</v>
       </c>
+      <c r="C126" s="51" t="s">
+        <v>590</v>
+      </c>
       <c r="D126" s="51" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21577,7 +21602,7 @@
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K126" s="50">
         <v>44139.0</v>
@@ -21607,65 +21632,67 @@
       <c r="AB126" s="49"/>
     </row>
     <row r="127">
-      <c r="A127" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B127" s="11" t="s">
+      <c r="A127" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="C127" s="53" t="s">
         <v>595</v>
+      </c>
+      <c r="D127" s="51" t="s">
+        <v>596</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="13">
-        <v>44727.0</v>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="49"/>
+      <c r="I127" s="49"/>
+      <c r="J127" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="K127" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L127" s="12"/>
-      <c r="M127" s="31" t="s">
+      <c r="M127" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N127" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O127" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="12"/>
-      <c r="U127" s="12"/>
-      <c r="V127" s="12"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="12"/>
-      <c r="Y127" s="12"/>
-      <c r="Z127" s="12"/>
-      <c r="AA127" s="12"/>
-      <c r="AB127" s="12"/>
+      <c r="N127" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="O127" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="P127" s="49"/>
+      <c r="Q127" s="49"/>
+      <c r="R127" s="49"/>
+      <c r="S127" s="49"/>
+      <c r="T127" s="49"/>
+      <c r="U127" s="49"/>
+      <c r="V127" s="49"/>
+      <c r="W127" s="49"/>
+      <c r="X127" s="49"/>
+      <c r="Y127" s="49"/>
+      <c r="Z127" s="49"/>
+      <c r="AA127" s="49"/>
+      <c r="AB127" s="49"/>
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>242</v>
+        <v>601</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -21704,16 +21731,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>599</v>
+        <v>602</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>603</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -21722,21 +21749,19 @@
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J129" s="12"/>
       <c r="K129" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L129" s="12"/>
-      <c r="M129" s="10" t="s">
+      <c r="M129" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -21754,16 +21779,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -21802,76 +21827,76 @@
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
     </row>
-    <row r="132">
-      <c r="A132" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E132" s="9" t="s">
+    <row r="131">
+      <c r="A131" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="30" t="s">
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K132" s="13">
+      <c r="K131" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L132" s="12"/>
-      <c r="M132" s="10" t="s">
+      <c r="L131" s="12"/>
+      <c r="M131" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N132" s="10" t="s">
+      <c r="N131" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="O132" s="14" t="s">
+      <c r="O131" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="P132" s="12"/>
-      <c r="Q132" s="12"/>
-      <c r="R132" s="12"/>
-      <c r="S132" s="12"/>
-      <c r="T132" s="12"/>
-      <c r="U132" s="12"/>
-      <c r="V132" s="12"/>
-      <c r="W132" s="12"/>
-      <c r="X132" s="12"/>
-      <c r="Y132" s="12"/>
-      <c r="Z132" s="12"/>
-      <c r="AA132" s="12"/>
-      <c r="AB132" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="12"/>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="12"/>
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>611</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>467</v>
+        <v>242</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
+      <c r="G133" s="12" t="s">
+        <v>613</v>
+      </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="30" t="s">
@@ -21906,16 +21931,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -21956,16 +21981,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>50</v>
@@ -22006,16 +22031,16 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="C136" s="46" t="s">
-        <v>617</v>
+        <v>620</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>621</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>210</v>
+        <v>563</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
@@ -22056,16 +22081,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>620</v>
+        <v>622</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>623</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>577</v>
+        <v>210</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22106,24 +22131,22 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>231</v>
+        <v>583</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="12"/>
-      <c r="G138" s="12" t="s">
-        <v>623</v>
-      </c>
+      <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="30" t="s">
@@ -22158,22 +22181,24 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
+      <c r="G139" s="12" t="s">
+        <v>629</v>
+      </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="30" t="s">
@@ -22208,16 +22233,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>431</v>
+        <v>260</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22258,16 +22283,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>629</v>
+        <v>632</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>633</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22282,9 +22307,7 @@
       <c r="K141" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L141" s="13">
-        <v>45459.0</v>
-      </c>
+      <c r="L141" s="12"/>
       <c r="M141" s="10" t="s">
         <v>19</v>
       </c>
@@ -22310,16 +22333,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="B142" s="26" t="s">
-        <v>631</v>
+        <v>635</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>635</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
@@ -22334,7 +22357,9 @@
       <c r="K142" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L142" s="12"/>
+      <c r="L142" s="13">
+        <v>45459.0</v>
+      </c>
       <c r="M142" s="10" t="s">
         <v>19</v>
       </c>
@@ -22360,16 +22385,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>634</v>
+        <v>637</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>637</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22410,16 +22435,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="B144" s="26" t="s">
-        <v>637</v>
+        <v>639</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22460,16 +22485,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22510,16 +22535,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>646</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>645</v>
+        <v>379</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22528,18 +22553,22 @@
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="43">
-        <v>45402.0</v>
+      <c r="J146" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K146" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L146" s="12"/>
-      <c r="M146" s="31" t="s">
+      <c r="M146" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O146" s="31"/>
+        <v>106</v>
+      </c>
+      <c r="O146" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
       <c r="R146" s="12"/>
@@ -22556,16 +22585,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22574,18 +22603,18 @@
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="13">
+      <c r="J147" s="12"/>
+      <c r="K147" s="43">
         <v>45402.0</v>
       </c>
       <c r="L147" s="12"/>
-      <c r="M147" s="10" t="s">
+      <c r="M147" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N147" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O147" s="10"/>
+      <c r="O147" s="31"/>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
       <c r="R147" s="12"/>
@@ -22602,16 +22631,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>653</v>
       </c>
       <c r="C148" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>651</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22620,22 +22649,18 @@
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
-      <c r="J148" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J148" s="19"/>
       <c r="K148" s="13">
-        <v>43620.0</v>
+        <v>45402.0</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O148" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O148" s="10"/>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
       <c r="R148" s="12"/>
@@ -22652,16 +22677,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>656</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>655</v>
+        <v>289</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22670,19 +22695,21 @@
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="43">
-        <v>44727.0</v>
+      <c r="J149" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K149" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L149" s="12"/>
-      <c r="M149" s="31" t="s">
+      <c r="M149" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22700,41 +22727,37 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="B150" s="26" t="s">
-        <v>656</v>
+        <v>658</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>659</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>298</v>
+        <v>661</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10" t="s">
-        <v>658</v>
-      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
-      <c r="J150" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K150" s="13">
-        <v>43620.0</v>
+      <c r="J150" s="12"/>
+      <c r="K150" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L150" s="12"/>
-      <c r="M150" s="10" t="s">
+      <c r="M150" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -22752,22 +22775,24 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10" t="s">
+        <v>664</v>
+      </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30" t="s">
@@ -22802,16 +22827,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22852,16 +22877,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22902,16 +22927,16 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>666</v>
+        <v>670</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>670</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
@@ -22920,19 +22945,21 @@
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
+      <c r="J154" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K154" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L154" s="12"/>
-      <c r="M154" s="31" t="s">
+      <c r="M154" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -22950,16 +22977,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="B155" s="26" t="s">
-        <v>668</v>
+        <v>672</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>672</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>418</v>
+        <v>228</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -22968,21 +22995,19 @@
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
-      <c r="J155" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J155" s="12"/>
       <c r="K155" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L155" s="12"/>
-      <c r="M155" s="10" t="s">
+      <c r="M155" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -23000,16 +23025,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23050,16 +23075,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23100,16 +23125,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23150,16 +23175,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>577</v>
+        <v>379</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23200,16 +23225,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>680</v>
+        <v>682</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>683</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>228</v>
+        <v>583</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23218,21 +23243,21 @@
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
-      <c r="J160" s="16" t="s">
-        <v>682</v>
+      <c r="J160" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="K160" s="13">
-        <v>43795.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L160" s="12"/>
       <c r="M160" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>683</v>
+        <v>106</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>684</v>
+        <v>180</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23252,14 +23277,14 @@
       <c r="A161" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="11" t="s">
         <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>687</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>444</v>
+        <v>228</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23268,21 +23293,21 @@
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="30" t="s">
-        <v>179</v>
+      <c r="J161" s="16" t="s">
+        <v>688</v>
       </c>
       <c r="K161" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L161" s="12"/>
       <c r="M161" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>106</v>
+        <v>689</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>180</v>
+        <v>690</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23300,16 +23325,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23350,16 +23375,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="C163" s="47" t="s">
-        <v>692</v>
+        <v>695</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>696</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>379</v>
+        <v>450</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23400,16 +23425,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
+      </c>
+      <c r="C164" s="47" t="s">
+        <v>698</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23450,24 +23475,22 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="C165" s="47" t="s">
-        <v>698</v>
+        <v>700</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>701</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>409</v>
+        <v>210</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="12"/>
-      <c r="G165" s="12" t="s">
-        <v>699</v>
-      </c>
+      <c r="G165" s="12"/>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="30" t="s">
@@ -23502,37 +23525,41 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="C166" s="10" t="s">
         <v>702</v>
       </c>
+      <c r="B166" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C166" s="47" t="s">
+        <v>704</v>
+      </c>
       <c r="D166" s="10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
+      <c r="G166" s="12" t="s">
+        <v>705</v>
+      </c>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
+      <c r="J166" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K166" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L166" s="12"/>
-      <c r="M166" s="31" t="s">
+      <c r="M166" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23550,16 +23577,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="B167" s="26" t="s">
-        <v>704</v>
+        <v>706</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>283</v>
+        <v>415</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23568,21 +23595,19 @@
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
-      <c r="J167" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J167" s="12"/>
       <c r="K167" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L167" s="12"/>
-      <c r="M167" s="10" t="s">
+      <c r="M167" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23600,16 +23625,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23650,16 +23675,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
@@ -23700,16 +23725,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23750,16 +23775,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23775,7 +23800,7 @@
         <v>43620.0</v>
       </c>
       <c r="L171" s="12"/>
-      <c r="M171" s="22" t="s">
+      <c r="M171" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N171" s="10" t="s">
@@ -23799,17 +23824,17 @@
       <c r="AB171" s="12"/>
     </row>
     <row r="172">
-      <c r="A172" s="47" t="s">
-        <v>716</v>
-      </c>
-      <c r="B172" s="58" t="s">
-        <v>716</v>
-      </c>
-      <c r="C172" s="46" t="s">
-        <v>717</v>
+      <c r="A172" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>721</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>718</v>
+        <v>404</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23825,7 +23850,7 @@
         <v>43620.0</v>
       </c>
       <c r="L172" s="12"/>
-      <c r="M172" s="10" t="s">
+      <c r="M172" s="22" t="s">
         <v>19</v>
       </c>
       <c r="N172" s="10" t="s">
@@ -23849,17 +23874,17 @@
       <c r="AB172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>719</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>720</v>
+      <c r="A173" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="B173" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="C173" s="46" t="s">
+        <v>723</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>298</v>
+        <v>724</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23900,16 +23925,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>721</v>
+        <v>725</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>725</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>448</v>
+        <v>304</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -23950,16 +23975,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>724</v>
+        <v>727</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>727</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>250</v>
+        <v>454</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -23968,19 +23993,21 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="19"/>
+      <c r="J175" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K175" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23998,16 +24025,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>729</v>
+        <v>250</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24016,21 +24043,19 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="16" t="s">
-        <v>730</v>
-      </c>
+      <c r="J176" s="19"/>
       <c r="K176" s="13">
-        <v>43795.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>683</v>
+        <v>20</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>684</v>
+        <v>215</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24048,41 +24073,39 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="B177" s="26" t="s">
-        <v>731</v>
+        <v>732</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>557</v>
+        <v>735</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10" t="s">
-        <v>733</v>
-      </c>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
-      <c r="J177" s="30" t="s">
-        <v>179</v>
+      <c r="J177" s="16" t="s">
+        <v>736</v>
       </c>
       <c r="K177" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L177" s="12"/>
       <c r="M177" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>106</v>
+        <v>689</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>180</v>
+        <v>690</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24100,114 +24123,116 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="B178" s="31" t="s">
-        <v>735</v>
-      </c>
-      <c r="C178" s="59" t="s">
-        <v>736</v>
-      </c>
-      <c r="D178" s="31" t="s">
-        <v>292</v>
+        <v>737</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>563</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F178" s="60"/>
-      <c r="G178" s="60"/>
-      <c r="H178" s="60"/>
-      <c r="I178" s="60"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="43">
-        <v>44727.0</v>
-      </c>
-      <c r="L178" s="43"/>
-      <c r="M178" s="31" t="s">
+      <c r="F178" s="10"/>
+      <c r="G178" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K178" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L178" s="12"/>
+      <c r="M178" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N178" s="31" t="s">
-        <v>116</v>
+      <c r="N178" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="P178" s="60"/>
-      <c r="Q178" s="60"/>
-      <c r="R178" s="60"/>
-      <c r="S178" s="60"/>
-      <c r="T178" s="60"/>
-      <c r="U178" s="60"/>
-      <c r="V178" s="60"/>
-      <c r="W178" s="60"/>
-      <c r="X178" s="60"/>
-      <c r="Y178" s="60"/>
-      <c r="Z178" s="60"/>
-      <c r="AA178" s="60"/>
-      <c r="AB178" s="60"/>
+        <v>180</v>
+      </c>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="12"/>
+      <c r="U178" s="12"/>
+      <c r="V178" s="12"/>
+      <c r="W178" s="12"/>
+      <c r="X178" s="12"/>
+      <c r="Y178" s="12"/>
+      <c r="Z178" s="12"/>
+      <c r="AA178" s="12"/>
+      <c r="AB178" s="12"/>
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="B179" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>557</v>
+        <v>740</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="C179" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="D179" s="31" t="s">
+        <v>298</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K179" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L179" s="12"/>
-      <c r="M179" s="10" t="s">
+      <c r="F179" s="60"/>
+      <c r="G179" s="60"/>
+      <c r="H179" s="60"/>
+      <c r="I179" s="60"/>
+      <c r="J179" s="31"/>
+      <c r="K179" s="43">
+        <v>44727.0</v>
+      </c>
+      <c r="L179" s="43"/>
+      <c r="M179" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N179" s="10" t="s">
-        <v>106</v>
+      <c r="N179" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="P179" s="12"/>
-      <c r="Q179" s="12"/>
-      <c r="R179" s="12"/>
-      <c r="S179" s="12"/>
-      <c r="T179" s="12"/>
-      <c r="U179" s="12"/>
-      <c r="V179" s="12"/>
-      <c r="W179" s="12"/>
-      <c r="X179" s="12"/>
-      <c r="Y179" s="12"/>
-      <c r="Z179" s="12"/>
-      <c r="AA179" s="12"/>
-      <c r="AB179" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="P179" s="60"/>
+      <c r="Q179" s="60"/>
+      <c r="R179" s="60"/>
+      <c r="S179" s="60"/>
+      <c r="T179" s="60"/>
+      <c r="U179" s="60"/>
+      <c r="V179" s="60"/>
+      <c r="W179" s="60"/>
+      <c r="X179" s="60"/>
+      <c r="Y179" s="60"/>
+      <c r="Z179" s="60"/>
+      <c r="AA179" s="60"/>
+      <c r="AB179" s="60"/>
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>740</v>
+        <v>743</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>743</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>742</v>
+        <v>563</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24216,19 +24241,21 @@
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="43">
-        <v>44727.0</v>
+      <c r="J180" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K180" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L180" s="12"/>
-      <c r="M180" s="31" t="s">
+      <c r="M180" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24246,16 +24273,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
@@ -24265,7 +24292,7 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="12"/>
-      <c r="K181" s="13">
+      <c r="K181" s="43">
         <v>44727.0</v>
       </c>
       <c r="L181" s="12"/>
@@ -24294,16 +24321,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>242</v>
+        <v>748</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24342,16 +24369,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24390,16 +24417,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24409,7 +24436,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
-      <c r="K184" s="43">
+      <c r="K184" s="13">
         <v>44727.0</v>
       </c>
       <c r="L184" s="12"/>
@@ -24438,16 +24465,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B185" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="C185" s="47" t="s">
         <v>758</v>
       </c>
+      <c r="B185" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>760</v>
+      </c>
       <c r="D185" s="10" t="s">
-        <v>409</v>
+        <v>761</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24455,22 +24482,20 @@
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
-      <c r="I185" s="29"/>
-      <c r="J185" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K185" s="13">
-        <v>43620.0</v>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L185" s="12"/>
-      <c r="M185" s="10" t="s">
+      <c r="M185" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24488,16 +24513,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
+      </c>
+      <c r="C186" s="47" t="s">
+        <v>764</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24505,7 +24530,7 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
+      <c r="I186" s="29"/>
       <c r="J186" s="30" t="s">
         <v>179</v>
       </c>
@@ -24538,16 +24563,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24588,16 +24613,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>765</v>
+        <v>768</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>768</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>373</v>
+        <v>210</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24606,19 +24631,21 @@
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
+      <c r="J188" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K188" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L188" s="12"/>
-      <c r="M188" s="31" t="s">
+      <c r="M188" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24636,16 +24663,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>771</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24654,21 +24681,19 @@
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
-      <c r="J189" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J189" s="12"/>
       <c r="K189" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L189" s="12"/>
-      <c r="M189" s="10" t="s">
+      <c r="M189" s="31" t="s">
         <v>19</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24685,67 +24710,71 @@
       <c r="AB189" s="12"/>
     </row>
     <row r="190">
-      <c r="B190" s="24"/>
-      <c r="E190" s="44"/>
+      <c r="A190" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K190" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L190" s="12"/>
+      <c r="M190" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N190" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O190" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+      <c r="U190" s="12"/>
+      <c r="V190" s="12"/>
+      <c r="W190" s="12"/>
+      <c r="X190" s="12"/>
+      <c r="Y190" s="12"/>
+      <c r="Z190" s="12"/>
+      <c r="AA190" s="12"/>
+      <c r="AB190" s="12"/>
     </row>
     <row r="191">
-      <c r="A191" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="C191" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="D191" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F191" s="60"/>
-      <c r="G191" s="60"/>
-      <c r="H191" s="60"/>
-      <c r="I191" s="60"/>
-      <c r="J191" s="60"/>
-      <c r="K191" s="43">
-        <v>45402.0</v>
-      </c>
-      <c r="L191" s="43"/>
-      <c r="M191" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="N191" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O191" s="60"/>
-      <c r="P191" s="60"/>
-      <c r="Q191" s="60"/>
-      <c r="R191" s="60"/>
-      <c r="S191" s="60"/>
-      <c r="T191" s="60"/>
-      <c r="U191" s="60"/>
-      <c r="V191" s="60"/>
-      <c r="W191" s="60"/>
-      <c r="X191" s="60"/>
-      <c r="Y191" s="60"/>
-      <c r="Z191" s="60"/>
-      <c r="AA191" s="60"/>
-      <c r="AB191" s="60"/>
+      <c r="B191" s="24"/>
+      <c r="E191" s="44"/>
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="C192" s="61" t="s">
-        <v>773</v>
+        <v>776</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>777</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>774</v>
+        <v>242</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -24782,16 +24811,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C193" s="61" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D193" s="31" t="s">
-        <v>774</v>
+        <v>250</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -24799,17 +24828,21 @@
       <c r="F193" s="60"/>
       <c r="G193" s="60"/>
       <c r="H193" s="60"/>
-      <c r="I193" s="60"/>
+      <c r="I193" s="31" t="s">
+        <v>780</v>
+      </c>
       <c r="J193" s="60"/>
       <c r="K193" s="43">
         <v>45402.0</v>
       </c>
-      <c r="L193" s="43"/>
+      <c r="L193" s="43">
+        <v>45504.0</v>
+      </c>
       <c r="M193" s="31" t="s">
-        <v>19</v>
+        <v>781</v>
       </c>
       <c r="N193" s="10" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="O193" s="60"/>
       <c r="P193" s="60"/>
@@ -24828,169 +24861,135 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>774</v>
+        <v>782</v>
+      </c>
+      <c r="C194" s="61" t="s">
+        <v>783</v>
+      </c>
+      <c r="D194" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="12"/>
+      <c r="F194" s="60"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="60"/>
+      <c r="I194" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="J194" s="60"/>
       <c r="K194" s="43">
         <v>45402.0</v>
       </c>
-      <c r="L194" s="12"/>
+      <c r="L194" s="43">
+        <v>45504.0</v>
+      </c>
       <c r="M194" s="31" t="s">
-        <v>19</v>
+        <v>781</v>
       </c>
       <c r="N194" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O194" s="12"/>
-      <c r="P194" s="12"/>
-      <c r="Q194" s="12"/>
-      <c r="R194" s="12"/>
-      <c r="S194" s="12"/>
-      <c r="T194" s="12"/>
-      <c r="U194" s="12"/>
-      <c r="V194" s="12"/>
-      <c r="W194" s="12"/>
-      <c r="X194" s="12"/>
-      <c r="Y194" s="12"/>
-      <c r="Z194" s="12"/>
-      <c r="AA194" s="12"/>
-      <c r="AB194" s="12"/>
+        <v>256</v>
+      </c>
+      <c r="O194" s="60"/>
+      <c r="P194" s="60"/>
+      <c r="Q194" s="60"/>
+      <c r="R194" s="60"/>
+      <c r="S194" s="60"/>
+      <c r="T194" s="60"/>
+      <c r="U194" s="60"/>
+      <c r="V194" s="60"/>
+      <c r="W194" s="60"/>
+      <c r="X194" s="60"/>
+      <c r="Y194" s="60"/>
+      <c r="Z194" s="60"/>
+      <c r="AA194" s="60"/>
+      <c r="AB194" s="60"/>
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F195" s="12"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="12"/>
+      <c r="I195" s="10" t="s">
+        <v>788</v>
+      </c>
       <c r="K195" s="43">
         <v>45402.0</v>
       </c>
-      <c r="L195" s="12"/>
       <c r="M195" s="31" t="s">
-        <v>19</v>
+        <v>789</v>
       </c>
       <c r="N195" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O195" s="12"/>
-      <c r="P195" s="12"/>
-      <c r="Q195" s="12"/>
-      <c r="R195" s="12"/>
-      <c r="S195" s="12"/>
-      <c r="T195" s="12"/>
-      <c r="U195" s="12"/>
-      <c r="V195" s="12"/>
-      <c r="W195" s="12"/>
-      <c r="X195" s="12"/>
-      <c r="Y195" s="12"/>
-      <c r="Z195" s="12"/>
-      <c r="AA195" s="12"/>
-      <c r="AB195" s="12"/>
     </row>
     <row r="196">
-      <c r="B196" s="24"/>
-      <c r="E196" s="44"/>
+      <c r="A196" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I196" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K196" s="43">
+        <v>45402.0</v>
+      </c>
+      <c r="M196" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="N196" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="9" t="s">
-        <v>784</v>
-      </c>
       <c r="B197" s="24"/>
       <c r="E197" s="44"/>
     </row>
     <row r="198">
-      <c r="A198" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="B198" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="D198" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K198" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L198" s="12"/>
-      <c r="M198" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N198" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O198" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="P198" s="12"/>
-      <c r="Q198" s="12"/>
-      <c r="R198" s="12"/>
-      <c r="S198" s="12"/>
-      <c r="T198" s="12"/>
-      <c r="U198" s="12"/>
-      <c r="V198" s="12"/>
-      <c r="W198" s="12"/>
-      <c r="X198" s="12"/>
-      <c r="Y198" s="12"/>
-      <c r="Z198" s="12"/>
-      <c r="AA198" s="12"/>
-      <c r="AB198" s="12"/>
+      <c r="A198" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B198" s="24"/>
+      <c r="E198" s="44"/>
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
@@ -25031,16 +25030,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>793</v>
+        <v>797</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>798</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>50</v>
@@ -25081,16 +25080,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="B201" s="26" t="s">
-        <v>797</v>
+        <v>801</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>802</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>50</v>
@@ -25131,24 +25130,22 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F202" s="12"/>
-      <c r="G202" s="12" t="s">
-        <v>804</v>
-      </c>
+      <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="30" t="s">
@@ -25183,37 +25180,41 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>806</v>
+        <v>809</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>810</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
+      <c r="G203" s="12" t="s">
+        <v>813</v>
+      </c>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
-      <c r="J203" s="19"/>
+      <c r="J203" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K203" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L203" s="12"/>
       <c r="M203" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N203" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>468</v>
+        <v>180</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25231,16 +25232,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="B204" s="26" t="s">
-        <v>808</v>
+        <v>814</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>815</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25249,21 +25250,19 @@
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
-      <c r="J204" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J204" s="19"/>
       <c r="K204" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L204" s="12"/>
       <c r="M204" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25281,16 +25280,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25331,16 +25330,16 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D206" s="10" t="s">
         <v>812</v>
-      </c>
-      <c r="B206" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>799</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
@@ -25381,16 +25380,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25431,16 +25430,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>818</v>
+        <v>824</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>824</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25449,19 +25448,21 @@
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
-      <c r="J208" s="19"/>
+      <c r="J208" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K208" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L208" s="12"/>
       <c r="M208" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N208" s="10" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>468</v>
+        <v>180</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25478,169 +25479,171 @@
       <c r="AB208" s="12"/>
     </row>
     <row r="209">
-      <c r="A209" s="10"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="9"/>
+      <c r="A209" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
       <c r="J209" s="19"/>
-      <c r="K209" s="13"/>
-      <c r="M209" s="10"/>
-      <c r="N209" s="10"/>
-      <c r="O209" s="10"/>
+      <c r="K209" s="13">
+        <v>44699.0</v>
+      </c>
+      <c r="L209" s="12"/>
+      <c r="M209" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N209" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O209" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="12"/>
+      <c r="R209" s="12"/>
+      <c r="S209" s="12"/>
+      <c r="T209" s="12"/>
+      <c r="U209" s="12"/>
+      <c r="V209" s="12"/>
+      <c r="W209" s="12"/>
+      <c r="X209" s="12"/>
+      <c r="Y209" s="12"/>
+      <c r="Z209" s="12"/>
+      <c r="AA209" s="12"/>
+      <c r="AB209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="B210" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="E210" s="9" t="s">
+      <c r="A210" s="10"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="9"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="13"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="10"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="E211" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
-      <c r="J210" s="30" t="s">
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K210" s="13">
+      <c r="K211" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L210" s="13">
+      <c r="L211" s="13">
         <v>45402.0</v>
       </c>
-      <c r="M210" s="10" t="s">
+      <c r="M211" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N210" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="O210" s="14" t="s">
+      <c r="N211" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="O211" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="P210" s="12"/>
-      <c r="Q210" s="12"/>
-      <c r="R210" s="12"/>
-      <c r="S210" s="12"/>
-      <c r="T210" s="12"/>
-      <c r="U210" s="12"/>
-      <c r="V210" s="12"/>
-      <c r="W210" s="12"/>
-      <c r="X210" s="12"/>
-      <c r="Y210" s="12"/>
-      <c r="Z210" s="12"/>
-      <c r="AA210" s="12"/>
-      <c r="AB210" s="12"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B211" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C211" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="D211" s="36" t="s">
-        <v>827</v>
-      </c>
-      <c r="E211" s="36" t="s">
+      <c r="P211" s="12"/>
+      <c r="Q211" s="12"/>
+      <c r="R211" s="12"/>
+      <c r="S211" s="12"/>
+      <c r="T211" s="12"/>
+      <c r="U211" s="12"/>
+      <c r="V211" s="12"/>
+      <c r="W211" s="12"/>
+      <c r="X211" s="12"/>
+      <c r="Y211" s="12"/>
+      <c r="Z211" s="12"/>
+      <c r="AA211" s="12"/>
+      <c r="AB211" s="12"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="D212" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="E212" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F211" s="38"/>
-      <c r="G211" s="38"/>
-      <c r="H211" s="38"/>
-      <c r="I211" s="38"/>
-      <c r="J211" s="38"/>
-      <c r="K211" s="38"/>
-      <c r="L211" s="38"/>
-      <c r="M211" s="36"/>
-      <c r="N211" s="36" t="s">
-        <v>828</v>
-      </c>
-      <c r="O211" s="38"/>
-      <c r="P211" s="38"/>
-      <c r="Q211" s="38"/>
-      <c r="R211" s="38"/>
-      <c r="S211" s="38"/>
-      <c r="T211" s="38"/>
-      <c r="U211" s="38"/>
-      <c r="V211" s="38"/>
-      <c r="W211" s="38"/>
-      <c r="X211" s="38"/>
-      <c r="Y211" s="38"/>
-      <c r="Z211" s="38"/>
-      <c r="AA211" s="38"/>
-      <c r="AB211" s="38"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>830</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
-      <c r="J212" s="12"/>
-      <c r="K212" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L212" s="12"/>
-      <c r="M212" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N212" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="O212" s="12"/>
-      <c r="P212" s="12"/>
-      <c r="Q212" s="12"/>
-      <c r="R212" s="12"/>
-      <c r="S212" s="12"/>
-      <c r="T212" s="12"/>
-      <c r="U212" s="12"/>
-      <c r="V212" s="12"/>
-      <c r="W212" s="12"/>
-      <c r="X212" s="12"/>
-      <c r="Y212" s="12"/>
-      <c r="Z212" s="12"/>
-      <c r="AA212" s="12"/>
-      <c r="AB212" s="12"/>
+      <c r="F212" s="38"/>
+      <c r="G212" s="38"/>
+      <c r="H212" s="38"/>
+      <c r="I212" s="38"/>
+      <c r="J212" s="38"/>
+      <c r="K212" s="38"/>
+      <c r="L212" s="38"/>
+      <c r="M212" s="36"/>
+      <c r="N212" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="O212" s="38"/>
+      <c r="P212" s="38"/>
+      <c r="Q212" s="38"/>
+      <c r="R212" s="38"/>
+      <c r="S212" s="38"/>
+      <c r="T212" s="38"/>
+      <c r="U212" s="38"/>
+      <c r="V212" s="38"/>
+      <c r="W212" s="38"/>
+      <c r="X212" s="38"/>
+      <c r="Y212" s="38"/>
+      <c r="Z212" s="38"/>
+      <c r="AA212" s="38"/>
+      <c r="AB212" s="38"/>
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>50</v>
@@ -25658,7 +25661,7 @@
         <v>19</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="O213" s="12"/>
       <c r="P213" s="12"/>
@@ -25677,16 +25680,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>50</v>
@@ -25704,7 +25707,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="O214" s="12"/>
       <c r="P214" s="12"/>
@@ -25723,16 +25726,16 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B215" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="D215" s="10" t="s">
         <v>836</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="D215" s="10" t="s">
-        <v>827</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>50</v>
@@ -25750,7 +25753,7 @@
         <v>19</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
@@ -25769,16 +25772,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25796,7 +25799,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25815,16 +25818,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25842,7 +25845,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25861,16 +25864,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="B218" s="26" t="s">
-        <v>844</v>
+        <v>849</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>850</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25879,24 +25882,18 @@
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
-      <c r="J218" s="30" t="s">
-        <v>179</v>
-      </c>
+      <c r="J218" s="12"/>
       <c r="K218" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L218" s="13">
-        <v>45402.0</v>
-      </c>
+      <c r="L218" s="12"/>
       <c r="M218" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="O218" s="14" t="s">
-        <v>180</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="O218" s="12"/>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
       <c r="R218" s="12"/>
@@ -25912,7 +25909,56 @@
       <c r="AB218" s="12"/>
     </row>
     <row r="219">
-      <c r="B219" s="24"/>
+      <c r="A219" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="K219" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L219" s="13">
+        <v>45402.0</v>
+      </c>
+      <c r="M219" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N219" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="O219" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P219" s="12"/>
+      <c r="Q219" s="12"/>
+      <c r="R219" s="12"/>
+      <c r="S219" s="12"/>
+      <c r="T219" s="12"/>
+      <c r="U219" s="12"/>
+      <c r="V219" s="12"/>
+      <c r="W219" s="12"/>
+      <c r="X219" s="12"/>
+      <c r="Y219" s="12"/>
+      <c r="Z219" s="12"/>
+      <c r="AA219" s="12"/>
+      <c r="AB219" s="12"/>
     </row>
     <row r="220">
       <c r="B220" s="24"/>
@@ -28383,18 +28429,21 @@
     <row r="1042">
       <c r="B1042" s="24"/>
     </row>
+    <row r="1043">
+      <c r="B1043" s="24"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB992">
+  <conditionalFormatting sqref="A2:AB993">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB992">
+  <conditionalFormatting sqref="A2:AB993">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB992">
+  <conditionalFormatting sqref="A2:AB993">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -28426,339 +28475,339 @@
     <hyperlink r:id="rId24" ref="O14"/>
     <hyperlink r:id="rId25" ref="O15"/>
     <hyperlink r:id="rId26" ref="O16"/>
-    <hyperlink r:id="rId27" ref="J17"/>
-    <hyperlink r:id="rId28" ref="O17"/>
-    <hyperlink r:id="rId29" ref="J18"/>
-    <hyperlink r:id="rId30" ref="O18"/>
-    <hyperlink r:id="rId31" ref="O19"/>
-    <hyperlink r:id="rId32" ref="J20"/>
-    <hyperlink r:id="rId33" ref="O20"/>
-    <hyperlink r:id="rId34" ref="J21"/>
-    <hyperlink r:id="rId35" ref="O21"/>
-    <hyperlink r:id="rId36" ref="J22"/>
-    <hyperlink r:id="rId37" ref="O22"/>
-    <hyperlink r:id="rId38" ref="J23"/>
-    <hyperlink r:id="rId39" ref="O23"/>
-    <hyperlink r:id="rId40" ref="J24"/>
-    <hyperlink r:id="rId41" ref="O24"/>
-    <hyperlink r:id="rId42" ref="J25"/>
-    <hyperlink r:id="rId43" ref="O25"/>
-    <hyperlink r:id="rId44" ref="J26"/>
-    <hyperlink r:id="rId45" ref="O26"/>
-    <hyperlink r:id="rId46" ref="J27"/>
-    <hyperlink r:id="rId47" ref="O27"/>
-    <hyperlink r:id="rId48" ref="J28"/>
-    <hyperlink r:id="rId49" ref="O28"/>
-    <hyperlink r:id="rId50" ref="J29"/>
-    <hyperlink r:id="rId51" ref="O29"/>
-    <hyperlink r:id="rId52" ref="J30"/>
-    <hyperlink r:id="rId53" ref="O30"/>
-    <hyperlink r:id="rId54" ref="J31"/>
-    <hyperlink r:id="rId55" ref="O31"/>
-    <hyperlink r:id="rId56" ref="J32"/>
-    <hyperlink r:id="rId57" ref="O32"/>
-    <hyperlink r:id="rId58" ref="J33"/>
-    <hyperlink r:id="rId59" ref="O33"/>
-    <hyperlink r:id="rId60" ref="J34"/>
-    <hyperlink r:id="rId61" ref="O34"/>
-    <hyperlink r:id="rId62" ref="J35"/>
-    <hyperlink r:id="rId63" ref="O35"/>
-    <hyperlink r:id="rId64" ref="J36"/>
-    <hyperlink r:id="rId65" ref="O36"/>
-    <hyperlink r:id="rId66" ref="J37"/>
-    <hyperlink r:id="rId67" ref="O37"/>
-    <hyperlink r:id="rId68" ref="J38"/>
-    <hyperlink r:id="rId69" ref="O38"/>
-    <hyperlink r:id="rId70" ref="J39"/>
-    <hyperlink r:id="rId71" ref="O39"/>
-    <hyperlink r:id="rId72" ref="J41"/>
-    <hyperlink r:id="rId73" ref="O41"/>
-    <hyperlink r:id="rId74" ref="O42"/>
-    <hyperlink r:id="rId75" ref="J43"/>
-    <hyperlink r:id="rId76" ref="O43"/>
-    <hyperlink r:id="rId77" ref="J44"/>
-    <hyperlink r:id="rId78" ref="O44"/>
-    <hyperlink r:id="rId79" ref="J45"/>
-    <hyperlink r:id="rId80" ref="O45"/>
-    <hyperlink r:id="rId81" ref="J46"/>
-    <hyperlink r:id="rId82" ref="O46"/>
-    <hyperlink r:id="rId83" ref="J47"/>
-    <hyperlink r:id="rId84" ref="O47"/>
-    <hyperlink r:id="rId85" ref="J48"/>
-    <hyperlink r:id="rId86" ref="O48"/>
-    <hyperlink r:id="rId87" ref="J49"/>
-    <hyperlink r:id="rId88" ref="O49"/>
-    <hyperlink r:id="rId89" ref="O50"/>
-    <hyperlink r:id="rId90" ref="J51"/>
-    <hyperlink r:id="rId91" ref="O51"/>
-    <hyperlink r:id="rId92" ref="J52"/>
-    <hyperlink r:id="rId93" ref="O52"/>
-    <hyperlink r:id="rId94" ref="J53"/>
-    <hyperlink r:id="rId95" ref="O53"/>
-    <hyperlink r:id="rId96" ref="J54"/>
-    <hyperlink r:id="rId97" ref="O54"/>
-    <hyperlink r:id="rId98" ref="J55"/>
-    <hyperlink r:id="rId99" ref="O55"/>
-    <hyperlink r:id="rId100" ref="J56"/>
-    <hyperlink r:id="rId101" ref="O56"/>
-    <hyperlink r:id="rId102" ref="O57"/>
-    <hyperlink r:id="rId103" ref="O58"/>
-    <hyperlink r:id="rId104" ref="O59"/>
-    <hyperlink r:id="rId105" ref="J60"/>
-    <hyperlink r:id="rId106" ref="O60"/>
-    <hyperlink r:id="rId107" ref="O61"/>
-    <hyperlink r:id="rId108" ref="O62"/>
-    <hyperlink r:id="rId109" ref="J63"/>
-    <hyperlink r:id="rId110" ref="O63"/>
-    <hyperlink r:id="rId111" ref="J64"/>
-    <hyperlink r:id="rId112" ref="O64"/>
-    <hyperlink r:id="rId113" ref="J65"/>
-    <hyperlink r:id="rId114" ref="O65"/>
-    <hyperlink r:id="rId115" ref="O66"/>
-    <hyperlink r:id="rId116" ref="J67"/>
-    <hyperlink r:id="rId117" ref="O67"/>
-    <hyperlink r:id="rId118" ref="J68"/>
-    <hyperlink r:id="rId119" ref="O68"/>
-    <hyperlink r:id="rId120" ref="J69"/>
-    <hyperlink r:id="rId121" ref="O69"/>
-    <hyperlink r:id="rId122" ref="J70"/>
-    <hyperlink r:id="rId123" ref="O70"/>
-    <hyperlink r:id="rId124" ref="J71"/>
-    <hyperlink r:id="rId125" ref="O71"/>
-    <hyperlink r:id="rId126" ref="J72"/>
-    <hyperlink r:id="rId127" ref="O72"/>
-    <hyperlink r:id="rId128" ref="J73"/>
-    <hyperlink r:id="rId129" ref="O73"/>
-    <hyperlink r:id="rId130" ref="J74"/>
-    <hyperlink r:id="rId131" ref="O74"/>
-    <hyperlink r:id="rId132" ref="J75"/>
-    <hyperlink r:id="rId133" ref="O75"/>
-    <hyperlink r:id="rId134" ref="J76"/>
-    <hyperlink r:id="rId135" ref="O76"/>
-    <hyperlink r:id="rId136" ref="O77"/>
-    <hyperlink r:id="rId137" ref="J78"/>
-    <hyperlink r:id="rId138" ref="O78"/>
-    <hyperlink r:id="rId139" ref="J79"/>
-    <hyperlink r:id="rId140" ref="O79"/>
-    <hyperlink r:id="rId141" ref="J80"/>
-    <hyperlink r:id="rId142" ref="O80"/>
-    <hyperlink r:id="rId143" ref="J81"/>
-    <hyperlink r:id="rId144" ref="O81"/>
-    <hyperlink r:id="rId145" ref="O82"/>
-    <hyperlink r:id="rId146" ref="J83"/>
-    <hyperlink r:id="rId147" ref="O83"/>
-    <hyperlink r:id="rId148" ref="J84"/>
-    <hyperlink r:id="rId149" ref="O84"/>
-    <hyperlink r:id="rId150" ref="J85"/>
-    <hyperlink r:id="rId151" ref="O85"/>
-    <hyperlink r:id="rId152" ref="J86"/>
-    <hyperlink r:id="rId153" ref="O86"/>
-    <hyperlink r:id="rId154" ref="J87"/>
-    <hyperlink r:id="rId155" ref="O87"/>
-    <hyperlink r:id="rId156" ref="J88"/>
-    <hyperlink r:id="rId157" ref="O88"/>
-    <hyperlink r:id="rId158" ref="J89"/>
-    <hyperlink r:id="rId159" ref="O89"/>
-    <hyperlink r:id="rId160" ref="J90"/>
-    <hyperlink r:id="rId161" ref="O90"/>
-    <hyperlink r:id="rId162" ref="J91"/>
-    <hyperlink r:id="rId163" ref="O91"/>
-    <hyperlink r:id="rId164" ref="O92"/>
-    <hyperlink r:id="rId165" ref="O93"/>
-    <hyperlink r:id="rId166" ref="J94"/>
-    <hyperlink r:id="rId167" ref="O94"/>
-    <hyperlink r:id="rId168" ref="J95"/>
-    <hyperlink r:id="rId169" ref="O95"/>
-    <hyperlink r:id="rId170" ref="J96"/>
-    <hyperlink r:id="rId171" ref="O96"/>
-    <hyperlink r:id="rId172" ref="J97"/>
-    <hyperlink r:id="rId173" ref="O97"/>
-    <hyperlink r:id="rId174" ref="O98"/>
-    <hyperlink r:id="rId175" ref="J99"/>
-    <hyperlink r:id="rId176" ref="O99"/>
-    <hyperlink r:id="rId177" ref="J100"/>
-    <hyperlink r:id="rId178" ref="O100"/>
-    <hyperlink r:id="rId179" ref="J101"/>
-    <hyperlink r:id="rId180" ref="O101"/>
-    <hyperlink r:id="rId181" ref="J102"/>
-    <hyperlink r:id="rId182" ref="O102"/>
-    <hyperlink r:id="rId183" ref="J103"/>
-    <hyperlink r:id="rId184" ref="O103"/>
-    <hyperlink r:id="rId185" ref="J104"/>
-    <hyperlink r:id="rId186" ref="O104"/>
-    <hyperlink r:id="rId187" ref="J105"/>
-    <hyperlink r:id="rId188" ref="O105"/>
-    <hyperlink r:id="rId189" ref="J106"/>
-    <hyperlink r:id="rId190" ref="O106"/>
-    <hyperlink r:id="rId191" ref="J107"/>
-    <hyperlink r:id="rId192" ref="O107"/>
-    <hyperlink r:id="rId193" ref="J108"/>
-    <hyperlink r:id="rId194" ref="O108"/>
-    <hyperlink r:id="rId195" ref="J109"/>
-    <hyperlink r:id="rId196" ref="O109"/>
-    <hyperlink r:id="rId197" ref="J110"/>
-    <hyperlink r:id="rId198" ref="O110"/>
-    <hyperlink r:id="rId199" ref="J111"/>
-    <hyperlink r:id="rId200" ref="O111"/>
-    <hyperlink r:id="rId201" ref="J112"/>
-    <hyperlink r:id="rId202" ref="O112"/>
-    <hyperlink r:id="rId203" ref="J113"/>
-    <hyperlink r:id="rId204" ref="O113"/>
-    <hyperlink r:id="rId205" ref="J114"/>
-    <hyperlink r:id="rId206" ref="O114"/>
-    <hyperlink r:id="rId207" ref="J115"/>
-    <hyperlink r:id="rId208" ref="O115"/>
-    <hyperlink r:id="rId209" ref="O116"/>
-    <hyperlink r:id="rId210" ref="J117"/>
-    <hyperlink r:id="rId211" ref="O117"/>
-    <hyperlink r:id="rId212" ref="J118"/>
-    <hyperlink r:id="rId213" ref="O118"/>
-    <hyperlink r:id="rId214" ref="J119"/>
-    <hyperlink r:id="rId215" ref="O119"/>
-    <hyperlink r:id="rId216" ref="J120"/>
-    <hyperlink r:id="rId217" ref="O120"/>
-    <hyperlink r:id="rId218" ref="J121"/>
-    <hyperlink r:id="rId219" ref="O121"/>
-    <hyperlink r:id="rId220" ref="O122"/>
-    <hyperlink r:id="rId221" ref="J123"/>
-    <hyperlink r:id="rId222" ref="O123"/>
-    <hyperlink r:id="rId223" ref="J124"/>
-    <hyperlink r:id="rId224" ref="O124"/>
-    <hyperlink r:id="rId225" ref="J125"/>
-    <hyperlink r:id="rId226" ref="O125"/>
-    <hyperlink r:id="rId227" ref="J126"/>
-    <hyperlink r:id="rId228" ref="O126"/>
-    <hyperlink r:id="rId229" ref="O127"/>
-    <hyperlink r:id="rId230" ref="O128"/>
-    <hyperlink r:id="rId231" ref="J129"/>
-    <hyperlink r:id="rId232" ref="O129"/>
-    <hyperlink r:id="rId233" ref="J130"/>
-    <hyperlink r:id="rId234" ref="O130"/>
-    <hyperlink r:id="rId235" ref="J132"/>
-    <hyperlink r:id="rId236" ref="O132"/>
-    <hyperlink r:id="rId237" ref="J133"/>
-    <hyperlink r:id="rId238" ref="O133"/>
-    <hyperlink r:id="rId239" ref="J134"/>
-    <hyperlink r:id="rId240" ref="O134"/>
-    <hyperlink r:id="rId241" ref="J135"/>
-    <hyperlink r:id="rId242" ref="O135"/>
-    <hyperlink r:id="rId243" ref="J136"/>
-    <hyperlink r:id="rId244" ref="O136"/>
-    <hyperlink r:id="rId245" ref="J137"/>
-    <hyperlink r:id="rId246" ref="O137"/>
-    <hyperlink r:id="rId247" ref="J138"/>
-    <hyperlink r:id="rId248" ref="O138"/>
-    <hyperlink r:id="rId249" ref="J139"/>
-    <hyperlink r:id="rId250" ref="O139"/>
-    <hyperlink r:id="rId251" ref="J140"/>
-    <hyperlink r:id="rId252" ref="O140"/>
-    <hyperlink r:id="rId253" ref="J141"/>
-    <hyperlink r:id="rId254" ref="O141"/>
-    <hyperlink r:id="rId255" ref="J142"/>
-    <hyperlink r:id="rId256" ref="O142"/>
-    <hyperlink r:id="rId257" ref="J143"/>
-    <hyperlink r:id="rId258" ref="O143"/>
-    <hyperlink r:id="rId259" ref="J144"/>
-    <hyperlink r:id="rId260" ref="O144"/>
-    <hyperlink r:id="rId261" ref="J145"/>
-    <hyperlink r:id="rId262" ref="O145"/>
-    <hyperlink r:id="rId263" ref="J148"/>
-    <hyperlink r:id="rId264" ref="O148"/>
-    <hyperlink r:id="rId265" ref="O149"/>
-    <hyperlink r:id="rId266" ref="J150"/>
-    <hyperlink r:id="rId267" ref="O150"/>
-    <hyperlink r:id="rId268" ref="J151"/>
-    <hyperlink r:id="rId269" ref="O151"/>
-    <hyperlink r:id="rId270" ref="J152"/>
-    <hyperlink r:id="rId271" ref="O152"/>
-    <hyperlink r:id="rId272" ref="J153"/>
-    <hyperlink r:id="rId273" ref="O153"/>
-    <hyperlink r:id="rId274" ref="O154"/>
-    <hyperlink r:id="rId275" ref="J155"/>
-    <hyperlink r:id="rId276" ref="O155"/>
-    <hyperlink r:id="rId277" ref="J156"/>
-    <hyperlink r:id="rId278" ref="O156"/>
-    <hyperlink r:id="rId279" ref="J157"/>
-    <hyperlink r:id="rId280" ref="O157"/>
-    <hyperlink r:id="rId281" ref="J158"/>
-    <hyperlink r:id="rId282" ref="O158"/>
-    <hyperlink r:id="rId283" ref="J159"/>
-    <hyperlink r:id="rId284" ref="O159"/>
-    <hyperlink r:id="rId285" ref="J160"/>
-    <hyperlink r:id="rId286" ref="O160"/>
-    <hyperlink r:id="rId287" ref="J161"/>
-    <hyperlink r:id="rId288" ref="O161"/>
-    <hyperlink r:id="rId289" ref="J162"/>
-    <hyperlink r:id="rId290" ref="O162"/>
-    <hyperlink r:id="rId291" ref="J163"/>
-    <hyperlink r:id="rId292" ref="O163"/>
-    <hyperlink r:id="rId293" ref="J164"/>
-    <hyperlink r:id="rId294" ref="O164"/>
-    <hyperlink r:id="rId295" ref="J165"/>
-    <hyperlink r:id="rId296" ref="O165"/>
-    <hyperlink r:id="rId297" ref="O166"/>
-    <hyperlink r:id="rId298" ref="J167"/>
-    <hyperlink r:id="rId299" ref="O167"/>
-    <hyperlink r:id="rId300" ref="J168"/>
-    <hyperlink r:id="rId301" ref="O168"/>
-    <hyperlink r:id="rId302" ref="J169"/>
-    <hyperlink r:id="rId303" ref="O169"/>
-    <hyperlink r:id="rId304" ref="J170"/>
-    <hyperlink r:id="rId305" ref="O170"/>
-    <hyperlink r:id="rId306" ref="J171"/>
-    <hyperlink r:id="rId307" ref="O171"/>
-    <hyperlink r:id="rId308" ref="J172"/>
-    <hyperlink r:id="rId309" ref="O172"/>
-    <hyperlink r:id="rId310" ref="J173"/>
-    <hyperlink r:id="rId311" ref="O173"/>
-    <hyperlink r:id="rId312" ref="J174"/>
-    <hyperlink r:id="rId313" ref="O174"/>
-    <hyperlink r:id="rId314" ref="O175"/>
-    <hyperlink r:id="rId315" ref="J176"/>
-    <hyperlink r:id="rId316" ref="O176"/>
-    <hyperlink r:id="rId317" ref="J177"/>
-    <hyperlink r:id="rId318" ref="O177"/>
-    <hyperlink r:id="rId319" ref="O178"/>
-    <hyperlink r:id="rId320" ref="J179"/>
-    <hyperlink r:id="rId321" ref="O179"/>
-    <hyperlink r:id="rId322" ref="O180"/>
-    <hyperlink r:id="rId323" ref="O181"/>
-    <hyperlink r:id="rId324" ref="O182"/>
-    <hyperlink r:id="rId325" ref="O183"/>
-    <hyperlink r:id="rId326" ref="O184"/>
-    <hyperlink r:id="rId327" ref="J185"/>
-    <hyperlink r:id="rId328" ref="O185"/>
-    <hyperlink r:id="rId329" ref="J186"/>
-    <hyperlink r:id="rId330" ref="O186"/>
-    <hyperlink r:id="rId331" ref="J187"/>
-    <hyperlink r:id="rId332" ref="O187"/>
-    <hyperlink r:id="rId333" ref="O188"/>
-    <hyperlink r:id="rId334" ref="J189"/>
-    <hyperlink r:id="rId335" ref="O189"/>
-    <hyperlink r:id="rId336" ref="J198"/>
-    <hyperlink r:id="rId337" ref="O198"/>
-    <hyperlink r:id="rId338" ref="J199"/>
-    <hyperlink r:id="rId339" ref="O199"/>
-    <hyperlink r:id="rId340" ref="J200"/>
-    <hyperlink r:id="rId341" ref="O200"/>
-    <hyperlink r:id="rId342" ref="J201"/>
-    <hyperlink r:id="rId343" ref="O201"/>
-    <hyperlink r:id="rId344" ref="J202"/>
-    <hyperlink r:id="rId345" ref="O202"/>
-    <hyperlink r:id="rId346" ref="O203"/>
-    <hyperlink r:id="rId347" ref="J204"/>
-    <hyperlink r:id="rId348" ref="O204"/>
-    <hyperlink r:id="rId349" ref="J205"/>
-    <hyperlink r:id="rId350" ref="O205"/>
-    <hyperlink r:id="rId351" ref="J206"/>
-    <hyperlink r:id="rId352" ref="O206"/>
-    <hyperlink r:id="rId353" ref="J207"/>
-    <hyperlink r:id="rId354" ref="O207"/>
-    <hyperlink r:id="rId355" ref="O208"/>
-    <hyperlink r:id="rId356" ref="J210"/>
-    <hyperlink r:id="rId357" ref="O210"/>
-    <hyperlink r:id="rId358" ref="J218"/>
-    <hyperlink r:id="rId359" ref="O218"/>
+    <hyperlink r:id="rId27" ref="J18"/>
+    <hyperlink r:id="rId28" ref="O18"/>
+    <hyperlink r:id="rId29" ref="J19"/>
+    <hyperlink r:id="rId30" ref="O19"/>
+    <hyperlink r:id="rId31" ref="O20"/>
+    <hyperlink r:id="rId32" ref="J21"/>
+    <hyperlink r:id="rId33" ref="O21"/>
+    <hyperlink r:id="rId34" ref="J22"/>
+    <hyperlink r:id="rId35" ref="O22"/>
+    <hyperlink r:id="rId36" ref="J23"/>
+    <hyperlink r:id="rId37" ref="O23"/>
+    <hyperlink r:id="rId38" ref="J24"/>
+    <hyperlink r:id="rId39" ref="O24"/>
+    <hyperlink r:id="rId40" ref="J25"/>
+    <hyperlink r:id="rId41" ref="O25"/>
+    <hyperlink r:id="rId42" ref="J26"/>
+    <hyperlink r:id="rId43" ref="O26"/>
+    <hyperlink r:id="rId44" ref="J27"/>
+    <hyperlink r:id="rId45" ref="O27"/>
+    <hyperlink r:id="rId46" ref="J28"/>
+    <hyperlink r:id="rId47" ref="O28"/>
+    <hyperlink r:id="rId48" ref="J29"/>
+    <hyperlink r:id="rId49" ref="O29"/>
+    <hyperlink r:id="rId50" ref="J30"/>
+    <hyperlink r:id="rId51" ref="O30"/>
+    <hyperlink r:id="rId52" ref="J31"/>
+    <hyperlink r:id="rId53" ref="O31"/>
+    <hyperlink r:id="rId54" ref="J32"/>
+    <hyperlink r:id="rId55" ref="O32"/>
+    <hyperlink r:id="rId56" ref="J33"/>
+    <hyperlink r:id="rId57" ref="O33"/>
+    <hyperlink r:id="rId58" ref="J34"/>
+    <hyperlink r:id="rId59" ref="O34"/>
+    <hyperlink r:id="rId60" ref="J35"/>
+    <hyperlink r:id="rId61" ref="O35"/>
+    <hyperlink r:id="rId62" ref="J36"/>
+    <hyperlink r:id="rId63" ref="O36"/>
+    <hyperlink r:id="rId64" ref="J37"/>
+    <hyperlink r:id="rId65" ref="O37"/>
+    <hyperlink r:id="rId66" ref="J38"/>
+    <hyperlink r:id="rId67" ref="O38"/>
+    <hyperlink r:id="rId68" ref="J39"/>
+    <hyperlink r:id="rId69" ref="O39"/>
+    <hyperlink r:id="rId70" ref="J40"/>
+    <hyperlink r:id="rId71" ref="O40"/>
+    <hyperlink r:id="rId72" ref="J42"/>
+    <hyperlink r:id="rId73" ref="O42"/>
+    <hyperlink r:id="rId74" ref="O43"/>
+    <hyperlink r:id="rId75" ref="J44"/>
+    <hyperlink r:id="rId76" ref="O44"/>
+    <hyperlink r:id="rId77" ref="J45"/>
+    <hyperlink r:id="rId78" ref="O45"/>
+    <hyperlink r:id="rId79" ref="J46"/>
+    <hyperlink r:id="rId80" ref="O46"/>
+    <hyperlink r:id="rId81" ref="J47"/>
+    <hyperlink r:id="rId82" ref="O47"/>
+    <hyperlink r:id="rId83" ref="J48"/>
+    <hyperlink r:id="rId84" ref="O48"/>
+    <hyperlink r:id="rId85" ref="J49"/>
+    <hyperlink r:id="rId86" ref="O49"/>
+    <hyperlink r:id="rId87" ref="J50"/>
+    <hyperlink r:id="rId88" ref="O50"/>
+    <hyperlink r:id="rId89" ref="O51"/>
+    <hyperlink r:id="rId90" ref="J52"/>
+    <hyperlink r:id="rId91" ref="O52"/>
+    <hyperlink r:id="rId92" ref="J53"/>
+    <hyperlink r:id="rId93" ref="O53"/>
+    <hyperlink r:id="rId94" ref="J54"/>
+    <hyperlink r:id="rId95" ref="O54"/>
+    <hyperlink r:id="rId96" ref="J55"/>
+    <hyperlink r:id="rId97" ref="O55"/>
+    <hyperlink r:id="rId98" ref="J56"/>
+    <hyperlink r:id="rId99" ref="O56"/>
+    <hyperlink r:id="rId100" ref="J57"/>
+    <hyperlink r:id="rId101" ref="O57"/>
+    <hyperlink r:id="rId102" ref="O58"/>
+    <hyperlink r:id="rId103" ref="O59"/>
+    <hyperlink r:id="rId104" ref="O60"/>
+    <hyperlink r:id="rId105" ref="J61"/>
+    <hyperlink r:id="rId106" ref="O61"/>
+    <hyperlink r:id="rId107" ref="O62"/>
+    <hyperlink r:id="rId108" ref="O63"/>
+    <hyperlink r:id="rId109" ref="J64"/>
+    <hyperlink r:id="rId110" ref="O64"/>
+    <hyperlink r:id="rId111" ref="J65"/>
+    <hyperlink r:id="rId112" ref="O65"/>
+    <hyperlink r:id="rId113" ref="J66"/>
+    <hyperlink r:id="rId114" ref="O66"/>
+    <hyperlink r:id="rId115" ref="O67"/>
+    <hyperlink r:id="rId116" ref="J68"/>
+    <hyperlink r:id="rId117" ref="O68"/>
+    <hyperlink r:id="rId118" ref="J69"/>
+    <hyperlink r:id="rId119" ref="O69"/>
+    <hyperlink r:id="rId120" ref="J70"/>
+    <hyperlink r:id="rId121" ref="O70"/>
+    <hyperlink r:id="rId122" ref="J71"/>
+    <hyperlink r:id="rId123" ref="O71"/>
+    <hyperlink r:id="rId124" ref="J72"/>
+    <hyperlink r:id="rId125" ref="O72"/>
+    <hyperlink r:id="rId126" ref="J73"/>
+    <hyperlink r:id="rId127" ref="O73"/>
+    <hyperlink r:id="rId128" ref="J74"/>
+    <hyperlink r:id="rId129" ref="O74"/>
+    <hyperlink r:id="rId130" ref="J75"/>
+    <hyperlink r:id="rId131" ref="O75"/>
+    <hyperlink r:id="rId132" ref="J76"/>
+    <hyperlink r:id="rId133" ref="O76"/>
+    <hyperlink r:id="rId134" ref="J77"/>
+    <hyperlink r:id="rId135" ref="O77"/>
+    <hyperlink r:id="rId136" ref="O78"/>
+    <hyperlink r:id="rId137" ref="J79"/>
+    <hyperlink r:id="rId138" ref="O79"/>
+    <hyperlink r:id="rId139" ref="J80"/>
+    <hyperlink r:id="rId140" ref="O80"/>
+    <hyperlink r:id="rId141" ref="J81"/>
+    <hyperlink r:id="rId142" ref="O81"/>
+    <hyperlink r:id="rId143" ref="J82"/>
+    <hyperlink r:id="rId144" ref="O82"/>
+    <hyperlink r:id="rId145" ref="O83"/>
+    <hyperlink r:id="rId146" ref="J84"/>
+    <hyperlink r:id="rId147" ref="O84"/>
+    <hyperlink r:id="rId148" ref="J85"/>
+    <hyperlink r:id="rId149" ref="O85"/>
+    <hyperlink r:id="rId150" ref="J86"/>
+    <hyperlink r:id="rId151" ref="O86"/>
+    <hyperlink r:id="rId152" ref="J87"/>
+    <hyperlink r:id="rId153" ref="O87"/>
+    <hyperlink r:id="rId154" ref="J88"/>
+    <hyperlink r:id="rId155" ref="O88"/>
+    <hyperlink r:id="rId156" ref="J89"/>
+    <hyperlink r:id="rId157" ref="O89"/>
+    <hyperlink r:id="rId158" ref="J90"/>
+    <hyperlink r:id="rId159" ref="O90"/>
+    <hyperlink r:id="rId160" ref="J91"/>
+    <hyperlink r:id="rId161" ref="O91"/>
+    <hyperlink r:id="rId162" ref="J92"/>
+    <hyperlink r:id="rId163" ref="O92"/>
+    <hyperlink r:id="rId164" ref="O93"/>
+    <hyperlink r:id="rId165" ref="O94"/>
+    <hyperlink r:id="rId166" ref="J95"/>
+    <hyperlink r:id="rId167" ref="O95"/>
+    <hyperlink r:id="rId168" ref="J96"/>
+    <hyperlink r:id="rId169" ref="O96"/>
+    <hyperlink r:id="rId170" ref="J97"/>
+    <hyperlink r:id="rId171" ref="O97"/>
+    <hyperlink r:id="rId172" ref="J98"/>
+    <hyperlink r:id="rId173" ref="O98"/>
+    <hyperlink r:id="rId174" ref="O99"/>
+    <hyperlink r:id="rId175" ref="J100"/>
+    <hyperlink r:id="rId176" ref="O100"/>
+    <hyperlink r:id="rId177" ref="J101"/>
+    <hyperlink r:id="rId178" ref="O101"/>
+    <hyperlink r:id="rId179" ref="J102"/>
+    <hyperlink r:id="rId180" ref="O102"/>
+    <hyperlink r:id="rId181" ref="J103"/>
+    <hyperlink r:id="rId182" ref="O103"/>
+    <hyperlink r:id="rId183" ref="J104"/>
+    <hyperlink r:id="rId184" ref="O104"/>
+    <hyperlink r:id="rId185" ref="J105"/>
+    <hyperlink r:id="rId186" ref="O105"/>
+    <hyperlink r:id="rId187" ref="J106"/>
+    <hyperlink r:id="rId188" ref="O106"/>
+    <hyperlink r:id="rId189" ref="J107"/>
+    <hyperlink r:id="rId190" ref="O107"/>
+    <hyperlink r:id="rId191" ref="J108"/>
+    <hyperlink r:id="rId192" ref="O108"/>
+    <hyperlink r:id="rId193" ref="J109"/>
+    <hyperlink r:id="rId194" ref="O109"/>
+    <hyperlink r:id="rId195" ref="J110"/>
+    <hyperlink r:id="rId196" ref="O110"/>
+    <hyperlink r:id="rId197" ref="J111"/>
+    <hyperlink r:id="rId198" ref="O111"/>
+    <hyperlink r:id="rId199" ref="J112"/>
+    <hyperlink r:id="rId200" ref="O112"/>
+    <hyperlink r:id="rId201" ref="J113"/>
+    <hyperlink r:id="rId202" ref="O113"/>
+    <hyperlink r:id="rId203" ref="J114"/>
+    <hyperlink r:id="rId204" ref="O114"/>
+    <hyperlink r:id="rId205" ref="J115"/>
+    <hyperlink r:id="rId206" ref="O115"/>
+    <hyperlink r:id="rId207" ref="J116"/>
+    <hyperlink r:id="rId208" ref="O116"/>
+    <hyperlink r:id="rId209" ref="O117"/>
+    <hyperlink r:id="rId210" ref="J118"/>
+    <hyperlink r:id="rId211" ref="O118"/>
+    <hyperlink r:id="rId212" ref="J119"/>
+    <hyperlink r:id="rId213" ref="O119"/>
+    <hyperlink r:id="rId214" ref="J120"/>
+    <hyperlink r:id="rId215" ref="O120"/>
+    <hyperlink r:id="rId216" ref="J121"/>
+    <hyperlink r:id="rId217" ref="O121"/>
+    <hyperlink r:id="rId218" ref="J122"/>
+    <hyperlink r:id="rId219" ref="O122"/>
+    <hyperlink r:id="rId220" ref="O123"/>
+    <hyperlink r:id="rId221" ref="J124"/>
+    <hyperlink r:id="rId222" ref="O124"/>
+    <hyperlink r:id="rId223" ref="J125"/>
+    <hyperlink r:id="rId224" ref="O125"/>
+    <hyperlink r:id="rId225" ref="J126"/>
+    <hyperlink r:id="rId226" ref="O126"/>
+    <hyperlink r:id="rId227" ref="J127"/>
+    <hyperlink r:id="rId228" ref="O127"/>
+    <hyperlink r:id="rId229" ref="O128"/>
+    <hyperlink r:id="rId230" ref="O129"/>
+    <hyperlink r:id="rId231" ref="J130"/>
+    <hyperlink r:id="rId232" ref="O130"/>
+    <hyperlink r:id="rId233" ref="J131"/>
+    <hyperlink r:id="rId234" ref="O131"/>
+    <hyperlink r:id="rId235" ref="J133"/>
+    <hyperlink r:id="rId236" ref="O133"/>
+    <hyperlink r:id="rId237" ref="J134"/>
+    <hyperlink r:id="rId238" ref="O134"/>
+    <hyperlink r:id="rId239" ref="J135"/>
+    <hyperlink r:id="rId240" ref="O135"/>
+    <hyperlink r:id="rId241" ref="J136"/>
+    <hyperlink r:id="rId242" ref="O136"/>
+    <hyperlink r:id="rId243" ref="J137"/>
+    <hyperlink r:id="rId244" ref="O137"/>
+    <hyperlink r:id="rId245" ref="J138"/>
+    <hyperlink r:id="rId246" ref="O138"/>
+    <hyperlink r:id="rId247" ref="J139"/>
+    <hyperlink r:id="rId248" ref="O139"/>
+    <hyperlink r:id="rId249" ref="J140"/>
+    <hyperlink r:id="rId250" ref="O140"/>
+    <hyperlink r:id="rId251" ref="J141"/>
+    <hyperlink r:id="rId252" ref="O141"/>
+    <hyperlink r:id="rId253" ref="J142"/>
+    <hyperlink r:id="rId254" ref="O142"/>
+    <hyperlink r:id="rId255" ref="J143"/>
+    <hyperlink r:id="rId256" ref="O143"/>
+    <hyperlink r:id="rId257" ref="J144"/>
+    <hyperlink r:id="rId258" ref="O144"/>
+    <hyperlink r:id="rId259" ref="J145"/>
+    <hyperlink r:id="rId260" ref="O145"/>
+    <hyperlink r:id="rId261" ref="J146"/>
+    <hyperlink r:id="rId262" ref="O146"/>
+    <hyperlink r:id="rId263" ref="J149"/>
+    <hyperlink r:id="rId264" ref="O149"/>
+    <hyperlink r:id="rId265" ref="O150"/>
+    <hyperlink r:id="rId266" ref="J151"/>
+    <hyperlink r:id="rId267" ref="O151"/>
+    <hyperlink r:id="rId268" ref="J152"/>
+    <hyperlink r:id="rId269" ref="O152"/>
+    <hyperlink r:id="rId270" ref="J153"/>
+    <hyperlink r:id="rId271" ref="O153"/>
+    <hyperlink r:id="rId272" ref="J154"/>
+    <hyperlink r:id="rId273" ref="O154"/>
+    <hyperlink r:id="rId274" ref="O155"/>
+    <hyperlink r:id="rId275" ref="J156"/>
+    <hyperlink r:id="rId276" ref="O156"/>
+    <hyperlink r:id="rId277" ref="J157"/>
+    <hyperlink r:id="rId278" ref="O157"/>
+    <hyperlink r:id="rId279" ref="J158"/>
+    <hyperlink r:id="rId280" ref="O158"/>
+    <hyperlink r:id="rId281" ref="J159"/>
+    <hyperlink r:id="rId282" ref="O159"/>
+    <hyperlink r:id="rId283" ref="J160"/>
+    <hyperlink r:id="rId284" ref="O160"/>
+    <hyperlink r:id="rId285" ref="J161"/>
+    <hyperlink r:id="rId286" ref="O161"/>
+    <hyperlink r:id="rId287" ref="J162"/>
+    <hyperlink r:id="rId288" ref="O162"/>
+    <hyperlink r:id="rId289" ref="J163"/>
+    <hyperlink r:id="rId290" ref="O163"/>
+    <hyperlink r:id="rId291" ref="J164"/>
+    <hyperlink r:id="rId292" ref="O164"/>
+    <hyperlink r:id="rId293" ref="J165"/>
+    <hyperlink r:id="rId294" ref="O165"/>
+    <hyperlink r:id="rId295" ref="J166"/>
+    <hyperlink r:id="rId296" ref="O166"/>
+    <hyperlink r:id="rId297" ref="O167"/>
+    <hyperlink r:id="rId298" ref="J168"/>
+    <hyperlink r:id="rId299" ref="O168"/>
+    <hyperlink r:id="rId300" ref="J169"/>
+    <hyperlink r:id="rId301" ref="O169"/>
+    <hyperlink r:id="rId302" ref="J170"/>
+    <hyperlink r:id="rId303" ref="O170"/>
+    <hyperlink r:id="rId304" ref="J171"/>
+    <hyperlink r:id="rId305" ref="O171"/>
+    <hyperlink r:id="rId306" ref="J172"/>
+    <hyperlink r:id="rId307" ref="O172"/>
+    <hyperlink r:id="rId308" ref="J173"/>
+    <hyperlink r:id="rId309" ref="O173"/>
+    <hyperlink r:id="rId310" ref="J174"/>
+    <hyperlink r:id="rId311" ref="O174"/>
+    <hyperlink r:id="rId312" ref="J175"/>
+    <hyperlink r:id="rId313" ref="O175"/>
+    <hyperlink r:id="rId314" ref="O176"/>
+    <hyperlink r:id="rId315" ref="J177"/>
+    <hyperlink r:id="rId316" ref="O177"/>
+    <hyperlink r:id="rId317" ref="J178"/>
+    <hyperlink r:id="rId318" ref="O178"/>
+    <hyperlink r:id="rId319" ref="O179"/>
+    <hyperlink r:id="rId320" ref="J180"/>
+    <hyperlink r:id="rId321" ref="O180"/>
+    <hyperlink r:id="rId322" ref="O181"/>
+    <hyperlink r:id="rId323" ref="O182"/>
+    <hyperlink r:id="rId324" ref="O183"/>
+    <hyperlink r:id="rId325" ref="O184"/>
+    <hyperlink r:id="rId326" ref="O185"/>
+    <hyperlink r:id="rId327" ref="J186"/>
+    <hyperlink r:id="rId328" ref="O186"/>
+    <hyperlink r:id="rId329" ref="J187"/>
+    <hyperlink r:id="rId330" ref="O187"/>
+    <hyperlink r:id="rId331" ref="J188"/>
+    <hyperlink r:id="rId332" ref="O188"/>
+    <hyperlink r:id="rId333" ref="O189"/>
+    <hyperlink r:id="rId334" ref="J190"/>
+    <hyperlink r:id="rId335" ref="O190"/>
+    <hyperlink r:id="rId336" ref="J199"/>
+    <hyperlink r:id="rId337" ref="O199"/>
+    <hyperlink r:id="rId338" ref="J200"/>
+    <hyperlink r:id="rId339" ref="O200"/>
+    <hyperlink r:id="rId340" ref="J201"/>
+    <hyperlink r:id="rId341" ref="O201"/>
+    <hyperlink r:id="rId342" ref="J202"/>
+    <hyperlink r:id="rId343" ref="O202"/>
+    <hyperlink r:id="rId344" ref="J203"/>
+    <hyperlink r:id="rId345" ref="O203"/>
+    <hyperlink r:id="rId346" ref="O204"/>
+    <hyperlink r:id="rId347" ref="J205"/>
+    <hyperlink r:id="rId348" ref="O205"/>
+    <hyperlink r:id="rId349" ref="J206"/>
+    <hyperlink r:id="rId350" ref="O206"/>
+    <hyperlink r:id="rId351" ref="J207"/>
+    <hyperlink r:id="rId352" ref="O207"/>
+    <hyperlink r:id="rId353" ref="J208"/>
+    <hyperlink r:id="rId354" ref="O208"/>
+    <hyperlink r:id="rId355" ref="O209"/>
+    <hyperlink r:id="rId356" ref="J211"/>
+    <hyperlink r:id="rId357" ref="O211"/>
+    <hyperlink r:id="rId358" ref="J219"/>
+    <hyperlink r:id="rId359" ref="O219"/>
   </hyperlinks>
   <drawing r:id="rId360"/>
 </worksheet>
@@ -28791,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -28809,110 +28858,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="867">
   <si>
     <t>Term</t>
   </si>
@@ -1369,6 +1369,12 @@
     <t>pd:Communication</t>
   </si>
   <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Information about emotion</t>
+  </si>
+  <si>
     <t>EmploymentHistory</t>
   </si>
   <si>
@@ -1396,6 +1402,15 @@
     <t>pd:Biometric</t>
   </si>
   <si>
+    <t>FacialExpression</t>
+  </si>
+  <si>
+    <t>Facial Expression</t>
+  </si>
+  <si>
+    <t>Information about facial expression</t>
+  </si>
+  <si>
     <t>Family</t>
   </si>
   <si>
@@ -1802,6 +1817,12 @@
   </si>
   <si>
     <t>Information about mental health.</t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Information about mood</t>
   </si>
   <si>
     <t>Name</t>
@@ -18596,14 +18617,14 @@
       <c r="A65" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>422</v>
-      </c>
       <c r="D65" s="10" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18612,22 +18633,18 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J65" s="18"/>
       <c r="K65" s="13">
-        <v>43620.0</v>
+        <v>45643.0</v>
       </c>
       <c r="L65" s="12"/>
       <c r="M65" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O65" s="10"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
@@ -18644,7 +18661,7 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>423</v>
@@ -18653,7 +18670,7 @@
         <v>424</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18696,14 +18713,14 @@
       <c r="A67" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>427</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18712,19 +18729,21 @@
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="43">
-        <v>44727.0</v>
+      <c r="J67" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K67" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L67" s="12"/>
-      <c r="M67" s="30" t="s">
+      <c r="M67" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18742,16 +18761,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>293</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18760,21 +18779,19 @@
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K68" s="13">
-        <v>43620.0</v>
+      <c r="J68" s="12"/>
+      <c r="K68" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L68" s="12"/>
-      <c r="M68" s="10" t="s">
+      <c r="M68" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18794,14 +18811,14 @@
       <c r="A69" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>433</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18810,22 +18827,18 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J69" s="18"/>
       <c r="K69" s="13">
-        <v>43620.0</v>
+        <v>45643.0</v>
       </c>
       <c r="L69" s="12"/>
       <c r="M69" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O69" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O69" s="10"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
@@ -18842,16 +18855,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>437</v>
-      </c>
       <c r="D70" s="10" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18892,16 +18905,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>441</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18942,16 +18955,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="D72" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18992,16 +19005,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -19042,16 +19055,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="D74" s="10" t="s">
         <v>450</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -19092,7 +19105,7 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B75" s="25" t="s">
         <v>452</v>
@@ -19101,7 +19114,7 @@
         <v>453</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19142,16 +19155,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B76" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="C76" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>457</v>
-      </c>
       <c r="D76" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19192,16 +19205,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>462</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19242,16 +19255,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19260,19 +19273,21 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="43">
-        <v>44727.0</v>
+      <c r="J78" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K78" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L78" s="12"/>
-      <c r="M78" s="30" t="s">
+      <c r="M78" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19290,16 +19305,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B79" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19342,14 +19357,14 @@
       <c r="A80" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B80" s="25" t="s">
-        <v>468</v>
+      <c r="B80" s="11" t="s">
+        <v>469</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19358,21 +19373,19 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
-      <c r="J80" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K80" s="13">
-        <v>43620.0</v>
+      <c r="J80" s="12"/>
+      <c r="K80" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L80" s="12"/>
-      <c r="M80" s="10" t="s">
+      <c r="M80" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19390,16 +19403,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>214</v>
+        <v>430</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19440,7 +19453,7 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>473</v>
@@ -19449,7 +19462,7 @@
         <v>474</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19492,14 +19505,14 @@
       <c r="A83" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="25" t="s">
         <v>475</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>476</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>477</v>
+        <v>214</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19508,19 +19521,21 @@
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
-      <c r="J83" s="18"/>
+      <c r="J83" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K83" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L83" s="12"/>
       <c r="M83" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19538,16 +19553,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>480</v>
-      </c>
       <c r="D84" s="10" t="s">
-        <v>481</v>
+        <v>290</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19588,16 +19603,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19606,21 +19621,19 @@
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J85" s="18"/>
       <c r="K85" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L85" s="12"/>
       <c r="M85" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>184</v>
+        <v>483</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19638,16 +19651,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C86" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="D86" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19688,16 +19701,16 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B87" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="C87" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C87" s="46" t="s">
-        <v>490</v>
-      </c>
       <c r="D87" s="10" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
@@ -19738,24 +19751,22 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B88" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="10" t="s">
         <v>492</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12" t="s">
-        <v>493</v>
-      </c>
+      <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="29" t="s">
@@ -19790,16 +19801,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="C89" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="D89" s="10" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19840,13 +19851,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C90" s="47" t="s">
         <v>497</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>499</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>264</v>
@@ -19855,7 +19866,9 @@
         <v>50</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="12" t="s">
+        <v>498</v>
+      </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="29" t="s">
@@ -19890,16 +19903,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C91" s="46" t="s">
+      <c r="C91" s="10" t="s">
         <v>501</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19949,7 +19962,7 @@
         <v>504</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19992,14 +20005,14 @@
       <c r="A93" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C93" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>507</v>
-      </c>
       <c r="D93" s="10" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -20008,19 +20021,21 @@
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="55">
-        <v>44671.0</v>
+      <c r="J93" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K93" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L93" s="12"/>
       <c r="M93" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -20038,16 +20053,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B94" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B94" s="25" t="s">
         <v>508</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>509</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -20056,19 +20071,21 @@
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
+      <c r="J94" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K94" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L94" s="12"/>
-      <c r="M94" s="30" t="s">
+      <c r="M94" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20088,14 +20105,14 @@
       <c r="A95" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B95" s="25" t="s">
-        <v>510</v>
+      <c r="B95" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20104,21 +20121,19 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
-      <c r="J95" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K95" s="13">
-        <v>43620.0</v>
+      <c r="J95" s="18"/>
+      <c r="K95" s="55">
+        <v>44671.0</v>
       </c>
       <c r="L95" s="12"/>
       <c r="M95" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20136,16 +20151,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20154,21 +20169,19 @@
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
-      <c r="J96" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J96" s="12"/>
       <c r="K96" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L96" s="12"/>
-      <c r="M96" s="10" t="s">
+      <c r="M96" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20186,7 +20199,7 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B97" s="25" t="s">
         <v>515</v>
@@ -20195,7 +20208,7 @@
         <v>516</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>481</v>
+        <v>246</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20239,13 +20252,13 @@
         <v>517</v>
       </c>
       <c r="B98" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>519</v>
-      </c>
       <c r="D98" s="10" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20286,16 +20299,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B99" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B99" s="25" t="s">
         <v>520</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>521</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20304,19 +20317,21 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="18"/>
+      <c r="J99" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K99" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L99" s="12"/>
       <c r="M99" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20337,13 +20352,13 @@
         <v>522</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20384,16 +20399,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>525</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>290</v>
+        <v>463</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20402,21 +20417,19 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J101" s="18"/>
       <c r="K101" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L101" s="12"/>
       <c r="M101" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20434,16 +20447,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20484,7 +20497,7 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>529</v>
@@ -20493,7 +20506,7 @@
         <v>530</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20543,7 +20556,7 @@
         <v>532</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20593,7 +20606,7 @@
         <v>535</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20643,7 +20656,7 @@
         <v>537</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20658,9 +20671,7 @@
       <c r="K106" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L106" s="13">
-        <v>44671.0</v>
-      </c>
+      <c r="L106" s="12"/>
       <c r="M106" s="10" t="s">
         <v>19</v>
       </c>
@@ -20695,7 +20706,7 @@
         <v>540</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>541</v>
+        <v>235</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20736,16 +20747,16 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B108" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="C108" s="47" t="s">
-        <v>543</v>
-      </c>
       <c r="D108" s="10" t="s">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
@@ -20760,7 +20771,9 @@
       <c r="K108" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L108" s="12"/>
+      <c r="L108" s="13">
+        <v>44671.0</v>
+      </c>
       <c r="M108" s="10" t="s">
         <v>19</v>
       </c>
@@ -20786,24 +20799,22 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B109" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="D109" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="12" t="s">
-        <v>547</v>
-      </c>
+      <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="29" t="s">
@@ -20838,16 +20849,16 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="C110" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="B110" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>550</v>
-      </c>
       <c r="D110" s="10" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
@@ -20888,23 +20899,23 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B111" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>552</v>
-      </c>
       <c r="D111" s="10" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
@@ -20940,16 +20951,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B112" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="C112" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>556</v>
-      </c>
       <c r="D112" s="10" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20990,22 +21001,24 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B113" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="D113" s="10" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
+      <c r="G113" s="12" t="s">
+        <v>558</v>
+      </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="29" t="s">
@@ -21040,7 +21053,7 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B114" s="25" t="s">
         <v>560</v>
@@ -21049,7 +21062,7 @@
         <v>561</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -21099,7 +21112,7 @@
         <v>564</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>477</v>
+        <v>290</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21149,7 +21162,7 @@
         <v>566</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>567</v>
+        <v>389</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21190,16 +21203,16 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B117" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B117" s="25" t="s">
         <v>568</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>569</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>246</v>
+        <v>482</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
@@ -21208,17 +21221,21 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="18"/>
+      <c r="J117" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K117" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L117" s="12"/>
       <c r="M117" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N117" s="12"/>
+      <c r="N117" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="O117" s="14" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21238,40 +21255,34 @@
       <c r="A118" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>572</v>
-      </c>
       <c r="D118" s="10" t="s">
-        <v>567</v>
+        <v>235</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="12"/>
-      <c r="G118" s="12" t="s">
-        <v>573</v>
-      </c>
+      <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
-      <c r="J118" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J118" s="18"/>
       <c r="K118" s="13">
-        <v>43620.0</v>
+        <v>45643.0</v>
       </c>
       <c r="L118" s="12"/>
       <c r="M118" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O118" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O118" s="10"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
@@ -21288,16 +21299,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>574</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>389</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21338,16 +21349,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B120" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>577</v>
-      </c>
       <c r="D120" s="10" t="s">
-        <v>441</v>
+        <v>246</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21356,21 +21367,17 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
-      <c r="J120" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J120" s="18"/>
       <c r="K120" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L120" s="12"/>
       <c r="M120" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N120" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="N120" s="12"/>
       <c r="O120" s="14" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21388,7 +21395,7 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B121" s="25" t="s">
         <v>578</v>
@@ -21397,13 +21404,15 @@
         <v>579</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>458</v>
+        <v>574</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
+      <c r="G121" s="12" t="s">
+        <v>580</v>
+      </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="29" t="s">
@@ -21438,13 +21447,13 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>389</v>
@@ -21488,16 +21497,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>583</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>584</v>
+        <v>446</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21506,19 +21515,21 @@
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
-      <c r="J123" s="18"/>
+      <c r="J123" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K123" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L123" s="12"/>
       <c r="M123" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21545,7 +21556,7 @@
         <v>586</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>587</v>
+        <v>463</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21585,313 +21596,315 @@
       <c r="AB124" s="12"/>
     </row>
     <row r="125">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C125" s="47" t="s">
         <v>588</v>
       </c>
-      <c r="B125" s="54" t="s">
-        <v>589</v>
-      </c>
-      <c r="C125" s="53" t="s">
-        <v>590</v>
-      </c>
-      <c r="D125" s="51" t="s">
-        <v>207</v>
+      <c r="D125" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="26" t="s">
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K125" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L125" s="12"/>
+      <c r="M125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N125" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O125" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="12"/>
+      <c r="Y125" s="12"/>
+      <c r="Z125" s="12"/>
+      <c r="AA125" s="12"/>
+      <c r="AB125" s="12"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>591</v>
-      </c>
-      <c r="K125" s="50">
-        <v>44139.0</v>
-      </c>
-      <c r="L125" s="12"/>
-      <c r="M125" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="N125" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="O125" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="P125" s="49"/>
-      <c r="Q125" s="49"/>
-      <c r="R125" s="49"/>
-      <c r="S125" s="49"/>
-      <c r="T125" s="49"/>
-      <c r="U125" s="49"/>
-      <c r="V125" s="49"/>
-      <c r="W125" s="49"/>
-      <c r="X125" s="49"/>
-      <c r="Y125" s="49"/>
-      <c r="Z125" s="49"/>
-      <c r="AA125" s="49"/>
-      <c r="AB125" s="49"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="B126" s="54" t="s">
-        <v>593</v>
-      </c>
-      <c r="C126" s="51" t="s">
-        <v>594</v>
-      </c>
-      <c r="D126" s="51" t="s">
-        <v>595</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
-      <c r="H126" s="49"/>
-      <c r="I126" s="49"/>
-      <c r="J126" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="K126" s="50">
-        <v>44139.0</v>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="13">
+        <v>44671.0</v>
       </c>
       <c r="L126" s="12"/>
-      <c r="M126" s="51" t="s">
+      <c r="M126" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N126" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="O126" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="P126" s="49"/>
-      <c r="Q126" s="49"/>
-      <c r="R126" s="49"/>
-      <c r="S126" s="49"/>
-      <c r="T126" s="49"/>
-      <c r="U126" s="49"/>
-      <c r="V126" s="49"/>
-      <c r="W126" s="49"/>
-      <c r="X126" s="49"/>
-      <c r="Y126" s="49"/>
-      <c r="Z126" s="49"/>
-      <c r="AA126" s="49"/>
-      <c r="AB126" s="49"/>
+      <c r="N126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O126" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="12"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="12"/>
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="12"/>
     </row>
     <row r="127">
-      <c r="A127" s="53" t="s">
-        <v>597</v>
-      </c>
-      <c r="B127" s="54" t="s">
-        <v>598</v>
-      </c>
-      <c r="C127" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="D127" s="51" t="s">
-        <v>600</v>
+      <c r="A127" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>594</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="49"/>
-      <c r="I127" s="49"/>
-      <c r="J127" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="K127" s="50">
-        <v>44139.0</v>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K127" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L127" s="12"/>
-      <c r="M127" s="51" t="s">
+      <c r="M127" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N127" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="O127" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="P127" s="49"/>
-      <c r="Q127" s="49"/>
-      <c r="R127" s="49"/>
-      <c r="S127" s="49"/>
-      <c r="T127" s="49"/>
-      <c r="U127" s="49"/>
-      <c r="V127" s="49"/>
-      <c r="W127" s="49"/>
-      <c r="X127" s="49"/>
-      <c r="Y127" s="49"/>
-      <c r="Z127" s="49"/>
-      <c r="AA127" s="49"/>
-      <c r="AB127" s="49"/>
+      <c r="N127" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O127" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="12"/>
+      <c r="AA127" s="12"/>
+      <c r="AB127" s="12"/>
     </row>
     <row r="128">
-      <c r="A128" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>605</v>
+      <c r="A128" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="C128" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="D128" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="13">
-        <v>44727.0</v>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="49"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="K128" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L128" s="12"/>
-      <c r="M128" s="30" t="s">
+      <c r="M128" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N128" s="10" t="s">
+      <c r="N128" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O128" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="P128" s="12"/>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="12"/>
-      <c r="S128" s="12"/>
-      <c r="T128" s="12"/>
-      <c r="U128" s="12"/>
-      <c r="V128" s="12"/>
-      <c r="W128" s="12"/>
-      <c r="X128" s="12"/>
-      <c r="Y128" s="12"/>
-      <c r="Z128" s="12"/>
-      <c r="AA128" s="12"/>
-      <c r="AB128" s="12"/>
+      <c r="O128" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="49"/>
+      <c r="R128" s="49"/>
+      <c r="S128" s="49"/>
+      <c r="T128" s="49"/>
+      <c r="U128" s="49"/>
+      <c r="V128" s="49"/>
+      <c r="W128" s="49"/>
+      <c r="X128" s="49"/>
+      <c r="Y128" s="49"/>
+      <c r="Z128" s="49"/>
+      <c r="AA128" s="49"/>
+      <c r="AB128" s="49"/>
     </row>
     <row r="129">
-      <c r="A129" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>246</v>
+      <c r="A129" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="B129" s="54" t="s">
+        <v>600</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="D129" s="51" t="s">
+        <v>602</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="13">
-        <v>44727.0</v>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="K129" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L129" s="12"/>
-      <c r="M129" s="30" t="s">
+      <c r="M129" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O129" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="P129" s="12"/>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12"/>
-      <c r="S129" s="12"/>
-      <c r="T129" s="12"/>
-      <c r="U129" s="12"/>
-      <c r="V129" s="12"/>
-      <c r="W129" s="12"/>
-      <c r="X129" s="12"/>
-      <c r="Y129" s="12"/>
-      <c r="Z129" s="12"/>
-      <c r="AA129" s="12"/>
-      <c r="AB129" s="12"/>
+      <c r="N129" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="O129" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="P129" s="49"/>
+      <c r="Q129" s="49"/>
+      <c r="R129" s="49"/>
+      <c r="S129" s="49"/>
+      <c r="T129" s="49"/>
+      <c r="U129" s="49"/>
+      <c r="V129" s="49"/>
+      <c r="W129" s="49"/>
+      <c r="X129" s="49"/>
+      <c r="Y129" s="49"/>
+      <c r="Z129" s="49"/>
+      <c r="AA129" s="49"/>
+      <c r="AB129" s="49"/>
     </row>
     <row r="130">
-      <c r="A130" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>232</v>
+      <c r="A130" s="53" t="s">
+        <v>604</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="C130" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="D130" s="51" t="s">
+        <v>607</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K130" s="13">
-        <v>43620.0</v>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="K130" s="50">
+        <v>44139.0</v>
       </c>
       <c r="L130" s="12"/>
-      <c r="M130" s="10" t="s">
+      <c r="M130" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="N130" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O130" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="P130" s="12"/>
-      <c r="Q130" s="12"/>
-      <c r="R130" s="12"/>
-      <c r="S130" s="12"/>
-      <c r="T130" s="12"/>
-      <c r="U130" s="12"/>
-      <c r="V130" s="12"/>
-      <c r="W130" s="12"/>
-      <c r="X130" s="12"/>
-      <c r="Y130" s="12"/>
-      <c r="Z130" s="12"/>
-      <c r="AA130" s="12"/>
-      <c r="AB130" s="12"/>
+      <c r="N130" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="O130" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="P130" s="49"/>
+      <c r="Q130" s="49"/>
+      <c r="R130" s="49"/>
+      <c r="S130" s="49"/>
+      <c r="T130" s="49"/>
+      <c r="U130" s="49"/>
+      <c r="V130" s="49"/>
+      <c r="W130" s="49"/>
+      <c r="X130" s="49"/>
+      <c r="Y130" s="49"/>
+      <c r="Z130" s="49"/>
+      <c r="AA130" s="49"/>
+      <c r="AB130" s="49"/>
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="D131" s="10" t="s">
         <v>612</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>50</v>
@@ -21900,21 +21913,19 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J131" s="12"/>
       <c r="K131" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L131" s="12"/>
-      <c r="M131" s="10" t="s">
+      <c r="M131" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O131" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
@@ -21930,26 +21941,72 @@
       <c r="AA131" s="12"/>
       <c r="AB131" s="12"/>
     </row>
+    <row r="132">
+      <c r="A132" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="13">
+        <v>44727.0</v>
+      </c>
+      <c r="L132" s="12"/>
+      <c r="M132" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O132" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="12"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="12"/>
+      <c r="X132" s="12"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="12"/>
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="12"/>
+    </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>616</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F133" s="12"/>
-      <c r="G133" s="12" t="s">
-        <v>617</v>
-      </c>
+      <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="29" t="s">
@@ -21993,7 +22050,7 @@
         <v>620</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>477</v>
+        <v>287</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -22032,74 +22089,26 @@
       <c r="AA134" s="12"/>
       <c r="AB134" s="12"/>
     </row>
-    <row r="135">
-      <c r="A135" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="B135" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K135" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L135" s="12"/>
-      <c r="M135" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N135" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O135" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="P135" s="12"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12"/>
-      <c r="T135" s="12"/>
-      <c r="U135" s="12"/>
-      <c r="V135" s="12"/>
-      <c r="W135" s="12"/>
-      <c r="X135" s="12"/>
-      <c r="Y135" s="12"/>
-      <c r="Z135" s="12"/>
-      <c r="AA135" s="12"/>
-      <c r="AB135" s="12"/>
-    </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B136" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="G136" s="12" t="s">
+        <v>624</v>
+      </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="29" t="s">
@@ -22134,16 +22143,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B137" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="C137" s="46" t="s">
+      <c r="C137" s="10" t="s">
         <v>627</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>214</v>
+        <v>482</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22193,7 +22202,7 @@
         <v>630</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>587</v>
+        <v>486</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
@@ -22243,15 +22252,13 @@
         <v>632</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>235</v>
+        <v>574</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F139" s="12"/>
-      <c r="G139" s="12" t="s">
-        <v>633</v>
-      </c>
+      <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="29" t="s">
@@ -22286,16 +22293,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="C140" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>634</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>635</v>
-      </c>
       <c r="D140" s="10" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22336,16 +22343,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B141" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="B141" s="25" t="s">
+      <c r="C141" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>638</v>
-      </c>
       <c r="D141" s="10" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22386,22 +22393,24 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>640</v>
-      </c>
       <c r="D142" s="10" t="s">
-        <v>454</v>
+        <v>235</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
+      <c r="G142" s="12" t="s">
+        <v>640</v>
+      </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="29" t="s">
@@ -22410,9 +22419,7 @@
       <c r="K142" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L142" s="13">
-        <v>45459.0</v>
-      </c>
+      <c r="L142" s="12"/>
       <c r="M142" s="10" t="s">
         <v>19</v>
       </c>
@@ -22447,7 +22454,7 @@
         <v>642</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22490,14 +22497,14 @@
       <c r="A144" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="25" t="s">
         <v>644</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>645</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22540,14 +22547,14 @@
       <c r="A145" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B145" s="25" t="s">
+      <c r="B145" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>648</v>
-      </c>
       <c r="D145" s="10" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22562,7 +22569,9 @@
       <c r="K145" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L145" s="12"/>
+      <c r="L145" s="13">
+        <v>45459.0</v>
+      </c>
       <c r="M145" s="10" t="s">
         <v>19</v>
       </c>
@@ -22588,16 +22597,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B146" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>651</v>
-      </c>
       <c r="D146" s="10" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22638,16 +22647,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>654</v>
-      </c>
       <c r="D147" s="10" t="s">
-        <v>655</v>
+        <v>383</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22656,18 +22665,22 @@
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="43">
-        <v>45402.0</v>
+      <c r="J147" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K147" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L147" s="12"/>
-      <c r="M147" s="30" t="s">
+      <c r="M147" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O147" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="O147" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
       <c r="R147" s="12"/>
@@ -22684,16 +22697,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>654</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>655</v>
+        <v>383</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22702,18 +22715,22 @@
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
-      <c r="J148" s="18"/>
+      <c r="J148" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K148" s="13">
-        <v>45402.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O148" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="O148" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
       <c r="R148" s="12"/>
@@ -22730,16 +22747,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>293</v>
+        <v>383</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22780,16 +22797,16 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="D150" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>665</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
@@ -22800,7 +22817,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
       <c r="K150" s="43">
-        <v>44727.0</v>
+        <v>45402.0</v>
       </c>
       <c r="L150" s="12"/>
       <c r="M150" s="30" t="s">
@@ -22809,9 +22826,7 @@
       <c r="N150" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O150" s="14" t="s">
-        <v>192</v>
-      </c>
+      <c r="O150" s="30"/>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
       <c r="R150" s="12"/>
@@ -22828,42 +22843,36 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="B151" s="25" t="s">
-        <v>666</v>
+        <v>663</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>308</v>
+        <v>662</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10" t="s">
-        <v>668</v>
-      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
-      <c r="J151" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J151" s="18"/>
       <c r="K151" s="13">
-        <v>43620.0</v>
+        <v>45402.0</v>
       </c>
       <c r="L151" s="12"/>
       <c r="M151" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O151" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O151" s="10"/>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
       <c r="R151" s="12"/>
@@ -22880,16 +22889,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22930,16 +22939,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="B153" s="25" t="s">
-        <v>672</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>383</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22948,21 +22957,19 @@
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
-      <c r="J153" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K153" s="13">
-        <v>43620.0</v>
+      <c r="J153" s="12"/>
+      <c r="K153" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L153" s="12"/>
-      <c r="M153" s="10" t="s">
+      <c r="M153" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22980,22 +22987,24 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B154" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>675</v>
-      </c>
       <c r="D154" s="10" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10" t="s">
+        <v>675</v>
+      </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="29" t="s">
@@ -23032,14 +23041,14 @@
       <c r="A155" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>676</v>
+      <c r="B155" s="25" t="s">
+        <v>677</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -23048,19 +23057,21 @@
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
+      <c r="J155" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K155" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L155" s="12"/>
-      <c r="M155" s="30" t="s">
+      <c r="M155" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -23078,16 +23089,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23128,16 +23139,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23178,16 +23189,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>682</v>
+        <v>683</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>683</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23196,21 +23207,19 @@
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
-      <c r="J158" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J158" s="12"/>
       <c r="K158" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L158" s="12"/>
-      <c r="M158" s="10" t="s">
+      <c r="M158" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23228,16 +23237,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23278,7 +23287,7 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>687</v>
@@ -23287,7 +23296,7 @@
         <v>688</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>587</v>
+        <v>383</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23330,14 +23339,14 @@
       <c r="A161" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>691</v>
-      </c>
       <c r="D161" s="10" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23346,21 +23355,21 @@
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="16" t="s">
-        <v>692</v>
+      <c r="J161" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="K161" s="13">
-        <v>43795.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L161" s="12"/>
       <c r="M161" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>693</v>
+        <v>111</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>694</v>
+        <v>184</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23378,16 +23387,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>454</v>
+        <v>383</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23428,16 +23437,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>454</v>
+        <v>594</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23478,16 +23487,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="C164" s="47" t="s">
-        <v>702</v>
+        <v>696</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>698</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>389</v>
+        <v>232</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23496,21 +23505,21 @@
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
-      <c r="J164" s="29" t="s">
-        <v>183</v>
+      <c r="J164" s="16" t="s">
+        <v>699</v>
       </c>
       <c r="K164" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L164" s="12"/>
       <c r="M164" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>111</v>
+        <v>700</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>184</v>
+        <v>701</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23528,16 +23537,16 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="C165" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>705</v>
-      </c>
       <c r="D165" s="10" t="s">
-        <v>214</v>
+        <v>459</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
@@ -23578,24 +23587,22 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="C166" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="C166" s="47" t="s">
-        <v>708</v>
-      </c>
       <c r="D166" s="10" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F166" s="12"/>
-      <c r="G166" s="12" t="s">
-        <v>709</v>
-      </c>
+      <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="29" t="s">
@@ -23630,16 +23637,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>712</v>
+        <v>708</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="C167" s="47" t="s">
+        <v>709</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23648,19 +23655,21 @@
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
+      <c r="J167" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K167" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L167" s="12"/>
-      <c r="M167" s="30" t="s">
+      <c r="M167" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23678,16 +23687,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23728,22 +23737,24 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>717</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>718</v>
+        <v>714</v>
+      </c>
+      <c r="C169" s="47" t="s">
+        <v>715</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
+      <c r="G169" s="12" t="s">
+        <v>716</v>
+      </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="29" t="s">
@@ -23778,16 +23789,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B170" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>720</v>
-      </c>
       <c r="D170" s="10" t="s">
-        <v>214</v>
+        <v>419</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23796,21 +23807,19 @@
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
-      <c r="J170" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J170" s="12"/>
       <c r="K170" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L170" s="12"/>
-      <c r="M170" s="10" t="s">
+      <c r="M170" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23828,7 +23837,7 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B171" s="25" t="s">
         <v>721</v>
@@ -23837,7 +23846,7 @@
         <v>722</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23887,7 +23896,7 @@
         <v>725</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23903,7 +23912,7 @@
         <v>43620.0</v>
       </c>
       <c r="L172" s="12"/>
-      <c r="M172" s="21" t="s">
+      <c r="M172" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N172" s="10" t="s">
@@ -23927,17 +23936,17 @@
       <c r="AB172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B173" s="58" t="s">
+      <c r="B173" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="C173" s="46" t="s">
+      <c r="C173" s="10" t="s">
         <v>727</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>728</v>
+        <v>214</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23978,13 +23987,13 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>730</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>308</v>
@@ -24028,7 +24037,7 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B175" s="25" t="s">
         <v>731</v>
@@ -24037,7 +24046,7 @@
         <v>732</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -24053,7 +24062,7 @@
         <v>43620.0</v>
       </c>
       <c r="L175" s="12"/>
-      <c r="M175" s="10" t="s">
+      <c r="M175" s="21" t="s">
         <v>19</v>
       </c>
       <c r="N175" s="10" t="s">
@@ -24077,17 +24086,17 @@
       <c r="AB175" s="12"/>
     </row>
     <row r="176">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="47" t="s">
         <v>733</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="C176" s="46" t="s">
         <v>734</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="D176" s="10" t="s">
         <v>735</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24096,19 +24105,21 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="18"/>
+      <c r="J176" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K176" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24128,14 +24139,14 @@
       <c r="A177" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C177" s="10" t="s">
-        <v>738</v>
-      </c>
       <c r="D177" s="10" t="s">
-        <v>739</v>
+        <v>308</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
@@ -24144,21 +24155,21 @@
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
-      <c r="J177" s="16" t="s">
-        <v>740</v>
+      <c r="J177" s="29" t="s">
+        <v>183</v>
       </c>
       <c r="K177" s="13">
-        <v>43795.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L177" s="12"/>
       <c r="M177" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>693</v>
+        <v>111</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>694</v>
+        <v>184</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24176,24 +24187,22 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>567</v>
+        <v>463</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10" t="s">
-        <v>743</v>
-      </c>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="29" t="s">
@@ -24228,64 +24237,64 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="B179" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="C179" s="59" t="s">
-        <v>746</v>
-      </c>
-      <c r="D179" s="30" t="s">
-        <v>302</v>
+        <v>740</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F179" s="60"/>
-      <c r="G179" s="60"/>
-      <c r="H179" s="60"/>
-      <c r="I179" s="60"/>
-      <c r="J179" s="30"/>
-      <c r="K179" s="43">
-        <v>44727.0</v>
-      </c>
-      <c r="L179" s="43"/>
-      <c r="M179" s="30" t="s">
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="13">
+        <v>44671.0</v>
+      </c>
+      <c r="L179" s="12"/>
+      <c r="M179" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N179" s="30" t="s">
-        <v>121</v>
+      <c r="N179" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="P179" s="60"/>
-      <c r="Q179" s="60"/>
-      <c r="R179" s="60"/>
-      <c r="S179" s="60"/>
-      <c r="T179" s="60"/>
-      <c r="U179" s="60"/>
-      <c r="V179" s="60"/>
-      <c r="W179" s="60"/>
-      <c r="X179" s="60"/>
-      <c r="Y179" s="60"/>
-      <c r="Z179" s="60"/>
-      <c r="AA179" s="60"/>
-      <c r="AB179" s="60"/>
+        <v>219</v>
+      </c>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="12"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="12"/>
+      <c r="W179" s="12"/>
+      <c r="X179" s="12"/>
+      <c r="Y179" s="12"/>
+      <c r="Z179" s="12"/>
+      <c r="AA179" s="12"/>
+      <c r="AB179" s="12"/>
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="B180" s="25" t="s">
-        <v>747</v>
+        <v>743</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>744</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>567</v>
+        <v>746</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24294,21 +24303,21 @@
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
-      <c r="J180" s="29" t="s">
-        <v>183</v>
+      <c r="J180" s="16" t="s">
+        <v>747</v>
       </c>
       <c r="K180" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L180" s="12"/>
       <c r="M180" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>111</v>
+        <v>700</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>184</v>
+        <v>701</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24326,37 +24335,41 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>751</v>
-      </c>
       <c r="D181" s="10" t="s">
-        <v>752</v>
+        <v>574</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10" t="s">
+        <v>750</v>
+      </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="43">
-        <v>44727.0</v>
+      <c r="J181" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K181" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L181" s="12"/>
-      <c r="M181" s="30" t="s">
+      <c r="M181" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24374,64 +24387,64 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C182" s="59" t="s">
         <v>753</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>752</v>
+      <c r="D182" s="30" t="s">
+        <v>302</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="13">
+      <c r="F182" s="60"/>
+      <c r="G182" s="60"/>
+      <c r="H182" s="60"/>
+      <c r="I182" s="60"/>
+      <c r="J182" s="30"/>
+      <c r="K182" s="43">
         <v>44727.0</v>
       </c>
-      <c r="L182" s="12"/>
+      <c r="L182" s="43"/>
       <c r="M182" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N182" s="10" t="s">
-        <v>20</v>
+      <c r="N182" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="O182" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="P182" s="12"/>
-      <c r="Q182" s="12"/>
-      <c r="R182" s="12"/>
-      <c r="S182" s="12"/>
-      <c r="T182" s="12"/>
-      <c r="U182" s="12"/>
-      <c r="V182" s="12"/>
-      <c r="W182" s="12"/>
-      <c r="X182" s="12"/>
-      <c r="Y182" s="12"/>
-      <c r="Z182" s="12"/>
-      <c r="AA182" s="12"/>
-      <c r="AB182" s="12"/>
+      <c r="P182" s="60"/>
+      <c r="Q182" s="60"/>
+      <c r="R182" s="60"/>
+      <c r="S182" s="60"/>
+      <c r="T182" s="60"/>
+      <c r="U182" s="60"/>
+      <c r="V182" s="60"/>
+      <c r="W182" s="60"/>
+      <c r="X182" s="60"/>
+      <c r="Y182" s="60"/>
+      <c r="Z182" s="60"/>
+      <c r="AA182" s="60"/>
+      <c r="AB182" s="60"/>
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>754</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>246</v>
+        <v>574</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24440,19 +24453,21 @@
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
+      <c r="J183" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K183" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L183" s="12"/>
-      <c r="M183" s="30" t="s">
+      <c r="M183" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24470,16 +24485,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="D184" s="10" t="s">
         <v>759</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>761</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24489,7 +24504,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
       <c r="J184" s="12"/>
-      <c r="K184" s="13">
+      <c r="K184" s="43">
         <v>44727.0</v>
       </c>
       <c r="L184" s="12"/>
@@ -24518,16 +24533,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>764</v>
-      </c>
       <c r="D185" s="10" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24537,7 +24552,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
-      <c r="K185" s="43">
+      <c r="K185" s="13">
         <v>44727.0</v>
       </c>
       <c r="L185" s="12"/>
@@ -24566,16 +24581,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="B186" s="25" t="s">
-        <v>767</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>768</v>
+        <v>763</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>764</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>419</v>
+        <v>246</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24583,22 +24598,20 @@
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
       <c r="K186" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L186" s="12"/>
-      <c r="M186" s="10" t="s">
+      <c r="M186" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24616,16 +24629,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="B187" s="25" t="s">
-        <v>770</v>
+        <v>765</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>766</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>419</v>
+        <v>768</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24634,21 +24647,19 @@
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
-      <c r="J187" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J187" s="12"/>
       <c r="K187" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L187" s="12"/>
-      <c r="M187" s="10" t="s">
+      <c r="M187" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24666,16 +24677,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="D188" s="10" t="s">
         <v>772</v>
-      </c>
-      <c r="B188" s="25" t="s">
-        <v>772</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24684,21 +24695,19 @@
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
-      <c r="J188" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K188" s="13">
-        <v>43620.0</v>
+      <c r="J188" s="12"/>
+      <c r="K188" s="43">
+        <v>44727.0</v>
       </c>
       <c r="L188" s="12"/>
-      <c r="M188" s="10" t="s">
+      <c r="M188" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24716,16 +24725,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B189" s="25" t="s">
         <v>774</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="C189" s="47" t="s">
         <v>775</v>
       </c>
-      <c r="C189" s="10" t="s">
-        <v>776</v>
-      </c>
       <c r="D189" s="10" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24733,20 +24742,22 @@
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K189" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L189" s="12"/>
-      <c r="M189" s="30" t="s">
+      <c r="M189" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24764,16 +24775,16 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B190" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="C190" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="C190" s="10" t="s">
-        <v>779</v>
-      </c>
       <c r="D190" s="10" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>50</v>
@@ -24813,386 +24824,384 @@
       <c r="AB190" s="12"/>
     </row>
     <row r="191">
-      <c r="B191" s="23"/>
-      <c r="E191" s="44"/>
+      <c r="A191" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K191" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L191" s="12"/>
+      <c r="M191" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N191" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O191" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="12"/>
+      <c r="T191" s="12"/>
+      <c r="U191" s="12"/>
+      <c r="V191" s="12"/>
+      <c r="W191" s="12"/>
+      <c r="X191" s="12"/>
+      <c r="Y191" s="12"/>
+      <c r="Z191" s="12"/>
+      <c r="AA191" s="12"/>
+      <c r="AB191" s="12"/>
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="C192" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="D192" s="30" t="s">
-        <v>246</v>
+      <c r="B192" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F192" s="60"/>
-      <c r="G192" s="60"/>
-      <c r="H192" s="60"/>
-      <c r="I192" s="60"/>
-      <c r="J192" s="60"/>
-      <c r="K192" s="43">
-        <v>45402.0</v>
-      </c>
-      <c r="L192" s="43"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="13">
+        <v>44727.0</v>
+      </c>
+      <c r="L192" s="12"/>
       <c r="M192" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N192" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O192" s="60"/>
-      <c r="P192" s="60"/>
-      <c r="Q192" s="60"/>
-      <c r="R192" s="60"/>
-      <c r="S192" s="60"/>
-      <c r="T192" s="60"/>
-      <c r="U192" s="60"/>
-      <c r="V192" s="60"/>
-      <c r="W192" s="60"/>
-      <c r="X192" s="60"/>
-      <c r="Y192" s="60"/>
-      <c r="Z192" s="60"/>
-      <c r="AA192" s="60"/>
-      <c r="AB192" s="60"/>
+      <c r="O192" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="12"/>
+      <c r="T192" s="12"/>
+      <c r="U192" s="12"/>
+      <c r="V192" s="12"/>
+      <c r="W192" s="12"/>
+      <c r="X192" s="12"/>
+      <c r="Y192" s="12"/>
+      <c r="Z192" s="12"/>
+      <c r="AA192" s="12"/>
+      <c r="AB192" s="12"/>
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>782</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>782</v>
-      </c>
-      <c r="C193" s="61" t="s">
-        <v>783</v>
-      </c>
-      <c r="D193" s="30" t="s">
-        <v>254</v>
+        <v>784</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F193" s="60"/>
-      <c r="G193" s="60"/>
-      <c r="H193" s="60"/>
-      <c r="I193" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="J193" s="60"/>
-      <c r="K193" s="43">
-        <v>45402.0</v>
-      </c>
-      <c r="L193" s="43">
-        <v>45504.0</v>
-      </c>
-      <c r="M193" s="30" t="s">
-        <v>785</v>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K193" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L193" s="12"/>
+      <c r="M193" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="N193" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="O193" s="60"/>
-      <c r="P193" s="60"/>
-      <c r="Q193" s="60"/>
-      <c r="R193" s="60"/>
-      <c r="S193" s="60"/>
-      <c r="T193" s="60"/>
-      <c r="U193" s="60"/>
-      <c r="V193" s="60"/>
-      <c r="W193" s="60"/>
-      <c r="X193" s="60"/>
-      <c r="Y193" s="60"/>
-      <c r="Z193" s="60"/>
-      <c r="AA193" s="60"/>
-      <c r="AB193" s="60"/>
+        <v>111</v>
+      </c>
+      <c r="O193" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="12"/>
+      <c r="T193" s="12"/>
+      <c r="U193" s="12"/>
+      <c r="V193" s="12"/>
+      <c r="W193" s="12"/>
+      <c r="X193" s="12"/>
+      <c r="Y193" s="12"/>
+      <c r="Z193" s="12"/>
+      <c r="AA193" s="12"/>
+      <c r="AB193" s="12"/>
     </row>
     <row r="194">
-      <c r="A194" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="C194" s="61" t="s">
-        <v>787</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="60"/>
-      <c r="I194" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="J194" s="60"/>
-      <c r="K194" s="43">
-        <v>45402.0</v>
-      </c>
-      <c r="L194" s="43">
-        <v>45504.0</v>
-      </c>
-      <c r="M194" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="N194" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="O194" s="60"/>
-      <c r="P194" s="60"/>
-      <c r="Q194" s="60"/>
-      <c r="R194" s="60"/>
-      <c r="S194" s="60"/>
-      <c r="T194" s="60"/>
-      <c r="U194" s="60"/>
-      <c r="V194" s="60"/>
-      <c r="W194" s="60"/>
-      <c r="X194" s="60"/>
-      <c r="Y194" s="60"/>
-      <c r="Z194" s="60"/>
-      <c r="AA194" s="60"/>
-      <c r="AB194" s="60"/>
+      <c r="B194" s="23"/>
+      <c r="E194" s="44"/>
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C195" s="30" t="s">
         <v>788</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>791</v>
+      <c r="D195" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I195" s="10" t="s">
-        <v>792</v>
-      </c>
+      <c r="F195" s="60"/>
+      <c r="G195" s="60"/>
+      <c r="H195" s="60"/>
+      <c r="I195" s="60"/>
+      <c r="J195" s="60"/>
       <c r="K195" s="43">
         <v>45402.0</v>
       </c>
+      <c r="L195" s="43"/>
       <c r="M195" s="30" t="s">
-        <v>793</v>
+        <v>19</v>
       </c>
       <c r="N195" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="O195" s="60"/>
+      <c r="P195" s="60"/>
+      <c r="Q195" s="60"/>
+      <c r="R195" s="60"/>
+      <c r="S195" s="60"/>
+      <c r="T195" s="60"/>
+      <c r="U195" s="60"/>
+      <c r="V195" s="60"/>
+      <c r="W195" s="60"/>
+      <c r="X195" s="60"/>
+      <c r="Y195" s="60"/>
+      <c r="Z195" s="60"/>
+      <c r="AA195" s="60"/>
+      <c r="AB195" s="60"/>
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>796</v>
+        <v>789</v>
+      </c>
+      <c r="C196" s="61" t="s">
+        <v>790</v>
+      </c>
+      <c r="D196" s="30" t="s">
+        <v>254</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I196" s="10" t="s">
-        <v>259</v>
-      </c>
+      <c r="F196" s="60"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="60"/>
+      <c r="I196" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="J196" s="60"/>
       <c r="K196" s="43">
         <v>45402.0</v>
       </c>
+      <c r="L196" s="43">
+        <v>45504.0</v>
+      </c>
       <c r="M196" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="N196" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O196" s="60"/>
+      <c r="P196" s="60"/>
+      <c r="Q196" s="60"/>
+      <c r="R196" s="60"/>
+      <c r="S196" s="60"/>
+      <c r="T196" s="60"/>
+      <c r="U196" s="60"/>
+      <c r="V196" s="60"/>
+      <c r="W196" s="60"/>
+      <c r="X196" s="60"/>
+      <c r="Y196" s="60"/>
+      <c r="Z196" s="60"/>
+      <c r="AA196" s="60"/>
+      <c r="AB196" s="60"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="N196" s="10" t="s">
+      <c r="B197" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C197" s="61" t="s">
+        <v>794</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F197" s="60"/>
+      <c r="G197" s="60"/>
+      <c r="H197" s="60"/>
+      <c r="I197" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="J197" s="60"/>
+      <c r="K197" s="43">
+        <v>45402.0</v>
+      </c>
+      <c r="L197" s="43">
+        <v>45504.0</v>
+      </c>
+      <c r="M197" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="N197" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O197" s="60"/>
+      <c r="P197" s="60"/>
+      <c r="Q197" s="60"/>
+      <c r="R197" s="60"/>
+      <c r="S197" s="60"/>
+      <c r="T197" s="60"/>
+      <c r="U197" s="60"/>
+      <c r="V197" s="60"/>
+      <c r="W197" s="60"/>
+      <c r="X197" s="60"/>
+      <c r="Y197" s="60"/>
+      <c r="Z197" s="60"/>
+      <c r="AA197" s="60"/>
+      <c r="AB197" s="60"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I198" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="K198" s="43">
+        <v>45402.0</v>
+      </c>
+      <c r="M198" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="N198" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="B197" s="23"/>
-      <c r="E197" s="44"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="B198" s="23"/>
-      <c r="E198" s="44"/>
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="B199" s="25" t="s">
-        <v>798</v>
+        <v>801</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>802</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>799</v>
+        <v>257</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
-      <c r="J199" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K199" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L199" s="12"/>
-      <c r="M199" s="10" t="s">
-        <v>19</v>
+      <c r="I199" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K199" s="43">
+        <v>45402.0</v>
+      </c>
+      <c r="M199" s="30" t="s">
+        <v>800</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O199" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="P199" s="12"/>
-      <c r="Q199" s="12"/>
-      <c r="R199" s="12"/>
-      <c r="S199" s="12"/>
-      <c r="T199" s="12"/>
-      <c r="U199" s="12"/>
-      <c r="V199" s="12"/>
-      <c r="W199" s="12"/>
-      <c r="X199" s="12"/>
-      <c r="Y199" s="12"/>
-      <c r="Z199" s="12"/>
-      <c r="AA199" s="12"/>
-      <c r="AB199" s="12"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="B200" s="25" t="s">
-        <v>802</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="D200" s="10" t="s">
+      <c r="B200" s="23"/>
+      <c r="E200" s="44"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="E200" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K200" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L200" s="12"/>
-      <c r="M200" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N200" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O200" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="P200" s="12"/>
-      <c r="Q200" s="12"/>
-      <c r="R200" s="12"/>
-      <c r="S200" s="12"/>
-      <c r="T200" s="12"/>
-      <c r="U200" s="12"/>
-      <c r="V200" s="12"/>
-      <c r="W200" s="12"/>
-      <c r="X200" s="12"/>
-      <c r="Y200" s="12"/>
-      <c r="Z200" s="12"/>
-      <c r="AA200" s="12"/>
-      <c r="AB200" s="12"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="E201" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K201" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L201" s="12"/>
-      <c r="M201" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N201" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O201" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="P201" s="12"/>
-      <c r="Q201" s="12"/>
-      <c r="R201" s="12"/>
-      <c r="S201" s="12"/>
-      <c r="T201" s="12"/>
-      <c r="U201" s="12"/>
-      <c r="V201" s="12"/>
-      <c r="W201" s="12"/>
-      <c r="X201" s="12"/>
-      <c r="Y201" s="12"/>
-      <c r="Z201" s="12"/>
-      <c r="AA201" s="12"/>
-      <c r="AB201" s="12"/>
+      <c r="B201" s="23"/>
+      <c r="E201" s="44"/>
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
@@ -25233,24 +25242,22 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F203" s="12"/>
-      <c r="G203" s="12" t="s">
-        <v>817</v>
-      </c>
+      <c r="G203" s="12"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="29" t="s">
@@ -25285,16 +25292,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25303,19 +25310,21 @@
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
-      <c r="J204" s="18"/>
+      <c r="J204" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K204" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L204" s="12"/>
       <c r="M204" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25333,16 +25342,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25383,22 +25392,24 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="D206" s="10" t="s">
         <v>823</v>
-      </c>
-      <c r="B206" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>816</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
+      <c r="G206" s="12" t="s">
+        <v>824</v>
+      </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="29" t="s">
@@ -25435,14 +25446,14 @@
       <c r="A207" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B207" s="25" t="s">
+      <c r="B207" s="11" t="s">
         <v>826</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>827</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25451,21 +25462,19 @@
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
-      <c r="J207" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J207" s="18"/>
       <c r="K207" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L207" s="12"/>
       <c r="M207" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>184</v>
+        <v>483</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25492,7 +25501,7 @@
         <v>829</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25535,14 +25544,14 @@
       <c r="A209" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C209" s="10" t="s">
-        <v>832</v>
-      </c>
       <c r="D209" s="10" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>50</v>
@@ -25551,19 +25560,21 @@
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
-      <c r="J209" s="18"/>
+      <c r="J209" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K209" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L209" s="12"/>
       <c r="M209" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N209" s="10" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
@@ -25580,20 +25591,58 @@
       <c r="AB209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="10"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="9"/>
-      <c r="J210" s="18"/>
-      <c r="K210" s="13"/>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10"/>
-      <c r="O210" s="10"/>
+      <c r="A210" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K210" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L210" s="12"/>
+      <c r="M210" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N210" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O210" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="12"/>
+      <c r="R210" s="12"/>
+      <c r="S210" s="12"/>
+      <c r="T210" s="12"/>
+      <c r="U210" s="12"/>
+      <c r="V210" s="12"/>
+      <c r="W210" s="12"/>
+      <c r="X210" s="12"/>
+      <c r="Y210" s="12"/>
+      <c r="Z210" s="12"/>
+      <c r="AA210" s="12"/>
+      <c r="AB210" s="12"/>
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B211" s="25" t="s">
         <v>835</v>
@@ -25602,7 +25651,7 @@
         <v>836</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>50</v>
@@ -25617,14 +25666,12 @@
       <c r="K211" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L211" s="13">
-        <v>45402.0</v>
-      </c>
+      <c r="L211" s="12"/>
       <c r="M211" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N211" s="10" t="s">
-        <v>838</v>
+        <v>111</v>
       </c>
       <c r="O211" s="14" t="s">
         <v>184</v>
@@ -25644,125 +25691,103 @@
       <c r="AB211" s="12"/>
     </row>
     <row r="212">
-      <c r="A212" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="B212" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="C212" s="35" t="s">
+      <c r="A212" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="D212" s="35" t="s">
+      <c r="D212" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="E212" s="35" t="s">
+      <c r="E212" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F212" s="37"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="37"/>
-      <c r="I212" s="37"/>
-      <c r="J212" s="37"/>
-      <c r="K212" s="37"/>
-      <c r="L212" s="37"/>
-      <c r="M212" s="35"/>
-      <c r="N212" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="O212" s="37"/>
-      <c r="P212" s="37"/>
-      <c r="Q212" s="37"/>
-      <c r="R212" s="37"/>
-      <c r="S212" s="37"/>
-      <c r="T212" s="37"/>
-      <c r="U212" s="37"/>
-      <c r="V212" s="37"/>
-      <c r="W212" s="37"/>
-      <c r="X212" s="37"/>
-      <c r="Y212" s="37"/>
-      <c r="Z212" s="37"/>
-      <c r="AA212" s="37"/>
-      <c r="AB212" s="37"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="18"/>
+      <c r="K212" s="13">
+        <v>44699.0</v>
+      </c>
+      <c r="L212" s="12"/>
+      <c r="M212" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N212" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O212" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="12"/>
+      <c r="S212" s="12"/>
+      <c r="T212" s="12"/>
+      <c r="U212" s="12"/>
+      <c r="V212" s="12"/>
+      <c r="W212" s="12"/>
+      <c r="X212" s="12"/>
+      <c r="Y212" s="12"/>
+      <c r="Z212" s="12"/>
+      <c r="AA212" s="12"/>
+      <c r="AB212" s="12"/>
     </row>
     <row r="213">
-      <c r="A213" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L213" s="12"/>
-      <c r="M213" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N213" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12"/>
-      <c r="S213" s="12"/>
-      <c r="T213" s="12"/>
-      <c r="U213" s="12"/>
-      <c r="V213" s="12"/>
-      <c r="W213" s="12"/>
-      <c r="X213" s="12"/>
-      <c r="Y213" s="12"/>
-      <c r="Z213" s="12"/>
-      <c r="AA213" s="12"/>
-      <c r="AB213" s="12"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="9"/>
+      <c r="J213" s="18"/>
+      <c r="K213" s="13"/>
+      <c r="M213" s="10"/>
+      <c r="N213" s="10"/>
+      <c r="O213" s="10"/>
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="D214" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
-      <c r="J214" s="12"/>
+      <c r="J214" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="K214" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L214" s="12"/>
+      <c r="L214" s="13">
+        <v>45402.0</v>
+      </c>
       <c r="M214" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="O214" s="12"/>
+        <v>845</v>
+      </c>
+      <c r="O214" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="P214" s="12"/>
       <c r="Q214" s="12"/>
       <c r="R214" s="12"/>
@@ -25778,54 +25803,50 @@
       <c r="AB214" s="12"/>
     </row>
     <row r="215">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B215" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C215" s="35" t="s">
         <v>846</v>
       </c>
-      <c r="B215" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="C215" s="10" t="s">
+      <c r="D215" s="35" t="s">
         <v>847</v>
       </c>
-      <c r="D215" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L215" s="12"/>
-      <c r="M215" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N215" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="O215" s="12"/>
-      <c r="P215" s="12"/>
-      <c r="Q215" s="12"/>
-      <c r="R215" s="12"/>
-      <c r="S215" s="12"/>
-      <c r="T215" s="12"/>
-      <c r="U215" s="12"/>
-      <c r="V215" s="12"/>
-      <c r="W215" s="12"/>
-      <c r="X215" s="12"/>
-      <c r="Y215" s="12"/>
-      <c r="Z215" s="12"/>
-      <c r="AA215" s="12"/>
-      <c r="AB215" s="12"/>
+      <c r="F215" s="37"/>
+      <c r="G215" s="37"/>
+      <c r="H215" s="37"/>
+      <c r="I215" s="37"/>
+      <c r="J215" s="37"/>
+      <c r="K215" s="37"/>
+      <c r="L215" s="37"/>
+      <c r="M215" s="35"/>
+      <c r="N215" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="O215" s="37"/>
+      <c r="P215" s="37"/>
+      <c r="Q215" s="37"/>
+      <c r="R215" s="37"/>
+      <c r="S215" s="37"/>
+      <c r="T215" s="37"/>
+      <c r="U215" s="37"/>
+      <c r="V215" s="37"/>
+      <c r="W215" s="37"/>
+      <c r="X215" s="37"/>
+      <c r="Y215" s="37"/>
+      <c r="Z215" s="37"/>
+      <c r="AA215" s="37"/>
+      <c r="AB215" s="37"/>
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>849</v>
@@ -25834,7 +25855,7 @@
         <v>850</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25852,7 +25873,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25880,7 +25901,7 @@
         <v>852</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25898,7 +25919,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25920,13 +25941,13 @@
         <v>853</v>
       </c>
       <c r="B218" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C218" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="C218" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="D218" s="10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25944,7 +25965,7 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="O218" s="12"/>
       <c r="P218" s="12"/>
@@ -25963,16 +25984,16 @@
     </row>
     <row r="219">
       <c r="A219" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="B219" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="B219" s="25" t="s">
+      <c r="C219" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="C219" s="10" t="s">
-        <v>858</v>
-      </c>
       <c r="D219" s="10" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>50</v>
@@ -25981,24 +26002,18 @@
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
-      <c r="J219" s="29" t="s">
-        <v>183</v>
-      </c>
+      <c r="J219" s="12"/>
       <c r="K219" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L219" s="13">
-        <v>45402.0</v>
-      </c>
+      <c r="L219" s="12"/>
       <c r="M219" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="O219" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="O219" s="12"/>
       <c r="P219" s="12"/>
       <c r="Q219" s="12"/>
       <c r="R219" s="12"/>
@@ -26014,13 +26029,148 @@
       <c r="AB219" s="12"/>
     </row>
     <row r="220">
-      <c r="B220" s="23"/>
+      <c r="A220" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L220" s="12"/>
+      <c r="M220" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N220" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="O220" s="12"/>
+      <c r="P220" s="12"/>
+      <c r="Q220" s="12"/>
+      <c r="R220" s="12"/>
+      <c r="S220" s="12"/>
+      <c r="T220" s="12"/>
+      <c r="U220" s="12"/>
+      <c r="V220" s="12"/>
+      <c r="W220" s="12"/>
+      <c r="X220" s="12"/>
+      <c r="Y220" s="12"/>
+      <c r="Z220" s="12"/>
+      <c r="AA220" s="12"/>
+      <c r="AB220" s="12"/>
     </row>
     <row r="221">
-      <c r="B221" s="23"/>
+      <c r="A221" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L221" s="12"/>
+      <c r="M221" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N221" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="O221" s="12"/>
+      <c r="P221" s="12"/>
+      <c r="Q221" s="12"/>
+      <c r="R221" s="12"/>
+      <c r="S221" s="12"/>
+      <c r="T221" s="12"/>
+      <c r="U221" s="12"/>
+      <c r="V221" s="12"/>
+      <c r="W221" s="12"/>
+      <c r="X221" s="12"/>
+      <c r="Y221" s="12"/>
+      <c r="Z221" s="12"/>
+      <c r="AA221" s="12"/>
+      <c r="AB221" s="12"/>
     </row>
     <row r="222">
-      <c r="B222" s="23"/>
+      <c r="A222" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K222" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L222" s="13">
+        <v>45402.0</v>
+      </c>
+      <c r="M222" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N222" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="O222" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P222" s="12"/>
+      <c r="Q222" s="12"/>
+      <c r="R222" s="12"/>
+      <c r="S222" s="12"/>
+      <c r="T222" s="12"/>
+      <c r="U222" s="12"/>
+      <c r="V222" s="12"/>
+      <c r="W222" s="12"/>
+      <c r="X222" s="12"/>
+      <c r="Y222" s="12"/>
+      <c r="Z222" s="12"/>
+      <c r="AA222" s="12"/>
+      <c r="AB222" s="12"/>
     </row>
     <row r="223">
       <c r="B223" s="23"/>
@@ -28485,18 +28635,27 @@
     <row r="1043">
       <c r="B1043" s="23"/>
     </row>
+    <row r="1044">
+      <c r="B1044" s="23"/>
+    </row>
+    <row r="1045">
+      <c r="B1045" s="23"/>
+    </row>
+    <row r="1046">
+      <c r="B1046" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB993">
+  <conditionalFormatting sqref="A2:AB996">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB993">
+  <conditionalFormatting sqref="A2:AB996">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB993">
+  <conditionalFormatting sqref="A2:AB996">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -28612,255 +28771,255 @@
     <hyperlink r:id="rId108" ref="O63"/>
     <hyperlink r:id="rId109" ref="J64"/>
     <hyperlink r:id="rId110" ref="O64"/>
-    <hyperlink r:id="rId111" ref="J65"/>
-    <hyperlink r:id="rId112" ref="O65"/>
-    <hyperlink r:id="rId113" ref="J66"/>
-    <hyperlink r:id="rId114" ref="O66"/>
-    <hyperlink r:id="rId115" ref="O67"/>
-    <hyperlink r:id="rId116" ref="J68"/>
-    <hyperlink r:id="rId117" ref="O68"/>
-    <hyperlink r:id="rId118" ref="J69"/>
-    <hyperlink r:id="rId119" ref="O69"/>
-    <hyperlink r:id="rId120" ref="J70"/>
-    <hyperlink r:id="rId121" ref="O70"/>
-    <hyperlink r:id="rId122" ref="J71"/>
-    <hyperlink r:id="rId123" ref="O71"/>
-    <hyperlink r:id="rId124" ref="J72"/>
-    <hyperlink r:id="rId125" ref="O72"/>
-    <hyperlink r:id="rId126" ref="J73"/>
-    <hyperlink r:id="rId127" ref="O73"/>
-    <hyperlink r:id="rId128" ref="J74"/>
-    <hyperlink r:id="rId129" ref="O74"/>
-    <hyperlink r:id="rId130" ref="J75"/>
-    <hyperlink r:id="rId131" ref="O75"/>
-    <hyperlink r:id="rId132" ref="J76"/>
-    <hyperlink r:id="rId133" ref="O76"/>
-    <hyperlink r:id="rId134" ref="J77"/>
-    <hyperlink r:id="rId135" ref="O77"/>
-    <hyperlink r:id="rId136" ref="O78"/>
-    <hyperlink r:id="rId137" ref="J79"/>
-    <hyperlink r:id="rId138" ref="O79"/>
-    <hyperlink r:id="rId139" ref="J80"/>
-    <hyperlink r:id="rId140" ref="O80"/>
-    <hyperlink r:id="rId141" ref="J81"/>
-    <hyperlink r:id="rId142" ref="O81"/>
-    <hyperlink r:id="rId143" ref="J82"/>
-    <hyperlink r:id="rId144" ref="O82"/>
-    <hyperlink r:id="rId145" ref="O83"/>
-    <hyperlink r:id="rId146" ref="J84"/>
-    <hyperlink r:id="rId147" ref="O84"/>
-    <hyperlink r:id="rId148" ref="J85"/>
-    <hyperlink r:id="rId149" ref="O85"/>
-    <hyperlink r:id="rId150" ref="J86"/>
-    <hyperlink r:id="rId151" ref="O86"/>
-    <hyperlink r:id="rId152" ref="J87"/>
-    <hyperlink r:id="rId153" ref="O87"/>
-    <hyperlink r:id="rId154" ref="J88"/>
-    <hyperlink r:id="rId155" ref="O88"/>
-    <hyperlink r:id="rId156" ref="J89"/>
-    <hyperlink r:id="rId157" ref="O89"/>
-    <hyperlink r:id="rId158" ref="J90"/>
-    <hyperlink r:id="rId159" ref="O90"/>
-    <hyperlink r:id="rId160" ref="J91"/>
-    <hyperlink r:id="rId161" ref="O91"/>
-    <hyperlink r:id="rId162" ref="J92"/>
-    <hyperlink r:id="rId163" ref="O92"/>
-    <hyperlink r:id="rId164" ref="O93"/>
-    <hyperlink r:id="rId165" ref="O94"/>
-    <hyperlink r:id="rId166" ref="J95"/>
-    <hyperlink r:id="rId167" ref="O95"/>
-    <hyperlink r:id="rId168" ref="J96"/>
-    <hyperlink r:id="rId169" ref="O96"/>
-    <hyperlink r:id="rId170" ref="J97"/>
-    <hyperlink r:id="rId171" ref="O97"/>
-    <hyperlink r:id="rId172" ref="J98"/>
-    <hyperlink r:id="rId173" ref="O98"/>
-    <hyperlink r:id="rId174" ref="O99"/>
-    <hyperlink r:id="rId175" ref="J100"/>
-    <hyperlink r:id="rId176" ref="O100"/>
-    <hyperlink r:id="rId177" ref="J101"/>
-    <hyperlink r:id="rId178" ref="O101"/>
-    <hyperlink r:id="rId179" ref="J102"/>
-    <hyperlink r:id="rId180" ref="O102"/>
-    <hyperlink r:id="rId181" ref="J103"/>
-    <hyperlink r:id="rId182" ref="O103"/>
-    <hyperlink r:id="rId183" ref="J104"/>
-    <hyperlink r:id="rId184" ref="O104"/>
-    <hyperlink r:id="rId185" ref="J105"/>
-    <hyperlink r:id="rId186" ref="O105"/>
-    <hyperlink r:id="rId187" ref="J106"/>
-    <hyperlink r:id="rId188" ref="O106"/>
-    <hyperlink r:id="rId189" ref="J107"/>
-    <hyperlink r:id="rId190" ref="O107"/>
-    <hyperlink r:id="rId191" ref="J108"/>
-    <hyperlink r:id="rId192" ref="O108"/>
-    <hyperlink r:id="rId193" ref="J109"/>
-    <hyperlink r:id="rId194" ref="O109"/>
-    <hyperlink r:id="rId195" ref="J110"/>
-    <hyperlink r:id="rId196" ref="O110"/>
-    <hyperlink r:id="rId197" ref="J111"/>
-    <hyperlink r:id="rId198" ref="O111"/>
-    <hyperlink r:id="rId199" ref="J112"/>
-    <hyperlink r:id="rId200" ref="O112"/>
-    <hyperlink r:id="rId201" ref="J113"/>
-    <hyperlink r:id="rId202" ref="O113"/>
-    <hyperlink r:id="rId203" ref="J114"/>
-    <hyperlink r:id="rId204" ref="O114"/>
-    <hyperlink r:id="rId205" ref="J115"/>
-    <hyperlink r:id="rId206" ref="O115"/>
-    <hyperlink r:id="rId207" ref="J116"/>
-    <hyperlink r:id="rId208" ref="O116"/>
-    <hyperlink r:id="rId209" ref="O117"/>
-    <hyperlink r:id="rId210" ref="J118"/>
-    <hyperlink r:id="rId211" ref="O118"/>
-    <hyperlink r:id="rId212" ref="J119"/>
-    <hyperlink r:id="rId213" ref="O119"/>
-    <hyperlink r:id="rId214" ref="J120"/>
-    <hyperlink r:id="rId215" ref="O120"/>
-    <hyperlink r:id="rId216" ref="J121"/>
-    <hyperlink r:id="rId217" ref="O121"/>
-    <hyperlink r:id="rId218" ref="J122"/>
-    <hyperlink r:id="rId219" ref="O122"/>
-    <hyperlink r:id="rId220" ref="O123"/>
-    <hyperlink r:id="rId221" ref="J124"/>
-    <hyperlink r:id="rId222" ref="O124"/>
-    <hyperlink r:id="rId223" ref="J125"/>
-    <hyperlink r:id="rId224" ref="O125"/>
-    <hyperlink r:id="rId225" ref="J126"/>
-    <hyperlink r:id="rId226" ref="O126"/>
-    <hyperlink r:id="rId227" ref="J127"/>
-    <hyperlink r:id="rId228" ref="O127"/>
-    <hyperlink r:id="rId229" ref="O128"/>
-    <hyperlink r:id="rId230" ref="O129"/>
-    <hyperlink r:id="rId231" ref="J130"/>
-    <hyperlink r:id="rId232" ref="O130"/>
-    <hyperlink r:id="rId233" ref="J131"/>
-    <hyperlink r:id="rId234" ref="O131"/>
-    <hyperlink r:id="rId235" ref="J133"/>
-    <hyperlink r:id="rId236" ref="O133"/>
-    <hyperlink r:id="rId237" ref="J134"/>
-    <hyperlink r:id="rId238" ref="O134"/>
-    <hyperlink r:id="rId239" ref="J135"/>
-    <hyperlink r:id="rId240" ref="O135"/>
-    <hyperlink r:id="rId241" ref="J136"/>
-    <hyperlink r:id="rId242" ref="O136"/>
-    <hyperlink r:id="rId243" ref="J137"/>
-    <hyperlink r:id="rId244" ref="O137"/>
-    <hyperlink r:id="rId245" ref="J138"/>
-    <hyperlink r:id="rId246" ref="O138"/>
-    <hyperlink r:id="rId247" ref="J139"/>
-    <hyperlink r:id="rId248" ref="O139"/>
-    <hyperlink r:id="rId249" ref="J140"/>
-    <hyperlink r:id="rId250" ref="O140"/>
-    <hyperlink r:id="rId251" ref="J141"/>
-    <hyperlink r:id="rId252" ref="O141"/>
-    <hyperlink r:id="rId253" ref="J142"/>
-    <hyperlink r:id="rId254" ref="O142"/>
-    <hyperlink r:id="rId255" ref="J143"/>
-    <hyperlink r:id="rId256" ref="O143"/>
-    <hyperlink r:id="rId257" ref="J144"/>
-    <hyperlink r:id="rId258" ref="O144"/>
-    <hyperlink r:id="rId259" ref="J145"/>
-    <hyperlink r:id="rId260" ref="O145"/>
-    <hyperlink r:id="rId261" ref="J146"/>
-    <hyperlink r:id="rId262" ref="O146"/>
-    <hyperlink r:id="rId263" ref="J149"/>
-    <hyperlink r:id="rId264" ref="O149"/>
-    <hyperlink r:id="rId265" ref="O150"/>
-    <hyperlink r:id="rId266" ref="J151"/>
-    <hyperlink r:id="rId267" ref="O151"/>
-    <hyperlink r:id="rId268" ref="J152"/>
-    <hyperlink r:id="rId269" ref="O152"/>
-    <hyperlink r:id="rId270" ref="J153"/>
-    <hyperlink r:id="rId271" ref="O153"/>
-    <hyperlink r:id="rId272" ref="J154"/>
-    <hyperlink r:id="rId273" ref="O154"/>
-    <hyperlink r:id="rId274" ref="O155"/>
-    <hyperlink r:id="rId275" ref="J156"/>
-    <hyperlink r:id="rId276" ref="O156"/>
-    <hyperlink r:id="rId277" ref="J157"/>
-    <hyperlink r:id="rId278" ref="O157"/>
-    <hyperlink r:id="rId279" ref="J158"/>
-    <hyperlink r:id="rId280" ref="O158"/>
-    <hyperlink r:id="rId281" ref="J159"/>
-    <hyperlink r:id="rId282" ref="O159"/>
-    <hyperlink r:id="rId283" ref="J160"/>
-    <hyperlink r:id="rId284" ref="O160"/>
-    <hyperlink r:id="rId285" ref="J161"/>
-    <hyperlink r:id="rId286" ref="O161"/>
-    <hyperlink r:id="rId287" ref="J162"/>
-    <hyperlink r:id="rId288" ref="O162"/>
-    <hyperlink r:id="rId289" ref="J163"/>
-    <hyperlink r:id="rId290" ref="O163"/>
-    <hyperlink r:id="rId291" ref="J164"/>
-    <hyperlink r:id="rId292" ref="O164"/>
-    <hyperlink r:id="rId293" ref="J165"/>
-    <hyperlink r:id="rId294" ref="O165"/>
-    <hyperlink r:id="rId295" ref="J166"/>
-    <hyperlink r:id="rId296" ref="O166"/>
-    <hyperlink r:id="rId297" ref="O167"/>
-    <hyperlink r:id="rId298" ref="J168"/>
-    <hyperlink r:id="rId299" ref="O168"/>
-    <hyperlink r:id="rId300" ref="J169"/>
-    <hyperlink r:id="rId301" ref="O169"/>
-    <hyperlink r:id="rId302" ref="J170"/>
-    <hyperlink r:id="rId303" ref="O170"/>
-    <hyperlink r:id="rId304" ref="J171"/>
-    <hyperlink r:id="rId305" ref="O171"/>
-    <hyperlink r:id="rId306" ref="J172"/>
-    <hyperlink r:id="rId307" ref="O172"/>
-    <hyperlink r:id="rId308" ref="J173"/>
-    <hyperlink r:id="rId309" ref="O173"/>
-    <hyperlink r:id="rId310" ref="J174"/>
-    <hyperlink r:id="rId311" ref="O174"/>
-    <hyperlink r:id="rId312" ref="J175"/>
-    <hyperlink r:id="rId313" ref="O175"/>
-    <hyperlink r:id="rId314" ref="O176"/>
-    <hyperlink r:id="rId315" ref="J177"/>
-    <hyperlink r:id="rId316" ref="O177"/>
-    <hyperlink r:id="rId317" ref="J178"/>
-    <hyperlink r:id="rId318" ref="O178"/>
-    <hyperlink r:id="rId319" ref="O179"/>
-    <hyperlink r:id="rId320" ref="J180"/>
-    <hyperlink r:id="rId321" ref="O180"/>
-    <hyperlink r:id="rId322" ref="O181"/>
-    <hyperlink r:id="rId323" ref="O182"/>
-    <hyperlink r:id="rId324" ref="O183"/>
-    <hyperlink r:id="rId325" ref="O184"/>
-    <hyperlink r:id="rId326" ref="O185"/>
-    <hyperlink r:id="rId327" ref="J186"/>
-    <hyperlink r:id="rId328" ref="O186"/>
-    <hyperlink r:id="rId329" ref="J187"/>
-    <hyperlink r:id="rId330" ref="O187"/>
-    <hyperlink r:id="rId331" ref="J188"/>
-    <hyperlink r:id="rId332" ref="O188"/>
-    <hyperlink r:id="rId333" ref="O189"/>
-    <hyperlink r:id="rId334" ref="J190"/>
-    <hyperlink r:id="rId335" ref="O190"/>
-    <hyperlink r:id="rId336" ref="J199"/>
-    <hyperlink r:id="rId337" ref="O199"/>
-    <hyperlink r:id="rId338" ref="J200"/>
-    <hyperlink r:id="rId339" ref="O200"/>
-    <hyperlink r:id="rId340" ref="J201"/>
-    <hyperlink r:id="rId341" ref="O201"/>
-    <hyperlink r:id="rId342" ref="J202"/>
-    <hyperlink r:id="rId343" ref="O202"/>
-    <hyperlink r:id="rId344" ref="J203"/>
-    <hyperlink r:id="rId345" ref="O203"/>
-    <hyperlink r:id="rId346" ref="O204"/>
-    <hyperlink r:id="rId347" ref="J205"/>
-    <hyperlink r:id="rId348" ref="O205"/>
-    <hyperlink r:id="rId349" ref="J206"/>
-    <hyperlink r:id="rId350" ref="O206"/>
-    <hyperlink r:id="rId351" ref="J207"/>
-    <hyperlink r:id="rId352" ref="O207"/>
-    <hyperlink r:id="rId353" ref="J208"/>
-    <hyperlink r:id="rId354" ref="O208"/>
-    <hyperlink r:id="rId355" ref="O209"/>
-    <hyperlink r:id="rId356" ref="J211"/>
-    <hyperlink r:id="rId357" ref="O211"/>
-    <hyperlink r:id="rId358" ref="J219"/>
-    <hyperlink r:id="rId359" ref="O219"/>
+    <hyperlink r:id="rId111" ref="J66"/>
+    <hyperlink r:id="rId112" ref="O66"/>
+    <hyperlink r:id="rId113" ref="J67"/>
+    <hyperlink r:id="rId114" ref="O67"/>
+    <hyperlink r:id="rId115" ref="O68"/>
+    <hyperlink r:id="rId116" ref="J70"/>
+    <hyperlink r:id="rId117" ref="O70"/>
+    <hyperlink r:id="rId118" ref="J71"/>
+    <hyperlink r:id="rId119" ref="O71"/>
+    <hyperlink r:id="rId120" ref="J72"/>
+    <hyperlink r:id="rId121" ref="O72"/>
+    <hyperlink r:id="rId122" ref="J73"/>
+    <hyperlink r:id="rId123" ref="O73"/>
+    <hyperlink r:id="rId124" ref="J74"/>
+    <hyperlink r:id="rId125" ref="O74"/>
+    <hyperlink r:id="rId126" ref="J75"/>
+    <hyperlink r:id="rId127" ref="O75"/>
+    <hyperlink r:id="rId128" ref="J76"/>
+    <hyperlink r:id="rId129" ref="O76"/>
+    <hyperlink r:id="rId130" ref="J77"/>
+    <hyperlink r:id="rId131" ref="O77"/>
+    <hyperlink r:id="rId132" ref="J78"/>
+    <hyperlink r:id="rId133" ref="O78"/>
+    <hyperlink r:id="rId134" ref="J79"/>
+    <hyperlink r:id="rId135" ref="O79"/>
+    <hyperlink r:id="rId136" ref="O80"/>
+    <hyperlink r:id="rId137" ref="J81"/>
+    <hyperlink r:id="rId138" ref="O81"/>
+    <hyperlink r:id="rId139" ref="J82"/>
+    <hyperlink r:id="rId140" ref="O82"/>
+    <hyperlink r:id="rId141" ref="J83"/>
+    <hyperlink r:id="rId142" ref="O83"/>
+    <hyperlink r:id="rId143" ref="J84"/>
+    <hyperlink r:id="rId144" ref="O84"/>
+    <hyperlink r:id="rId145" ref="O85"/>
+    <hyperlink r:id="rId146" ref="J86"/>
+    <hyperlink r:id="rId147" ref="O86"/>
+    <hyperlink r:id="rId148" ref="J87"/>
+    <hyperlink r:id="rId149" ref="O87"/>
+    <hyperlink r:id="rId150" ref="J88"/>
+    <hyperlink r:id="rId151" ref="O88"/>
+    <hyperlink r:id="rId152" ref="J89"/>
+    <hyperlink r:id="rId153" ref="O89"/>
+    <hyperlink r:id="rId154" ref="J90"/>
+    <hyperlink r:id="rId155" ref="O90"/>
+    <hyperlink r:id="rId156" ref="J91"/>
+    <hyperlink r:id="rId157" ref="O91"/>
+    <hyperlink r:id="rId158" ref="J92"/>
+    <hyperlink r:id="rId159" ref="O92"/>
+    <hyperlink r:id="rId160" ref="J93"/>
+    <hyperlink r:id="rId161" ref="O93"/>
+    <hyperlink r:id="rId162" ref="J94"/>
+    <hyperlink r:id="rId163" ref="O94"/>
+    <hyperlink r:id="rId164" ref="O95"/>
+    <hyperlink r:id="rId165" ref="O96"/>
+    <hyperlink r:id="rId166" ref="J97"/>
+    <hyperlink r:id="rId167" ref="O97"/>
+    <hyperlink r:id="rId168" ref="J98"/>
+    <hyperlink r:id="rId169" ref="O98"/>
+    <hyperlink r:id="rId170" ref="J99"/>
+    <hyperlink r:id="rId171" ref="O99"/>
+    <hyperlink r:id="rId172" ref="J100"/>
+    <hyperlink r:id="rId173" ref="O100"/>
+    <hyperlink r:id="rId174" ref="O101"/>
+    <hyperlink r:id="rId175" ref="J102"/>
+    <hyperlink r:id="rId176" ref="O102"/>
+    <hyperlink r:id="rId177" ref="J103"/>
+    <hyperlink r:id="rId178" ref="O103"/>
+    <hyperlink r:id="rId179" ref="J104"/>
+    <hyperlink r:id="rId180" ref="O104"/>
+    <hyperlink r:id="rId181" ref="J105"/>
+    <hyperlink r:id="rId182" ref="O105"/>
+    <hyperlink r:id="rId183" ref="J106"/>
+    <hyperlink r:id="rId184" ref="O106"/>
+    <hyperlink r:id="rId185" ref="J107"/>
+    <hyperlink r:id="rId186" ref="O107"/>
+    <hyperlink r:id="rId187" ref="J108"/>
+    <hyperlink r:id="rId188" ref="O108"/>
+    <hyperlink r:id="rId189" ref="J109"/>
+    <hyperlink r:id="rId190" ref="O109"/>
+    <hyperlink r:id="rId191" ref="J110"/>
+    <hyperlink r:id="rId192" ref="O110"/>
+    <hyperlink r:id="rId193" ref="J111"/>
+    <hyperlink r:id="rId194" ref="O111"/>
+    <hyperlink r:id="rId195" ref="J112"/>
+    <hyperlink r:id="rId196" ref="O112"/>
+    <hyperlink r:id="rId197" ref="J113"/>
+    <hyperlink r:id="rId198" ref="O113"/>
+    <hyperlink r:id="rId199" ref="J114"/>
+    <hyperlink r:id="rId200" ref="O114"/>
+    <hyperlink r:id="rId201" ref="J115"/>
+    <hyperlink r:id="rId202" ref="O115"/>
+    <hyperlink r:id="rId203" ref="J116"/>
+    <hyperlink r:id="rId204" ref="O116"/>
+    <hyperlink r:id="rId205" ref="J117"/>
+    <hyperlink r:id="rId206" ref="O117"/>
+    <hyperlink r:id="rId207" ref="J119"/>
+    <hyperlink r:id="rId208" ref="O119"/>
+    <hyperlink r:id="rId209" ref="O120"/>
+    <hyperlink r:id="rId210" ref="J121"/>
+    <hyperlink r:id="rId211" ref="O121"/>
+    <hyperlink r:id="rId212" ref="J122"/>
+    <hyperlink r:id="rId213" ref="O122"/>
+    <hyperlink r:id="rId214" ref="J123"/>
+    <hyperlink r:id="rId215" ref="O123"/>
+    <hyperlink r:id="rId216" ref="J124"/>
+    <hyperlink r:id="rId217" ref="O124"/>
+    <hyperlink r:id="rId218" ref="J125"/>
+    <hyperlink r:id="rId219" ref="O125"/>
+    <hyperlink r:id="rId220" ref="O126"/>
+    <hyperlink r:id="rId221" ref="J127"/>
+    <hyperlink r:id="rId222" ref="O127"/>
+    <hyperlink r:id="rId223" ref="J128"/>
+    <hyperlink r:id="rId224" ref="O128"/>
+    <hyperlink r:id="rId225" ref="J129"/>
+    <hyperlink r:id="rId226" ref="O129"/>
+    <hyperlink r:id="rId227" ref="J130"/>
+    <hyperlink r:id="rId228" ref="O130"/>
+    <hyperlink r:id="rId229" ref="O131"/>
+    <hyperlink r:id="rId230" ref="O132"/>
+    <hyperlink r:id="rId231" ref="J133"/>
+    <hyperlink r:id="rId232" ref="O133"/>
+    <hyperlink r:id="rId233" ref="J134"/>
+    <hyperlink r:id="rId234" ref="O134"/>
+    <hyperlink r:id="rId235" ref="J136"/>
+    <hyperlink r:id="rId236" ref="O136"/>
+    <hyperlink r:id="rId237" ref="J137"/>
+    <hyperlink r:id="rId238" ref="O137"/>
+    <hyperlink r:id="rId239" ref="J138"/>
+    <hyperlink r:id="rId240" ref="O138"/>
+    <hyperlink r:id="rId241" ref="J139"/>
+    <hyperlink r:id="rId242" ref="O139"/>
+    <hyperlink r:id="rId243" ref="J140"/>
+    <hyperlink r:id="rId244" ref="O140"/>
+    <hyperlink r:id="rId245" ref="J141"/>
+    <hyperlink r:id="rId246" ref="O141"/>
+    <hyperlink r:id="rId247" ref="J142"/>
+    <hyperlink r:id="rId248" ref="O142"/>
+    <hyperlink r:id="rId249" ref="J143"/>
+    <hyperlink r:id="rId250" ref="O143"/>
+    <hyperlink r:id="rId251" ref="J144"/>
+    <hyperlink r:id="rId252" ref="O144"/>
+    <hyperlink r:id="rId253" ref="J145"/>
+    <hyperlink r:id="rId254" ref="O145"/>
+    <hyperlink r:id="rId255" ref="J146"/>
+    <hyperlink r:id="rId256" ref="O146"/>
+    <hyperlink r:id="rId257" ref="J147"/>
+    <hyperlink r:id="rId258" ref="O147"/>
+    <hyperlink r:id="rId259" ref="J148"/>
+    <hyperlink r:id="rId260" ref="O148"/>
+    <hyperlink r:id="rId261" ref="J149"/>
+    <hyperlink r:id="rId262" ref="O149"/>
+    <hyperlink r:id="rId263" ref="J152"/>
+    <hyperlink r:id="rId264" ref="O152"/>
+    <hyperlink r:id="rId265" ref="O153"/>
+    <hyperlink r:id="rId266" ref="J154"/>
+    <hyperlink r:id="rId267" ref="O154"/>
+    <hyperlink r:id="rId268" ref="J155"/>
+    <hyperlink r:id="rId269" ref="O155"/>
+    <hyperlink r:id="rId270" ref="J156"/>
+    <hyperlink r:id="rId271" ref="O156"/>
+    <hyperlink r:id="rId272" ref="J157"/>
+    <hyperlink r:id="rId273" ref="O157"/>
+    <hyperlink r:id="rId274" ref="O158"/>
+    <hyperlink r:id="rId275" ref="J159"/>
+    <hyperlink r:id="rId276" ref="O159"/>
+    <hyperlink r:id="rId277" ref="J160"/>
+    <hyperlink r:id="rId278" ref="O160"/>
+    <hyperlink r:id="rId279" ref="J161"/>
+    <hyperlink r:id="rId280" ref="O161"/>
+    <hyperlink r:id="rId281" ref="J162"/>
+    <hyperlink r:id="rId282" ref="O162"/>
+    <hyperlink r:id="rId283" ref="J163"/>
+    <hyperlink r:id="rId284" ref="O163"/>
+    <hyperlink r:id="rId285" ref="J164"/>
+    <hyperlink r:id="rId286" ref="O164"/>
+    <hyperlink r:id="rId287" ref="J165"/>
+    <hyperlink r:id="rId288" ref="O165"/>
+    <hyperlink r:id="rId289" ref="J166"/>
+    <hyperlink r:id="rId290" ref="O166"/>
+    <hyperlink r:id="rId291" ref="J167"/>
+    <hyperlink r:id="rId292" ref="O167"/>
+    <hyperlink r:id="rId293" ref="J168"/>
+    <hyperlink r:id="rId294" ref="O168"/>
+    <hyperlink r:id="rId295" ref="J169"/>
+    <hyperlink r:id="rId296" ref="O169"/>
+    <hyperlink r:id="rId297" ref="O170"/>
+    <hyperlink r:id="rId298" ref="J171"/>
+    <hyperlink r:id="rId299" ref="O171"/>
+    <hyperlink r:id="rId300" ref="J172"/>
+    <hyperlink r:id="rId301" ref="O172"/>
+    <hyperlink r:id="rId302" ref="J173"/>
+    <hyperlink r:id="rId303" ref="O173"/>
+    <hyperlink r:id="rId304" ref="J174"/>
+    <hyperlink r:id="rId305" ref="O174"/>
+    <hyperlink r:id="rId306" ref="J175"/>
+    <hyperlink r:id="rId307" ref="O175"/>
+    <hyperlink r:id="rId308" ref="J176"/>
+    <hyperlink r:id="rId309" ref="O176"/>
+    <hyperlink r:id="rId310" ref="J177"/>
+    <hyperlink r:id="rId311" ref="O177"/>
+    <hyperlink r:id="rId312" ref="J178"/>
+    <hyperlink r:id="rId313" ref="O178"/>
+    <hyperlink r:id="rId314" ref="O179"/>
+    <hyperlink r:id="rId315" ref="J180"/>
+    <hyperlink r:id="rId316" ref="O180"/>
+    <hyperlink r:id="rId317" ref="J181"/>
+    <hyperlink r:id="rId318" ref="O181"/>
+    <hyperlink r:id="rId319" ref="O182"/>
+    <hyperlink r:id="rId320" ref="J183"/>
+    <hyperlink r:id="rId321" ref="O183"/>
+    <hyperlink r:id="rId322" ref="O184"/>
+    <hyperlink r:id="rId323" ref="O185"/>
+    <hyperlink r:id="rId324" ref="O186"/>
+    <hyperlink r:id="rId325" ref="O187"/>
+    <hyperlink r:id="rId326" ref="O188"/>
+    <hyperlink r:id="rId327" ref="J189"/>
+    <hyperlink r:id="rId328" ref="O189"/>
+    <hyperlink r:id="rId329" ref="J190"/>
+    <hyperlink r:id="rId330" ref="O190"/>
+    <hyperlink r:id="rId331" ref="J191"/>
+    <hyperlink r:id="rId332" ref="O191"/>
+    <hyperlink r:id="rId333" ref="O192"/>
+    <hyperlink r:id="rId334" ref="J193"/>
+    <hyperlink r:id="rId335" ref="O193"/>
+    <hyperlink r:id="rId336" ref="J202"/>
+    <hyperlink r:id="rId337" ref="O202"/>
+    <hyperlink r:id="rId338" ref="J203"/>
+    <hyperlink r:id="rId339" ref="O203"/>
+    <hyperlink r:id="rId340" ref="J204"/>
+    <hyperlink r:id="rId341" ref="O204"/>
+    <hyperlink r:id="rId342" ref="J205"/>
+    <hyperlink r:id="rId343" ref="O205"/>
+    <hyperlink r:id="rId344" ref="J206"/>
+    <hyperlink r:id="rId345" ref="O206"/>
+    <hyperlink r:id="rId346" ref="O207"/>
+    <hyperlink r:id="rId347" ref="J208"/>
+    <hyperlink r:id="rId348" ref="O208"/>
+    <hyperlink r:id="rId349" ref="J209"/>
+    <hyperlink r:id="rId350" ref="O209"/>
+    <hyperlink r:id="rId351" ref="J210"/>
+    <hyperlink r:id="rId352" ref="O210"/>
+    <hyperlink r:id="rId353" ref="J211"/>
+    <hyperlink r:id="rId354" ref="O211"/>
+    <hyperlink r:id="rId355" ref="O212"/>
+    <hyperlink r:id="rId356" ref="J214"/>
+    <hyperlink r:id="rId357" ref="O214"/>
+    <hyperlink r:id="rId358" ref="J222"/>
+    <hyperlink r:id="rId359" ref="O222"/>
   </hyperlinks>
   <drawing r:id="rId360"/>
 </worksheet>
@@ -28893,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -28911,110 +29070,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -835,7 +835,7 @@
     <t>Information about country of birth</t>
   </si>
   <si>
-    <t>dpv:BirthPlace</t>
+    <t>pd:BirthPlace</t>
   </si>
   <si>
     <t>use pd:BirthCountry</t>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="884">
   <si>
     <t>Term</t>
   </si>
@@ -198,7 +198,7 @@
     <t>Indirectly Identifying Personal Data</t>
   </si>
   <si>
-    <t>Personal Data that does not explicitly or by itself identify a person but can be used to identify via indirect means e.g. in combination with other data</t>
+    <t>Personal Data that does not explicitly or by itself identify a person but which has a high potential to be used to identify a person via indirect means e.g. in combination with other data</t>
   </si>
   <si>
     <t>proposed</t>
@@ -442,6 +442,33 @@
     </r>
   </si>
   <si>
+    <t>UnstructuredData</t>
+  </si>
+  <si>
+    <t>Unstructured Data</t>
+  </si>
+  <si>
+    <t>Data that is without a predefined data model or is not organised in a pre-defined manner</t>
+  </si>
+  <si>
+    <t>This concept is relevant to application of privacy/data protection regulations like GDPR as unstructured data may contain PII/personal data and it is useful to flag such data with unknown or incomplete modelling information for audits. It is also useful to flag data for potential quality issues</t>
+  </si>
+  <si>
+    <t>Rob Brennan, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>UncategorisedData</t>
+  </si>
+  <si>
+    <t>Uncategorised Data</t>
+  </si>
+  <si>
+    <t>Data whose categorisation is not known e.g. whether it is personal or non-personal data</t>
+  </si>
+  <si>
+    <t>This concept is intended for indicating that a legally relevant categorisation of data has not been made - specifically regarding whether it is personal data or not, but it can also be extended for other categorisations such as sensitive data or domain-specific confidential data</t>
+  </si>
+  <si>
     <t>Data categorised by Sensitivity</t>
   </si>
   <si>
@@ -590,6 +617,30 @@
   </si>
   <si>
     <t>dpv:Relation</t>
+  </si>
+  <si>
+    <t>hasUnstructuredData</t>
+  </si>
+  <si>
+    <t>has unstructured data</t>
+  </si>
+  <si>
+    <t>Indicates association with the specified unstructured data</t>
+  </si>
+  <si>
+    <t>dpv:UnstructuredData</t>
+  </si>
+  <si>
+    <t>hasUncategorisedData</t>
+  </si>
+  <si>
+    <t>has uncategorised data</t>
+  </si>
+  <si>
+    <t>Indicates association with the specified uncategorised data</t>
+  </si>
+  <si>
+    <t>dpv:UncategorisedData</t>
   </si>
   <si>
     <t>External</t>
@@ -4695,130 +4746,122 @@
       <c r="AB31" s="12"/>
     </row>
     <row r="32">
-      <c r="B32" s="23"/>
+      <c r="A32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13">
+        <v>45725.0</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="23"/>
+      <c r="A33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13">
+        <v>45725.0</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13">
-        <v>44580.0</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
+      <c r="B34" s="23"/>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="28" t="s">
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="B36" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K35" s="13">
-        <v>43592.0</v>
-      </c>
-      <c r="L35" s="13">
-        <v>44580.0</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="31" t="s">
+      <c r="C36" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="D36" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>26</v>
@@ -4826,19 +4869,23 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" s="20">
-        <v>45336.0</v>
+      <c r="I36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13">
+        <v>44580.0</v>
       </c>
       <c r="L36" s="12"/>
       <c r="M36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="N36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -4854,17 +4901,17 @@
       <c r="AB36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="C37" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>26</v>
@@ -4872,19 +4919,27 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="33" t="s">
+      <c r="I37" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="K37" s="20">
-        <v>45336.0</v>
-      </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="10" t="s">
+      <c r="J37" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K37" s="13">
+        <v>43592.0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>44580.0</v>
+      </c>
+      <c r="M37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="N37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
@@ -4901,16 +4956,16 @@
     </row>
     <row r="38">
       <c r="A38" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="C38" s="32" t="s">
+        <v>154</v>
+      </c>
       <c r="D38" s="10" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>26</v>
@@ -4920,7 +4975,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="33" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K38" s="20">
         <v>45336.0</v>
@@ -4947,13 +5002,13 @@
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>25</v>
@@ -4965,7 +5020,9 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="33" t="s">
+        <v>159</v>
+      </c>
       <c r="K39" s="20">
         <v>45336.0</v>
       </c>
@@ -4991,16 +5048,16 @@
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>26</v>
@@ -5009,8 +5066,8 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="34" t="s">
-        <v>162</v>
+      <c r="J40" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="K40" s="20">
         <v>45336.0</v>
@@ -5037,16 +5094,16 @@
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>26</v>
@@ -5055,9 +5112,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="33" t="s">
-        <v>166</v>
-      </c>
+      <c r="J41" s="12"/>
       <c r="K41" s="20">
         <v>45336.0</v>
       </c>
@@ -5082,93 +5137,179 @@
       <c r="AB41" s="12"/>
     </row>
     <row r="42">
-      <c r="B42" s="23"/>
+      <c r="A42" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="20">
+        <v>45336.0</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="35" t="s">
+      <c r="A43" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" s="20">
+        <v>45336.0</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D45" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E45" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="35" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E46" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="23"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="23"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
     </row>
     <row r="47">
       <c r="B47" s="23"/>
@@ -7635,6 +7776,12 @@
     </row>
     <row r="868">
       <c r="B868" s="23"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="23"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:AB7">
@@ -7647,17 +7794,17 @@
       <formula>$M7="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB818">
+  <conditionalFormatting sqref="A2:AB820">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB818">
+  <conditionalFormatting sqref="A2:AB820">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB818">
+  <conditionalFormatting sqref="A2:AB820">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -7680,9 +7827,9 @@
     <hyperlink r:id="rId10" ref="O28"/>
     <hyperlink r:id="rId11" ref="O30"/>
     <hyperlink r:id="rId12" ref="J31"/>
-    <hyperlink r:id="rId13" ref="O34"/>
-    <hyperlink r:id="rId14" ref="J35"/>
-    <hyperlink r:id="rId15" ref="O35"/>
+    <hyperlink r:id="rId13" ref="O36"/>
+    <hyperlink r:id="rId14" ref="J37"/>
+    <hyperlink r:id="rId15" ref="O37"/>
   </hyperlinks>
   <drawing r:id="rId16"/>
 </worksheet>
@@ -7722,13 +7869,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7760,13 +7907,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -7775,7 +7922,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7810,13 +7957,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -7825,7 +7972,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7857,10 +8004,100 @@
       <c r="AB3" s="12"/>
     </row>
     <row r="4">
-      <c r="C4" s="41"/>
+      <c r="A4" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13">
+        <v>45725.0</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
     </row>
     <row r="5">
-      <c r="C5" s="41"/>
+      <c r="A5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13">
+        <v>45725.0</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
     </row>
     <row r="6">
       <c r="C6" s="41"/>
@@ -10887,13 +11124,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
@@ -10904,7 +11141,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -10917,7 +11154,7 @@
         <v>111</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -10935,13 +11172,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
@@ -10949,12 +11186,12 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -10967,7 +11204,7 @@
         <v>111</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10985,13 +11222,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9" t="s">
@@ -11002,7 +11239,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -11015,7 +11252,7 @@
         <v>111</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -11033,13 +11270,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
@@ -11061,7 +11298,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -11079,13 +11316,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9" t="s">
@@ -11096,7 +11333,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -11109,7 +11346,7 @@
         <v>111</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -11127,13 +11364,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
@@ -11155,7 +11392,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -11173,13 +11410,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9" t="s">
@@ -11190,7 +11427,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -11203,7 +11440,7 @@
         <v>111</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -11221,13 +11458,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9" t="s">
@@ -11238,7 +11475,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="42" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -11251,7 +11488,7 @@
         <v>111</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15483,16 +15720,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>50</v>
@@ -15502,7 +15739,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -15515,7 +15752,7 @@
         <v>111</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -15533,16 +15770,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>50</v>
@@ -15552,7 +15789,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -15565,7 +15802,7 @@
         <v>111</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -15583,16 +15820,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15602,7 +15839,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -15615,7 +15852,7 @@
         <v>111</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15633,16 +15870,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>50</v>
@@ -15652,7 +15889,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15665,7 +15902,7 @@
         <v>111</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15683,16 +15920,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>50</v>
@@ -15713,7 +15950,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15731,16 +15968,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>50</v>
@@ -15761,7 +15998,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -15779,16 +16016,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>50</v>
@@ -15798,7 +16035,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -15811,7 +16048,7 @@
         <v>111</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -15829,16 +16066,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -15848,7 +16085,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -15861,7 +16098,7 @@
         <v>111</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15879,16 +16116,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>50</v>
@@ -15898,7 +16135,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -15911,7 +16148,7 @@
         <v>111</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -15929,16 +16166,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>50</v>
@@ -15948,7 +16185,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -15961,7 +16198,7 @@
         <v>111</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -15979,16 +16216,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -15998,7 +16235,7 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="26" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="K12" s="50">
         <v>44139.0</v>
@@ -16011,7 +16248,7 @@
         <v>121</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -16029,16 +16266,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>50</v>
@@ -16048,7 +16285,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -16061,7 +16298,7 @@
         <v>111</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -16079,28 +16316,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -16113,7 +16350,7 @@
         <v>111</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -16131,16 +16368,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>50</v>
@@ -16161,7 +16398,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -16179,16 +16416,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16209,7 +16446,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -16227,16 +16464,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16245,7 +16482,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="10" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="43">
@@ -16256,7 +16493,7 @@
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -16275,16 +16512,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16294,7 +16531,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -16307,7 +16544,7 @@
         <v>111</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -16325,16 +16562,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16344,7 +16581,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K19" s="13">
         <v>43620.0</v>
@@ -16357,7 +16594,7 @@
         <v>111</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16375,16 +16612,16 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
@@ -16405,7 +16642,7 @@
         <v>20</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16423,28 +16660,28 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K21" s="13">
         <v>43620.0</v>
@@ -16457,7 +16694,7 @@
         <v>111</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -16475,16 +16712,16 @@
     </row>
     <row r="22">
       <c r="A22" s="53" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16494,7 +16731,7 @@
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="26" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="K22" s="50">
         <v>44139.0</v>
@@ -16507,7 +16744,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -16525,16 +16762,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16544,7 +16781,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -16557,7 +16794,7 @@
         <v>111</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -16575,16 +16812,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16594,7 +16831,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -16607,7 +16844,7 @@
         <v>111</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -16625,16 +16862,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16644,7 +16881,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16657,7 +16894,7 @@
         <v>111</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16675,16 +16912,16 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
@@ -16694,7 +16931,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16707,7 +16944,7 @@
         <v>111</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16725,28 +16962,28 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16759,7 +16996,7 @@
         <v>111</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -16777,16 +17014,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
@@ -16796,7 +17033,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -16809,7 +17046,7 @@
         <v>111</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -16827,28 +17064,28 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -16861,7 +17098,7 @@
         <v>111</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -16879,16 +17116,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -16898,7 +17135,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="10"/>
       <c r="J30" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -16911,7 +17148,7 @@
         <v>111</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -16929,16 +17166,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -16948,7 +17185,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -16961,7 +17198,7 @@
         <v>111</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -16979,16 +17216,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -16998,7 +17235,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -17011,7 +17248,7 @@
         <v>111</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -17029,16 +17266,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -17048,7 +17285,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -17061,7 +17298,7 @@
         <v>111</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -17079,16 +17316,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -17098,7 +17335,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -17111,7 +17348,7 @@
         <v>111</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -17129,16 +17366,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17148,7 +17385,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -17161,7 +17398,7 @@
         <v>111</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -17179,16 +17416,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17198,7 +17435,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -17211,7 +17448,7 @@
         <v>111</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -17229,16 +17466,16 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C37" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
@@ -17248,7 +17485,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -17261,7 +17498,7 @@
         <v>111</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -17279,28 +17516,28 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -17313,7 +17550,7 @@
         <v>111</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -17331,16 +17568,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17350,7 +17587,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -17363,7 +17600,7 @@
         <v>111</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -17381,16 +17618,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17400,7 +17637,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K40" s="13">
         <v>43620.0</v>
@@ -17413,7 +17650,7 @@
         <v>111</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -17431,16 +17668,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17477,16 +17714,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17496,7 +17733,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K42" s="13">
         <v>43620.0</v>
@@ -17509,7 +17746,7 @@
         <v>111</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17527,16 +17764,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17557,7 +17794,7 @@
         <v>20</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17575,16 +17812,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17594,7 +17831,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -17607,7 +17844,7 @@
         <v>111</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -17625,16 +17862,16 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17644,7 +17881,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K45" s="13">
         <v>43620.0</v>
@@ -17657,7 +17894,7 @@
         <v>111</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
@@ -17675,16 +17912,16 @@
     </row>
     <row r="46">
       <c r="A46" s="53" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
@@ -17694,7 +17931,7 @@
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
       <c r="J46" s="26" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K46" s="50">
         <v>44139.0</v>
@@ -17704,10 +17941,10 @@
         <v>19</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="O46" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P46" s="49"/>
       <c r="Q46" s="49"/>
@@ -17725,28 +17962,28 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K47" s="13">
         <v>43620.0</v>
@@ -17759,7 +17996,7 @@
         <v>111</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
@@ -17777,16 +18014,16 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -17796,7 +18033,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="26" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -17806,10 +18043,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
@@ -17827,16 +18064,16 @@
     </row>
     <row r="49">
       <c r="A49" s="53" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -17846,7 +18083,7 @@
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
       <c r="J49" s="26" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K49" s="50">
         <v>44139.0</v>
@@ -17856,10 +18093,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="O49" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P49" s="49"/>
       <c r="Q49" s="49"/>
@@ -17877,16 +18114,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -17896,7 +18133,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K50" s="13">
         <v>43620.0</v>
@@ -17909,7 +18146,7 @@
         <v>111</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17927,16 +18164,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -17957,7 +18194,7 @@
         <v>20</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17975,16 +18212,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -17994,7 +18231,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -18007,7 +18244,7 @@
         <v>111</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -18025,16 +18262,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -18044,7 +18281,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -18057,7 +18294,7 @@
         <v>111</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -18075,16 +18312,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -18094,7 +18331,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -18107,7 +18344,7 @@
         <v>111</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -18125,16 +18362,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18144,7 +18381,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -18157,7 +18394,7 @@
         <v>111</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -18175,16 +18412,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18194,7 +18431,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -18207,7 +18444,7 @@
         <v>111</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -18225,16 +18462,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18244,7 +18481,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K57" s="13">
         <v>43620.0</v>
@@ -18257,7 +18494,7 @@
         <v>111</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18275,16 +18512,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18305,7 +18542,7 @@
         <v>20</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -18323,16 +18560,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18353,7 +18590,7 @@
         <v>20</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -18371,16 +18608,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18401,7 +18638,7 @@
         <v>20</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18419,16 +18656,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18438,7 +18675,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K61" s="13">
         <v>43620.0</v>
@@ -18451,7 +18688,7 @@
         <v>111</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18469,16 +18706,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18499,7 +18736,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -18517,16 +18754,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18547,7 +18784,7 @@
         <v>20</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18565,16 +18802,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18584,7 +18821,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -18597,7 +18834,7 @@
         <v>111</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -18615,16 +18852,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18661,16 +18898,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18680,7 +18917,7 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K66" s="13">
         <v>43620.0</v>
@@ -18693,7 +18930,7 @@
         <v>111</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18711,16 +18948,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18730,7 +18967,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18743,7 +18980,7 @@
         <v>111</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18761,16 +18998,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18791,7 +19028,7 @@
         <v>20</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18809,16 +19046,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18855,16 +19092,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18874,7 +19111,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -18887,7 +19124,7 @@
         <v>111</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -18905,16 +19142,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18924,7 +19161,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -18937,7 +19174,7 @@
         <v>111</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -18955,16 +19192,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18974,7 +19211,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -18987,7 +19224,7 @@
         <v>111</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -19005,16 +19242,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -19024,7 +19261,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -19037,7 +19274,7 @@
         <v>111</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -19055,16 +19292,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -19074,7 +19311,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -19087,7 +19324,7 @@
         <v>111</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -19105,16 +19342,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19124,7 +19361,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -19137,7 +19374,7 @@
         <v>111</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -19155,16 +19392,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19174,7 +19411,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -19187,7 +19424,7 @@
         <v>111</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -19205,16 +19442,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19224,7 +19461,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K77" s="13">
         <v>43620.0</v>
@@ -19237,7 +19474,7 @@
         <v>111</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19255,16 +19492,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19274,7 +19511,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -19287,7 +19524,7 @@
         <v>111</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19305,16 +19542,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19324,7 +19561,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -19337,7 +19574,7 @@
         <v>111</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -19355,16 +19592,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19385,7 +19622,7 @@
         <v>20</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19403,16 +19640,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19422,7 +19659,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -19435,7 +19672,7 @@
         <v>111</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -19453,16 +19690,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19472,7 +19709,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K82" s="13">
         <v>43620.0</v>
@@ -19485,7 +19722,7 @@
         <v>111</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19503,16 +19740,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19522,7 +19759,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -19535,7 +19772,7 @@
         <v>111</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19553,16 +19790,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19572,7 +19809,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -19585,7 +19822,7 @@
         <v>111</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -19603,16 +19840,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19633,7 +19870,7 @@
         <v>20</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19651,16 +19888,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19670,7 +19907,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19683,7 +19920,7 @@
         <v>111</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19701,16 +19938,16 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
@@ -19720,7 +19957,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19733,7 +19970,7 @@
         <v>111</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19751,16 +19988,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -19770,7 +20007,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -19783,7 +20020,7 @@
         <v>111</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -19801,16 +20038,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19820,7 +20057,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -19833,7 +20070,7 @@
         <v>111</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -19851,28 +20088,28 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -19885,7 +20122,7 @@
         <v>111</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -19903,16 +20140,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19922,7 +20159,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -19935,7 +20172,7 @@
         <v>111</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -19953,16 +20190,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19972,7 +20209,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K92" s="13">
         <v>43620.0</v>
@@ -19985,7 +20222,7 @@
         <v>111</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -20003,16 +20240,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -20022,7 +20259,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K93" s="13">
         <v>43620.0</v>
@@ -20035,7 +20272,7 @@
         <v>111</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -20053,16 +20290,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -20072,7 +20309,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -20085,7 +20322,7 @@
         <v>111</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20103,16 +20340,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20133,7 +20370,7 @@
         <v>20</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20151,16 +20388,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20181,7 +20418,7 @@
         <v>20</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20199,16 +20436,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20218,7 +20455,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -20231,7 +20468,7 @@
         <v>111</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -20249,16 +20486,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20268,7 +20505,7 @@
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K98" s="13">
         <v>43620.0</v>
@@ -20281,7 +20518,7 @@
         <v>111</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20299,16 +20536,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20318,7 +20555,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -20331,7 +20568,7 @@
         <v>111</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20349,16 +20586,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20368,7 +20605,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -20381,7 +20618,7 @@
         <v>111</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -20399,16 +20636,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20429,7 +20666,7 @@
         <v>20</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20447,16 +20684,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20466,7 +20703,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -20479,7 +20716,7 @@
         <v>111</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -20497,16 +20734,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20516,7 +20753,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -20529,7 +20766,7 @@
         <v>111</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -20547,16 +20784,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20566,7 +20803,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -20579,7 +20816,7 @@
         <v>111</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -20597,16 +20834,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20616,7 +20853,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20629,7 +20866,7 @@
         <v>111</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -20647,16 +20884,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20666,7 +20903,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20679,7 +20916,7 @@
         <v>111</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20697,16 +20934,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20716,7 +20953,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20729,7 +20966,7 @@
         <v>111</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20747,16 +20984,16 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
@@ -20766,7 +21003,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -20781,7 +21018,7 @@
         <v>111</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -20799,16 +21036,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -20818,7 +21055,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -20831,7 +21068,7 @@
         <v>111</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -20849,16 +21086,16 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
@@ -20868,7 +21105,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -20881,7 +21118,7 @@
         <v>111</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -20899,28 +21136,28 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -20933,7 +21170,7 @@
         <v>111</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -20951,16 +21188,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20970,7 +21207,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -20983,7 +21220,7 @@
         <v>111</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -21001,28 +21238,28 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -21035,7 +21272,7 @@
         <v>111</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -21053,16 +21290,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -21072,7 +21309,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -21085,7 +21322,7 @@
         <v>111</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -21103,16 +21340,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21122,7 +21359,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -21135,7 +21372,7 @@
         <v>111</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -21153,16 +21390,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21172,7 +21409,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K116" s="13">
         <v>43620.0</v>
@@ -21185,7 +21422,7 @@
         <v>111</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21203,16 +21440,16 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
@@ -21222,7 +21459,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -21235,7 +21472,7 @@
         <v>111</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21253,16 +21490,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
@@ -21299,16 +21536,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21318,7 +21555,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -21331,7 +21568,7 @@
         <v>111</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -21349,16 +21586,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21377,7 +21614,7 @@
       </c>
       <c r="N120" s="12"/>
       <c r="O120" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21395,28 +21632,28 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -21429,7 +21666,7 @@
         <v>111</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -21447,16 +21684,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21466,7 +21703,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K122" s="13">
         <v>43620.0</v>
@@ -21479,7 +21716,7 @@
         <v>111</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21497,16 +21734,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21516,7 +21753,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -21529,7 +21766,7 @@
         <v>111</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21547,16 +21784,16 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21566,7 +21803,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
       <c r="J124" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K124" s="13">
         <v>43620.0</v>
@@ -21579,7 +21816,7 @@
         <v>111</v>
       </c>
       <c r="O124" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
@@ -21597,16 +21834,16 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21616,7 +21853,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K125" s="13">
         <v>43620.0</v>
@@ -21629,7 +21866,7 @@
         <v>111</v>
       </c>
       <c r="O125" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P125" s="12"/>
       <c r="Q125" s="12"/>
@@ -21647,16 +21884,16 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21677,7 +21914,7 @@
         <v>20</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
@@ -21695,16 +21932,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -21714,7 +21951,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
       <c r="J127" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K127" s="13">
         <v>43620.0</v>
@@ -21727,7 +21964,7 @@
         <v>111</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21745,16 +21982,16 @@
     </row>
     <row r="128">
       <c r="A128" s="53" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="B128" s="54" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="D128" s="51" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -21764,7 +22001,7 @@
       <c r="H128" s="49"/>
       <c r="I128" s="49"/>
       <c r="J128" s="26" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="K128" s="50">
         <v>44139.0</v>
@@ -21777,7 +22014,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P128" s="49"/>
       <c r="Q128" s="49"/>
@@ -21795,16 +22032,16 @@
     </row>
     <row r="129">
       <c r="A129" s="53" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="B129" s="54" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="D129" s="51" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -21814,7 +22051,7 @@
       <c r="H129" s="49"/>
       <c r="I129" s="49"/>
       <c r="J129" s="26" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="K129" s="50">
         <v>44139.0</v>
@@ -21827,7 +22064,7 @@
         <v>121</v>
       </c>
       <c r="O129" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P129" s="49"/>
       <c r="Q129" s="49"/>
@@ -21845,16 +22082,16 @@
     </row>
     <row r="130">
       <c r="A130" s="53" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="B130" s="54" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -21864,7 +22101,7 @@
       <c r="H130" s="49"/>
       <c r="I130" s="49"/>
       <c r="J130" s="26" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="K130" s="50">
         <v>44139.0</v>
@@ -21877,7 +22114,7 @@
         <v>121</v>
       </c>
       <c r="O130" s="52" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P130" s="49"/>
       <c r="Q130" s="49"/>
@@ -21895,16 +22132,16 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>50</v>
@@ -21925,7 +22162,7 @@
         <v>20</v>
       </c>
       <c r="O131" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
@@ -21943,16 +22180,16 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
@@ -21973,7 +22210,7 @@
         <v>20</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -21991,16 +22228,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
@@ -22010,7 +22247,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -22023,7 +22260,7 @@
         <v>111</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -22041,16 +22278,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -22060,7 +22297,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -22073,7 +22310,7 @@
         <v>111</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -22091,28 +22328,28 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -22125,7 +22362,7 @@
         <v>111</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -22143,16 +22380,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22162,7 +22399,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -22175,7 +22412,7 @@
         <v>111</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -22193,16 +22430,16 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
@@ -22212,7 +22449,7 @@
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -22225,7 +22462,7 @@
         <v>111</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -22243,16 +22480,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22262,7 +22499,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -22275,7 +22512,7 @@
         <v>111</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -22293,16 +22530,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22312,7 +22549,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -22325,7 +22562,7 @@
         <v>111</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -22343,16 +22580,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22362,7 +22599,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
@@ -22375,7 +22612,7 @@
         <v>111</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -22393,28 +22630,28 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -22427,7 +22664,7 @@
         <v>111</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -22445,16 +22682,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22464,7 +22701,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -22477,7 +22714,7 @@
         <v>111</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -22495,16 +22732,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22514,7 +22751,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -22527,7 +22764,7 @@
         <v>111</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -22545,16 +22782,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22564,7 +22801,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22579,7 +22816,7 @@
         <v>111</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22597,16 +22834,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22616,7 +22853,7 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K146" s="13">
         <v>43620.0</v>
@@ -22629,7 +22866,7 @@
         <v>111</v>
       </c>
       <c r="O146" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
@@ -22647,16 +22884,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22666,7 +22903,7 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K147" s="13">
         <v>43620.0</v>
@@ -22679,7 +22916,7 @@
         <v>111</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
@@ -22697,16 +22934,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22716,7 +22953,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22729,7 +22966,7 @@
         <v>111</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22747,16 +22984,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22766,7 +23003,7 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K149" s="13">
         <v>43620.0</v>
@@ -22779,7 +23016,7 @@
         <v>111</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22797,16 +23034,16 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
@@ -22843,16 +23080,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -22889,16 +23126,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22908,7 +23145,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -22921,7 +23158,7 @@
         <v>111</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -22939,16 +23176,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22969,7 +23206,7 @@
         <v>20</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22987,28 +23224,28 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K154" s="13">
         <v>43620.0</v>
@@ -23021,7 +23258,7 @@
         <v>111</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -23039,16 +23276,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -23058,7 +23295,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -23071,7 +23308,7 @@
         <v>111</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -23089,16 +23326,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23108,7 +23345,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -23121,7 +23358,7 @@
         <v>111</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -23139,16 +23376,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23158,7 +23395,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -23171,7 +23408,7 @@
         <v>111</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -23189,16 +23426,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23219,7 +23456,7 @@
         <v>20</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23237,16 +23474,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23256,7 +23493,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -23269,7 +23506,7 @@
         <v>111</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -23287,16 +23524,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23306,7 +23543,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K160" s="13">
         <v>43620.0</v>
@@ -23319,7 +23556,7 @@
         <v>111</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23337,16 +23574,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23356,7 +23593,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K161" s="13">
         <v>43620.0</v>
@@ -23369,7 +23606,7 @@
         <v>111</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23387,16 +23624,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23406,7 +23643,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -23419,7 +23656,7 @@
         <v>111</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -23437,16 +23674,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23456,7 +23693,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -23469,7 +23706,7 @@
         <v>111</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -23487,16 +23724,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23506,7 +23743,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="16" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="K164" s="13">
         <v>43795.0</v>
@@ -23516,10 +23753,10 @@
         <v>19</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23537,16 +23774,16 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
@@ -23556,7 +23793,7 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -23569,7 +23806,7 @@
         <v>111</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23587,16 +23824,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23606,7 +23843,7 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K166" s="13">
         <v>43620.0</v>
@@ -23619,7 +23856,7 @@
         <v>111</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23637,16 +23874,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23656,7 +23893,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K167" s="13">
         <v>43620.0</v>
@@ -23669,7 +23906,7 @@
         <v>111</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23687,16 +23924,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23706,7 +23943,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23719,7 +23956,7 @@
         <v>111</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23737,28 +23974,28 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -23771,7 +24008,7 @@
         <v>111</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -23789,16 +24026,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23819,7 +24056,7 @@
         <v>20</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23837,16 +24074,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23856,7 +24093,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -23869,7 +24106,7 @@
         <v>111</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -23887,16 +24124,16 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23906,7 +24143,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -23919,7 +24156,7 @@
         <v>111</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -23937,16 +24174,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23956,7 +24193,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -23969,7 +24206,7 @@
         <v>111</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -23987,16 +24224,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -24006,7 +24243,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -24019,7 +24256,7 @@
         <v>111</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -24037,16 +24274,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -24056,7 +24293,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K175" s="13">
         <v>43620.0</v>
@@ -24069,7 +24306,7 @@
         <v>111</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -24087,16 +24324,16 @@
     </row>
     <row r="176">
       <c r="A176" s="47" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="C176" s="46" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24106,7 +24343,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K176" s="13">
         <v>43620.0</v>
@@ -24119,7 +24356,7 @@
         <v>111</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24137,16 +24374,16 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
@@ -24156,7 +24393,7 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K177" s="13">
         <v>43620.0</v>
@@ -24169,7 +24406,7 @@
         <v>111</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24187,16 +24424,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24206,7 +24443,7 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K178" s="13">
         <v>43620.0</v>
@@ -24219,7 +24456,7 @@
         <v>111</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P178" s="12"/>
       <c r="Q178" s="12"/>
@@ -24237,16 +24474,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24267,7 +24504,7 @@
         <v>20</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -24285,16 +24522,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24304,7 +24541,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="16" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="K180" s="13">
         <v>43795.0</v>
@@ -24314,10 +24551,10 @@
         <v>19</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24335,28 +24572,28 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K181" s="13">
         <v>43620.0</v>
@@ -24369,7 +24606,7 @@
         <v>111</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24387,16 +24624,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="C182" s="59" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24417,7 +24654,7 @@
         <v>121</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P182" s="60"/>
       <c r="Q182" s="60"/>
@@ -24435,16 +24672,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24454,7 +24691,7 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K183" s="13">
         <v>43620.0</v>
@@ -24467,7 +24704,7 @@
         <v>111</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24485,16 +24722,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24515,7 +24752,7 @@
         <v>20</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -24533,16 +24770,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24563,7 +24800,7 @@
         <v>20</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24581,16 +24818,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24611,7 +24848,7 @@
         <v>20</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24629,16 +24866,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24659,7 +24896,7 @@
         <v>20</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24677,16 +24914,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24707,7 +24944,7 @@
         <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24725,16 +24962,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="C189" s="47" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24744,7 +24981,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="28"/>
       <c r="J189" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K189" s="13">
         <v>43620.0</v>
@@ -24757,7 +24994,7 @@
         <v>111</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24775,16 +25012,16 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>50</v>
@@ -24794,7 +25031,7 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K190" s="13">
         <v>43620.0</v>
@@ -24807,7 +25044,7 @@
         <v>111</v>
       </c>
       <c r="O190" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
@@ -24825,16 +25062,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>50</v>
@@ -24844,7 +25081,7 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K191" s="13">
         <v>43620.0</v>
@@ -24857,7 +25094,7 @@
         <v>111</v>
       </c>
       <c r="O191" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
@@ -24875,16 +25112,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -24905,7 +25142,7 @@
         <v>20</v>
       </c>
       <c r="O192" s="14" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
@@ -24923,16 +25160,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -24942,7 +25179,7 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K193" s="13">
         <v>43620.0</v>
@@ -24955,7 +25192,7 @@
         <v>111</v>
       </c>
       <c r="O193" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P193" s="12"/>
       <c r="Q193" s="12"/>
@@ -24977,16 +25214,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -25023,16 +25260,16 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="C196" s="61" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>50</v>
@@ -25041,7 +25278,7 @@
       <c r="G196" s="60"/>
       <c r="H196" s="60"/>
       <c r="I196" s="30" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="J196" s="60"/>
       <c r="K196" s="43">
@@ -25051,10 +25288,10 @@
         <v>45504.0</v>
       </c>
       <c r="M196" s="30" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O196" s="60"/>
       <c r="P196" s="60"/>
@@ -25073,16 +25310,16 @@
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="C197" s="61" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>50</v>
@@ -25091,7 +25328,7 @@
       <c r="G197" s="60"/>
       <c r="H197" s="60"/>
       <c r="I197" s="30" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="J197" s="60"/>
       <c r="K197" s="43">
@@ -25101,10 +25338,10 @@
         <v>45504.0</v>
       </c>
       <c r="M197" s="30" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O197" s="60"/>
       <c r="P197" s="60"/>
@@ -25123,28 +25360,28 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="K198" s="43">
         <v>45402.0</v>
       </c>
       <c r="M198" s="30" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>20</v>
@@ -25152,28 +25389,28 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K199" s="43">
         <v>45402.0</v>
       </c>
       <c r="M199" s="30" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>20</v>
@@ -25185,23 +25422,23 @@
     </row>
     <row r="201">
       <c r="A201" s="9" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="B201" s="23"/>
       <c r="E201" s="44"/>
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
@@ -25211,7 +25448,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -25224,7 +25461,7 @@
         <v>111</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -25242,16 +25479,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25261,7 +25498,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K203" s="13">
         <v>43620.0</v>
@@ -25274,7 +25511,7 @@
         <v>111</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25292,16 +25529,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25311,7 +25548,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -25324,7 +25561,7 @@
         <v>111</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25342,16 +25579,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25361,7 +25598,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -25374,7 +25611,7 @@
         <v>111</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -25392,28 +25629,28 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K206" s="13">
         <v>43620.0</v>
@@ -25426,7 +25663,7 @@
         <v>111</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25444,16 +25681,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25474,7 +25711,7 @@
         <v>20</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25492,16 +25729,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D208" s="10" t="s">
         <v>828</v>
-      </c>
-      <c r="B208" s="25" t="s">
-        <v>828</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>811</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25511,7 +25748,7 @@
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
       <c r="J208" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K208" s="13">
         <v>43620.0</v>
@@ -25524,7 +25761,7 @@
         <v>111</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25542,16 +25779,16 @@
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>50</v>
@@ -25561,7 +25798,7 @@
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
       <c r="J209" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K209" s="13">
         <v>43620.0</v>
@@ -25574,7 +25811,7 @@
         <v>111</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
@@ -25592,16 +25829,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25611,7 +25848,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -25624,7 +25861,7 @@
         <v>111</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -25642,16 +25879,16 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>50</v>
@@ -25661,7 +25898,7 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K211" s="13">
         <v>43620.0</v>
@@ -25674,7 +25911,7 @@
         <v>111</v>
       </c>
       <c r="O211" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P211" s="12"/>
       <c r="Q211" s="12"/>
@@ -25692,16 +25929,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>50</v>
@@ -25722,7 +25959,7 @@
         <v>20</v>
       </c>
       <c r="O212" s="14" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="P212" s="12"/>
       <c r="Q212" s="12"/>
@@ -25752,16 +25989,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>50</v>
@@ -25771,7 +26008,7 @@
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
       <c r="J214" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K214" s="13">
         <v>43620.0</v>
@@ -25783,10 +26020,10 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="O214" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P214" s="12"/>
       <c r="Q214" s="12"/>
@@ -25804,16 +26041,16 @@
     </row>
     <row r="215">
       <c r="A215" s="35" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B215" s="35" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="D215" s="35" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E215" s="35" t="s">
         <v>50</v>
@@ -25827,7 +26064,7 @@
       <c r="L215" s="37"/>
       <c r="M215" s="35"/>
       <c r="N215" s="35" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O215" s="37"/>
       <c r="P215" s="37"/>
@@ -25846,16 +26083,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25873,7 +26110,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25892,16 +26129,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25919,7 +26156,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25938,16 +26175,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25965,7 +26202,7 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O218" s="12"/>
       <c r="P218" s="12"/>
@@ -25984,16 +26221,16 @@
     </row>
     <row r="219">
       <c r="A219" s="10" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>50</v>
@@ -26011,7 +26248,7 @@
         <v>19</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
@@ -26030,16 +26267,16 @@
     </row>
     <row r="220">
       <c r="A220" s="10" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>50</v>
@@ -26057,7 +26294,7 @@
         <v>19</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O220" s="12"/>
       <c r="P220" s="12"/>
@@ -26076,16 +26313,16 @@
     </row>
     <row r="221">
       <c r="A221" s="10" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>50</v>
@@ -26103,7 +26340,7 @@
         <v>19</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="O221" s="12"/>
       <c r="P221" s="12"/>
@@ -26122,16 +26359,16 @@
     </row>
     <row r="222">
       <c r="A222" s="10" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="B222" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="D222" s="10" t="s">
         <v>864</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>847</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>50</v>
@@ -26141,7 +26378,7 @@
       <c r="H222" s="12"/>
       <c r="I222" s="12"/>
       <c r="J222" s="29" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K222" s="13">
         <v>43620.0</v>
@@ -26153,10 +26390,10 @@
         <v>19</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="O222" s="14" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P222" s="12"/>
       <c r="Q222" s="12"/>
@@ -29052,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -29070,110 +29307,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="890">
   <si>
     <t>Term</t>
   </si>
@@ -511,12 +511,21 @@
     <t>Commercially Confidential Data</t>
   </si>
   <si>
-    <t>Data protected through Commercial Confidentiality Agreements</t>
+    <t>Data that is considered confidentialdue to business/trade secrets, confidentiality agreements, or company secrets</t>
+  </si>
+  <si>
+    <t>dpv:ConfidentialData</t>
   </si>
   <si>
     <t>DGA 6.5(c)</t>
   </si>
   <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Beatriz Esteves, Harshvardhan J. Pandit, Danielle Welter</t>
+  </si>
+  <si>
     <t>ConfidentialData</t>
   </si>
   <si>
@@ -529,6 +538,21 @@
     <t>DGA 5.10</t>
   </si>
   <si>
+    <t>Beatriz Esteves, Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>ProfesionalConfidentialData</t>
+  </si>
+  <si>
+    <t>Professional Confidential Data</t>
+  </si>
+  <si>
+    <t>Data protected by professional secrecy or confidentiality, including but not limited to data covered by professional privilege or secrecy obligations such as that covered by lawyer or doctor-patient confidentiality and other forms of recognised professional confidentiality obligations</t>
+  </si>
+  <si>
+    <t>Danielle Welter</t>
+  </si>
+  <si>
     <t>IntellectualPropertyData</t>
   </si>
   <si>
@@ -536,9 +560,6 @@
   </si>
   <si>
     <t>Data protected by Intellectual Property rights and regulations</t>
-  </si>
-  <si>
-    <t>dpv:ConfidentialData</t>
   </si>
   <si>
     <t>SensitiveData</t>
@@ -2590,9 +2611,6 @@
   </si>
   <si>
     <t>Parent changed to pd:Location</t>
-  </si>
-  <si>
-    <t>modified</t>
   </si>
   <si>
     <t>Domicile</t>
@@ -3129,7 +3147,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -4965,7 +4983,7 @@
         <v>154</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>26</v>
@@ -4975,16 +4993,20 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K38" s="20">
         <v>45336.0</v>
       </c>
-      <c r="L38" s="12"/>
+      <c r="L38" s="20">
+        <v>45807.0</v>
+      </c>
       <c r="M38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -5002,13 +5024,13 @@
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>25</v>
@@ -5021,7 +5043,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K39" s="20">
         <v>45336.0</v>
@@ -5030,7 +5052,9 @@
       <c r="M39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="12"/>
+      <c r="N39" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -5048,16 +5072,16 @@
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>26</v>
@@ -5066,17 +5090,17 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="33" t="s">
-        <v>159</v>
-      </c>
+      <c r="J40" s="33"/>
       <c r="K40" s="20">
-        <v>45336.0</v>
+        <v>45807.0</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="12"/>
+      <c r="N40" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -5094,16 +5118,16 @@
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>26</v>
@@ -5112,7 +5136,9 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="33" t="s">
+        <v>162</v>
+      </c>
       <c r="K41" s="20">
         <v>45336.0</v>
       </c>
@@ -5138,16 +5164,16 @@
     </row>
     <row r="42">
       <c r="A42" s="31" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>26</v>
@@ -5156,9 +5182,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="34" t="s">
-        <v>171</v>
-      </c>
+      <c r="J42" s="12"/>
       <c r="K42" s="20">
         <v>45336.0</v>
       </c>
@@ -5184,16 +5208,16 @@
     </row>
     <row r="43">
       <c r="A43" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>26</v>
@@ -5202,8 +5226,8 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="33" t="s">
-        <v>175</v>
+      <c r="J43" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="K43" s="20">
         <v>45336.0</v>
@@ -5229,55 +5253,61 @@
       <c r="AB43" s="12"/>
     </row>
     <row r="44">
-      <c r="B44" s="23"/>
+      <c r="A44" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" s="20">
+        <v>45336.0</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46">
       <c r="A46" s="35" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="35" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>50</v>
@@ -5293,7 +5323,7 @@
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
       <c r="M46" s="35" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
@@ -5312,7 +5342,44 @@
       <c r="AB46" s="37"/>
     </row>
     <row r="47">
-      <c r="B47" s="23"/>
+      <c r="A47" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
     </row>
     <row r="48">
       <c r="B48" s="23"/>
@@ -7782,6 +7849,9 @@
     </row>
     <row r="870">
       <c r="B870" s="23"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:AB7">
@@ -7794,17 +7864,17 @@
       <formula>$M7="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB820">
+  <conditionalFormatting sqref="A2:AB821">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB820">
+  <conditionalFormatting sqref="A2:AB821">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB820">
+  <conditionalFormatting sqref="A2:AB821">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -7869,13 +7939,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7907,13 +7977,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -7922,7 +7992,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7957,13 +8027,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -7972,7 +8042,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -8005,22 +8075,22 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -8053,22 +8123,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -11124,13 +11194,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
@@ -11141,7 +11211,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -11154,7 +11224,7 @@
         <v>111</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -11172,13 +11242,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
@@ -11186,12 +11256,12 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -11204,7 +11274,7 @@
         <v>111</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -11222,13 +11292,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9" t="s">
@@ -11239,7 +11309,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -11252,7 +11322,7 @@
         <v>111</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -11270,13 +11340,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
@@ -11298,7 +11368,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -11316,13 +11386,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9" t="s">
@@ -11333,7 +11403,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -11346,7 +11416,7 @@
         <v>111</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -11364,13 +11434,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
@@ -11392,7 +11462,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -11410,13 +11480,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9" t="s">
@@ -11427,7 +11497,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -11440,7 +11510,7 @@
         <v>111</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -11458,13 +11528,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9" t="s">
@@ -11475,7 +11545,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -11488,7 +11558,7 @@
         <v>111</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15720,16 +15790,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>50</v>
@@ -15739,7 +15809,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -15752,7 +15822,7 @@
         <v>111</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -15770,16 +15840,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>50</v>
@@ -15789,7 +15859,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -15802,7 +15872,7 @@
         <v>111</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -15820,16 +15890,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15839,7 +15909,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -15852,7 +15922,7 @@
         <v>111</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15870,16 +15940,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>50</v>
@@ -15889,7 +15959,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15902,7 +15972,7 @@
         <v>111</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15920,16 +15990,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>50</v>
@@ -15950,7 +16020,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15968,16 +16038,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>50</v>
@@ -15998,7 +16068,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -16016,16 +16086,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>50</v>
@@ -16035,7 +16105,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -16048,7 +16118,7 @@
         <v>111</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -16066,16 +16136,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -16085,7 +16155,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -16098,7 +16168,7 @@
         <v>111</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -16116,16 +16186,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>50</v>
@@ -16135,7 +16205,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -16148,7 +16218,7 @@
         <v>111</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -16166,16 +16236,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>50</v>
@@ -16185,7 +16255,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -16198,7 +16268,7 @@
         <v>111</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -16216,16 +16286,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -16235,7 +16305,7 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="26" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K12" s="50">
         <v>44139.0</v>
@@ -16248,7 +16318,7 @@
         <v>121</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -16266,16 +16336,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>50</v>
@@ -16285,7 +16355,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -16298,7 +16368,7 @@
         <v>111</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -16316,28 +16386,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -16350,7 +16420,7 @@
         <v>111</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -16368,16 +16438,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>50</v>
@@ -16398,7 +16468,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -16416,16 +16486,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16446,7 +16516,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -16464,16 +16534,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16482,7 +16552,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="43">
@@ -16493,7 +16563,7 @@
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -16512,16 +16582,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16531,7 +16601,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -16544,7 +16614,7 @@
         <v>111</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -16562,16 +16632,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16581,7 +16651,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K19" s="13">
         <v>43620.0</v>
@@ -16594,7 +16664,7 @@
         <v>111</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16612,16 +16682,16 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
@@ -16642,7 +16712,7 @@
         <v>20</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16660,28 +16730,28 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K21" s="13">
         <v>43620.0</v>
@@ -16694,7 +16764,7 @@
         <v>111</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -16712,16 +16782,16 @@
     </row>
     <row r="22">
       <c r="A22" s="53" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C22" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>296</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>289</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16731,7 +16801,7 @@
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="26" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K22" s="50">
         <v>44139.0</v>
@@ -16744,7 +16814,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -16762,16 +16832,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16781,7 +16851,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -16794,7 +16864,7 @@
         <v>111</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -16812,16 +16882,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16831,7 +16901,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -16844,7 +16914,7 @@
         <v>111</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -16862,16 +16932,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16881,7 +16951,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16894,7 +16964,7 @@
         <v>111</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16912,16 +16982,16 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
@@ -16931,7 +17001,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16944,7 +17014,7 @@
         <v>111</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16962,28 +17032,28 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16996,7 +17066,7 @@
         <v>111</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -17014,16 +17084,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
@@ -17033,7 +17103,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -17046,7 +17116,7 @@
         <v>111</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -17064,28 +17134,28 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -17098,7 +17168,7 @@
         <v>111</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -17116,16 +17186,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -17135,7 +17205,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="10"/>
       <c r="J30" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -17148,7 +17218,7 @@
         <v>111</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -17166,16 +17236,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -17185,7 +17255,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -17198,7 +17268,7 @@
         <v>111</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -17216,16 +17286,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -17235,7 +17305,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -17248,7 +17318,7 @@
         <v>111</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -17266,16 +17336,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -17285,7 +17355,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -17298,7 +17368,7 @@
         <v>111</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -17316,16 +17386,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C34" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -17335,7 +17405,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -17348,7 +17418,7 @@
         <v>111</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -17366,16 +17436,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17385,7 +17455,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -17398,7 +17468,7 @@
         <v>111</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -17416,16 +17486,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17435,7 +17505,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -17448,7 +17518,7 @@
         <v>111</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -17466,16 +17536,16 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
@@ -17485,7 +17555,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -17498,7 +17568,7 @@
         <v>111</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -17516,28 +17586,28 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -17550,7 +17620,7 @@
         <v>111</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -17568,16 +17638,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17587,7 +17657,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -17600,7 +17670,7 @@
         <v>111</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -17618,16 +17688,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17637,7 +17707,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K40" s="13">
         <v>43620.0</v>
@@ -17650,7 +17720,7 @@
         <v>111</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -17668,16 +17738,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17714,16 +17784,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17733,7 +17803,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K42" s="13">
         <v>43620.0</v>
@@ -17746,7 +17816,7 @@
         <v>111</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17764,16 +17834,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17794,7 +17864,7 @@
         <v>20</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17812,16 +17882,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17831,7 +17901,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -17844,7 +17914,7 @@
         <v>111</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -17862,16 +17932,16 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17881,7 +17951,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K45" s="13">
         <v>43620.0</v>
@@ -17894,7 +17964,7 @@
         <v>111</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
@@ -17912,16 +17982,16 @@
     </row>
     <row r="46">
       <c r="A46" s="53" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
@@ -17931,7 +18001,7 @@
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
       <c r="J46" s="26" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K46" s="50">
         <v>44139.0</v>
@@ -17941,10 +18011,10 @@
         <v>19</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="O46" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P46" s="49"/>
       <c r="Q46" s="49"/>
@@ -17962,28 +18032,28 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K47" s="13">
         <v>43620.0</v>
@@ -17996,7 +18066,7 @@
         <v>111</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
@@ -18014,16 +18084,16 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="51" t="s">
         <v>381</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>382</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>374</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -18033,7 +18103,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="26" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -18043,10 +18113,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
@@ -18064,16 +18134,16 @@
     </row>
     <row r="49">
       <c r="A49" s="53" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -18083,7 +18153,7 @@
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
       <c r="J49" s="26" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K49" s="50">
         <v>44139.0</v>
@@ -18093,10 +18163,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="O49" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P49" s="49"/>
       <c r="Q49" s="49"/>
@@ -18114,16 +18184,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -18133,7 +18203,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K50" s="13">
         <v>43620.0</v>
@@ -18146,7 +18216,7 @@
         <v>111</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -18164,16 +18234,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -18194,7 +18264,7 @@
         <v>20</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -18212,16 +18282,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -18231,7 +18301,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -18244,7 +18314,7 @@
         <v>111</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -18262,16 +18332,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -18281,7 +18351,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -18294,7 +18364,7 @@
         <v>111</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -18312,16 +18382,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -18331,7 +18401,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -18344,7 +18414,7 @@
         <v>111</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -18362,16 +18432,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18381,7 +18451,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -18394,7 +18464,7 @@
         <v>111</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -18412,16 +18482,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18431,7 +18501,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -18444,7 +18514,7 @@
         <v>111</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -18462,16 +18532,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18481,7 +18551,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K57" s="13">
         <v>43620.0</v>
@@ -18494,7 +18564,7 @@
         <v>111</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18512,16 +18582,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18542,7 +18612,7 @@
         <v>20</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -18560,16 +18630,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18590,7 +18660,7 @@
         <v>20</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -18608,16 +18678,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18638,7 +18708,7 @@
         <v>20</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18656,16 +18726,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18675,7 +18745,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K61" s="13">
         <v>43620.0</v>
@@ -18688,7 +18758,7 @@
         <v>111</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18706,16 +18776,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18736,7 +18806,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -18754,16 +18824,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18784,7 +18854,7 @@
         <v>20</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18802,16 +18872,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18821,7 +18891,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -18834,7 +18904,7 @@
         <v>111</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -18852,16 +18922,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18898,16 +18968,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18917,7 +18987,7 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K66" s="13">
         <v>43620.0</v>
@@ -18930,7 +19000,7 @@
         <v>111</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18948,16 +19018,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18967,7 +19037,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18980,7 +19050,7 @@
         <v>111</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18998,16 +19068,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -19028,7 +19098,7 @@
         <v>20</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -19046,16 +19116,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -19092,16 +19162,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -19111,7 +19181,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -19124,7 +19194,7 @@
         <v>111</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -19142,16 +19212,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -19161,7 +19231,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -19174,7 +19244,7 @@
         <v>111</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -19192,16 +19262,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -19211,7 +19281,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -19224,7 +19294,7 @@
         <v>111</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -19242,16 +19312,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -19261,7 +19331,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -19274,7 +19344,7 @@
         <v>111</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -19292,16 +19362,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -19311,7 +19381,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -19324,7 +19394,7 @@
         <v>111</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -19342,16 +19412,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19361,7 +19431,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -19374,7 +19444,7 @@
         <v>111</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -19392,16 +19462,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19411,7 +19481,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -19424,7 +19494,7 @@
         <v>111</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -19442,16 +19512,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19461,7 +19531,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K77" s="13">
         <v>43620.0</v>
@@ -19474,7 +19544,7 @@
         <v>111</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19492,16 +19562,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19511,7 +19581,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -19524,7 +19594,7 @@
         <v>111</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19542,16 +19612,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19561,7 +19631,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -19574,7 +19644,7 @@
         <v>111</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -19592,16 +19662,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C80" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19622,7 +19692,7 @@
         <v>20</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19640,16 +19710,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19659,7 +19729,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -19672,7 +19742,7 @@
         <v>111</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -19690,16 +19760,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19709,7 +19779,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K82" s="13">
         <v>43620.0</v>
@@ -19722,7 +19792,7 @@
         <v>111</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19740,16 +19810,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19759,7 +19829,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -19772,7 +19842,7 @@
         <v>111</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19790,16 +19860,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19809,7 +19879,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -19822,7 +19892,7 @@
         <v>111</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -19840,16 +19910,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19870,7 +19940,7 @@
         <v>20</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19888,16 +19958,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19907,7 +19977,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19920,7 +19990,7 @@
         <v>111</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19938,16 +20008,16 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
@@ -19957,7 +20027,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19970,7 +20040,7 @@
         <v>111</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19988,16 +20058,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -20007,7 +20077,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -20020,7 +20090,7 @@
         <v>111</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -20038,16 +20108,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -20057,7 +20127,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -20070,7 +20140,7 @@
         <v>111</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -20088,28 +20158,28 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -20122,7 +20192,7 @@
         <v>111</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -20140,16 +20210,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -20159,7 +20229,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -20172,7 +20242,7 @@
         <v>111</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -20190,16 +20260,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -20209,7 +20279,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K92" s="13">
         <v>43620.0</v>
@@ -20222,7 +20292,7 @@
         <v>111</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -20240,16 +20310,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -20259,7 +20329,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K93" s="13">
         <v>43620.0</v>
@@ -20272,7 +20342,7 @@
         <v>111</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -20290,16 +20360,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -20309,7 +20379,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -20322,7 +20392,7 @@
         <v>111</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20340,16 +20410,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20370,7 +20440,7 @@
         <v>20</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20388,16 +20458,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20418,7 +20488,7 @@
         <v>20</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20436,16 +20506,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20455,7 +20525,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -20468,7 +20538,7 @@
         <v>111</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -20486,16 +20556,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20505,7 +20575,7 @@
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K98" s="13">
         <v>43620.0</v>
@@ -20518,7 +20588,7 @@
         <v>111</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20536,16 +20606,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20555,7 +20625,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -20568,7 +20638,7 @@
         <v>111</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20586,16 +20656,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20605,7 +20675,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -20618,7 +20688,7 @@
         <v>111</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -20636,16 +20706,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20666,7 +20736,7 @@
         <v>20</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20684,16 +20754,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20703,7 +20773,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -20716,7 +20786,7 @@
         <v>111</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -20734,16 +20804,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20753,7 +20823,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -20766,7 +20836,7 @@
         <v>111</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -20784,16 +20854,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20803,7 +20873,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -20816,7 +20886,7 @@
         <v>111</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -20834,16 +20904,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20853,7 +20923,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20866,7 +20936,7 @@
         <v>111</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -20884,16 +20954,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20903,7 +20973,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20916,7 +20986,7 @@
         <v>111</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20934,16 +21004,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20953,7 +21023,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20966,7 +21036,7 @@
         <v>111</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20984,16 +21054,16 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
@@ -21003,7 +21073,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -21018,7 +21088,7 @@
         <v>111</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -21036,16 +21106,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -21055,7 +21125,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -21068,7 +21138,7 @@
         <v>111</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -21086,16 +21156,16 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
@@ -21105,7 +21175,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -21118,7 +21188,7 @@
         <v>111</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -21136,28 +21206,28 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -21170,7 +21240,7 @@
         <v>111</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -21188,16 +21258,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -21207,7 +21277,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -21220,7 +21290,7 @@
         <v>111</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -21238,28 +21308,28 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -21272,7 +21342,7 @@
         <v>111</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -21290,16 +21360,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -21309,7 +21379,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -21322,7 +21392,7 @@
         <v>111</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -21340,16 +21410,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21359,7 +21429,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -21372,7 +21442,7 @@
         <v>111</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -21390,16 +21460,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21409,7 +21479,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K116" s="13">
         <v>43620.0</v>
@@ -21422,7 +21492,7 @@
         <v>111</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21440,16 +21510,16 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
@@ -21459,7 +21529,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -21472,7 +21542,7 @@
         <v>111</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21490,16 +21560,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
@@ -21536,16 +21606,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21555,7 +21625,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -21568,7 +21638,7 @@
         <v>111</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -21586,16 +21656,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21614,7 +21684,7 @@
       </c>
       <c r="N120" s="12"/>
       <c r="O120" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21632,28 +21702,28 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -21666,7 +21736,7 @@
         <v>111</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -21684,16 +21754,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21703,7 +21773,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K122" s="13">
         <v>43620.0</v>
@@ -21716,7 +21786,7 @@
         <v>111</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21734,16 +21804,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21753,7 +21823,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -21766,7 +21836,7 @@
         <v>111</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21784,16 +21854,16 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21803,7 +21873,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
       <c r="J124" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K124" s="13">
         <v>43620.0</v>
@@ -21816,7 +21886,7 @@
         <v>111</v>
       </c>
       <c r="O124" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
@@ -21834,16 +21904,16 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21853,7 +21923,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K125" s="13">
         <v>43620.0</v>
@@ -21866,7 +21936,7 @@
         <v>111</v>
       </c>
       <c r="O125" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P125" s="12"/>
       <c r="Q125" s="12"/>
@@ -21884,16 +21954,16 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21914,7 +21984,7 @@
         <v>20</v>
       </c>
       <c r="O126" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
@@ -21932,16 +22002,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -21951,7 +22021,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
       <c r="J127" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K127" s="13">
         <v>43620.0</v>
@@ -21964,7 +22034,7 @@
         <v>111</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21982,16 +22052,16 @@
     </row>
     <row r="128">
       <c r="A128" s="53" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B128" s="54" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D128" s="51" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -22001,7 +22071,7 @@
       <c r="H128" s="49"/>
       <c r="I128" s="49"/>
       <c r="J128" s="26" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="K128" s="50">
         <v>44139.0</v>
@@ -22014,7 +22084,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P128" s="49"/>
       <c r="Q128" s="49"/>
@@ -22032,16 +22102,16 @@
     </row>
     <row r="129">
       <c r="A129" s="53" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="B129" s="54" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D129" s="51" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -22051,7 +22121,7 @@
       <c r="H129" s="49"/>
       <c r="I129" s="49"/>
       <c r="J129" s="26" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="K129" s="50">
         <v>44139.0</v>
@@ -22064,7 +22134,7 @@
         <v>121</v>
       </c>
       <c r="O129" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P129" s="49"/>
       <c r="Q129" s="49"/>
@@ -22082,16 +22152,16 @@
     </row>
     <row r="130">
       <c r="A130" s="53" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B130" s="54" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -22101,7 +22171,7 @@
       <c r="H130" s="49"/>
       <c r="I130" s="49"/>
       <c r="J130" s="26" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="K130" s="50">
         <v>44139.0</v>
@@ -22114,7 +22184,7 @@
         <v>121</v>
       </c>
       <c r="O130" s="52" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P130" s="49"/>
       <c r="Q130" s="49"/>
@@ -22132,16 +22202,16 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>50</v>
@@ -22162,7 +22232,7 @@
         <v>20</v>
       </c>
       <c r="O131" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
@@ -22180,16 +22250,16 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
@@ -22210,7 +22280,7 @@
         <v>20</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -22228,16 +22298,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
@@ -22247,7 +22317,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -22260,7 +22330,7 @@
         <v>111</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -22278,16 +22348,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -22297,7 +22367,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -22310,7 +22380,7 @@
         <v>111</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -22328,28 +22398,28 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -22362,7 +22432,7 @@
         <v>111</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -22380,16 +22450,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22399,7 +22469,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -22412,7 +22482,7 @@
         <v>111</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -22430,16 +22500,16 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
@@ -22449,7 +22519,7 @@
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -22462,7 +22532,7 @@
         <v>111</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -22480,16 +22550,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22499,7 +22569,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -22512,7 +22582,7 @@
         <v>111</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -22530,16 +22600,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22549,7 +22619,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -22562,7 +22632,7 @@
         <v>111</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -22580,16 +22650,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22599,7 +22669,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
@@ -22612,7 +22682,7 @@
         <v>111</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -22630,28 +22700,28 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -22664,7 +22734,7 @@
         <v>111</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -22682,16 +22752,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22701,7 +22771,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -22714,7 +22784,7 @@
         <v>111</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -22732,16 +22802,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22751,7 +22821,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -22764,7 +22834,7 @@
         <v>111</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -22782,16 +22852,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22801,7 +22871,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22816,7 +22886,7 @@
         <v>111</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22834,16 +22904,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22853,7 +22923,7 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K146" s="13">
         <v>43620.0</v>
@@ -22866,7 +22936,7 @@
         <v>111</v>
       </c>
       <c r="O146" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
@@ -22884,16 +22954,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22903,7 +22973,7 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K147" s="13">
         <v>43620.0</v>
@@ -22916,7 +22986,7 @@
         <v>111</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
@@ -22934,16 +23004,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22953,7 +23023,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22966,7 +23036,7 @@
         <v>111</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22984,16 +23054,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -23003,7 +23073,7 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K149" s="13">
         <v>43620.0</v>
@@ -23016,7 +23086,7 @@
         <v>111</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -23034,16 +23104,16 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
@@ -23080,16 +23150,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -23126,16 +23196,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -23145,7 +23215,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -23158,7 +23228,7 @@
         <v>111</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -23176,16 +23246,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -23206,7 +23276,7 @@
         <v>20</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -23224,28 +23294,28 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
       <c r="J154" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K154" s="13">
         <v>43620.0</v>
@@ -23258,7 +23328,7 @@
         <v>111</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -23276,16 +23346,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -23295,7 +23365,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -23308,7 +23378,7 @@
         <v>111</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -23326,16 +23396,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23345,7 +23415,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -23358,7 +23428,7 @@
         <v>111</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -23376,16 +23446,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23395,7 +23465,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -23408,7 +23478,7 @@
         <v>111</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -23426,16 +23496,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23456,7 +23526,7 @@
         <v>20</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23474,16 +23544,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23493,7 +23563,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -23506,7 +23576,7 @@
         <v>111</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -23524,16 +23594,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23543,7 +23613,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K160" s="13">
         <v>43620.0</v>
@@ -23556,7 +23626,7 @@
         <v>111</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23574,16 +23644,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23593,7 +23663,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K161" s="13">
         <v>43620.0</v>
@@ -23606,7 +23676,7 @@
         <v>111</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23624,16 +23694,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23643,7 +23713,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -23656,7 +23726,7 @@
         <v>111</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -23674,16 +23744,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23693,7 +23763,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -23706,7 +23776,7 @@
         <v>111</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -23724,16 +23794,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23743,7 +23813,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="16" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="K164" s="13">
         <v>43795.0</v>
@@ -23753,10 +23823,10 @@
         <v>19</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23774,16 +23844,16 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
@@ -23793,7 +23863,7 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -23806,7 +23876,7 @@
         <v>111</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23824,16 +23894,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23843,7 +23913,7 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K166" s="13">
         <v>43620.0</v>
@@ -23856,7 +23926,7 @@
         <v>111</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23874,16 +23944,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23893,7 +23963,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K167" s="13">
         <v>43620.0</v>
@@ -23906,7 +23976,7 @@
         <v>111</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23924,16 +23994,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23943,7 +24013,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23956,7 +24026,7 @@
         <v>111</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23974,28 +24044,28 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -24008,7 +24078,7 @@
         <v>111</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -24026,16 +24096,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -24056,7 +24126,7 @@
         <v>20</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -24074,16 +24144,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -24093,7 +24163,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -24106,7 +24176,7 @@
         <v>111</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -24124,16 +24194,16 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -24143,7 +24213,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -24156,7 +24226,7 @@
         <v>111</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -24174,16 +24244,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -24193,7 +24263,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -24206,7 +24276,7 @@
         <v>111</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -24224,16 +24294,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -24243,7 +24313,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -24256,7 +24326,7 @@
         <v>111</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -24274,16 +24344,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -24293,7 +24363,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K175" s="13">
         <v>43620.0</v>
@@ -24306,7 +24376,7 @@
         <v>111</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -24324,16 +24394,16 @@
     </row>
     <row r="176">
       <c r="A176" s="47" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C176" s="46" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24343,7 +24413,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K176" s="13">
         <v>43620.0</v>
@@ -24356,7 +24426,7 @@
         <v>111</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24374,16 +24444,16 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
@@ -24393,7 +24463,7 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K177" s="13">
         <v>43620.0</v>
@@ -24406,7 +24476,7 @@
         <v>111</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24424,16 +24494,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24443,7 +24513,7 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K178" s="13">
         <v>43620.0</v>
@@ -24456,7 +24526,7 @@
         <v>111</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P178" s="12"/>
       <c r="Q178" s="12"/>
@@ -24474,16 +24544,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24504,7 +24574,7 @@
         <v>20</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -24522,16 +24592,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24541,7 +24611,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="16" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="K180" s="13">
         <v>43795.0</v>
@@ -24551,10 +24621,10 @@
         <v>19</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24572,28 +24642,28 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K181" s="13">
         <v>43620.0</v>
@@ -24606,7 +24676,7 @@
         <v>111</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24624,16 +24694,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="C182" s="59" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24654,7 +24724,7 @@
         <v>121</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P182" s="60"/>
       <c r="Q182" s="60"/>
@@ -24672,16 +24742,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24691,7 +24761,7 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
       <c r="J183" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K183" s="13">
         <v>43620.0</v>
@@ -24704,7 +24774,7 @@
         <v>111</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24722,16 +24792,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24752,7 +24822,7 @@
         <v>20</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -24770,16 +24840,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24800,7 +24870,7 @@
         <v>20</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24818,16 +24888,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24848,7 +24918,7 @@
         <v>20</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24866,16 +24936,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24896,7 +24966,7 @@
         <v>20</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24914,16 +24984,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24944,7 +25014,7 @@
         <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24962,16 +25032,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="C189" s="47" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24981,7 +25051,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="28"/>
       <c r="J189" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K189" s="13">
         <v>43620.0</v>
@@ -24994,7 +25064,7 @@
         <v>111</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -25012,16 +25082,16 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>50</v>
@@ -25031,7 +25101,7 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K190" s="13">
         <v>43620.0</v>
@@ -25044,7 +25114,7 @@
         <v>111</v>
       </c>
       <c r="O190" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
@@ -25062,16 +25132,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>50</v>
@@ -25081,7 +25151,7 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K191" s="13">
         <v>43620.0</v>
@@ -25094,7 +25164,7 @@
         <v>111</v>
       </c>
       <c r="O191" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
@@ -25112,16 +25182,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -25142,7 +25212,7 @@
         <v>20</v>
       </c>
       <c r="O192" s="14" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
@@ -25160,16 +25230,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -25179,7 +25249,7 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K193" s="13">
         <v>43620.0</v>
@@ -25192,7 +25262,7 @@
         <v>111</v>
       </c>
       <c r="O193" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P193" s="12"/>
       <c r="Q193" s="12"/>
@@ -25214,16 +25284,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -25260,16 +25330,16 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="C196" s="61" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>50</v>
@@ -25278,7 +25348,7 @@
       <c r="G196" s="60"/>
       <c r="H196" s="60"/>
       <c r="I196" s="30" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="J196" s="60"/>
       <c r="K196" s="43">
@@ -25288,10 +25358,10 @@
         <v>45504.0</v>
       </c>
       <c r="M196" s="30" t="s">
-        <v>809</v>
+        <v>157</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="O196" s="60"/>
       <c r="P196" s="60"/>
@@ -25310,16 +25380,16 @@
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C197" s="61" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>50</v>
@@ -25328,7 +25398,7 @@
       <c r="G197" s="60"/>
       <c r="H197" s="60"/>
       <c r="I197" s="30" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="J197" s="60"/>
       <c r="K197" s="43">
@@ -25338,10 +25408,10 @@
         <v>45504.0</v>
       </c>
       <c r="M197" s="30" t="s">
-        <v>809</v>
+        <v>157</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="O197" s="60"/>
       <c r="P197" s="60"/>
@@ -25360,28 +25430,28 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="K198" s="43">
         <v>45402.0</v>
       </c>
       <c r="M198" s="30" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>20</v>
@@ -25389,28 +25459,28 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K199" s="43">
         <v>45402.0</v>
       </c>
       <c r="M199" s="30" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>20</v>
@@ -25422,23 +25492,23 @@
     </row>
     <row r="201">
       <c r="A201" s="9" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B201" s="23"/>
       <c r="E201" s="44"/>
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
@@ -25448,7 +25518,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -25461,7 +25531,7 @@
         <v>111</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -25479,16 +25549,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25498,7 +25568,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K203" s="13">
         <v>43620.0</v>
@@ -25511,7 +25581,7 @@
         <v>111</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25529,16 +25599,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25548,7 +25618,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -25561,7 +25631,7 @@
         <v>111</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25579,16 +25649,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25598,7 +25668,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -25611,7 +25681,7 @@
         <v>111</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -25629,28 +25699,28 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K206" s="13">
         <v>43620.0</v>
@@ -25663,7 +25733,7 @@
         <v>111</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25681,16 +25751,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25711,7 +25781,7 @@
         <v>20</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25729,16 +25799,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25748,7 +25818,7 @@
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
       <c r="J208" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K208" s="13">
         <v>43620.0</v>
@@ -25761,7 +25831,7 @@
         <v>111</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25779,16 +25849,16 @@
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>50</v>
@@ -25798,7 +25868,7 @@
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
       <c r="J209" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K209" s="13">
         <v>43620.0</v>
@@ -25811,7 +25881,7 @@
         <v>111</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
@@ -25829,16 +25899,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25848,7 +25918,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -25861,7 +25931,7 @@
         <v>111</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -25879,16 +25949,16 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>50</v>
@@ -25898,7 +25968,7 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K211" s="13">
         <v>43620.0</v>
@@ -25911,7 +25981,7 @@
         <v>111</v>
       </c>
       <c r="O211" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P211" s="12"/>
       <c r="Q211" s="12"/>
@@ -25929,16 +25999,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>50</v>
@@ -25959,7 +26029,7 @@
         <v>20</v>
       </c>
       <c r="O212" s="14" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="P212" s="12"/>
       <c r="Q212" s="12"/>
@@ -25989,16 +26059,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>50</v>
@@ -26008,7 +26078,7 @@
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
       <c r="J214" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K214" s="13">
         <v>43620.0</v>
@@ -26020,10 +26090,10 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="O214" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P214" s="12"/>
       <c r="Q214" s="12"/>
@@ -26041,16 +26111,16 @@
     </row>
     <row r="215">
       <c r="A215" s="35" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B215" s="35" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D215" s="35" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E215" s="35" t="s">
         <v>50</v>
@@ -26064,7 +26134,7 @@
       <c r="L215" s="37"/>
       <c r="M215" s="35"/>
       <c r="N215" s="35" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O215" s="37"/>
       <c r="P215" s="37"/>
@@ -26083,16 +26153,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -26110,7 +26180,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -26129,16 +26199,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -26156,7 +26226,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -26175,16 +26245,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="D218" s="10" t="s">
         <v>870</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>864</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -26202,7 +26272,7 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O218" s="12"/>
       <c r="P218" s="12"/>
@@ -26221,16 +26291,16 @@
     </row>
     <row r="219">
       <c r="A219" s="10" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>50</v>
@@ -26248,7 +26318,7 @@
         <v>19</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
@@ -26267,16 +26337,16 @@
     </row>
     <row r="220">
       <c r="A220" s="10" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>50</v>
@@ -26294,7 +26364,7 @@
         <v>19</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O220" s="12"/>
       <c r="P220" s="12"/>
@@ -26313,16 +26383,16 @@
     </row>
     <row r="221">
       <c r="A221" s="10" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>50</v>
@@ -26340,7 +26410,7 @@
         <v>19</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="O221" s="12"/>
       <c r="P221" s="12"/>
@@ -26359,16 +26429,16 @@
     </row>
     <row r="222">
       <c r="A222" s="10" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>50</v>
@@ -26378,7 +26448,7 @@
       <c r="H222" s="12"/>
       <c r="I222" s="12"/>
       <c r="J222" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K222" s="13">
         <v>43620.0</v>
@@ -26390,10 +26460,10 @@
         <v>19</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="O222" s="14" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P222" s="12"/>
       <c r="Q222" s="12"/>
@@ -29289,7 +29359,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -29307,110 +29377,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -541,7 +541,7 @@
     <t>Beatriz Esteves, Harshvardhan J. Pandit</t>
   </si>
   <si>
-    <t>ProfesionalConfidentialData</t>
+    <t>ProfessionalConfidentialData</t>
   </si>
   <si>
     <t>Professional Confidential Data</t>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -89,7 +89,7 @@
     <t>Personal Data</t>
   </si>
   <si>
-    <t>Data directly or indirectly associated or related to an individual.</t>
+    <t>Data directly or indirectly associated or related to an individual</t>
   </si>
   <si>
     <t>dpv:Data</t>
@@ -511,7 +511,7 @@
     <t>Commercially Confidential Data</t>
   </si>
   <si>
-    <t>Data that is considered confidentialdue to business/trade secrets, confidentiality agreements, or company secrets</t>
+    <t>Data that is considered confidential due to business/trade secrets, confidentiality agreements, or company secrets</t>
   </si>
   <si>
     <t>dpv:ConfidentialData</t>
@@ -715,7 +715,7 @@
     <t>Social</t>
   </si>
   <si>
-    <t>Information about social aspects such as family, public life, or professional networks.</t>
+    <t>Information about social aspects such as family, public life, or professional networks</t>
   </si>
   <si>
     <t>Tracking</t>
@@ -727,7 +727,7 @@
     <t>Accent</t>
   </si>
   <si>
-    <t>Information about linguistic and speech accents.</t>
+    <t>Information about linguistic and speech accents</t>
   </si>
   <si>
     <t>pd:Language</t>
@@ -739,7 +739,7 @@
     <t>Account Identifier</t>
   </si>
   <si>
-    <t>Information about financial account identifier.</t>
+    <t>Information about financial account identifier</t>
   </si>
   <si>
     <t>pd:FinancialAccount</t>
@@ -751,7 +751,7 @@
     <t>Acquaintance</t>
   </si>
   <si>
-    <t>Information about acquaintances in a social network.</t>
+    <t>Information about acquaintances in a social network</t>
   </si>
   <si>
     <t>pd:SocialNetwork</t>
@@ -814,7 +814,7 @@
     <t>Attitude</t>
   </si>
   <si>
-    <t>Information about attitude.</t>
+    <t>Information about attitude</t>
   </si>
   <si>
     <t>pd:Behavioral</t>
@@ -835,7 +835,7 @@
     <t>Authentication History</t>
   </si>
   <si>
-    <t>Information about prior authentication and its outcomes such as login attempts or location.</t>
+    <t>Information about prior authentication and its outcomes such as login attempts or location</t>
   </si>
   <si>
     <r>
@@ -862,7 +862,7 @@
     <t>Bank Account</t>
   </si>
   <si>
-    <t>Information about bank accounts.</t>
+    <t>Information about bank accounts</t>
   </si>
   <si>
     <t>Behavioral</t>
@@ -922,7 +922,7 @@
     <t>Blood Type</t>
   </si>
   <si>
-    <t>Information about blood type.</t>
+    <t>Information about blood type</t>
   </si>
   <si>
     <t>pd:MedicalHealth</t>
@@ -958,7 +958,7 @@
     <t>Browsing Behavior</t>
   </si>
   <si>
-    <t>Information about browsing Behavior.</t>
+    <t>Information about browsing Behavior</t>
   </si>
   <si>
     <t>svd:OnlineActivity</t>
@@ -994,7 +994,7 @@
     <t>Call Log</t>
   </si>
   <si>
-    <t>Information about the calls that an individual has made.</t>
+    <t>Information about the calls that an individual has made</t>
   </si>
   <si>
     <t>CarOwned</t>
@@ -1003,7 +1003,7 @@
     <t>Car Owned</t>
   </si>
   <si>
-    <t>Information about cars ownership and ownership history.</t>
+    <t>Information about cars ownership and ownership history</t>
   </si>
   <si>
     <t>pd:Ownership</t>
@@ -1060,7 +1060,7 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Information about country e.g. residence, travel.</t>
+    <t>Information about country e.g. residence, travel</t>
   </si>
   <si>
     <t>Credit</t>
@@ -1078,7 +1078,7 @@
     <t>Credit Capacity</t>
   </si>
   <si>
-    <t>Information about credit capacity.</t>
+    <t>Information about credit capacity</t>
   </si>
   <si>
     <t>pd:Credit</t>
@@ -1102,7 +1102,7 @@
     <t>Credit Record</t>
   </si>
   <si>
-    <t>Information about credit record.</t>
+    <t>Information about credit record</t>
   </si>
   <si>
     <t>CreditScore</t>
@@ -1111,7 +1111,7 @@
     <t>Credit Score</t>
   </si>
   <si>
-    <t>Information about credit score.</t>
+    <t>Information about credit score</t>
   </si>
   <si>
     <t>pd:CreditWorthiness</t>
@@ -1123,7 +1123,7 @@
     <t>Credit Standing</t>
   </si>
   <si>
-    <t>Information about credit standing.</t>
+    <t>Information about credit standing</t>
   </si>
   <si>
     <t>CreditWorthiness</t>
@@ -1132,7 +1132,7 @@
     <t>Credit Worthiness</t>
   </si>
   <si>
-    <t>Information about credit worthiness.</t>
+    <t>Information about credit worthiness</t>
   </si>
   <si>
     <t>Criminal</t>
@@ -1150,7 +1150,7 @@
     <t>Criminal Charge</t>
   </si>
   <si>
-    <t>Information about criminal charges.</t>
+    <t>Information about criminal charges</t>
   </si>
   <si>
     <t>pd:Criminal</t>
@@ -1162,7 +1162,7 @@
     <t>Criminal Conviction</t>
   </si>
   <si>
-    <t>Information about criminal convictions.</t>
+    <t>Information about criminal convictions</t>
   </si>
   <si>
     <t>CriminalOffense</t>
@@ -1180,7 +1180,7 @@
     <t>Criminal Pardon</t>
   </si>
   <si>
-    <t>Information about criminal pardons.</t>
+    <t>Information about criminal pardons</t>
   </si>
   <si>
     <t>CurrentEmployment</t>
@@ -1198,7 +1198,7 @@
     <t>Demeanor</t>
   </si>
   <si>
-    <t>Information about demeanor.</t>
+    <t>Information about demeanor</t>
   </si>
   <si>
     <t>Demographic</t>
@@ -1213,7 +1213,7 @@
     <t>Device Applications</t>
   </si>
   <si>
-    <t>Information about applications or application-like software on a device.</t>
+    <t>Information about applications or application-like software on a device</t>
   </si>
   <si>
     <t>pd:DeviceSoftware</t>
@@ -1282,7 +1282,7 @@
     <t>Device Software</t>
   </si>
   <si>
-    <t>Information about software on or related to a device.</t>
+    <t>Information about software on or related to a device</t>
   </si>
   <si>
     <r>
@@ -1303,7 +1303,7 @@
     <t>Dialect</t>
   </si>
   <si>
-    <t>Information about linguistic dialects.</t>
+    <t>Information about linguistic dialects</t>
   </si>
   <si>
     <t>DigitalFingerprint</t>
@@ -1318,7 +1318,7 @@
     <t>Disability</t>
   </si>
   <si>
-    <t>Information about disabilities.</t>
+    <t>Information about disabilities</t>
   </si>
   <si>
     <t>DisciplinaryAction</t>
@@ -1336,7 +1336,7 @@
     <t>Dislike</t>
   </si>
   <si>
-    <t>Information about dislikes or preferences regarding repulsions.</t>
+    <t>Information about dislikes or preferences regarding repulsions</t>
   </si>
   <si>
     <t>pd:Interest</t>
@@ -1345,7 +1345,7 @@
     <t>Divorce</t>
   </si>
   <si>
-    <t>Information about divorce(s).</t>
+    <t>Information about divorce(s)</t>
   </si>
   <si>
     <t>pd:FamilyStructure</t>
@@ -1357,7 +1357,7 @@
     <t>DNA Code</t>
   </si>
   <si>
-    <t>Information about DNA.</t>
+    <t>Information about DNA</t>
   </si>
   <si>
     <t>DrugTestResult</t>
@@ -1366,7 +1366,7 @@
     <t>Drug Test Result</t>
   </si>
   <si>
-    <t>Information about drug test results.</t>
+    <t>Information about drug test results</t>
   </si>
   <si>
     <t>Education</t>
@@ -1402,7 +1402,7 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Information about Email address.</t>
+    <t>Information about Email address</t>
   </si>
   <si>
     <t>pd:Contact</t>
@@ -1435,7 +1435,7 @@
     <t>Email Content</t>
   </si>
   <si>
-    <t>Information about the contents of Emails sent or received</t>
+    <t>Information about the contents of emails sent or received</t>
   </si>
   <si>
     <t>pd:Communication</t>
@@ -1495,7 +1495,7 @@
     <t>Family Health History</t>
   </si>
   <si>
-    <t>Information about family health history.</t>
+    <t>Information about family health history</t>
   </si>
   <si>
     <t>pd:HealthHistory</t>
@@ -1507,7 +1507,7 @@
     <t>Family Structure</t>
   </si>
   <si>
-    <t>Information about family and familial structure.</t>
+    <t>Information about family and familial structure</t>
   </si>
   <si>
     <t>pd:Family</t>
@@ -1528,7 +1528,7 @@
     <t>Favorite Color</t>
   </si>
   <si>
-    <t>Information about favorite color.</t>
+    <t>Information about favorite color</t>
   </si>
   <si>
     <t>pd:Favorite</t>
@@ -1540,7 +1540,7 @@
     <t>Favorite Food</t>
   </si>
   <si>
-    <t>Information about favorite food.</t>
+    <t>Information about favorite food</t>
   </si>
   <si>
     <t>FavoriteMusic</t>
@@ -1549,7 +1549,7 @@
     <t>Favorite Music</t>
   </si>
   <si>
-    <t>Information about favorite music.</t>
+    <t>Information about favorite music</t>
   </si>
   <si>
     <t>Fetish</t>
@@ -1567,7 +1567,7 @@
     <t>Financial Account</t>
   </si>
   <si>
-    <t>Information about financial accounts.</t>
+    <t>Information about financial accounts</t>
   </si>
   <si>
     <t>pd:Financial</t>
@@ -1597,13 +1597,13 @@
     <t>Fingerprint</t>
   </si>
   <si>
-    <t>Information about fingerprint used for biometric purposes.</t>
+    <t>Information about fingerprint used for biometric purposes</t>
   </si>
   <si>
     <t>Friend</t>
   </si>
   <si>
-    <t>Information about friends in a social network, including aspects of friendships such as years together or nature of friendship.</t>
+    <t>Information about friends in a social network, including aspects of friendships such as years together or nature of friendship</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1672,7 +1672,7 @@
     <t>Health</t>
   </si>
   <si>
-    <t>Information about health.</t>
+    <t>Information about health</t>
   </si>
   <si>
     <t>svd:Health</t>
@@ -1684,7 +1684,7 @@
     <t>Health History</t>
   </si>
   <si>
-    <t>Information about health history.</t>
+    <t>Information about health history</t>
   </si>
   <si>
     <t>HealthRecord</t>
@@ -1693,7 +1693,7 @@
     <t>Health Record</t>
   </si>
   <si>
-    <t>Information about health record.</t>
+    <t>Information about health record</t>
   </si>
   <si>
     <t>Height</t>
@@ -1708,7 +1708,7 @@
     <t>House Owned</t>
   </si>
   <si>
-    <t>Information about house(s) owned and ownership history.</t>
+    <t>Information about house(s) owned and ownership history</t>
   </si>
   <si>
     <t>PastEmployment</t>
@@ -1744,7 +1744,7 @@
     <t>Income Bracket</t>
   </si>
   <si>
-    <t>Information about income bracket.</t>
+    <t>Information about income bracket</t>
   </si>
   <si>
     <t>IndividualHealthHistory</t>
@@ -1753,7 +1753,7 @@
     <t>Individual Health History</t>
   </si>
   <si>
-    <t>Information about information health history.</t>
+    <t>Information about information health history</t>
   </si>
   <si>
     <t>Insurance</t>
@@ -1807,7 +1807,7 @@
     <t>Language</t>
   </si>
   <si>
-    <t>Information about language and lingual history.</t>
+    <t>Information about language and lingual history</t>
   </si>
   <si>
     <t>LifeHistory</t>
@@ -1825,7 +1825,7 @@
     <t>Like</t>
   </si>
   <si>
-    <t>Information about likes or preferences regarding attractions.</t>
+    <t>Information about likes or preferences regarding attractions</t>
   </si>
   <si>
     <t>LinkClicked</t>
@@ -1834,7 +1834,7 @@
     <t>Link Clicked</t>
   </si>
   <si>
-    <t>Information about the links that an individual has clicked.</t>
+    <t>Information about the links that an individual has clicked</t>
   </si>
   <si>
     <t>svd:Navigation</t>
@@ -1879,7 +1879,7 @@
     <t>Marriage</t>
   </si>
   <si>
-    <t>Information about marriage(s).</t>
+    <t>Information about marriage(s)</t>
   </si>
   <si>
     <t>MentalHealth</t>
@@ -1888,7 +1888,7 @@
     <t>Mental Health</t>
   </si>
   <si>
-    <t>Information about mental health.</t>
+    <t>Information about mental health</t>
   </si>
   <si>
     <t>Mood</t>
@@ -1900,7 +1900,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Information about names associated or used as given name or nickname.</t>
+    <t>Information about names associated or used as given name or nickname</t>
   </si>
   <si>
     <t>pd:Identifying</t>
@@ -1918,7 +1918,7 @@
     <t>Official ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Information about an official identifier or identification document </t>
+    <t>Information about an official identifier or identification document</t>
   </si>
   <si>
     <t>svd:Government</t>
@@ -1927,7 +1927,7 @@
     <t>Offspring</t>
   </si>
   <si>
-    <t>Information about offspring(s).</t>
+    <t>Information about offspring(s)</t>
   </si>
   <si>
     <t>Opinion</t>
@@ -1939,13 +1939,13 @@
     <t>Ownership</t>
   </si>
   <si>
-    <t>Information about ownership and history, including renting, borrowing, possessions.</t>
+    <t>Information about ownership and history, including renting, borrowing, possessions</t>
   </si>
   <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>Information about parent(s).</t>
+    <t>Information about parent(s)</t>
   </si>
   <si>
     <t>Passport</t>
@@ -1972,7 +1972,7 @@
     <t>Payment Card</t>
   </si>
   <si>
-    <t>Information about payment card such as Credit Card, Debit Card.</t>
+    <t>Information about payment card such as Credit Card, Debit Card</t>
   </si>
   <si>
     <r>
@@ -1996,7 +1996,7 @@
     <t>Payment Card Expiry</t>
   </si>
   <si>
-    <t>Information about payment card expiry such as a date.</t>
+    <t>Information about payment card expiry such as a date</t>
   </si>
   <si>
     <t>pd:PaymentCard</t>
@@ -2023,7 +2023,7 @@
     <t>Payment Card Number</t>
   </si>
   <si>
-    <t>Information about payment card number.</t>
+    <t>Information about payment card number</t>
   </si>
   <si>
     <t>pd:PaymentCard,pd:AccountIdentifier</t>
@@ -2077,7 +2077,7 @@
     <t>Personal Possession</t>
   </si>
   <si>
-    <t>Information about personal possessions.</t>
+    <t>Information about personal possessions</t>
   </si>
   <si>
     <t>PhysicalCharacteristic</t>
@@ -2098,7 +2098,7 @@
     <t>Physical Health</t>
   </si>
   <si>
-    <t>Information about physical health.</t>
+    <t>Information about physical health</t>
   </si>
   <si>
     <t>PhysicalTrait</t>
@@ -2107,13 +2107,13 @@
     <t>Physical Trait</t>
   </si>
   <si>
-    <t>Information about defining traits or features regarding the body.</t>
+    <t>Information about defining traits or features regarding the body</t>
   </si>
   <si>
     <t>Picture</t>
   </si>
   <si>
-    <t>Information about visual representation or image e.g. profile photo.</t>
+    <t>Information about visual representation or image e.g. profile photo</t>
   </si>
   <si>
     <t>Piercing</t>
@@ -2128,7 +2128,7 @@
     <t>PIN Code</t>
   </si>
   <si>
-    <t>Information about Personal identification number (PIN), which is usually used in the process of authenticating the individual as an user accessing a system.</t>
+    <t>Information about personal identification number (PIN), which is usually used in the process of authenticating the individual as an user accessing a system</t>
   </si>
   <si>
     <t>Preference</t>
@@ -2200,7 +2200,7 @@
     <t>Individual Profile</t>
   </si>
   <si>
-    <t>Individual Profile or user profile is information and representation of characteristics associated with a specific individual</t>
+    <t>Individual profile or user profile is information and representation of characteristics associated with a specific individual</t>
   </si>
   <si>
     <t>pd:Profile</t>
@@ -2212,7 +2212,7 @@
     <t>Group Profile</t>
   </si>
   <si>
-    <t>Group Profile or category profile is information and representation of characteristics associated with a group or category of individuals</t>
+    <t>Group profile or category profile is information and representation of characteristics associated with a group or category of individuals</t>
   </si>
   <si>
     <t>PublicLife</t>
@@ -2263,7 +2263,7 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>Information about relationships and relationship history.</t>
+    <t>Information about relationships and relationship history</t>
   </si>
   <si>
     <t>Reliability</t>
@@ -2275,7 +2275,7 @@
     <t>Retina</t>
   </si>
   <si>
-    <t>Information about retina and the retinal patterns.</t>
+    <t>Information about retina and the retinal patterns</t>
   </si>
   <si>
     <t>Salary</t>
@@ -2293,7 +2293,7 @@
     <t>School</t>
   </si>
   <si>
-    <t>Information about school such as name of school, conduct, or grades obtained.</t>
+    <t>Information about school such as name of school, conduct, or grades obtained</t>
   </si>
   <si>
     <t>SecretText</t>
@@ -2302,7 +2302,7 @@
     <t>Secret Text</t>
   </si>
   <si>
-    <t>Information about secret text used in the process of authenticating the individual as an user accessing a system, e.g., when recovering a lost password.</t>
+    <t>Information about secret text used in the process of authenticating the individual as an user accessing a system, e.g., when recovering a lost password</t>
   </si>
   <si>
     <t>ServiceConsumptionBehavior</t>
@@ -2311,7 +2311,7 @@
     <t>Service Consumption Behavior</t>
   </si>
   <si>
-    <t>Information about the consumption of a service, e.g. time and duration of consumption.</t>
+    <t>Information about the consumption of a service, e.g. time and duration of consumption</t>
   </si>
   <si>
     <r>
@@ -2354,7 +2354,7 @@
     <t>Sibling</t>
   </si>
   <si>
-    <t>Information about sibling(s).</t>
+    <t>Information about sibling(s)</t>
   </si>
   <si>
     <t>SkinTone</t>
@@ -2372,7 +2372,7 @@
     <t>Social Media Communication</t>
   </si>
   <si>
-    <t>Information about social media communication, including the communication itself and metadata.</t>
+    <t>Information about social media communication, including the communication itself and metadata</t>
   </si>
   <si>
     <t>svd:Social</t>
@@ -2423,7 +2423,7 @@
     <t>Telephone Number</t>
   </si>
   <si>
-    <t>Information about telephone number.</t>
+    <t>Information about telephone number</t>
   </si>
   <si>
     <t>Thought</t>
@@ -2484,7 +2484,7 @@
     <t>UID</t>
   </si>
   <si>
-    <t>Information about unique identifiers.</t>
+    <t>Information about unique identifiers</t>
   </si>
   <si>
     <t>svd:UniqueId</t>
@@ -2502,7 +2502,7 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Information about usernames.</t>
+    <t>Information about usernames</t>
   </si>
   <si>
     <t>VehicalLicenseNumber</t>
@@ -2571,7 +2571,7 @@
     <t>Voice Mail</t>
   </si>
   <si>
-    <t>Information about voice mail messages.</t>
+    <t>Information about voice mail messages</t>
   </si>
   <si>
     <t>Weight</t>
@@ -2688,7 +2688,7 @@
     <t>Philosophical Belief</t>
   </si>
   <si>
-    <t>Information about philosophical beliefs.</t>
+    <t>Information about philosophical beliefs</t>
   </si>
   <si>
     <t>pd:KnowledgeBelief,dpv:SpecialCategoryPersonalData</t>
@@ -2721,7 +2721,7 @@
     <t>Race</t>
   </si>
   <si>
-    <t>Information about race or racial history.</t>
+    <t>Information about race or racial history</t>
   </si>
   <si>
     <t>Religion</t>
@@ -2736,13 +2736,13 @@
     <t>Religious Belief</t>
   </si>
   <si>
-    <t>Information about religion and religious beliefs.</t>
+    <t>Information about religion and religious beliefs</t>
   </si>
   <si>
     <t>Sexual</t>
   </si>
   <si>
-    <t xml:space="preserve">Information about sexuality and sexual history </t>
+    <t>Information about sexuality and sexual history</t>
   </si>
   <si>
     <t>TradeUnionMembership</t>
@@ -2763,7 +2763,7 @@
     <t>Physical Address</t>
   </si>
   <si>
-    <t>Information about physical address.</t>
+    <t>Information about physical address</t>
   </si>
   <si>
     <t>pd:Contact,pd:Location</t>
@@ -2829,7 +2829,7 @@
     <t>Room Number</t>
   </si>
   <si>
-    <t>Information about location expressed as Room number or similar numbering systems</t>
+    <t>Information about location expressed as room number or similar numbering systems</t>
   </si>
   <si>
     <t>dpv:SpecialCategoryPersonalData</t>
@@ -2842,7 +2842,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2955,10 +2955,6 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -3215,17 +3211,17 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="893">
   <si>
     <t>Term</t>
   </si>
@@ -745,9 +745,6 @@
     <t>pd:FinancialAccount</t>
   </si>
   <si>
-    <t>Acquantaince</t>
-  </si>
-  <si>
     <t>Acquaintance</t>
   </si>
   <si>
@@ -757,6 +754,9 @@
     <t>pd:SocialNetwork</t>
   </si>
   <si>
+    <t>Elmar Kiesling; Harshvardhan J. Pandit, Fajar Ekaputra, Arthit Suriyawongkul</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>Information about attitude</t>
   </si>
   <si>
-    <t>pd:Behavioral</t>
+    <t>pd:Behavioural</t>
   </si>
   <si>
     <t>Authenticating</t>
@@ -853,6 +853,9 @@
     </r>
   </si>
   <si>
+    <t>Georg P. Krog, Arthit Suriyawongkul</t>
+  </si>
+  <si>
     <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201104</t>
   </si>
   <si>
@@ -865,10 +868,10 @@
     <t>Information about bank accounts</t>
   </si>
   <si>
-    <t>Behavioral</t>
-  </si>
-  <si>
-    <t>Information about Behavior or activity</t>
+    <t>Behavioural</t>
+  </si>
+  <si>
+    <t>Information about behaviour or activity</t>
   </si>
   <si>
     <t>pd:External</t>
@@ -949,16 +952,19 @@
     <t>Information about and including web browsing history</t>
   </si>
   <si>
-    <t>pd:BrowsingBehavior</t>
-  </si>
-  <si>
-    <t>BrowsingBehavior</t>
-  </si>
-  <si>
-    <t>Browsing Behavior</t>
-  </si>
-  <si>
-    <t>Information about browsing Behavior</t>
+    <t>pd:BrowsingBehaviour</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Arthit Suriyawongkul</t>
+  </si>
+  <si>
+    <t>BrowsingBehaviour</t>
+  </si>
+  <si>
+    <t>Browsing Behaviour</t>
+  </si>
+  <si>
+    <t>Information about browsing behaviour</t>
   </si>
   <si>
     <t>svd:OnlineActivity</t>
@@ -1165,13 +1171,16 @@
     <t>Information about criminal convictions</t>
   </si>
   <si>
-    <t>CriminalOffense</t>
-  </si>
-  <si>
-    <t>Criminal Offense</t>
-  </si>
-  <si>
-    <t>Information about criminal offenses</t>
+    <t>CriminalOffence</t>
+  </si>
+  <si>
+    <t>Criminal Offence</t>
+  </si>
+  <si>
+    <t>Information about criminal offences</t>
+  </si>
+  <si>
+    <t>Georg P. Krog, Harshvardhan J. Pandit, Arthit Suriyawongkul</t>
   </si>
   <si>
     <t>CriminalPardon</t>
@@ -1195,10 +1204,10 @@
     <t>pd:EmploymentHistory</t>
   </si>
   <si>
-    <t>Demeanor</t>
-  </si>
-  <si>
-    <t>Information about demeanor</t>
+    <t>Demeanour</t>
+  </si>
+  <si>
+    <t>Information about demeanour</t>
   </si>
   <si>
     <t>Demographic</t>
@@ -1402,7 +1411,7 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Information about Email address</t>
+    <t>Information about email address</t>
   </si>
   <si>
     <t>pd:Contact</t>
@@ -1414,7 +1423,7 @@
     <t>Email Address Personal</t>
   </si>
   <si>
-    <t>Information about Email address used in Personal capacity</t>
+    <t>Information about email address used in personal capacity</t>
   </si>
   <si>
     <t>pd:EmailAddress</t>
@@ -1426,7 +1435,7 @@
     <t>Email Address Work</t>
   </si>
   <si>
-    <t>Information about Email address used for Work or in Professional capacity</t>
+    <t>Information about email address used for work or in professional capacity</t>
   </si>
   <si>
     <t>EmailContent</t>
@@ -1513,43 +1522,43 @@
     <t>pd:Family</t>
   </si>
   <si>
-    <t>Favorite</t>
-  </si>
-  <si>
-    <t>Information about favorites</t>
+    <t>Favourite</t>
+  </si>
+  <si>
+    <t>Information about favourites</t>
   </si>
   <si>
     <t>pd:Preference</t>
   </si>
   <si>
-    <t>FavoriteColor</t>
-  </si>
-  <si>
-    <t>Favorite Color</t>
-  </si>
-  <si>
-    <t>Information about favorite color</t>
-  </si>
-  <si>
-    <t>pd:Favorite</t>
-  </si>
-  <si>
-    <t>FavoriteFood</t>
-  </si>
-  <si>
-    <t>Favorite Food</t>
-  </si>
-  <si>
-    <t>Information about favorite food</t>
-  </si>
-  <si>
-    <t>FavoriteMusic</t>
-  </si>
-  <si>
-    <t>Favorite Music</t>
-  </si>
-  <si>
-    <t>Information about favorite music</t>
+    <t>FavouriteColour</t>
+  </si>
+  <si>
+    <t>Favourite Colour</t>
+  </si>
+  <si>
+    <t>Information about favourite colour</t>
+  </si>
+  <si>
+    <t>pd:Favourite</t>
+  </si>
+  <si>
+    <t>FavouriteFood</t>
+  </si>
+  <si>
+    <t>Favourite Food</t>
+  </si>
+  <si>
+    <t>Information about favourite food</t>
+  </si>
+  <si>
+    <t>FavouriteMusic</t>
+  </si>
+  <si>
+    <t>Favourite Music</t>
+  </si>
+  <si>
+    <t>Information about favourite music</t>
   </si>
   <si>
     <t>Fetish</t>
@@ -1660,13 +1669,13 @@
     <t>Information about groups and memberships included or associated with a social network</t>
   </si>
   <si>
-    <t>HairColor</t>
-  </si>
-  <si>
-    <t>Hair Color</t>
-  </si>
-  <si>
-    <t>Information about hair color</t>
+    <t>HairColour</t>
+  </si>
+  <si>
+    <t>Hair Colour</t>
+  </si>
+  <si>
+    <t>Information about hair colour</t>
   </si>
   <si>
     <t>Health</t>
@@ -1972,7 +1981,7 @@
     <t>Payment Card</t>
   </si>
   <si>
-    <t>Information about payment card such as Credit Card, Debit Card</t>
+    <t>Information about payment card such as credit and debit cards</t>
   </si>
   <si>
     <r>
@@ -2053,7 +2062,7 @@
     <t>Information about performance at work or within work environments</t>
   </si>
   <si>
-    <t>pd:Behavioral,pd:Professional</t>
+    <t>pd:Behavioural,pd:Professional</t>
   </si>
   <si>
     <t>PersonalDocuments</t>
@@ -2305,10 +2314,10 @@
     <t>Information about secret text used in the process of authenticating the individual as an user accessing a system, e.g., when recovering a lost password</t>
   </si>
   <si>
-    <t>ServiceConsumptionBehavior</t>
-  </si>
-  <si>
-    <t>Service Consumption Behavior</t>
+    <t>ServiceConsumptionBehaviour</t>
+  </si>
+  <si>
+    <t>Service Consumption Behaviour</t>
   </si>
   <si>
     <t>Information about the consumption of a service, e.g. time and duration of consumption</t>
@@ -2327,7 +2336,7 @@
     </r>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Rudy Jacob</t>
+    <t>Harshvardhan J. Pandit, Rudy Jacob, Arthit Suriyawongkul</t>
   </si>
   <si>
     <t>https://www.w3.org/2019/11/26-dpvcg-minutes.html</t>
@@ -2456,16 +2465,16 @@
     <t>Information about travel history</t>
   </si>
   <si>
-    <t>TVViewingBehavior</t>
-  </si>
-  <si>
-    <t>TV Viewing Behavior</t>
-  </si>
-  <si>
-    <t>Information about TV viewing Behavior, such as timestamps of channel change, duration of viewership, content consumed</t>
-  </si>
-  <si>
-    <t>pd:ServiceConsumptionBehavior</t>
+    <t>TVViewingBehaviour</t>
+  </si>
+  <si>
+    <t>TV Viewing Behaviour</t>
+  </si>
+  <si>
+    <t>Information about TV viewing behaviour, such as timestamps of channel change, duration of viewership, content consumed</t>
+  </si>
+  <si>
+    <t>pd:ServiceConsumptionBehaviour</t>
   </si>
   <si>
     <r>
@@ -2553,7 +2562,7 @@
     <t>Information about usage of vehicles, e.g. driving statistics</t>
   </si>
   <si>
-    <t>pd:Vehicle,pd:Behavioral</t>
+    <t>pd:Vehicle,pd:Behavioural</t>
   </si>
   <si>
     <t>VoiceCommunicationRecording</t>
@@ -15732,7 +15741,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="29.88"/>
     <col customWidth="1" min="3" max="3" width="54.25"/>
-    <col customWidth="1" min="4" max="4" width="61.63"/>
+    <col customWidth="1" min="4" max="4" width="22.25"/>
     <col customWidth="1" min="10" max="10" width="67.5"/>
     <col customWidth="1" min="14" max="14" width="62.25"/>
   </cols>
@@ -15888,14 +15897,14 @@
       <c r="A4" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15910,12 +15919,14 @@
       <c r="K4" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M4" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>208</v>
@@ -16141,7 +16152,7 @@
         <v>253</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -16206,12 +16217,14 @@
       <c r="K10" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M10" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>208</v>
@@ -16306,15 +16319,17 @@
       <c r="K12" s="50">
         <v>44139.0</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="51" t="s">
-        <v>19</v>
+      <c r="L12" s="13">
+        <v>45875.0</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -16332,13 +16347,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>231</v>
@@ -16382,23 +16397,23 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -16408,12 +16423,14 @@
       <c r="K14" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M14" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>208</v>
@@ -16434,13 +16451,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>247</v>
@@ -16482,16 +16499,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16530,16 +16547,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16548,7 +16565,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="43">
@@ -16559,7 +16576,7 @@
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -16578,16 +16595,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16628,16 +16645,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16678,16 +16695,16 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
@@ -16700,12 +16717,14 @@
       <c r="K20" s="43">
         <v>44727.0</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M20" s="30" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>216</v>
@@ -16726,13 +16745,13 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>256</v>
@@ -16742,7 +16761,7 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -16752,12 +16771,14 @@
       <c r="K21" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M21" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>208</v>
@@ -16778,16 +16799,16 @@
     </row>
     <row r="22">
       <c r="A22" s="53" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16797,20 +16818,22 @@
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K22" s="50">
         <v>44139.0</v>
       </c>
-      <c r="L22" s="12"/>
+      <c r="L22" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M22" s="51" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N22" s="51" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -16828,13 +16851,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>256</v>
@@ -16852,12 +16875,14 @@
       <c r="K23" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M23" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O23" s="14" t="s">
         <v>208</v>
@@ -16878,16 +16903,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16928,16 +16953,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16978,16 +17003,16 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
@@ -17028,23 +17053,23 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -17080,16 +17105,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
@@ -17130,23 +17155,23 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -17182,16 +17207,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -17232,16 +17257,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -17282,16 +17307,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -17332,16 +17357,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -17382,16 +17407,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -17432,16 +17457,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17482,16 +17507,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17532,16 +17557,16 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
@@ -17582,23 +17607,23 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -17634,16 +17659,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17684,16 +17709,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B40" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17734,16 +17759,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17756,12 +17781,14 @@
       <c r="K41" s="13">
         <v>44856.0</v>
       </c>
-      <c r="L41" s="12"/>
+      <c r="L41" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M41" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="12"/>
@@ -17780,16 +17807,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17830,16 +17857,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17878,13 +17905,13 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>374</v>
+        <v>377</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>256</v>
@@ -17902,12 +17929,14 @@
       <c r="K44" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L44" s="12"/>
+      <c r="L44" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M44" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O44" s="14" t="s">
         <v>208</v>
@@ -17928,16 +17957,16 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17978,16 +18007,16 @@
     </row>
     <row r="46">
       <c r="A46" s="53" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
@@ -17997,7 +18026,7 @@
       <c r="H46" s="49"/>
       <c r="I46" s="49"/>
       <c r="J46" s="26" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K46" s="50">
         <v>44139.0</v>
@@ -18007,10 +18036,10 @@
         <v>19</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O46" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P46" s="49"/>
       <c r="Q46" s="49"/>
@@ -18028,23 +18057,23 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -18080,16 +18109,16 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -18099,7 +18128,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="26" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -18109,10 +18138,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
@@ -18130,16 +18159,16 @@
     </row>
     <row r="49">
       <c r="A49" s="53" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -18149,7 +18178,7 @@
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
       <c r="J49" s="26" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K49" s="50">
         <v>44139.0</v>
@@ -18159,10 +18188,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O49" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P49" s="49"/>
       <c r="Q49" s="49"/>
@@ -18180,13 +18209,13 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>227</v>
@@ -18230,16 +18259,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -18278,16 +18307,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -18328,16 +18357,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -18378,16 +18407,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -18428,16 +18457,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18478,16 +18507,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18528,16 +18557,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18578,16 +18607,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18626,16 +18655,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18674,16 +18703,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>425</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18722,16 +18751,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18772,16 +18801,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18820,16 +18849,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C63" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18868,16 +18897,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18918,13 +18947,13 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>259</v>
@@ -18964,16 +18993,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -19014,16 +19043,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -19064,16 +19093,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -19112,16 +19141,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -19158,16 +19187,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -19208,16 +19237,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -19258,16 +19287,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -19308,16 +19337,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>468</v>
+        <v>471</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -19332,12 +19361,14 @@
       <c r="K73" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L73" s="12"/>
+      <c r="L73" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M73" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O73" s="14" t="s">
         <v>208</v>
@@ -19358,16 +19389,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -19382,12 +19413,14 @@
       <c r="K74" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L74" s="12"/>
+      <c r="L74" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M74" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O74" s="14" t="s">
         <v>208</v>
@@ -19408,16 +19441,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>479</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>474</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19432,12 +19465,14 @@
       <c r="K75" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L75" s="12"/>
+      <c r="L75" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M75" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O75" s="14" t="s">
         <v>208</v>
@@ -19458,16 +19493,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19482,12 +19517,14 @@
       <c r="K76" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L76" s="12"/>
+      <c r="L76" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M76" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O76" s="14" t="s">
         <v>208</v>
@@ -19508,16 +19545,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19558,16 +19595,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19608,16 +19645,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19658,16 +19695,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19706,16 +19743,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19756,16 +19793,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19806,13 +19843,13 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>238</v>
@@ -19856,16 +19893,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19906,16 +19943,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19936,7 +19973,7 @@
         <v>20</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19954,16 +19991,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -20004,16 +20041,16 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
@@ -20054,16 +20091,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -20104,13 +20141,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>521</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>238</v>
@@ -20128,12 +20165,14 @@
       <c r="K89" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L89" s="12"/>
+      <c r="L89" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M89" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O89" s="14" t="s">
         <v>208</v>
@@ -20154,23 +20193,23 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -20206,16 +20245,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -20256,16 +20295,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -20306,13 +20345,13 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>238</v>
@@ -20356,16 +20395,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -20406,16 +20445,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20454,16 +20493,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20502,16 +20541,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20552,16 +20591,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20602,16 +20641,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20652,16 +20691,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20702,16 +20741,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20750,16 +20789,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20800,16 +20839,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20850,16 +20889,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20900,16 +20939,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20950,16 +20989,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -21000,13 +21039,13 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>259</v>
@@ -21050,16 +21089,16 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
@@ -21102,16 +21141,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -21152,16 +21191,16 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
@@ -21202,13 +21241,13 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>256</v>
@@ -21218,7 +21257,7 @@
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
@@ -21228,12 +21267,14 @@
       <c r="K111" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L111" s="12"/>
+      <c r="L111" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M111" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O111" s="14" t="s">
         <v>208</v>
@@ -21254,16 +21295,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -21304,23 +21345,23 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -21356,16 +21397,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -21406,16 +21447,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21456,16 +21497,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21506,16 +21547,16 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
@@ -21556,13 +21597,13 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>259</v>
@@ -21602,16 +21643,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21652,16 +21693,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21698,23 +21739,23 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="B121" s="25" t="s">
-        <v>602</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>598</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -21750,16 +21791,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21800,16 +21841,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21850,16 +21891,16 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21900,16 +21941,16 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21950,16 +21991,16 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21998,16 +22039,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -22048,13 +22089,13 @@
     </row>
     <row r="128">
       <c r="A128" s="53" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B128" s="54" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>231</v>
@@ -22067,7 +22108,7 @@
       <c r="H128" s="49"/>
       <c r="I128" s="49"/>
       <c r="J128" s="26" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K128" s="50">
         <v>44139.0</v>
@@ -22080,7 +22121,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P128" s="49"/>
       <c r="Q128" s="49"/>
@@ -22098,16 +22139,16 @@
     </row>
     <row r="129">
       <c r="A129" s="53" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B129" s="54" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D129" s="51" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -22117,7 +22158,7 @@
       <c r="H129" s="49"/>
       <c r="I129" s="49"/>
       <c r="J129" s="26" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K129" s="50">
         <v>44139.0</v>
@@ -22130,7 +22171,7 @@
         <v>121</v>
       </c>
       <c r="O129" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P129" s="49"/>
       <c r="Q129" s="49"/>
@@ -22148,16 +22189,16 @@
     </row>
     <row r="130">
       <c r="A130" s="53" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B130" s="54" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -22167,7 +22208,7 @@
       <c r="H130" s="49"/>
       <c r="I130" s="49"/>
       <c r="J130" s="26" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K130" s="50">
         <v>44139.0</v>
@@ -22180,7 +22221,7 @@
         <v>121</v>
       </c>
       <c r="O130" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P130" s="49"/>
       <c r="Q130" s="49"/>
@@ -22198,16 +22239,16 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>50</v>
@@ -22220,12 +22261,14 @@
       <c r="K131" s="13">
         <v>44727.0</v>
       </c>
-      <c r="L131" s="12"/>
+      <c r="L131" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M131" s="30" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="O131" s="14" t="s">
         <v>216</v>
@@ -22246,16 +22289,16 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
@@ -22294,13 +22337,13 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>256</v>
@@ -22318,12 +22361,14 @@
       <c r="K133" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L133" s="12"/>
+      <c r="L133" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M133" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O133" s="14" t="s">
         <v>208</v>
@@ -22344,16 +22389,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -22394,23 +22439,23 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -22446,16 +22491,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22496,16 +22541,16 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
@@ -22546,16 +22591,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22596,13 +22641,13 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>238</v>
@@ -22646,16 +22691,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22696,13 +22741,13 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>259</v>
@@ -22712,7 +22757,7 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -22748,16 +22793,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22798,16 +22843,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22848,16 +22893,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22900,16 +22945,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22950,16 +22995,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -23000,16 +23045,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -23050,16 +23095,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -23100,16 +23145,16 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
@@ -23146,16 +23191,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C151" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>689</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>686</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -23192,16 +23237,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -23242,16 +23287,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -23290,23 +23335,23 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
@@ -23342,16 +23387,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -23392,16 +23437,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23442,16 +23487,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23492,13 +23537,13 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>256</v>
@@ -23514,12 +23559,14 @@
       <c r="K158" s="13">
         <v>44727.0</v>
       </c>
-      <c r="L158" s="12"/>
+      <c r="L158" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M158" s="30" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="O158" s="14" t="s">
         <v>216</v>
@@ -23540,16 +23587,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23590,16 +23637,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23640,16 +23687,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23690,16 +23737,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23740,16 +23787,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23790,13 +23837,13 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>256</v>
@@ -23809,20 +23856,22 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="16" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K164" s="13">
         <v>43795.0</v>
       </c>
-      <c r="L164" s="12"/>
+      <c r="L164" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M164" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23840,16 +23889,16 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
@@ -23890,16 +23939,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23940,16 +23989,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23990,13 +24039,13 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>238</v>
@@ -24040,23 +24089,23 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
@@ -24092,16 +24141,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -24140,16 +24189,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -24190,16 +24239,16 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -24240,13 +24289,13 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>238</v>
@@ -24290,16 +24339,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -24340,16 +24389,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -24390,16 +24439,16 @@
     </row>
     <row r="176">
       <c r="A176" s="47" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C176" s="46" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24440,16 +24489,16 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
@@ -24490,16 +24539,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24540,16 +24589,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24588,16 +24637,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24607,20 +24656,22 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="16" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="K180" s="13">
         <v>43795.0</v>
       </c>
-      <c r="L180" s="12"/>
+      <c r="L180" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M180" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24638,23 +24689,23 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="10" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
@@ -24690,16 +24741,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C182" s="59" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24738,16 +24789,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24788,16 +24839,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24836,16 +24887,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C185" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D185" s="10" t="s">
         <v>786</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>783</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24884,16 +24935,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24932,16 +24983,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24980,16 +25031,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -25002,12 +25053,14 @@
       <c r="K188" s="43">
         <v>44727.0</v>
       </c>
-      <c r="L188" s="12"/>
+      <c r="L188" s="13">
+        <v>45875.0</v>
+      </c>
       <c r="M188" s="30" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N188" s="10" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="O188" s="14" t="s">
         <v>216</v>
@@ -25028,16 +25081,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C189" s="47" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -25078,16 +25131,16 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>50</v>
@@ -25128,13 +25181,13 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>238</v>
@@ -25178,16 +25231,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -25226,16 +25279,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -25280,16 +25333,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -25326,16 +25379,16 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C196" s="61" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>50</v>
@@ -25344,7 +25397,7 @@
       <c r="G196" s="60"/>
       <c r="H196" s="60"/>
       <c r="I196" s="30" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="J196" s="60"/>
       <c r="K196" s="43">
@@ -25357,7 +25410,7 @@
         <v>157</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O196" s="60"/>
       <c r="P196" s="60"/>
@@ -25376,16 +25429,16 @@
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C197" s="61" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>50</v>
@@ -25394,7 +25447,7 @@
       <c r="G197" s="60"/>
       <c r="H197" s="60"/>
       <c r="I197" s="30" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="J197" s="60"/>
       <c r="K197" s="43">
@@ -25407,7 +25460,7 @@
         <v>157</v>
       </c>
       <c r="N197" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O197" s="60"/>
       <c r="P197" s="60"/>
@@ -25426,28 +25479,28 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="K198" s="43">
         <v>45402.0</v>
       </c>
       <c r="M198" s="30" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="N198" s="10" t="s">
         <v>20</v>
@@ -25455,28 +25508,28 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K199" s="43">
         <v>45402.0</v>
       </c>
       <c r="M199" s="30" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="N199" s="10" t="s">
         <v>20</v>
@@ -25488,23 +25541,23 @@
     </row>
     <row r="201">
       <c r="A201" s="9" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B201" s="23"/>
       <c r="E201" s="44"/>
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
@@ -25545,16 +25598,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25595,16 +25648,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25645,16 +25698,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25695,23 +25748,23 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
@@ -25747,16 +25800,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B207" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D207" s="10" t="s">
         <v>849</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>846</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25777,7 +25830,7 @@
         <v>20</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25795,16 +25848,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25845,16 +25898,16 @@
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>50</v>
@@ -25895,16 +25948,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25945,16 +25998,16 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>50</v>
@@ -25995,16 +26048,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>50</v>
@@ -26025,7 +26078,7 @@
         <v>20</v>
       </c>
       <c r="O212" s="14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P212" s="12"/>
       <c r="Q212" s="12"/>
@@ -26055,16 +26108,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>50</v>
@@ -26086,7 +26139,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="O214" s="14" t="s">
         <v>208</v>
@@ -26107,16 +26160,16 @@
     </row>
     <row r="215">
       <c r="A215" s="35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B215" s="35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D215" s="35" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E215" s="35" t="s">
         <v>50</v>
@@ -26130,7 +26183,7 @@
       <c r="L215" s="37"/>
       <c r="M215" s="35"/>
       <c r="N215" s="35" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O215" s="37"/>
       <c r="P215" s="37"/>
@@ -26149,16 +26202,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C216" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="D216" s="10" t="s">
         <v>873</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>870</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -26176,7 +26229,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -26195,16 +26248,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -26222,7 +26275,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -26241,16 +26294,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -26268,7 +26321,7 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O218" s="12"/>
       <c r="P218" s="12"/>
@@ -26287,16 +26340,16 @@
     </row>
     <row r="219">
       <c r="A219" s="10" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>50</v>
@@ -26314,7 +26367,7 @@
         <v>19</v>
       </c>
       <c r="N219" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O219" s="12"/>
       <c r="P219" s="12"/>
@@ -26333,16 +26386,16 @@
     </row>
     <row r="220">
       <c r="A220" s="10" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>50</v>
@@ -26360,7 +26413,7 @@
         <v>19</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O220" s="12"/>
       <c r="P220" s="12"/>
@@ -26379,16 +26432,16 @@
     </row>
     <row r="221">
       <c r="A221" s="10" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>50</v>
@@ -26406,7 +26459,7 @@
         <v>19</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="O221" s="12"/>
       <c r="P221" s="12"/>
@@ -26425,16 +26478,16 @@
     </row>
     <row r="222">
       <c r="A222" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>50</v>
@@ -26456,7 +26509,7 @@
         <v>19</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="O222" s="14" t="s">
         <v>208</v>
@@ -29355,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -29373,110 +29426,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="929">
   <si>
     <t>Term</t>
   </si>
@@ -910,6 +910,9 @@
     <t>pd:Location</t>
   </si>
   <si>
+    <t>dpv:PersonalData,dpv:Location</t>
+  </si>
+  <si>
     <t>BirthCountry</t>
   </si>
   <si>
@@ -919,10 +922,7 @@
     <t>Information about country of birth</t>
   </si>
   <si>
-    <t>pd:BirthPlace</t>
-  </si>
-  <si>
-    <t>use pd:BirthCountry</t>
+    <t>pd:BirthPlace,pd:Country</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit, Beatriz Esteves</t>
@@ -1678,6 +1678,9 @@
     <t>Information about location expressed using Global Position System coordinates (GPS)</t>
   </si>
   <si>
+    <t>pd:CurrentLocation</t>
+  </si>
+  <si>
     <t>GroupMembership</t>
   </si>
   <si>
@@ -2730,6 +2733,9 @@
     <t>dpv:Country</t>
   </si>
   <si>
+    <t>use pd:BirthCountry</t>
+  </si>
+  <si>
     <t>Special Categories</t>
   </si>
   <si>
@@ -2914,6 +2920,33 @@
   </si>
   <si>
     <t>Information about location expressed as room number or similar numbering systems</t>
+  </si>
+  <si>
+    <t>HomeLocation</t>
+  </si>
+  <si>
+    <t>Home Place</t>
+  </si>
+  <si>
+    <t>Information about a person's home place, including their location, address, and locality</t>
+  </si>
+  <si>
+    <t>WorkLocation</t>
+  </si>
+  <si>
+    <t>Work Place</t>
+  </si>
+  <si>
+    <t>Information about a person's work place, including their location, address, and locality</t>
+  </si>
+  <si>
+    <t>CurrentLocation</t>
+  </si>
+  <si>
+    <t>Current Location</t>
+  </si>
+  <si>
+    <t>Information about a person's current location (e.g. by asking the address, using GPS)</t>
   </si>
   <si>
     <t>dpv:SpecialCategoryPersonalData</t>
@@ -15835,10 +15868,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="29.88"/>
-    <col customWidth="1" min="3" max="3" width="54.25"/>
+    <col customWidth="1" min="1" max="1" width="29.88"/>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="6.75"/>
     <col customWidth="1" min="4" max="4" width="22.25"/>
-    <col customWidth="1" min="10" max="10" width="67.5"/>
+    <col customWidth="1" min="10" max="10" width="3.38"/>
     <col customWidth="1" min="14" max="14" width="62.25"/>
   </cols>
   <sheetData>
@@ -15902,7 +15936,7 @@
       <c r="D2" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="12"/>
@@ -15952,7 +15986,7 @@
       <c r="D3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="12"/>
@@ -16002,7 +16036,7 @@
       <c r="D4" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="12"/>
@@ -16054,7 +16088,7 @@
       <c r="D5" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="12"/>
@@ -16104,7 +16138,7 @@
       <c r="D6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="12"/>
@@ -16152,7 +16186,7 @@
       <c r="D7" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="12"/>
@@ -16200,7 +16234,7 @@
       <c r="D8" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="12"/>
@@ -16250,7 +16284,7 @@
       <c r="D9" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="12"/>
@@ -16300,7 +16334,7 @@
       <c r="D10" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="12"/>
@@ -16352,7 +16386,7 @@
       <c r="D11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="12"/>
@@ -16402,7 +16436,7 @@
       <c r="D12" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="50"/>
@@ -16454,7 +16488,7 @@
       <c r="D13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="12"/>
@@ -16504,7 +16538,7 @@
       <c r="D14" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
@@ -16558,7 +16592,7 @@
       <c r="D15" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="12"/>
@@ -16606,8 +16640,8 @@
       <c r="D16" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
+      <c r="E16" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -16617,9 +16651,11 @@
       <c r="K16" s="13">
         <v>44671.0</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M16" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>20</v>
@@ -16643,33 +16679,33 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="10" t="s">
-        <v>287</v>
-      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="43">
         <v>45504.0</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="30" t="s">
-        <v>19</v>
+      <c r="L17" s="13">
+        <v>46063.0</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>288</v>
@@ -16702,7 +16738,7 @@
       <c r="D18" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="12"/>
@@ -16752,7 +16788,7 @@
       <c r="D19" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="12"/>
@@ -16802,7 +16838,7 @@
       <c r="D20" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="12"/>
@@ -16852,7 +16888,7 @@
       <c r="D21" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="12"/>
@@ -16906,7 +16942,7 @@
       <c r="D22" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="50"/>
@@ -16958,7 +16994,7 @@
       <c r="D23" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="12"/>
@@ -17010,7 +17046,7 @@
       <c r="D24" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="12"/>
@@ -17060,7 +17096,7 @@
       <c r="D25" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="12"/>
@@ -17110,7 +17146,7 @@
       <c r="D26" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12"/>
@@ -17160,7 +17196,7 @@
       <c r="D27" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="12"/>
@@ -17212,7 +17248,7 @@
       <c r="D28" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="12"/>
@@ -17262,7 +17298,7 @@
       <c r="D29" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F29" s="10"/>
@@ -17314,8 +17350,8 @@
       <c r="D30" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>50</v>
+      <c r="E30" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -17327,9 +17363,11 @@
       <c r="K30" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L30" s="12"/>
+      <c r="L30" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M30" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>111</v>
@@ -17364,7 +17402,7 @@
       <c r="D31" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="12"/>
@@ -17414,7 +17452,7 @@
       <c r="D32" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="12"/>
@@ -17464,7 +17502,7 @@
       <c r="D33" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="12"/>
@@ -17514,7 +17552,7 @@
       <c r="D34" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="12"/>
@@ -17564,7 +17602,7 @@
       <c r="D35" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="12"/>
@@ -17614,7 +17652,7 @@
       <c r="D36" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="12"/>
@@ -17664,7 +17702,7 @@
       <c r="D37" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="12"/>
@@ -17714,7 +17752,7 @@
       <c r="D38" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="12"/>
@@ -17766,7 +17804,7 @@
       <c r="D39" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="12"/>
@@ -17816,7 +17854,7 @@
       <c r="D40" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F40" s="12"/>
@@ -17866,7 +17904,7 @@
       <c r="D41" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="12"/>
@@ -17914,7 +17952,7 @@
       <c r="D42" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F42" s="12"/>
@@ -17964,7 +18002,7 @@
       <c r="D43" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="12"/>
@@ -18012,7 +18050,7 @@
       <c r="D44" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F44" s="12"/>
@@ -18064,7 +18102,7 @@
       <c r="D45" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F45" s="12"/>
@@ -18114,7 +18152,7 @@
       <c r="D46" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="50"/>
@@ -18164,7 +18202,7 @@
       <c r="D47" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="10"/>
@@ -18216,7 +18254,7 @@
       <c r="D48" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="50"/>
@@ -18266,7 +18304,7 @@
       <c r="D49" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="50"/>
@@ -18316,7 +18354,7 @@
       <c r="D50" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="12"/>
@@ -18366,7 +18404,7 @@
       <c r="D51" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="12"/>
@@ -18414,7 +18452,7 @@
       <c r="D52" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="12"/>
@@ -18464,7 +18502,7 @@
       <c r="D53" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="12"/>
@@ -18514,7 +18552,7 @@
       <c r="D54" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="12"/>
@@ -18564,7 +18602,7 @@
       <c r="D55" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F55" s="12"/>
@@ -18614,7 +18652,7 @@
       <c r="D56" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F56" s="12"/>
@@ -18664,7 +18702,7 @@
       <c r="D57" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F57" s="12"/>
@@ -18714,7 +18752,7 @@
       <c r="D58" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F58" s="12"/>
@@ -18762,7 +18800,7 @@
       <c r="D59" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="12"/>
@@ -18810,7 +18848,7 @@
       <c r="D60" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F60" s="12"/>
@@ -18858,7 +18896,7 @@
       <c r="D61" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F61" s="12"/>
@@ -18904,7 +18942,7 @@
       <c r="D62" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F62" s="12"/>
@@ -18954,7 +18992,7 @@
       <c r="D63" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F63" s="12"/>
@@ -19002,7 +19040,7 @@
       <c r="D64" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F64" s="12"/>
@@ -19050,7 +19088,7 @@
       <c r="D65" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F65" s="12"/>
@@ -19100,7 +19138,7 @@
       <c r="D66" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F66" s="12"/>
@@ -19146,7 +19184,7 @@
       <c r="D67" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F67" s="12"/>
@@ -19196,7 +19234,7 @@
       <c r="D68" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F68" s="12"/>
@@ -19246,7 +19284,7 @@
       <c r="D69" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F69" s="12"/>
@@ -19294,7 +19332,7 @@
       <c r="D70" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F70" s="12"/>
@@ -19340,7 +19378,7 @@
       <c r="D71" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F71" s="12"/>
@@ -19390,7 +19428,7 @@
       <c r="D72" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F72" s="12"/>
@@ -19440,7 +19478,7 @@
       <c r="D73" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F73" s="12"/>
@@ -19490,7 +19528,7 @@
       <c r="D74" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F74" s="12"/>
@@ -19542,7 +19580,7 @@
       <c r="D75" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F75" s="12"/>
@@ -19594,7 +19632,7 @@
       <c r="D76" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F76" s="12"/>
@@ -19646,7 +19684,7 @@
       <c r="D77" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F77" s="12"/>
@@ -19698,7 +19736,7 @@
       <c r="D78" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="12"/>
@@ -19748,7 +19786,7 @@
       <c r="D79" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F79" s="12"/>
@@ -19798,7 +19836,7 @@
       <c r="D80" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F80" s="12"/>
@@ -19848,7 +19886,7 @@
       <c r="D81" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F81" s="12"/>
@@ -19896,7 +19934,7 @@
       <c r="D82" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F82" s="12"/>
@@ -19946,7 +19984,7 @@
       <c r="D83" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F83" s="12"/>
@@ -19996,7 +20034,7 @@
       <c r="D84" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F84" s="12"/>
@@ -20046,7 +20084,7 @@
       <c r="D85" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F85" s="12"/>
@@ -20096,7 +20134,7 @@
       <c r="D86" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F86" s="12"/>
@@ -20144,7 +20182,7 @@
       <c r="D87" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="12"/>
@@ -20192,10 +20230,10 @@
         <v>522</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>50</v>
+        <v>523</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
@@ -20207,9 +20245,11 @@
       <c r="K88" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L88" s="12"/>
+      <c r="L88" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M88" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N88" s="10" t="s">
         <v>111</v>
@@ -20233,18 +20273,18 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F89" s="12"/>
@@ -20283,18 +20323,18 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F90" s="12"/>
@@ -20335,23 +20375,23 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -20387,18 +20427,18 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F92" s="12"/>
@@ -20437,18 +20477,18 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F93" s="12"/>
@@ -20487,18 +20527,18 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F94" s="12"/>
@@ -20537,18 +20577,18 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F95" s="12"/>
@@ -20587,18 +20627,18 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F96" s="12"/>
@@ -20635,18 +20675,18 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F97" s="12"/>
@@ -20683,18 +20723,18 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F98" s="12"/>
@@ -20733,18 +20773,18 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F99" s="12"/>
@@ -20783,18 +20823,18 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F100" s="12"/>
@@ -20833,18 +20873,18 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F101" s="12"/>
@@ -20883,18 +20923,18 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F102" s="12"/>
@@ -20931,18 +20971,18 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F103" s="12"/>
@@ -20981,18 +21021,18 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F104" s="12"/>
@@ -21031,18 +21071,18 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F105" s="12"/>
@@ -21081,18 +21121,18 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F106" s="12"/>
@@ -21131,18 +21171,18 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F107" s="12"/>
@@ -21181,18 +21221,18 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="12"/>
@@ -21231,18 +21271,18 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F109" s="12"/>
@@ -21283,18 +21323,18 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="E110" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="12"/>
@@ -21333,18 +21373,18 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="12"/>
@@ -21383,23 +21423,23 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
@@ -21437,18 +21477,18 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F113" s="12"/>
@@ -21487,23 +21527,23 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>50</v>
+      <c r="E114" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -21513,9 +21553,11 @@
       <c r="K114" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L114" s="12"/>
+      <c r="L114" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M114" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>111</v>
@@ -21539,18 +21581,18 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F115" s="12"/>
@@ -21589,18 +21631,18 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F116" s="12"/>
@@ -21639,18 +21681,18 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="12"/>
@@ -21689,18 +21731,18 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="12"/>
@@ -21739,18 +21781,18 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F119" s="12"/>
@@ -21785,18 +21827,18 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E120" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F120" s="12"/>
@@ -21835,18 +21877,18 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F121" s="12"/>
@@ -21881,23 +21923,23 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E122" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -21933,18 +21975,18 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F123" s="12"/>
@@ -21983,18 +22025,18 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F124" s="12"/>
@@ -22033,18 +22075,18 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F125" s="12"/>
@@ -22083,18 +22125,18 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F126" s="12"/>
@@ -22133,18 +22175,18 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="E127" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F127" s="12"/>
@@ -22181,18 +22223,18 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="E128" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F128" s="12"/>
@@ -22231,18 +22273,18 @@
     </row>
     <row r="129">
       <c r="A129" s="54" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C129" s="54" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D129" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F129" s="50"/>
@@ -22250,7 +22292,7 @@
       <c r="H129" s="50"/>
       <c r="I129" s="50"/>
       <c r="J129" s="26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K129" s="51">
         <v>44139.0</v>
@@ -22281,18 +22323,18 @@
     </row>
     <row r="130">
       <c r="A130" s="54" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B130" s="55" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C130" s="52" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D130" s="52" t="s">
-        <v>635</v>
-      </c>
-      <c r="E130" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="E130" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F130" s="50"/>
@@ -22300,7 +22342,7 @@
       <c r="H130" s="50"/>
       <c r="I130" s="50"/>
       <c r="J130" s="26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K130" s="51">
         <v>44139.0</v>
@@ -22331,18 +22373,18 @@
     </row>
     <row r="131">
       <c r="A131" s="54" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B131" s="55" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C131" s="54" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D131" s="52" t="s">
-        <v>640</v>
-      </c>
-      <c r="E131" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F131" s="50"/>
@@ -22350,7 +22392,7 @@
       <c r="H131" s="50"/>
       <c r="I131" s="50"/>
       <c r="J131" s="26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K131" s="51">
         <v>44139.0</v>
@@ -22381,18 +22423,18 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="E132" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="E132" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F132" s="12"/>
@@ -22431,18 +22473,18 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F133" s="12"/>
@@ -22479,18 +22521,18 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F134" s="12"/>
@@ -22531,18 +22573,18 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F135" s="12"/>
@@ -22581,23 +22623,23 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -22633,18 +22675,18 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="12"/>
@@ -22683,18 +22725,18 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F139" s="12"/>
@@ -22733,18 +22775,18 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E140" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E140" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F140" s="12"/>
@@ -22783,18 +22825,18 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F141" s="12"/>
@@ -22833,18 +22875,18 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="E142" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E142" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F142" s="12"/>
@@ -22883,23 +22925,23 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -22935,18 +22977,18 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F144" s="12"/>
@@ -22985,18 +23027,18 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F145" s="12"/>
@@ -23035,18 +23077,18 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F146" s="12"/>
@@ -23087,18 +23129,18 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F147" s="12"/>
@@ -23137,18 +23179,18 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F148" s="12"/>
@@ -23187,18 +23229,18 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F149" s="12"/>
@@ -23237,19 +23279,19 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>692</v>
+      <c r="E150" s="10" t="s">
+        <v>693</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
@@ -23264,7 +23306,7 @@
         <v>19</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O150" s="10"/>
       <c r="P150" s="12"/>
@@ -23283,18 +23325,18 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F151" s="12"/>
@@ -23333,18 +23375,18 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E152" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F152" s="12"/>
@@ -23379,18 +23421,18 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="E153" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F153" s="12"/>
@@ -23425,18 +23467,18 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D154" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F154" s="12"/>
@@ -23471,18 +23513,18 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F155" s="12"/>
@@ -23521,18 +23563,18 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="E156" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E156" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F156" s="12"/>
@@ -23569,23 +23611,23 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -23621,18 +23663,18 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F158" s="12"/>
@@ -23671,18 +23713,18 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="E159" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F159" s="12"/>
@@ -23721,18 +23763,18 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E160" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F160" s="12"/>
@@ -23771,18 +23813,18 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F161" s="12"/>
@@ -23821,18 +23863,18 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F162" s="12"/>
@@ -23871,18 +23913,18 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F163" s="12"/>
@@ -23921,18 +23963,18 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E164" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F164" s="12"/>
@@ -23971,18 +24013,18 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="12"/>
@@ -24021,18 +24063,18 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="E166" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="E166" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F166" s="12"/>
@@ -24071,18 +24113,18 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F167" s="12"/>
@@ -24090,7 +24132,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="16" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K167" s="13">
         <v>43795.0</v>
@@ -24102,10 +24144,10 @@
         <v>157</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -24123,18 +24165,18 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F168" s="12"/>
@@ -24173,18 +24215,18 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F169" s="12"/>
@@ -24223,18 +24265,18 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C170" s="48" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E170" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F170" s="12"/>
@@ -24273,18 +24315,18 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F171" s="12"/>
@@ -24323,23 +24365,23 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C172" s="48" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
@@ -24375,18 +24417,18 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="E173" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E173" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F173" s="12"/>
@@ -24402,7 +24444,7 @@
         <v>19</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O173" s="30"/>
       <c r="P173" s="12"/>
@@ -24421,18 +24463,18 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="E174" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F174" s="12"/>
@@ -24469,18 +24511,18 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F175" s="12"/>
@@ -24519,18 +24561,18 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E176" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F176" s="12"/>
@@ -24569,18 +24611,18 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="12"/>
@@ -24619,18 +24661,18 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="E178" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F178" s="12"/>
@@ -24669,18 +24711,18 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="E179" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E179" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F179" s="12"/>
@@ -24696,7 +24738,7 @@
         <v>19</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O179" s="10"/>
       <c r="P179" s="12"/>
@@ -24715,18 +24757,18 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E180" s="9" t="s">
+      <c r="E180" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F180" s="12"/>
@@ -24765,18 +24807,18 @@
     </row>
     <row r="181">
       <c r="A181" s="48" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B181" s="59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C181" s="47" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="E181" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E181" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F181" s="12"/>
@@ -24815,18 +24857,18 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E182" s="9" t="s">
+      <c r="E182" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F182" s="12"/>
@@ -24865,18 +24907,18 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F183" s="12"/>
@@ -24915,19 +24957,19 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E184" s="9" t="s">
-        <v>50</v>
+      <c r="E184" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -24937,9 +24979,11 @@
       <c r="K184" s="13">
         <v>44671.0</v>
       </c>
-      <c r="L184" s="12"/>
+      <c r="L184" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M184" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N184" s="10" t="s">
         <v>20</v>
@@ -24963,18 +25007,18 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="E185" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="E185" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F185" s="12"/>
@@ -24982,7 +25026,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K185" s="13">
         <v>43795.0</v>
@@ -24994,10 +25038,10 @@
         <v>157</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -25015,23 +25059,23 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E186" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E186" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
@@ -25067,18 +25111,18 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C187" s="60" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D187" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F187" s="61"/>
@@ -25115,18 +25159,18 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E188" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E188" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F188" s="12"/>
@@ -25165,18 +25209,18 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="E189" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="E189" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F189" s="12"/>
@@ -25213,18 +25257,18 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="D190" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F190" s="12"/>
@@ -25261,18 +25305,18 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F191" s="12"/>
@@ -25309,18 +25353,18 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="E192" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E192" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F192" s="12"/>
@@ -25357,18 +25401,18 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="E193" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E193" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F193" s="12"/>
@@ -25407,18 +25451,18 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C194" s="48" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F194" s="12"/>
@@ -25457,18 +25501,18 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F195" s="12"/>
@@ -25507,18 +25551,18 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E196" s="9" t="s">
+      <c r="E196" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F196" s="12"/>
@@ -25557,18 +25601,18 @@
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E197" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F197" s="12"/>
@@ -25605,18 +25649,18 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="E198" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="E198" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F198" s="12"/>
@@ -25632,7 +25676,7 @@
         <v>19</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O198" s="10"/>
       <c r="P198" s="12"/>
@@ -25651,18 +25695,18 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F199" s="12"/>
@@ -25701,22 +25745,21 @@
     </row>
     <row r="200">
       <c r="B200" s="23"/>
-      <c r="E200" s="44"/>
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D201" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F201" s="61"/>
@@ -25751,32 +25794,32 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C202" s="62" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D202" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E202" s="9" t="s">
-        <v>50</v>
+      <c r="E202" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F202" s="61"/>
       <c r="G202" s="61"/>
       <c r="H202" s="61"/>
       <c r="I202" s="30" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J202" s="61"/>
       <c r="K202" s="43">
         <v>45402.0</v>
       </c>
       <c r="L202" s="43">
-        <v>45504.0</v>
+        <v>46063.0</v>
       </c>
       <c r="M202" s="30" t="s">
         <v>157</v>
@@ -25801,32 +25844,32 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C203" s="62" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D203" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E203" s="9" t="s">
-        <v>50</v>
+      <c r="E203" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F203" s="61"/>
       <c r="G203" s="61"/>
       <c r="H203" s="61"/>
       <c r="I203" s="30" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J203" s="61"/>
       <c r="K203" s="43">
         <v>45402.0</v>
       </c>
       <c r="L203" s="43">
-        <v>45504.0</v>
+        <v>46063.0</v>
       </c>
       <c r="M203" s="30" t="s">
         <v>157</v>
@@ -25851,28 +25894,28 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="E204" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E204" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I204" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="K204" s="43">
         <v>45402.0</v>
       </c>
       <c r="M204" s="30" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N204" s="10" t="s">
         <v>20</v>
@@ -25880,28 +25923,28 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="E205" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="E205" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I205" s="10" t="s">
-        <v>287</v>
+        <v>856</v>
       </c>
       <c r="K205" s="43">
         <v>45402.0</v>
       </c>
       <c r="M205" s="30" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N205" s="10" t="s">
         <v>20</v>
@@ -25909,29 +25952,27 @@
     </row>
     <row r="206">
       <c r="B206" s="23"/>
-      <c r="E206" s="44"/>
     </row>
     <row r="207">
       <c r="A207" s="9" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B207" s="23"/>
-      <c r="E207" s="44"/>
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="E208" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="E208" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F208" s="12"/>
@@ -25970,18 +26011,18 @@
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="E209" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="E209" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F209" s="12"/>
@@ -26020,18 +26061,18 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="E210" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="E210" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F210" s="12"/>
@@ -26070,18 +26111,18 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="E211" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="E211" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F211" s="12"/>
@@ -26120,23 +26161,23 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E212" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="E212" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="12" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
@@ -26172,18 +26213,18 @@
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="D213" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E213" s="9" t="s">
+      <c r="E213" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F213" s="12"/>
@@ -26220,18 +26261,18 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="E214" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="E214" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F214" s="12"/>
@@ -26270,18 +26311,18 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E215" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="E215" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F215" s="12"/>
@@ -26320,18 +26361,18 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="E216" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="E216" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F216" s="12"/>
@@ -26370,18 +26411,18 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="E217" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="E217" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F217" s="12"/>
@@ -26420,18 +26461,18 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E218" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="E218" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F218" s="12"/>
@@ -26471,7 +26512,7 @@
       <c r="B219" s="25"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
-      <c r="E219" s="9"/>
+      <c r="E219" s="10"/>
       <c r="J219" s="18"/>
       <c r="K219" s="13"/>
       <c r="M219" s="10"/>
@@ -26480,19 +26521,19 @@
     </row>
     <row r="220">
       <c r="A220" s="10" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>895</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>50</v>
+        <v>897</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
@@ -26505,13 +26546,13 @@
         <v>43620.0</v>
       </c>
       <c r="L220" s="13">
-        <v>45402.0</v>
+        <v>46063.0</v>
       </c>
       <c r="M220" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="O220" s="14" t="s">
         <v>208</v>
@@ -26538,10 +26579,10 @@
         <v>333</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D221" s="35" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E221" s="35" t="s">
         <v>50</v>
@@ -26555,7 +26596,7 @@
       <c r="L221" s="37"/>
       <c r="M221" s="35"/>
       <c r="N221" s="35" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O221" s="37"/>
       <c r="P221" s="37"/>
@@ -26574,19 +26615,19 @@
     </row>
     <row r="222">
       <c r="A222" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="D222" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B222" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>898</v>
-      </c>
       <c r="E222" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
@@ -26596,12 +26637,14 @@
       <c r="K222" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L222" s="12"/>
+      <c r="L222" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M222" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N222" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O222" s="12"/>
       <c r="P222" s="12"/>
@@ -26620,19 +26663,19 @@
     </row>
     <row r="223">
       <c r="A223" s="10" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
@@ -26642,12 +26685,14 @@
       <c r="K223" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L223" s="12"/>
+      <c r="L223" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M223" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N223" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
@@ -26666,19 +26711,19 @@
     </row>
     <row r="224">
       <c r="A224" s="10" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
@@ -26688,12 +26733,14 @@
       <c r="K224" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L224" s="12"/>
+      <c r="L224" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M224" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N224" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O224" s="12"/>
       <c r="P224" s="12"/>
@@ -26712,19 +26759,19 @@
     </row>
     <row r="225">
       <c r="A225" s="10" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
@@ -26734,12 +26781,14 @@
       <c r="K225" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L225" s="12"/>
+      <c r="L225" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M225" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N225" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O225" s="12"/>
       <c r="P225" s="12"/>
@@ -26758,19 +26807,19 @@
     </row>
     <row r="226">
       <c r="A226" s="10" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
@@ -26780,12 +26829,14 @@
       <c r="K226" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L226" s="12"/>
+      <c r="L226" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M226" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N226" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O226" s="12"/>
       <c r="P226" s="12"/>
@@ -26804,19 +26855,19 @@
     </row>
     <row r="227">
       <c r="A227" s="10" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
@@ -26826,12 +26877,14 @@
       <c r="K227" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L227" s="12"/>
+      <c r="L227" s="13">
+        <v>46063.0</v>
+      </c>
       <c r="M227" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O227" s="12"/>
       <c r="P227" s="12"/>
@@ -26850,19 +26903,19 @@
     </row>
     <row r="228">
       <c r="A228" s="10" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
@@ -26875,13 +26928,13 @@
         <v>43620.0</v>
       </c>
       <c r="L228" s="13">
-        <v>45402.0</v>
+        <v>46063.0</v>
       </c>
       <c r="M228" s="10" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="O228" s="14" t="s">
         <v>208</v>
@@ -26904,13 +26957,142 @@
       <c r="B229" s="23"/>
     </row>
     <row r="230">
-      <c r="B230" s="23"/>
+      <c r="A230" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="13">
+        <v>46063.0</v>
+      </c>
+      <c r="L230" s="12"/>
+      <c r="M230" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N230" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O230" s="12"/>
+      <c r="P230" s="12"/>
+      <c r="Q230" s="12"/>
+      <c r="R230" s="12"/>
+      <c r="S230" s="12"/>
+      <c r="T230" s="12"/>
+      <c r="U230" s="12"/>
+      <c r="V230" s="12"/>
+      <c r="W230" s="12"/>
+      <c r="X230" s="12"/>
+      <c r="Y230" s="12"/>
+      <c r="Z230" s="12"/>
+      <c r="AA230" s="12"/>
+      <c r="AB230" s="12"/>
     </row>
     <row r="231">
-      <c r="B231" s="23"/>
+      <c r="A231" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="13">
+        <v>46063.0</v>
+      </c>
+      <c r="L231" s="12"/>
+      <c r="M231" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N231" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O231" s="12"/>
+      <c r="P231" s="12"/>
+      <c r="Q231" s="12"/>
+      <c r="R231" s="12"/>
+      <c r="S231" s="12"/>
+      <c r="T231" s="12"/>
+      <c r="U231" s="12"/>
+      <c r="V231" s="12"/>
+      <c r="W231" s="12"/>
+      <c r="X231" s="12"/>
+      <c r="Y231" s="12"/>
+      <c r="Z231" s="12"/>
+      <c r="AA231" s="12"/>
+      <c r="AB231" s="12"/>
     </row>
     <row r="232">
-      <c r="B232" s="23"/>
+      <c r="A232" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="13">
+        <v>46063.0</v>
+      </c>
+      <c r="L232" s="12"/>
+      <c r="M232" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N232" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O232" s="12"/>
+      <c r="P232" s="12"/>
+      <c r="Q232" s="12"/>
+      <c r="R232" s="12"/>
+      <c r="S232" s="12"/>
+      <c r="T232" s="12"/>
+      <c r="U232" s="12"/>
+      <c r="V232" s="12"/>
+      <c r="W232" s="12"/>
+      <c r="X232" s="12"/>
+      <c r="Y232" s="12"/>
+      <c r="Z232" s="12"/>
+      <c r="AA232" s="12"/>
+      <c r="AB232" s="12"/>
     </row>
     <row r="233">
       <c r="B233" s="23"/>
@@ -29780,7 +29962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -29798,110 +29980,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="13"/>

--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="pd-core" sheetId="3" r:id="rId7"/>
     <sheet state="visible" name="pd-extended" sheetId="4" r:id="rId8"/>
     <sheet state="visible" name="pd-special" sheetId="5" r:id="rId9"/>
-    <sheet state="visible" name="Data_Healthcare" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="data-healthcare" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -3672,7 +3672,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3861,6 +3861,9 @@
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3868,7 +3871,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -3931,6 +3934,18 @@
     </dxf>
     <dxf>
       <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
@@ -33860,8 +33875,8 @@
         <v>46057.0</v>
       </c>
       <c r="L2" s="39"/>
-      <c r="M2" s="38" t="s">
-        <v>58</v>
+      <c r="M2" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N2" s="38" t="s">
         <v>189</v>
@@ -33908,8 +33923,8 @@
         <v>46057.0</v>
       </c>
       <c r="L3" s="39"/>
-      <c r="M3" s="38" t="s">
-        <v>58</v>
+      <c r="M3" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N3" s="38" t="s">
         <v>189</v>
@@ -33956,8 +33971,8 @@
         <v>46057.0</v>
       </c>
       <c r="L4" s="39"/>
-      <c r="M4" s="38" t="s">
-        <v>58</v>
+      <c r="M4" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N4" s="38" t="s">
         <v>189</v>
@@ -34004,8 +34019,8 @@
         <v>46057.0</v>
       </c>
       <c r="L5" s="39"/>
-      <c r="M5" s="38" t="s">
-        <v>58</v>
+      <c r="M5" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>189</v>
@@ -34052,8 +34067,8 @@
         <v>46057.0</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="38" t="s">
-        <v>58</v>
+      <c r="M6" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N6" s="38" t="s">
         <v>189</v>
@@ -34097,9 +34112,9 @@
       <c r="K7" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="38" t="s">
-        <v>58</v>
+      <c r="L7" s="67"/>
+      <c r="M7" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N7" s="38" t="s">
         <v>189</v>
@@ -34145,9 +34160,9 @@
       <c r="K8" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="38" t="s">
-        <v>58</v>
+      <c r="L8" s="67"/>
+      <c r="M8" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>189</v>
@@ -34193,9 +34208,9 @@
       <c r="K9" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="38" t="s">
-        <v>58</v>
+      <c r="L9" s="67"/>
+      <c r="M9" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N9" s="38" t="s">
         <v>189</v>
@@ -34241,9 +34256,9 @@
       <c r="K10" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="38" t="s">
-        <v>58</v>
+      <c r="L10" s="67"/>
+      <c r="M10" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>189</v>
@@ -34290,8 +34305,8 @@
         <v>46057.0</v>
       </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="38" t="s">
-        <v>58</v>
+      <c r="M11" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N11" s="38" t="s">
         <v>189</v>
@@ -34337,9 +34352,9 @@
       <c r="K12" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="38" t="s">
-        <v>58</v>
+      <c r="L12" s="67"/>
+      <c r="M12" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N12" s="38" t="s">
         <v>189</v>
@@ -34386,8 +34401,8 @@
         <v>46057.0</v>
       </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="38" t="s">
-        <v>58</v>
+      <c r="M13" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N13" s="38" t="s">
         <v>189</v>
@@ -34433,9 +34448,9 @@
       <c r="K14" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="38" t="s">
-        <v>58</v>
+      <c r="L14" s="67"/>
+      <c r="M14" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N14" s="38" t="s">
         <v>189</v>
@@ -34482,8 +34497,8 @@
         <v>46057.0</v>
       </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="38" t="s">
-        <v>58</v>
+      <c r="M15" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N15" s="38" t="s">
         <v>189</v>
@@ -34530,8 +34545,8 @@
         <v>46057.0</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="38" t="s">
-        <v>58</v>
+      <c r="M16" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N16" s="38" t="s">
         <v>189</v>
@@ -34578,8 +34593,8 @@
         <v>46057.0</v>
       </c>
       <c r="L17" s="39"/>
-      <c r="M17" s="38" t="s">
-        <v>58</v>
+      <c r="M17" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N17" s="38" t="s">
         <v>189</v>
@@ -34625,9 +34640,9 @@
       <c r="K18" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L18" s="66"/>
-      <c r="M18" s="38" t="s">
-        <v>58</v>
+      <c r="L18" s="67"/>
+      <c r="M18" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N18" s="38" t="s">
         <v>189</v>
@@ -34673,9 +34688,9 @@
       <c r="K19" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L19" s="66"/>
-      <c r="M19" s="38" t="s">
-        <v>58</v>
+      <c r="L19" s="67"/>
+      <c r="M19" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N19" s="38" t="s">
         <v>189</v>
@@ -34721,9 +34736,9 @@
       <c r="K20" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="38" t="s">
-        <v>58</v>
+      <c r="L20" s="67"/>
+      <c r="M20" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N20" s="38" t="s">
         <v>189</v>
@@ -34769,9 +34784,9 @@
       <c r="K21" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="38" t="s">
-        <v>58</v>
+      <c r="L21" s="67"/>
+      <c r="M21" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>189</v>
@@ -34817,9 +34832,9 @@
       <c r="K22" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="38" t="s">
-        <v>58</v>
+      <c r="L22" s="67"/>
+      <c r="M22" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N22" s="38" t="s">
         <v>189</v>
@@ -34866,8 +34881,8 @@
         <v>46057.0</v>
       </c>
       <c r="L23" s="39"/>
-      <c r="M23" s="38" t="s">
-        <v>58</v>
+      <c r="M23" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N23" s="38" t="s">
         <v>189</v>
@@ -34913,9 +34928,9 @@
       <c r="K24" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="38" t="s">
-        <v>58</v>
+      <c r="L24" s="67"/>
+      <c r="M24" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N24" s="38" t="s">
         <v>189</v>
@@ -34961,9 +34976,9 @@
       <c r="K25" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L25" s="66"/>
-      <c r="M25" s="38" t="s">
-        <v>58</v>
+      <c r="L25" s="67"/>
+      <c r="M25" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>189</v>
@@ -35010,8 +35025,8 @@
         <v>46057.0</v>
       </c>
       <c r="L26" s="39"/>
-      <c r="M26" s="38" t="s">
-        <v>58</v>
+      <c r="M26" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>189</v>
@@ -35057,9 +35072,9 @@
       <c r="K27" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="38" t="s">
-        <v>58</v>
+      <c r="L27" s="67"/>
+      <c r="M27" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N27" s="38" t="s">
         <v>189</v>
@@ -35106,8 +35121,8 @@
         <v>46057.0</v>
       </c>
       <c r="L28" s="39"/>
-      <c r="M28" s="38" t="s">
-        <v>58</v>
+      <c r="M28" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N28" s="38" t="s">
         <v>189</v>
@@ -35153,9 +35168,9 @@
       <c r="K29" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L29" s="66"/>
-      <c r="M29" s="38" t="s">
-        <v>58</v>
+      <c r="L29" s="67"/>
+      <c r="M29" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>189</v>
@@ -35202,8 +35217,8 @@
         <v>46057.0</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="38" t="s">
-        <v>58</v>
+      <c r="M30" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N30" s="38" t="s">
         <v>189</v>
@@ -35250,8 +35265,8 @@
         <v>46057.0</v>
       </c>
       <c r="L31" s="39"/>
-      <c r="M31" s="38" t="s">
-        <v>58</v>
+      <c r="M31" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N31" s="38" t="s">
         <v>189</v>
@@ -35298,8 +35313,8 @@
         <v>46057.0</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="38" t="s">
-        <v>58</v>
+      <c r="M32" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N32" s="38" t="s">
         <v>189</v>
@@ -35345,9 +35360,9 @@
       <c r="K33" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L33" s="66"/>
-      <c r="M33" s="38" t="s">
-        <v>58</v>
+      <c r="L33" s="67"/>
+      <c r="M33" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N33" s="38" t="s">
         <v>189</v>
@@ -35393,9 +35408,9 @@
       <c r="K34" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L34" s="66"/>
-      <c r="M34" s="38" t="s">
-        <v>58</v>
+      <c r="L34" s="67"/>
+      <c r="M34" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N34" s="38" t="s">
         <v>189</v>
@@ -35441,9 +35456,9 @@
       <c r="K35" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L35" s="66"/>
-      <c r="M35" s="38" t="s">
-        <v>58</v>
+      <c r="L35" s="67"/>
+      <c r="M35" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N35" s="38" t="s">
         <v>189</v>
@@ -35489,9 +35504,9 @@
       <c r="K36" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L36" s="66"/>
-      <c r="M36" s="38" t="s">
-        <v>58</v>
+      <c r="L36" s="67"/>
+      <c r="M36" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N36" s="38" t="s">
         <v>189</v>
@@ -35537,9 +35552,9 @@
       <c r="K37" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L37" s="66"/>
-      <c r="M37" s="38" t="s">
-        <v>58</v>
+      <c r="L37" s="67"/>
+      <c r="M37" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N37" s="38" t="s">
         <v>189</v>
@@ -35585,9 +35600,9 @@
       <c r="K38" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L38" s="66"/>
-      <c r="M38" s="38" t="s">
-        <v>58</v>
+      <c r="L38" s="67"/>
+      <c r="M38" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N38" s="38" t="s">
         <v>189</v>
@@ -35633,9 +35648,9 @@
       <c r="K39" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L39" s="66"/>
-      <c r="M39" s="38" t="s">
-        <v>58</v>
+      <c r="L39" s="67"/>
+      <c r="M39" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N39" s="38" t="s">
         <v>189</v>
@@ -35681,9 +35696,9 @@
       <c r="K40" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="38" t="s">
-        <v>58</v>
+      <c r="L40" s="67"/>
+      <c r="M40" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N40" s="38" t="s">
         <v>189</v>
@@ -35729,9 +35744,9 @@
       <c r="K41" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L41" s="66"/>
-      <c r="M41" s="38" t="s">
-        <v>58</v>
+      <c r="L41" s="67"/>
+      <c r="M41" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N41" s="38" t="s">
         <v>189</v>
@@ -35777,9 +35792,9 @@
       <c r="K42" s="40">
         <v>46057.0</v>
       </c>
-      <c r="L42" s="66"/>
-      <c r="M42" s="38" t="s">
-        <v>58</v>
+      <c r="L42" s="67"/>
+      <c r="M42" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N42" s="38" t="s">
         <v>189</v>
@@ -35824,8 +35839,8 @@
         <v>45958.0</v>
       </c>
       <c r="L43" s="39"/>
-      <c r="M43" s="38" t="s">
-        <v>58</v>
+      <c r="M43" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N43" s="38" t="s">
         <v>189</v>
@@ -35872,8 +35887,8 @@
         <v>45958.0</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="38" t="s">
-        <v>58</v>
+      <c r="M44" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N44" s="38" t="s">
         <v>189</v>
@@ -35920,8 +35935,8 @@
         <v>45958.0</v>
       </c>
       <c r="L45" s="39"/>
-      <c r="M45" s="38" t="s">
-        <v>58</v>
+      <c r="M45" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N45" s="38" t="s">
         <v>189</v>
@@ -35968,8 +35983,8 @@
         <v>45958.0</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="38" t="s">
-        <v>58</v>
+      <c r="M46" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N46" s="38" t="s">
         <v>189</v>
@@ -36016,8 +36031,8 @@
         <v>45958.0</v>
       </c>
       <c r="L47" s="39"/>
-      <c r="M47" s="38" t="s">
-        <v>58</v>
+      <c r="M47" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N47" s="38" t="s">
         <v>189</v>
@@ -36064,8 +36079,8 @@
         <v>45958.0</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="38" t="s">
-        <v>58</v>
+      <c r="M48" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N48" s="38" t="s">
         <v>189</v>
@@ -36112,8 +36127,8 @@
         <v>45958.0</v>
       </c>
       <c r="L49" s="39"/>
-      <c r="M49" s="38" t="s">
-        <v>58</v>
+      <c r="M49" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N49" s="38" t="s">
         <v>189</v>
@@ -36160,8 +36175,8 @@
         <v>45958.0</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="38" t="s">
-        <v>58</v>
+      <c r="M50" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N50" s="38" t="s">
         <v>189</v>
@@ -36208,8 +36223,8 @@
         <v>45958.0</v>
       </c>
       <c r="L51" s="39"/>
-      <c r="M51" s="38" t="s">
-        <v>58</v>
+      <c r="M51" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="N51" s="38" t="s">
         <v>189</v>
@@ -36232,9 +36247,9 @@
       <c r="AD51" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+  <conditionalFormatting sqref="A1:AD500">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$M1="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
